--- a/product_data/processing_metadata/C5/PIG_meta.xlsx
+++ b/product_data/processing_metadata/C5/PIG_meta.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kabaldry\OneDrive - University of Tasmania\Documents\Projects\BIO-MATE\BIO-MATE\product_data\processing_metadata\C5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C5/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4EEF73-6695-4C55-AB0C-5AB074BE5202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B7D7ACF3-C0AE-4A67-A41D-E2D748D3A5A0}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{B7D7ACF3-C0AE-4A67-A41D-E2D748D3A5A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1602,8 +1603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F66F91E-37FF-4E13-8317-A8978462FC2B}">
   <dimension ref="A1:BU51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/product_data/processing_metadata/C5/PIG_meta.xlsx
+++ b/product_data/processing_metadata/C5/PIG_meta.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4EEF73-6695-4C55-AB0C-5AB074BE5202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{A0C56D46-583C-47FA-9912-0986EC17F7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58E8CBF6-E398-4E6E-AA19-1F37BE192EFF}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{B7D7ACF3-C0AE-4A67-A41D-E2D748D3A5A0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7D7ACF3-C0AE-4A67-A41D-E2D748D3A5A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="394">
   <si>
     <t>353L20070114</t>
   </si>
@@ -85,9 +84,6 @@
     <t>49NZ20040127</t>
   </si>
   <si>
-    <t>49NZ20121127</t>
-  </si>
-  <si>
     <t>49NZ20130105</t>
   </si>
   <si>
@@ -865,9 +861,6 @@
     <t>E:/Data_downloads/GLODAP/227</t>
   </si>
   <si>
-    <t>E:/Data_downloads/GLODAP/276</t>
-  </si>
-  <si>
     <t>E:/Data_downloads/GLODAP/345</t>
   </si>
   <si>
@@ -976,9 +969,6 @@
     <t>steph.devilliers@gmail.com</t>
   </si>
   <si>
-    <t>E:/Data_downloads/PANGEAE/91AH20140402/chl</t>
-  </si>
-  <si>
     <t>Department of Environmental Affairs</t>
   </si>
   <si>
@@ -1208,6 +1198,24 @@
   </si>
   <si>
     <t>bb-Car</t>
+  </si>
+  <si>
+    <t>E:/Data_downloads/PANGEAE/91AH20140402/ctd</t>
+  </si>
+  <si>
+    <t>49NZ20121128</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Station</t>
+  </si>
+  <si>
+    <t>Year-Month-Day</t>
+  </si>
+  <si>
+    <t>E:/Data_downloads/GLODAP/279</t>
   </si>
 </sst>
 </file>
@@ -1603,1523 +1611,1523 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F66F91E-37FF-4E13-8317-A8978462FC2B}">
   <dimension ref="A1:BU51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:73">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>37</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>38</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>39</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>40</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>42</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>43</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>44</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>45</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>46</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>47</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>48</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>50</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>51</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>52</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>53</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>54</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>55</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>56</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>57</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>58</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>59</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>60</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>61</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>62</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>63</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>64</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>65</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>66</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>67</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>68</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>69</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>70</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>71</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>72</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>73</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>74</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>75</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>76</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>77</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>78</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>79</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>80</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>81</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>82</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>83</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>84</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>85</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>86</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>87</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>88</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>89</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>90</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>91</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>92</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>93</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>94</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>95</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>96</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>97</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:73">
       <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
         <v>99</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>100</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>101</v>
-      </c>
-      <c r="D2" t="s">
-        <v>102</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
       <c r="F2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" t="s">
         <v>103</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>104</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>105</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>106</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>107</v>
       </c>
-      <c r="K2" t="s">
+      <c r="O2" t="s">
         <v>108</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>109</v>
       </c>
-      <c r="P2" t="s">
+      <c r="T2" t="s">
         <v>110</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>111</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>112</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>113</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>114</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>115</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>116</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>117</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
         <v>118</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AK2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL2" t="s">
         <v>119</v>
       </c>
-      <c r="AK2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL2" t="s">
+      <c r="AN2" t="s">
         <v>120</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY2" t="s">
         <v>121</v>
       </c>
-      <c r="AO2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY2" t="s">
+      <c r="AZ2" t="s">
         <v>122</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BA2" t="s">
         <v>123</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BB2" t="s">
         <v>124</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BC2" t="s">
         <v>125</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BD2" t="s">
         <v>126</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BE2" t="s">
         <v>127</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BF2" t="s">
         <v>128</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BH2" t="s">
         <v>129</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BI2" t="s">
         <v>130</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BJ2" t="s">
         <v>131</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BK2" t="s">
         <v>132</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BN2" t="s">
         <v>133</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BO2" t="s">
         <v>134</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BP2" t="s">
         <v>135</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BT2" t="s">
         <v>136</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:73">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
         <v>101</v>
-      </c>
-      <c r="D3" t="s">
-        <v>102</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
       </c>
       <c r="F3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" t="s">
         <v>103</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>104</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>105</v>
       </c>
-      <c r="I3" t="s">
-        <v>106</v>
-      </c>
       <c r="J3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K3" t="s">
         <v>139</v>
       </c>
-      <c r="K3" t="s">
-        <v>140</v>
-      </c>
       <c r="O3" t="s">
+        <v>108</v>
+      </c>
+      <c r="P3" t="s">
         <v>109</v>
       </c>
-      <c r="P3" t="s">
+      <c r="T3" t="s">
         <v>110</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>111</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>112</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>113</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>114</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>115</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>116</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>117</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AD3" t="s">
         <v>118</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AK3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL3" t="s">
         <v>119</v>
       </c>
-      <c r="AK3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL3" t="s">
+      <c r="AN3" t="s">
         <v>120</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AO3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY3" t="s">
         <v>121</v>
       </c>
-      <c r="AO3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY3" t="s">
+      <c r="AZ3" t="s">
         <v>122</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BA3" t="s">
         <v>123</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BB3" t="s">
         <v>124</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BC3" t="s">
         <v>125</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BD3" t="s">
         <v>126</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BE3" t="s">
         <v>127</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BF3" t="s">
         <v>128</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BH3" t="s">
         <v>129</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BI3" t="s">
         <v>130</v>
       </c>
-      <c r="BI3" t="s">
+      <c r="BJ3" t="s">
         <v>131</v>
       </c>
-      <c r="BJ3" t="s">
+      <c r="BK3" t="s">
         <v>132</v>
       </c>
-      <c r="BK3" t="s">
+      <c r="BN3" t="s">
         <v>133</v>
       </c>
-      <c r="BN3" t="s">
+      <c r="BO3" t="s">
         <v>134</v>
       </c>
-      <c r="BO3" t="s">
+      <c r="BP3" t="s">
         <v>135</v>
       </c>
-      <c r="BP3" t="s">
+      <c r="BT3" t="s">
         <v>136</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:73">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
         <v>101</v>
-      </c>
-      <c r="D4" t="s">
-        <v>102</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
       <c r="F4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" t="s">
         <v>103</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>104</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>105</v>
       </c>
-      <c r="I4" t="s">
-        <v>106</v>
-      </c>
       <c r="J4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K4" t="s">
         <v>142</v>
       </c>
-      <c r="K4" t="s">
-        <v>143</v>
-      </c>
       <c r="O4" t="s">
+        <v>108</v>
+      </c>
+      <c r="P4" t="s">
         <v>109</v>
       </c>
-      <c r="P4" t="s">
+      <c r="T4" t="s">
         <v>110</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>111</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>112</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>113</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>114</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>115</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>116</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>117</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AD4" t="s">
         <v>118</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AK4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL4" t="s">
         <v>119</v>
       </c>
-      <c r="AK4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL4" t="s">
+      <c r="AN4" t="s">
         <v>120</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AO4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY4" t="s">
         <v>121</v>
       </c>
-      <c r="AO4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY4" t="s">
+      <c r="AZ4" t="s">
         <v>122</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BA4" t="s">
         <v>123</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BB4" t="s">
         <v>124</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BC4" t="s">
         <v>125</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BD4" t="s">
         <v>126</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BE4" t="s">
         <v>127</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BF4" t="s">
         <v>128</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BH4" t="s">
         <v>129</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BI4" t="s">
         <v>130</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BJ4" t="s">
         <v>131</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BK4" t="s">
         <v>132</v>
       </c>
-      <c r="BK4" t="s">
+      <c r="BN4" t="s">
         <v>133</v>
       </c>
-      <c r="BN4" t="s">
+      <c r="BO4" t="s">
         <v>134</v>
       </c>
-      <c r="BO4" t="s">
+      <c r="BP4" t="s">
         <v>135</v>
       </c>
-      <c r="BP4" t="s">
+      <c r="BT4" t="s">
         <v>136</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:73">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
         <v>101</v>
-      </c>
-      <c r="D5" t="s">
-        <v>102</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
       </c>
       <c r="F5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" t="s">
         <v>103</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>104</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>105</v>
       </c>
-      <c r="I5" t="s">
-        <v>106</v>
-      </c>
       <c r="J5" t="s">
+        <v>144</v>
+      </c>
+      <c r="K5" t="s">
         <v>145</v>
       </c>
-      <c r="K5" t="s">
-        <v>146</v>
-      </c>
       <c r="O5" t="s">
+        <v>108</v>
+      </c>
+      <c r="P5" t="s">
         <v>109</v>
       </c>
-      <c r="P5" t="s">
+      <c r="T5" t="s">
         <v>110</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>111</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>112</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>113</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>114</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>115</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>116</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>117</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AD5" t="s">
         <v>118</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AK5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL5" t="s">
         <v>119</v>
       </c>
-      <c r="AK5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL5" t="s">
+      <c r="AN5" t="s">
         <v>120</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AO5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY5" t="s">
         <v>121</v>
       </c>
-      <c r="AO5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY5" t="s">
+      <c r="AZ5" t="s">
         <v>122</v>
       </c>
-      <c r="AZ5" t="s">
+      <c r="BA5" t="s">
         <v>123</v>
       </c>
-      <c r="BA5" t="s">
+      <c r="BB5" t="s">
         <v>124</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BC5" t="s">
         <v>125</v>
       </c>
-      <c r="BC5" t="s">
+      <c r="BD5" t="s">
         <v>126</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="BE5" t="s">
         <v>127</v>
       </c>
-      <c r="BE5" t="s">
+      <c r="BF5" t="s">
         <v>128</v>
       </c>
-      <c r="BF5" t="s">
+      <c r="BH5" t="s">
         <v>129</v>
       </c>
-      <c r="BH5" t="s">
+      <c r="BI5" t="s">
         <v>130</v>
       </c>
-      <c r="BI5" t="s">
+      <c r="BJ5" t="s">
         <v>131</v>
       </c>
-      <c r="BJ5" t="s">
+      <c r="BK5" t="s">
         <v>132</v>
       </c>
-      <c r="BK5" t="s">
+      <c r="BN5" t="s">
         <v>133</v>
       </c>
-      <c r="BN5" t="s">
+      <c r="BO5" t="s">
         <v>134</v>
       </c>
-      <c r="BO5" t="s">
+      <c r="BP5" t="s">
         <v>135</v>
       </c>
-      <c r="BP5" t="s">
+      <c r="BT5" t="s">
         <v>136</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:73">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
         <v>101</v>
-      </c>
-      <c r="D6" t="s">
-        <v>102</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" t="s">
         <v>103</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>104</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>105</v>
       </c>
-      <c r="I6" t="s">
-        <v>106</v>
-      </c>
       <c r="J6" t="s">
+        <v>147</v>
+      </c>
+      <c r="K6" t="s">
         <v>148</v>
       </c>
-      <c r="K6" t="s">
-        <v>149</v>
-      </c>
       <c r="O6" t="s">
+        <v>108</v>
+      </c>
+      <c r="P6" t="s">
         <v>109</v>
       </c>
-      <c r="P6" t="s">
+      <c r="T6" t="s">
         <v>110</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>111</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>112</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>113</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>114</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>115</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>116</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>117</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AD6" t="s">
         <v>118</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AK6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL6" t="s">
         <v>119</v>
       </c>
-      <c r="AK6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL6" t="s">
+      <c r="AN6" t="s">
         <v>120</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AO6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY6" t="s">
         <v>121</v>
       </c>
-      <c r="AO6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY6" t="s">
+      <c r="AZ6" t="s">
         <v>122</v>
       </c>
-      <c r="AZ6" t="s">
+      <c r="BA6" t="s">
         <v>123</v>
       </c>
-      <c r="BA6" t="s">
+      <c r="BB6" t="s">
         <v>124</v>
       </c>
-      <c r="BB6" t="s">
+      <c r="BC6" t="s">
         <v>125</v>
       </c>
-      <c r="BC6" t="s">
+      <c r="BD6" t="s">
         <v>126</v>
       </c>
-      <c r="BD6" t="s">
+      <c r="BE6" t="s">
         <v>127</v>
       </c>
-      <c r="BE6" t="s">
+      <c r="BF6" t="s">
         <v>128</v>
       </c>
-      <c r="BF6" t="s">
+      <c r="BH6" t="s">
         <v>129</v>
       </c>
-      <c r="BH6" t="s">
+      <c r="BI6" t="s">
         <v>130</v>
       </c>
-      <c r="BI6" t="s">
+      <c r="BJ6" t="s">
         <v>131</v>
       </c>
-      <c r="BJ6" t="s">
+      <c r="BK6" t="s">
         <v>132</v>
       </c>
-      <c r="BK6" t="s">
+      <c r="BN6" t="s">
         <v>133</v>
       </c>
-      <c r="BN6" t="s">
+      <c r="BO6" t="s">
         <v>134</v>
       </c>
-      <c r="BO6" t="s">
+      <c r="BP6" t="s">
         <v>135</v>
       </c>
-      <c r="BP6" t="s">
+      <c r="BT6" t="s">
         <v>136</v>
-      </c>
-      <c r="BT6" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:73">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
         <v>101</v>
-      </c>
-      <c r="D7" t="s">
-        <v>102</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
       </c>
       <c r="F7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" t="s">
         <v>103</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>104</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>105</v>
       </c>
-      <c r="I7" t="s">
-        <v>106</v>
-      </c>
       <c r="J7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K7" t="s">
         <v>151</v>
       </c>
-      <c r="K7" t="s">
-        <v>152</v>
-      </c>
       <c r="O7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P7" t="s">
         <v>109</v>
       </c>
-      <c r="P7" t="s">
+      <c r="T7" t="s">
         <v>110</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>111</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>112</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>113</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>114</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>115</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>116</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>117</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AD7" t="s">
         <v>118</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AK7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL7" t="s">
         <v>119</v>
       </c>
-      <c r="AK7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL7" t="s">
+      <c r="AN7" t="s">
         <v>120</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AO7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY7" t="s">
         <v>121</v>
       </c>
-      <c r="AO7" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY7" t="s">
+      <c r="AZ7" t="s">
         <v>122</v>
       </c>
-      <c r="AZ7" t="s">
+      <c r="BA7" t="s">
         <v>123</v>
       </c>
-      <c r="BA7" t="s">
+      <c r="BB7" t="s">
         <v>124</v>
       </c>
-      <c r="BB7" t="s">
+      <c r="BC7" t="s">
         <v>125</v>
       </c>
-      <c r="BC7" t="s">
+      <c r="BD7" t="s">
         <v>126</v>
       </c>
-      <c r="BD7" t="s">
+      <c r="BE7" t="s">
         <v>127</v>
       </c>
-      <c r="BE7" t="s">
+      <c r="BF7" t="s">
         <v>128</v>
       </c>
-      <c r="BF7" t="s">
+      <c r="BH7" t="s">
         <v>129</v>
       </c>
-      <c r="BH7" t="s">
+      <c r="BI7" t="s">
         <v>130</v>
       </c>
-      <c r="BI7" t="s">
+      <c r="BJ7" t="s">
         <v>131</v>
       </c>
-      <c r="BJ7" t="s">
+      <c r="BK7" t="s">
         <v>132</v>
       </c>
-      <c r="BK7" t="s">
+      <c r="BN7" t="s">
         <v>133</v>
       </c>
-      <c r="BN7" t="s">
+      <c r="BO7" t="s">
         <v>134</v>
       </c>
-      <c r="BO7" t="s">
+      <c r="BP7" t="s">
         <v>135</v>
       </c>
-      <c r="BP7" t="s">
+      <c r="BT7" t="s">
         <v>136</v>
-      </c>
-      <c r="BT7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:73">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
         <v>101</v>
-      </c>
-      <c r="D8" t="s">
-        <v>102</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
       </c>
       <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
         <v>103</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>104</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>105</v>
       </c>
-      <c r="I8" t="s">
-        <v>106</v>
-      </c>
       <c r="J8" t="s">
+        <v>153</v>
+      </c>
+      <c r="K8" t="s">
         <v>154</v>
       </c>
-      <c r="K8" t="s">
-        <v>155</v>
-      </c>
       <c r="O8" t="s">
+        <v>108</v>
+      </c>
+      <c r="P8" t="s">
         <v>109</v>
       </c>
-      <c r="P8" t="s">
+      <c r="T8" t="s">
         <v>110</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>111</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>112</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>113</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>114</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>115</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>116</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>117</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AD8" t="s">
         <v>118</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AK8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL8" t="s">
         <v>119</v>
       </c>
-      <c r="AK8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL8" t="s">
+      <c r="AN8" t="s">
         <v>120</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AO8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY8" t="s">
         <v>121</v>
       </c>
-      <c r="AO8" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY8" t="s">
+      <c r="AZ8" t="s">
         <v>122</v>
       </c>
-      <c r="AZ8" t="s">
+      <c r="BA8" t="s">
         <v>123</v>
       </c>
-      <c r="BA8" t="s">
+      <c r="BB8" t="s">
         <v>124</v>
       </c>
-      <c r="BB8" t="s">
+      <c r="BC8" t="s">
         <v>125</v>
       </c>
-      <c r="BC8" t="s">
+      <c r="BD8" t="s">
         <v>126</v>
       </c>
-      <c r="BD8" t="s">
+      <c r="BE8" t="s">
         <v>127</v>
       </c>
-      <c r="BE8" t="s">
+      <c r="BF8" t="s">
         <v>128</v>
       </c>
-      <c r="BF8" t="s">
+      <c r="BH8" t="s">
         <v>129</v>
       </c>
-      <c r="BH8" t="s">
+      <c r="BI8" t="s">
         <v>130</v>
       </c>
-      <c r="BI8" t="s">
+      <c r="BJ8" t="s">
         <v>131</v>
       </c>
-      <c r="BJ8" t="s">
+      <c r="BK8" t="s">
         <v>132</v>
       </c>
-      <c r="BK8" t="s">
+      <c r="BN8" t="s">
         <v>133</v>
       </c>
-      <c r="BN8" t="s">
+      <c r="BO8" t="s">
         <v>134</v>
       </c>
-      <c r="BO8" t="s">
+      <c r="BP8" t="s">
         <v>135</v>
       </c>
-      <c r="BP8" t="s">
+      <c r="BT8" t="s">
         <v>136</v>
-      </c>
-      <c r="BT8" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:73">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
         <v>101</v>
-      </c>
-      <c r="D9" t="s">
-        <v>102</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
       <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
         <v>103</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>104</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>105</v>
       </c>
-      <c r="I9" t="s">
-        <v>106</v>
-      </c>
       <c r="J9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K9" t="s">
         <v>157</v>
       </c>
-      <c r="K9" t="s">
-        <v>158</v>
-      </c>
       <c r="O9" t="s">
+        <v>108</v>
+      </c>
+      <c r="P9" t="s">
         <v>109</v>
       </c>
-      <c r="P9" t="s">
+      <c r="T9" t="s">
         <v>110</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>111</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>112</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>113</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>114</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>115</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>116</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>117</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AD9" t="s">
         <v>118</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AK9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL9" t="s">
         <v>119</v>
       </c>
-      <c r="AK9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL9" t="s">
+      <c r="AN9" t="s">
         <v>120</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="AO9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY9" t="s">
         <v>121</v>
       </c>
-      <c r="AO9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW9" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY9" t="s">
+      <c r="AZ9" t="s">
         <v>122</v>
       </c>
-      <c r="AZ9" t="s">
+      <c r="BA9" t="s">
         <v>123</v>
       </c>
-      <c r="BA9" t="s">
+      <c r="BB9" t="s">
         <v>124</v>
       </c>
-      <c r="BB9" t="s">
+      <c r="BC9" t="s">
         <v>125</v>
       </c>
-      <c r="BC9" t="s">
+      <c r="BD9" t="s">
         <v>126</v>
       </c>
-      <c r="BD9" t="s">
+      <c r="BE9" t="s">
         <v>127</v>
       </c>
-      <c r="BE9" t="s">
+      <c r="BF9" t="s">
         <v>128</v>
       </c>
-      <c r="BF9" t="s">
+      <c r="BH9" t="s">
         <v>129</v>
       </c>
-      <c r="BH9" t="s">
+      <c r="BI9" t="s">
         <v>130</v>
       </c>
-      <c r="BI9" t="s">
+      <c r="BJ9" t="s">
         <v>131</v>
       </c>
-      <c r="BJ9" t="s">
+      <c r="BK9" t="s">
         <v>132</v>
       </c>
-      <c r="BK9" t="s">
+      <c r="BN9" t="s">
         <v>133</v>
       </c>
-      <c r="BN9" t="s">
+      <c r="BO9" t="s">
         <v>134</v>
       </c>
-      <c r="BO9" t="s">
+      <c r="BP9" t="s">
         <v>135</v>
       </c>
-      <c r="BP9" t="s">
+      <c r="BT9" t="s">
         <v>136</v>
-      </c>
-      <c r="BT9" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:73">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
         <v>101</v>
-      </c>
-      <c r="D10" t="s">
-        <v>102</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
         <v>103</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>104</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>105</v>
       </c>
-      <c r="I10" t="s">
-        <v>106</v>
-      </c>
       <c r="J10" t="s">
+        <v>159</v>
+      </c>
+      <c r="K10" t="s">
         <v>160</v>
       </c>
-      <c r="K10" t="s">
-        <v>161</v>
-      </c>
       <c r="O10" t="s">
+        <v>108</v>
+      </c>
+      <c r="P10" t="s">
         <v>109</v>
       </c>
-      <c r="P10" t="s">
+      <c r="T10" t="s">
         <v>110</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>111</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>112</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>113</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>114</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>115</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>116</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>117</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AD10" t="s">
         <v>118</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AK10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL10" t="s">
         <v>119</v>
       </c>
-      <c r="AK10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL10" t="s">
+      <c r="AN10" t="s">
         <v>120</v>
       </c>
-      <c r="AN10" t="s">
+      <c r="AO10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY10" t="s">
         <v>121</v>
       </c>
-      <c r="AO10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX10" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY10" t="s">
+      <c r="AZ10" t="s">
         <v>122</v>
       </c>
-      <c r="AZ10" t="s">
+      <c r="BA10" t="s">
         <v>123</v>
       </c>
-      <c r="BA10" t="s">
+      <c r="BB10" t="s">
         <v>124</v>
       </c>
-      <c r="BB10" t="s">
+      <c r="BC10" t="s">
         <v>125</v>
       </c>
-      <c r="BC10" t="s">
+      <c r="BD10" t="s">
         <v>126</v>
       </c>
-      <c r="BD10" t="s">
+      <c r="BE10" t="s">
         <v>127</v>
       </c>
-      <c r="BE10" t="s">
+      <c r="BF10" t="s">
         <v>128</v>
       </c>
-      <c r="BF10" t="s">
+      <c r="BH10" t="s">
         <v>129</v>
       </c>
-      <c r="BH10" t="s">
+      <c r="BI10" t="s">
         <v>130</v>
       </c>
-      <c r="BI10" t="s">
+      <c r="BJ10" t="s">
         <v>131</v>
       </c>
-      <c r="BJ10" t="s">
+      <c r="BK10" t="s">
         <v>132</v>
       </c>
-      <c r="BK10" t="s">
+      <c r="BN10" t="s">
         <v>133</v>
       </c>
-      <c r="BN10" t="s">
+      <c r="BO10" t="s">
         <v>134</v>
       </c>
-      <c r="BO10" t="s">
+      <c r="BP10" t="s">
         <v>135</v>
       </c>
-      <c r="BP10" t="s">
+      <c r="BT10" t="s">
         <v>136</v>
-      </c>
-      <c r="BT10" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:73">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" t="s">
         <v>162</v>
-      </c>
-      <c r="C11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" t="s">
-        <v>163</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G11" t="s">
+        <v>163</v>
+      </c>
+      <c r="H11" t="s">
         <v>164</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>165</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>166</v>
-      </c>
-      <c r="K11" t="s">
-        <v>167</v>
       </c>
       <c r="M11">
         <v>-999</v>
@@ -3127,157 +3135,154 @@
       <c r="N11">
         <v>0</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>109</v>
       </c>
-      <c r="P11" t="s">
-        <v>110</v>
-      </c>
       <c r="R11" t="s">
+        <v>167</v>
+      </c>
+      <c r="T11" t="s">
         <v>168</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>169</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
+        <v>168</v>
+      </c>
+      <c r="W11" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y11" t="s">
         <v>170</v>
       </c>
-      <c r="V11" t="s">
-        <v>169</v>
-      </c>
-      <c r="W11" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>171</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC11" t="s">
         <v>172</v>
       </c>
-      <c r="AA11" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>173</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AH11" t="s">
         <v>174</v>
       </c>
-      <c r="AH11" t="s">
+      <c r="AJ11" t="s">
         <v>175</v>
       </c>
-      <c r="AJ11" t="s">
+      <c r="AK11" t="s">
         <v>176</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AL11" t="s">
         <v>177</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AO11" t="s">
         <v>178</v>
       </c>
-      <c r="AO11" t="s">
+      <c r="AP11" t="s">
         <v>179</v>
       </c>
-      <c r="AP11" t="s">
+      <c r="AS11" t="s">
         <v>180</v>
       </c>
-      <c r="AS11" t="s">
+      <c r="AU11" t="s">
         <v>181</v>
       </c>
-      <c r="AU11" t="s">
+      <c r="AV11" t="s">
         <v>182</v>
       </c>
-      <c r="AV11" t="s">
+      <c r="AW11" t="s">
         <v>183</v>
       </c>
-      <c r="AW11" t="s">
+      <c r="AX11" t="s">
         <v>184</v>
       </c>
-      <c r="AX11" t="s">
+      <c r="AY11" t="s">
         <v>185</v>
       </c>
-      <c r="AY11" t="s">
+      <c r="AZ11" t="s">
         <v>186</v>
       </c>
-      <c r="AZ11" t="s">
+      <c r="BA11" t="s">
         <v>187</v>
       </c>
-      <c r="BA11" t="s">
+      <c r="BB11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC11" t="s">
         <v>188</v>
       </c>
-      <c r="BB11" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC11" t="s">
+      <c r="BD11" t="s">
         <v>189</v>
       </c>
-      <c r="BD11" t="s">
+      <c r="BE11" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH11" t="s">
         <v>190</v>
       </c>
-      <c r="BE11" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF11" t="s">
-        <v>129</v>
-      </c>
-      <c r="BH11" t="s">
+      <c r="BI11" t="s">
         <v>191</v>
       </c>
-      <c r="BI11" t="s">
+      <c r="BJ11" t="s">
         <v>192</v>
       </c>
-      <c r="BJ11" t="s">
+      <c r="BM11" t="s">
         <v>193</v>
       </c>
-      <c r="BM11" t="s">
+      <c r="BN11" t="s">
         <v>194</v>
       </c>
-      <c r="BN11" t="s">
+      <c r="BO11" t="s">
         <v>195</v>
       </c>
-      <c r="BO11" t="s">
+      <c r="BP11" t="s">
         <v>196</v>
       </c>
-      <c r="BP11" t="s">
-        <v>197</v>
-      </c>
       <c r="BS11" t="s">
+        <v>95</v>
+      </c>
+      <c r="BT11" t="s">
         <v>96</v>
-      </c>
-      <c r="BT11" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:73">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H12" t="s">
         <v>164</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>165</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>166</v>
-      </c>
-      <c r="K12" t="s">
-        <v>167</v>
       </c>
       <c r="M12">
         <v>-999</v>
@@ -3285,157 +3290,154 @@
       <c r="N12">
         <v>0</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>109</v>
       </c>
-      <c r="P12" t="s">
-        <v>110</v>
-      </c>
       <c r="R12" t="s">
+        <v>167</v>
+      </c>
+      <c r="T12" t="s">
         <v>168</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>169</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
+        <v>168</v>
+      </c>
+      <c r="W12" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y12" t="s">
         <v>170</v>
       </c>
-      <c r="V12" t="s">
-        <v>169</v>
-      </c>
-      <c r="W12" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>171</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC12" t="s">
         <v>172</v>
       </c>
-      <c r="AA12" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>173</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AH12" t="s">
         <v>174</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AJ12" t="s">
         <v>175</v>
       </c>
-      <c r="AJ12" t="s">
+      <c r="AK12" t="s">
         <v>176</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AL12" t="s">
         <v>177</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AO12" t="s">
         <v>178</v>
       </c>
-      <c r="AO12" t="s">
+      <c r="AP12" t="s">
         <v>179</v>
       </c>
-      <c r="AP12" t="s">
+      <c r="AS12" t="s">
         <v>180</v>
       </c>
-      <c r="AS12" t="s">
+      <c r="AU12" t="s">
         <v>181</v>
       </c>
-      <c r="AU12" t="s">
+      <c r="AV12" t="s">
         <v>182</v>
       </c>
-      <c r="AV12" t="s">
+      <c r="AW12" t="s">
         <v>183</v>
       </c>
-      <c r="AW12" t="s">
+      <c r="AX12" t="s">
         <v>184</v>
       </c>
-      <c r="AX12" t="s">
+      <c r="AY12" t="s">
         <v>185</v>
       </c>
-      <c r="AY12" t="s">
+      <c r="AZ12" t="s">
         <v>186</v>
       </c>
-      <c r="AZ12" t="s">
+      <c r="BA12" t="s">
         <v>187</v>
       </c>
-      <c r="BA12" t="s">
+      <c r="BB12" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC12" t="s">
         <v>188</v>
       </c>
-      <c r="BB12" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC12" t="s">
+      <c r="BD12" t="s">
         <v>189</v>
       </c>
-      <c r="BD12" t="s">
+      <c r="BE12" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH12" t="s">
         <v>190</v>
       </c>
-      <c r="BE12" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF12" t="s">
-        <v>129</v>
-      </c>
-      <c r="BH12" t="s">
+      <c r="BI12" t="s">
         <v>191</v>
       </c>
-      <c r="BI12" t="s">
+      <c r="BJ12" t="s">
         <v>192</v>
       </c>
-      <c r="BJ12" t="s">
+      <c r="BM12" t="s">
         <v>193</v>
       </c>
-      <c r="BM12" t="s">
+      <c r="BN12" t="s">
         <v>194</v>
       </c>
-      <c r="BN12" t="s">
+      <c r="BO12" t="s">
         <v>195</v>
       </c>
-      <c r="BO12" t="s">
+      <c r="BP12" t="s">
         <v>196</v>
       </c>
-      <c r="BP12" t="s">
-        <v>197</v>
-      </c>
       <c r="BS12" t="s">
+        <v>95</v>
+      </c>
+      <c r="BT12" t="s">
         <v>96</v>
-      </c>
-      <c r="BT12" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:73">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G13" t="s">
+        <v>163</v>
+      </c>
+      <c r="H13" t="s">
         <v>164</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>165</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>166</v>
-      </c>
-      <c r="K13" t="s">
-        <v>167</v>
       </c>
       <c r="M13">
         <v>-999</v>
@@ -3443,157 +3445,154 @@
       <c r="N13">
         <v>0</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>109</v>
       </c>
-      <c r="P13" t="s">
-        <v>110</v>
-      </c>
       <c r="R13" t="s">
+        <v>167</v>
+      </c>
+      <c r="T13" t="s">
         <v>168</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>169</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
+        <v>168</v>
+      </c>
+      <c r="W13" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y13" t="s">
         <v>170</v>
       </c>
-      <c r="V13" t="s">
-        <v>169</v>
-      </c>
-      <c r="W13" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>171</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC13" t="s">
         <v>172</v>
       </c>
-      <c r="AA13" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>173</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AH13" t="s">
         <v>174</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AJ13" t="s">
         <v>175</v>
       </c>
-      <c r="AJ13" t="s">
+      <c r="AK13" t="s">
         <v>176</v>
       </c>
-      <c r="AK13" t="s">
+      <c r="AL13" t="s">
         <v>177</v>
       </c>
-      <c r="AL13" t="s">
+      <c r="AO13" t="s">
         <v>178</v>
       </c>
-      <c r="AO13" t="s">
+      <c r="AP13" t="s">
         <v>179</v>
       </c>
-      <c r="AP13" t="s">
+      <c r="AS13" t="s">
         <v>180</v>
       </c>
-      <c r="AS13" t="s">
+      <c r="AU13" t="s">
         <v>181</v>
       </c>
-      <c r="AU13" t="s">
+      <c r="AV13" t="s">
         <v>182</v>
       </c>
-      <c r="AV13" t="s">
+      <c r="AW13" t="s">
         <v>183</v>
       </c>
-      <c r="AW13" t="s">
+      <c r="AX13" t="s">
         <v>184</v>
       </c>
-      <c r="AX13" t="s">
+      <c r="AY13" t="s">
         <v>185</v>
       </c>
-      <c r="AY13" t="s">
+      <c r="AZ13" t="s">
         <v>186</v>
       </c>
-      <c r="AZ13" t="s">
+      <c r="BA13" t="s">
         <v>187</v>
       </c>
-      <c r="BA13" t="s">
+      <c r="BB13" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC13" t="s">
         <v>188</v>
       </c>
-      <c r="BB13" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC13" t="s">
+      <c r="BD13" t="s">
         <v>189</v>
       </c>
-      <c r="BD13" t="s">
+      <c r="BE13" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH13" t="s">
         <v>190</v>
       </c>
-      <c r="BE13" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF13" t="s">
-        <v>129</v>
-      </c>
-      <c r="BH13" t="s">
+      <c r="BI13" t="s">
         <v>191</v>
       </c>
-      <c r="BI13" t="s">
+      <c r="BJ13" t="s">
         <v>192</v>
       </c>
-      <c r="BJ13" t="s">
+      <c r="BM13" t="s">
         <v>193</v>
       </c>
-      <c r="BM13" t="s">
+      <c r="BN13" t="s">
         <v>194</v>
       </c>
-      <c r="BN13" t="s">
+      <c r="BO13" t="s">
         <v>195</v>
       </c>
-      <c r="BO13" t="s">
+      <c r="BP13" t="s">
         <v>196</v>
       </c>
-      <c r="BP13" t="s">
-        <v>197</v>
-      </c>
       <c r="BS13" t="s">
+        <v>95</v>
+      </c>
+      <c r="BT13" t="s">
         <v>96</v>
-      </c>
-      <c r="BT13" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:73">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G14" t="s">
+        <v>163</v>
+      </c>
+      <c r="H14" t="s">
         <v>164</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>165</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>166</v>
-      </c>
-      <c r="K14" t="s">
-        <v>167</v>
       </c>
       <c r="M14">
         <v>-999</v>
@@ -3601,160 +3600,157 @@
       <c r="N14">
         <v>0</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>109</v>
       </c>
-      <c r="P14" t="s">
-        <v>110</v>
-      </c>
       <c r="R14" t="s">
+        <v>167</v>
+      </c>
+      <c r="T14" t="s">
         <v>168</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>169</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
+        <v>168</v>
+      </c>
+      <c r="W14" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y14" t="s">
         <v>170</v>
       </c>
-      <c r="V14" t="s">
-        <v>169</v>
-      </c>
-      <c r="W14" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>171</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC14" t="s">
         <v>172</v>
       </c>
-      <c r="AA14" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>173</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AH14" t="s">
         <v>174</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="AJ14" t="s">
         <v>175</v>
       </c>
-      <c r="AJ14" t="s">
+      <c r="AK14" t="s">
         <v>176</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AL14" t="s">
         <v>177</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AO14" t="s">
         <v>178</v>
       </c>
-      <c r="AO14" t="s">
+      <c r="AP14" t="s">
         <v>179</v>
       </c>
-      <c r="AP14" t="s">
+      <c r="AS14" t="s">
         <v>180</v>
       </c>
-      <c r="AS14" t="s">
+      <c r="AU14" t="s">
         <v>181</v>
       </c>
-      <c r="AU14" t="s">
+      <c r="AV14" t="s">
         <v>182</v>
       </c>
-      <c r="AV14" t="s">
+      <c r="AW14" t="s">
         <v>183</v>
       </c>
-      <c r="AW14" t="s">
+      <c r="AX14" t="s">
         <v>184</v>
       </c>
-      <c r="AX14" t="s">
+      <c r="AY14" t="s">
         <v>185</v>
       </c>
-      <c r="AY14" t="s">
+      <c r="AZ14" t="s">
         <v>186</v>
       </c>
-      <c r="AZ14" t="s">
+      <c r="BA14" t="s">
         <v>187</v>
       </c>
-      <c r="BA14" t="s">
+      <c r="BB14" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC14" t="s">
         <v>188</v>
       </c>
-      <c r="BB14" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC14" t="s">
+      <c r="BD14" t="s">
         <v>189</v>
       </c>
-      <c r="BD14" t="s">
+      <c r="BE14" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH14" t="s">
         <v>190</v>
       </c>
-      <c r="BE14" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF14" t="s">
-        <v>129</v>
-      </c>
-      <c r="BH14" t="s">
+      <c r="BI14" t="s">
         <v>191</v>
       </c>
-      <c r="BI14" t="s">
+      <c r="BJ14" t="s">
         <v>192</v>
       </c>
-      <c r="BJ14" t="s">
+      <c r="BM14" t="s">
         <v>193</v>
       </c>
-      <c r="BM14" t="s">
+      <c r="BN14" t="s">
         <v>194</v>
       </c>
-      <c r="BN14" t="s">
+      <c r="BO14" t="s">
         <v>195</v>
       </c>
-      <c r="BO14" t="s">
+      <c r="BP14" t="s">
         <v>196</v>
       </c>
-      <c r="BP14" t="s">
-        <v>197</v>
-      </c>
       <c r="BS14" t="s">
+        <v>95</v>
+      </c>
+      <c r="BT14" t="s">
         <v>96</v>
-      </c>
-      <c r="BT14" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:73">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" t="s">
         <v>203</v>
-      </c>
-      <c r="C15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" t="s">
-        <v>204</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G15" t="s">
+        <v>204</v>
+      </c>
+      <c r="H15" t="s">
         <v>205</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>206</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>207</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>208</v>
-      </c>
-      <c r="K15" t="s">
-        <v>209</v>
       </c>
       <c r="M15">
         <v>-9999</v>
@@ -3763,144 +3759,144 @@
         <v>-8888</v>
       </c>
       <c r="P15" t="s">
+        <v>209</v>
+      </c>
+      <c r="R15" t="s">
         <v>210</v>
       </c>
-      <c r="R15" t="s">
+      <c r="T15" t="s">
         <v>211</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>212</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>213</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>214</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>215</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>216</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>217</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB15" t="s">
         <v>218</v>
       </c>
-      <c r="AA15" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>219</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH15" t="s">
         <v>220</v>
       </c>
-      <c r="AD15" t="s">
-        <v>174</v>
-      </c>
-      <c r="AH15" t="s">
+      <c r="AJ15" t="s">
         <v>221</v>
       </c>
-      <c r="AJ15" t="s">
+      <c r="AK15" t="s">
         <v>222</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AL15" t="s">
         <v>223</v>
       </c>
-      <c r="AL15" t="s">
+      <c r="AO15" t="s">
         <v>224</v>
       </c>
-      <c r="AO15" t="s">
+      <c r="AP15" t="s">
         <v>225</v>
       </c>
-      <c r="AP15" t="s">
+      <c r="AR15" t="s">
         <v>226</v>
       </c>
-      <c r="AR15" t="s">
+      <c r="AW15" t="s">
         <v>227</v>
       </c>
-      <c r="AW15" t="s">
+      <c r="AY15" t="s">
         <v>228</v>
       </c>
-      <c r="AY15" t="s">
+      <c r="AZ15" t="s">
         <v>229</v>
       </c>
-      <c r="AZ15" t="s">
+      <c r="BA15" t="s">
+        <v>187</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>188</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>189</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>127</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>190</v>
+      </c>
+      <c r="BM15" t="s">
         <v>230</v>
       </c>
-      <c r="BA15" t="s">
-        <v>188</v>
-      </c>
-      <c r="BB15" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC15" t="s">
-        <v>189</v>
-      </c>
-      <c r="BD15" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE15" t="s">
-        <v>128</v>
-      </c>
-      <c r="BH15" t="s">
-        <v>191</v>
-      </c>
-      <c r="BM15" t="s">
+      <c r="BN15" t="s">
+        <v>194</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>195</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>196</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>95</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>96</v>
+      </c>
+      <c r="BU15" t="s">
         <v>231</v>
-      </c>
-      <c r="BN15" t="s">
-        <v>195</v>
-      </c>
-      <c r="BO15" t="s">
-        <v>196</v>
-      </c>
-      <c r="BP15" t="s">
-        <v>197</v>
-      </c>
-      <c r="BS15" t="s">
-        <v>96</v>
-      </c>
-      <c r="BT15" t="s">
-        <v>97</v>
-      </c>
-      <c r="BU15" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:73">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G16" t="s">
+        <v>163</v>
+      </c>
+      <c r="H16" t="s">
         <v>164</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>165</v>
       </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
         <v>166</v>
-      </c>
-      <c r="K16" t="s">
-        <v>167</v>
       </c>
       <c r="M16">
         <v>-999</v>
@@ -3908,157 +3904,154 @@
       <c r="N16">
         <v>0</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>109</v>
       </c>
-      <c r="P16" t="s">
-        <v>110</v>
-      </c>
       <c r="R16" t="s">
+        <v>167</v>
+      </c>
+      <c r="T16" t="s">
         <v>168</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>169</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
+        <v>168</v>
+      </c>
+      <c r="W16" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y16" t="s">
         <v>170</v>
       </c>
-      <c r="V16" t="s">
-        <v>169</v>
-      </c>
-      <c r="W16" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>171</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC16" t="s">
         <v>172</v>
       </c>
-      <c r="AA16" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>173</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AH16" t="s">
         <v>174</v>
       </c>
-      <c r="AH16" t="s">
+      <c r="AJ16" t="s">
         <v>175</v>
       </c>
-      <c r="AJ16" t="s">
+      <c r="AK16" t="s">
         <v>176</v>
       </c>
-      <c r="AK16" t="s">
+      <c r="AL16" t="s">
         <v>177</v>
       </c>
-      <c r="AL16" t="s">
+      <c r="AO16" t="s">
         <v>178</v>
       </c>
-      <c r="AO16" t="s">
+      <c r="AP16" t="s">
         <v>179</v>
       </c>
-      <c r="AP16" t="s">
+      <c r="AS16" t="s">
         <v>180</v>
       </c>
-      <c r="AS16" t="s">
+      <c r="AU16" t="s">
         <v>181</v>
       </c>
-      <c r="AU16" t="s">
+      <c r="AV16" t="s">
         <v>182</v>
       </c>
-      <c r="AV16" t="s">
+      <c r="AW16" t="s">
         <v>183</v>
       </c>
-      <c r="AW16" t="s">
+      <c r="AX16" t="s">
         <v>184</v>
       </c>
-      <c r="AX16" t="s">
+      <c r="AY16" t="s">
         <v>185</v>
       </c>
-      <c r="AY16" t="s">
+      <c r="AZ16" t="s">
         <v>186</v>
       </c>
-      <c r="AZ16" t="s">
+      <c r="BA16" t="s">
         <v>187</v>
       </c>
-      <c r="BA16" t="s">
+      <c r="BB16" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC16" t="s">
         <v>188</v>
       </c>
-      <c r="BB16" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC16" t="s">
+      <c r="BD16" t="s">
         <v>189</v>
       </c>
-      <c r="BD16" t="s">
+      <c r="BE16" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH16" t="s">
         <v>190</v>
       </c>
-      <c r="BE16" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF16" t="s">
-        <v>129</v>
-      </c>
-      <c r="BH16" t="s">
+      <c r="BI16" t="s">
         <v>191</v>
       </c>
-      <c r="BI16" t="s">
+      <c r="BJ16" t="s">
         <v>192</v>
       </c>
-      <c r="BJ16" t="s">
+      <c r="BM16" t="s">
         <v>193</v>
       </c>
-      <c r="BM16" t="s">
+      <c r="BN16" t="s">
         <v>194</v>
       </c>
-      <c r="BN16" t="s">
+      <c r="BO16" t="s">
         <v>195</v>
       </c>
-      <c r="BO16" t="s">
+      <c r="BP16" t="s">
         <v>196</v>
       </c>
-      <c r="BP16" t="s">
-        <v>197</v>
-      </c>
       <c r="BS16" t="s">
+        <v>95</v>
+      </c>
+      <c r="BT16" t="s">
         <v>96</v>
-      </c>
-      <c r="BT16" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:73">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G17" t="s">
+        <v>163</v>
+      </c>
+      <c r="H17" t="s">
         <v>164</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>165</v>
       </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
         <v>166</v>
-      </c>
-      <c r="K17" t="s">
-        <v>167</v>
       </c>
       <c r="M17">
         <v>-999</v>
@@ -4066,287 +4059,284 @@
       <c r="N17">
         <v>0</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>109</v>
       </c>
-      <c r="P17" t="s">
-        <v>110</v>
-      </c>
       <c r="R17" t="s">
+        <v>167</v>
+      </c>
+      <c r="T17" t="s">
         <v>168</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>169</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
+        <v>168</v>
+      </c>
+      <c r="W17" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y17" t="s">
         <v>170</v>
       </c>
-      <c r="V17" t="s">
-        <v>169</v>
-      </c>
-      <c r="W17" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>171</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC17" t="s">
         <v>172</v>
       </c>
-      <c r="AA17" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>173</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AH17" t="s">
         <v>174</v>
       </c>
-      <c r="AH17" t="s">
+      <c r="AJ17" t="s">
         <v>175</v>
       </c>
-      <c r="AJ17" t="s">
+      <c r="AK17" t="s">
         <v>176</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="AL17" t="s">
         <v>177</v>
       </c>
-      <c r="AL17" t="s">
+      <c r="AO17" t="s">
         <v>178</v>
       </c>
-      <c r="AO17" t="s">
+      <c r="AP17" t="s">
         <v>179</v>
       </c>
-      <c r="AP17" t="s">
+      <c r="AS17" t="s">
         <v>180</v>
       </c>
-      <c r="AS17" t="s">
+      <c r="AU17" t="s">
         <v>181</v>
       </c>
-      <c r="AU17" t="s">
+      <c r="AV17" t="s">
         <v>182</v>
       </c>
-      <c r="AV17" t="s">
+      <c r="AW17" t="s">
         <v>183</v>
       </c>
-      <c r="AW17" t="s">
+      <c r="AX17" t="s">
         <v>184</v>
       </c>
-      <c r="AX17" t="s">
+      <c r="AY17" t="s">
         <v>185</v>
       </c>
-      <c r="AY17" t="s">
+      <c r="AZ17" t="s">
         <v>186</v>
       </c>
-      <c r="AZ17" t="s">
+      <c r="BA17" t="s">
         <v>187</v>
       </c>
-      <c r="BA17" t="s">
+      <c r="BB17" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC17" t="s">
         <v>188</v>
       </c>
-      <c r="BB17" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC17" t="s">
+      <c r="BD17" t="s">
         <v>189</v>
       </c>
-      <c r="BD17" t="s">
+      <c r="BE17" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH17" t="s">
         <v>190</v>
       </c>
-      <c r="BE17" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF17" t="s">
-        <v>129</v>
-      </c>
-      <c r="BH17" t="s">
+      <c r="BI17" t="s">
         <v>191</v>
       </c>
-      <c r="BI17" t="s">
+      <c r="BJ17" t="s">
         <v>192</v>
       </c>
-      <c r="BJ17" t="s">
+      <c r="BM17" t="s">
         <v>193</v>
       </c>
-      <c r="BM17" t="s">
+      <c r="BN17" t="s">
         <v>194</v>
       </c>
-      <c r="BN17" t="s">
+      <c r="BO17" t="s">
         <v>195</v>
       </c>
-      <c r="BO17" t="s">
+      <c r="BP17" t="s">
         <v>196</v>
       </c>
-      <c r="BP17" t="s">
-        <v>197</v>
-      </c>
       <c r="BS17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BT17" t="s">
         <v>96</v>
-      </c>
-      <c r="BT17" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:73">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>16</v>
+        <v>389</v>
       </c>
       <c r="F18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H18" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K18" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="P18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R18" t="s">
+        <v>210</v>
+      </c>
+      <c r="T18" t="s">
         <v>211</v>
       </c>
-      <c r="T18" t="s">
-        <v>212</v>
-      </c>
       <c r="V18" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z18" t="s">
         <v>289</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="AA18" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE18" t="s">
         <v>290</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:73">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G19" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H19" t="s">
+        <v>316</v>
+      </c>
+      <c r="I19" t="s">
         <v>319</v>
       </c>
-      <c r="I19" t="s">
-        <v>322</v>
-      </c>
       <c r="J19" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="K19" t="s">
         <v>320</v>
       </c>
-      <c r="K19" t="s">
-        <v>323</v>
-      </c>
       <c r="P19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R19" t="s">
+        <v>210</v>
+      </c>
+      <c r="T19" t="s">
         <v>211</v>
       </c>
-      <c r="T19" t="s">
-        <v>212</v>
-      </c>
       <c r="V19" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z19" t="s">
         <v>289</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="AA19" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE19" t="s">
         <v>290</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:73">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D20" t="s">
+        <v>203</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" t="s">
         <v>204</v>
       </c>
-      <c r="E20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" t="s">
-        <v>103</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>205</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>206</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>207</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>208</v>
-      </c>
-      <c r="K20" t="s">
-        <v>209</v>
       </c>
       <c r="M20">
         <v>-9999</v>
@@ -4355,150 +4345,150 @@
         <v>-8888</v>
       </c>
       <c r="P20" t="s">
+        <v>209</v>
+      </c>
+      <c r="R20" t="s">
         <v>210</v>
       </c>
-      <c r="R20" t="s">
+      <c r="T20" t="s">
         <v>211</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>212</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>213</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>214</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>215</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>216</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>217</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB20" t="s">
         <v>218</v>
       </c>
-      <c r="AA20" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB20" t="s">
+      <c r="AC20" t="s">
         <v>219</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH20" t="s">
         <v>220</v>
       </c>
-      <c r="AD20" t="s">
-        <v>174</v>
-      </c>
-      <c r="AH20" t="s">
+      <c r="AJ20" t="s">
         <v>221</v>
       </c>
-      <c r="AJ20" t="s">
+      <c r="AK20" t="s">
         <v>222</v>
       </c>
-      <c r="AK20" t="s">
+      <c r="AL20" t="s">
         <v>223</v>
       </c>
-      <c r="AL20" t="s">
+      <c r="AO20" t="s">
         <v>224</v>
       </c>
-      <c r="AO20" t="s">
+      <c r="AP20" t="s">
         <v>225</v>
       </c>
-      <c r="AP20" t="s">
+      <c r="AR20" t="s">
         <v>226</v>
       </c>
-      <c r="AR20" t="s">
+      <c r="AW20" t="s">
         <v>227</v>
       </c>
-      <c r="AW20" t="s">
+      <c r="AY20" t="s">
         <v>228</v>
       </c>
-      <c r="AY20" t="s">
+      <c r="AZ20" t="s">
         <v>229</v>
       </c>
-      <c r="AZ20" t="s">
+      <c r="BA20" t="s">
+        <v>187</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>188</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>189</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>190</v>
+      </c>
+      <c r="BM20" t="s">
         <v>230</v>
       </c>
-      <c r="BA20" t="s">
-        <v>188</v>
-      </c>
-      <c r="BB20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC20" t="s">
-        <v>189</v>
-      </c>
-      <c r="BD20" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE20" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF20" t="s">
-        <v>129</v>
-      </c>
-      <c r="BH20" t="s">
-        <v>191</v>
-      </c>
-      <c r="BM20" t="s">
+      <c r="BN20" t="s">
+        <v>194</v>
+      </c>
+      <c r="BO20" t="s">
+        <v>195</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>196</v>
+      </c>
+      <c r="BS20" t="s">
+        <v>95</v>
+      </c>
+      <c r="BT20" t="s">
+        <v>96</v>
+      </c>
+      <c r="BU20" t="s">
         <v>231</v>
-      </c>
-      <c r="BN20" t="s">
-        <v>195</v>
-      </c>
-      <c r="BO20" t="s">
-        <v>196</v>
-      </c>
-      <c r="BP20" t="s">
-        <v>197</v>
-      </c>
-      <c r="BS20" t="s">
-        <v>96</v>
-      </c>
-      <c r="BT20" t="s">
-        <v>97</v>
-      </c>
-      <c r="BU20" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:73">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
+        <v>203</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" t="s">
         <v>204</v>
       </c>
-      <c r="E21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" t="s">
-        <v>103</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>205</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>206</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>207</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>208</v>
-      </c>
-      <c r="K21" t="s">
-        <v>209</v>
       </c>
       <c r="M21">
         <v>-9999</v>
@@ -4507,147 +4497,147 @@
         <v>-8888</v>
       </c>
       <c r="P21" t="s">
+        <v>209</v>
+      </c>
+      <c r="R21" t="s">
         <v>210</v>
       </c>
-      <c r="R21" t="s">
+      <c r="T21" t="s">
         <v>211</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>212</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>213</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>214</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>215</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>216</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>217</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB21" t="s">
         <v>218</v>
       </c>
-      <c r="AA21" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB21" t="s">
+      <c r="AC21" t="s">
         <v>219</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH21" t="s">
         <v>220</v>
       </c>
-      <c r="AD21" t="s">
-        <v>174</v>
-      </c>
-      <c r="AH21" t="s">
+      <c r="AJ21" t="s">
         <v>221</v>
       </c>
-      <c r="AJ21" t="s">
+      <c r="AK21" t="s">
         <v>222</v>
       </c>
-      <c r="AK21" t="s">
+      <c r="AL21" t="s">
         <v>223</v>
       </c>
-      <c r="AL21" t="s">
+      <c r="AO21" t="s">
         <v>224</v>
       </c>
-      <c r="AO21" t="s">
+      <c r="AP21" t="s">
         <v>225</v>
       </c>
-      <c r="AP21" t="s">
+      <c r="AR21" t="s">
         <v>226</v>
       </c>
-      <c r="AR21" t="s">
+      <c r="AW21" t="s">
         <v>227</v>
       </c>
-      <c r="AW21" t="s">
+      <c r="AY21" t="s">
         <v>228</v>
       </c>
-      <c r="AY21" t="s">
+      <c r="AZ21" t="s">
         <v>229</v>
       </c>
-      <c r="AZ21" t="s">
+      <c r="BA21" t="s">
+        <v>187</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>188</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>189</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>127</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>190</v>
+      </c>
+      <c r="BM21" t="s">
         <v>230</v>
       </c>
-      <c r="BA21" t="s">
-        <v>188</v>
-      </c>
-      <c r="BB21" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC21" t="s">
-        <v>189</v>
-      </c>
-      <c r="BD21" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE21" t="s">
-        <v>128</v>
-      </c>
-      <c r="BH21" t="s">
-        <v>191</v>
-      </c>
-      <c r="BM21" t="s">
+      <c r="BN21" t="s">
+        <v>194</v>
+      </c>
+      <c r="BO21" t="s">
+        <v>195</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>196</v>
+      </c>
+      <c r="BS21" t="s">
+        <v>95</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>96</v>
+      </c>
+      <c r="BU21" t="s">
         <v>231</v>
-      </c>
-      <c r="BN21" t="s">
-        <v>195</v>
-      </c>
-      <c r="BO21" t="s">
-        <v>196</v>
-      </c>
-      <c r="BP21" t="s">
-        <v>197</v>
-      </c>
-      <c r="BS21" t="s">
-        <v>96</v>
-      </c>
-      <c r="BT21" t="s">
-        <v>97</v>
-      </c>
-      <c r="BU21" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:73">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D22" t="s">
+        <v>203</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" t="s">
         <v>204</v>
       </c>
-      <c r="E22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" t="s">
-        <v>103</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>205</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>206</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>207</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>208</v>
-      </c>
-      <c r="K22" t="s">
-        <v>209</v>
       </c>
       <c r="M22">
         <v>-9999</v>
@@ -4656,138 +4646,138 @@
         <v>-8888</v>
       </c>
       <c r="P22" t="s">
+        <v>209</v>
+      </c>
+      <c r="R22" t="s">
         <v>210</v>
       </c>
-      <c r="R22" t="s">
+      <c r="T22" t="s">
         <v>211</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>212</v>
       </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
         <v>213</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>214</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>215</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>216</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>217</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB22" t="s">
         <v>218</v>
       </c>
-      <c r="AA22" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB22" t="s">
+      <c r="AC22" t="s">
         <v>219</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AD22" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH22" t="s">
         <v>220</v>
       </c>
-      <c r="AD22" t="s">
-        <v>174</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>221</v>
-      </c>
       <c r="AK22" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL22" t="s">
         <v>223</v>
       </c>
-      <c r="AL22" t="s">
+      <c r="AO22" t="s">
         <v>224</v>
       </c>
-      <c r="AO22" t="s">
-        <v>225</v>
-      </c>
       <c r="AR22" t="s">
+        <v>226</v>
+      </c>
+      <c r="AW22" t="s">
         <v>227</v>
       </c>
-      <c r="AW22" t="s">
+      <c r="AY22" t="s">
         <v>228</v>
       </c>
-      <c r="AY22" t="s">
+      <c r="AZ22" t="s">
         <v>229</v>
       </c>
-      <c r="AZ22" t="s">
+      <c r="BA22" t="s">
+        <v>187</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>188</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>189</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH22" t="s">
+        <v>190</v>
+      </c>
+      <c r="BM22" t="s">
         <v>230</v>
       </c>
-      <c r="BA22" t="s">
-        <v>188</v>
-      </c>
-      <c r="BB22" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC22" t="s">
-        <v>189</v>
-      </c>
-      <c r="BD22" t="s">
-        <v>190</v>
-      </c>
-      <c r="BF22" t="s">
-        <v>129</v>
-      </c>
-      <c r="BH22" t="s">
-        <v>191</v>
-      </c>
-      <c r="BM22" t="s">
-        <v>231</v>
-      </c>
       <c r="BN22" t="s">
+        <v>194</v>
+      </c>
+      <c r="BO22" t="s">
         <v>195</v>
       </c>
-      <c r="BO22" t="s">
+      <c r="BP22" t="s">
         <v>196</v>
       </c>
-      <c r="BP22" t="s">
-        <v>197</v>
-      </c>
       <c r="BS22" t="s">
+        <v>95</v>
+      </c>
+      <c r="BT22" t="s">
         <v>96</v>
-      </c>
-      <c r="BT22" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:73">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D23" t="s">
+        <v>203</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" t="s">
         <v>204</v>
       </c>
-      <c r="E23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>205</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>206</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>207</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>208</v>
-      </c>
-      <c r="K23" t="s">
-        <v>209</v>
       </c>
       <c r="M23">
         <v>-9999</v>
@@ -4796,141 +4786,141 @@
         <v>-8888</v>
       </c>
       <c r="P23" t="s">
+        <v>209</v>
+      </c>
+      <c r="R23" t="s">
         <v>210</v>
       </c>
-      <c r="R23" t="s">
+      <c r="T23" t="s">
         <v>211</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>212</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>213</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>214</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>215</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>216</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>217</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB23" t="s">
         <v>218</v>
       </c>
-      <c r="AA23" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB23" t="s">
+      <c r="AC23" t="s">
         <v>219</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AD23" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH23" t="s">
         <v>220</v>
       </c>
-      <c r="AD23" t="s">
-        <v>174</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>221</v>
-      </c>
       <c r="AK23" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL23" t="s">
         <v>223</v>
       </c>
-      <c r="AL23" t="s">
+      <c r="AO23" t="s">
         <v>224</v>
       </c>
-      <c r="AO23" t="s">
-        <v>225</v>
-      </c>
       <c r="AR23" t="s">
+        <v>226</v>
+      </c>
+      <c r="AW23" t="s">
         <v>227</v>
       </c>
-      <c r="AW23" t="s">
+      <c r="AY23" t="s">
         <v>228</v>
       </c>
-      <c r="AY23" t="s">
+      <c r="AZ23" t="s">
         <v>229</v>
       </c>
-      <c r="AZ23" t="s">
+      <c r="BA23" t="s">
+        <v>187</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>188</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>189</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>190</v>
+      </c>
+      <c r="BM23" t="s">
         <v>230</v>
       </c>
-      <c r="BA23" t="s">
-        <v>188</v>
-      </c>
-      <c r="BB23" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC23" t="s">
-        <v>189</v>
-      </c>
-      <c r="BD23" t="s">
-        <v>190</v>
-      </c>
-      <c r="BF23" t="s">
-        <v>129</v>
-      </c>
-      <c r="BH23" t="s">
-        <v>191</v>
-      </c>
-      <c r="BM23" t="s">
+      <c r="BN23" t="s">
+        <v>194</v>
+      </c>
+      <c r="BO23" t="s">
+        <v>195</v>
+      </c>
+      <c r="BP23" t="s">
+        <v>196</v>
+      </c>
+      <c r="BS23" t="s">
+        <v>95</v>
+      </c>
+      <c r="BT23" t="s">
+        <v>96</v>
+      </c>
+      <c r="BU23" t="s">
         <v>231</v>
-      </c>
-      <c r="BN23" t="s">
-        <v>195</v>
-      </c>
-      <c r="BO23" t="s">
-        <v>196</v>
-      </c>
-      <c r="BP23" t="s">
-        <v>197</v>
-      </c>
-      <c r="BS23" t="s">
-        <v>96</v>
-      </c>
-      <c r="BT23" t="s">
-        <v>97</v>
-      </c>
-      <c r="BU23" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:73">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D24" t="s">
+        <v>203</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" t="s">
         <v>204</v>
       </c>
-      <c r="E24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" t="s">
-        <v>103</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>205</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>206</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>207</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>208</v>
-      </c>
-      <c r="K24" t="s">
-        <v>209</v>
       </c>
       <c r="M24">
         <v>-9999</v>
@@ -4939,361 +4929,361 @@
         <v>-8888</v>
       </c>
       <c r="P24" t="s">
+        <v>209</v>
+      </c>
+      <c r="R24" t="s">
         <v>210</v>
       </c>
-      <c r="R24" t="s">
+      <c r="T24" t="s">
         <v>211</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>212</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>213</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>214</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>215</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>216</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>217</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB24" t="s">
         <v>218</v>
       </c>
-      <c r="AA24" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB24" t="s">
+      <c r="AC24" t="s">
         <v>219</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AD24" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH24" t="s">
         <v>220</v>
       </c>
-      <c r="AD24" t="s">
-        <v>174</v>
-      </c>
-      <c r="AH24" t="s">
+      <c r="AJ24" t="s">
         <v>221</v>
       </c>
-      <c r="AJ24" t="s">
+      <c r="AK24" t="s">
         <v>222</v>
       </c>
-      <c r="AK24" t="s">
+      <c r="AL24" t="s">
         <v>223</v>
       </c>
-      <c r="AL24" t="s">
+      <c r="AO24" t="s">
         <v>224</v>
       </c>
-      <c r="AO24" t="s">
+      <c r="AP24" t="s">
         <v>225</v>
       </c>
-      <c r="AP24" t="s">
+      <c r="AR24" t="s">
         <v>226</v>
       </c>
-      <c r="AR24" t="s">
+      <c r="AW24" t="s">
         <v>227</v>
       </c>
-      <c r="AW24" t="s">
+      <c r="AY24" t="s">
         <v>228</v>
       </c>
-      <c r="AY24" t="s">
+      <c r="AZ24" t="s">
         <v>229</v>
       </c>
-      <c r="AZ24" t="s">
+      <c r="BA24" t="s">
+        <v>187</v>
+      </c>
+      <c r="BB24" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>188</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>189</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF24" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH24" t="s">
+        <v>190</v>
+      </c>
+      <c r="BM24" t="s">
         <v>230</v>
       </c>
-      <c r="BA24" t="s">
-        <v>188</v>
-      </c>
-      <c r="BB24" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC24" t="s">
-        <v>189</v>
-      </c>
-      <c r="BD24" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE24" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF24" t="s">
-        <v>129</v>
-      </c>
-      <c r="BH24" t="s">
-        <v>191</v>
-      </c>
-      <c r="BM24" t="s">
+      <c r="BN24" t="s">
+        <v>194</v>
+      </c>
+      <c r="BO24" t="s">
+        <v>195</v>
+      </c>
+      <c r="BP24" t="s">
+        <v>196</v>
+      </c>
+      <c r="BS24" t="s">
+        <v>95</v>
+      </c>
+      <c r="BT24" t="s">
+        <v>96</v>
+      </c>
+      <c r="BU24" t="s">
         <v>231</v>
-      </c>
-      <c r="BN24" t="s">
-        <v>195</v>
-      </c>
-      <c r="BO24" t="s">
-        <v>196</v>
-      </c>
-      <c r="BP24" t="s">
-        <v>197</v>
-      </c>
-      <c r="BS24" t="s">
-        <v>96</v>
-      </c>
-      <c r="BT24" t="s">
-        <v>97</v>
-      </c>
-      <c r="BU24" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:73">
       <c r="A25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B25" t="s">
+        <v>388</v>
+      </c>
+      <c r="C25" t="s">
+        <v>302</v>
+      </c>
+      <c r="D25" t="s">
+        <v>301</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F25" t="s">
+        <v>303</v>
+      </c>
+      <c r="G25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H25" t="s">
+        <v>311</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="J25" t="s">
+        <v>309</v>
+      </c>
+      <c r="K25" t="s">
         <v>313</v>
       </c>
-      <c r="C25" t="s">
+      <c r="R25" t="s">
+        <v>312</v>
+      </c>
+      <c r="T25" t="s">
         <v>304</v>
       </c>
-      <c r="D25" t="s">
-        <v>303</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="U25" t="s">
         <v>305</v>
       </c>
-      <c r="G25" t="s">
-        <v>310</v>
-      </c>
-      <c r="H25" t="s">
-        <v>314</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="J25" t="s">
-        <v>311</v>
-      </c>
-      <c r="K25" t="s">
-        <v>316</v>
-      </c>
-      <c r="R25" t="s">
-        <v>315</v>
-      </c>
-      <c r="T25" t="s">
-        <v>306</v>
-      </c>
-      <c r="U25" t="s">
-        <v>307</v>
-      </c>
       <c r="V25" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="W25" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="Y25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z25" t="s">
         <v>171</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC25" t="s">
         <v>172</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AD25" t="s">
         <v>118</v>
       </c>
-      <c r="AC25" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>119</v>
-      </c>
       <c r="AE25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:73">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" t="s">
+        <v>203</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" t="s">
         <v>237</v>
       </c>
-      <c r="C26" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" t="s">
-        <v>204</v>
-      </c>
-      <c r="E26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>238</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>239</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>240</v>
       </c>
-      <c r="I26" t="s">
+      <c r="K26" t="s">
         <v>241</v>
-      </c>
-      <c r="K26" t="s">
-        <v>242</v>
       </c>
       <c r="N26">
         <v>-9999</v>
       </c>
       <c r="P26" t="s">
+        <v>209</v>
+      </c>
+      <c r="R26" t="s">
         <v>210</v>
       </c>
-      <c r="R26" t="s">
-        <v>211</v>
-      </c>
       <c r="T26" t="s">
-        <v>212</v>
+        <v>390</v>
       </c>
       <c r="U26" t="s">
+        <v>242</v>
+      </c>
+      <c r="V26" t="s">
+        <v>213</v>
+      </c>
+      <c r="W26" t="s">
+        <v>214</v>
+      </c>
+      <c r="X26" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>221</v>
+      </c>
+      <c r="AK26" t="s">
         <v>243</v>
       </c>
-      <c r="V26" t="s">
-        <v>214</v>
-      </c>
-      <c r="W26" t="s">
-        <v>215</v>
-      </c>
-      <c r="X26" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>218</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>219</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>174</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>221</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK26" t="s">
+      <c r="AL26" t="s">
+        <v>223</v>
+      </c>
+      <c r="AO26" t="s">
         <v>244</v>
       </c>
-      <c r="AL26" t="s">
-        <v>224</v>
-      </c>
-      <c r="AO26" t="s">
-        <v>245</v>
-      </c>
       <c r="AP26" t="s">
+        <v>225</v>
+      </c>
+      <c r="AR26" t="s">
         <v>226</v>
       </c>
-      <c r="AR26" t="s">
+      <c r="AW26" t="s">
         <v>227</v>
       </c>
-      <c r="AW26" t="s">
+      <c r="AY26" t="s">
         <v>228</v>
       </c>
-      <c r="AY26" t="s">
+      <c r="AZ26" t="s">
         <v>229</v>
       </c>
-      <c r="AZ26" t="s">
+      <c r="BA26" t="s">
+        <v>187</v>
+      </c>
+      <c r="BB26" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>188</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>189</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH26" t="s">
+        <v>190</v>
+      </c>
+      <c r="BM26" t="s">
         <v>230</v>
       </c>
-      <c r="BA26" t="s">
-        <v>188</v>
-      </c>
-      <c r="BB26" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC26" t="s">
-        <v>189</v>
-      </c>
-      <c r="BD26" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE26" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF26" t="s">
-        <v>129</v>
-      </c>
-      <c r="BH26" t="s">
-        <v>191</v>
-      </c>
-      <c r="BM26" t="s">
-        <v>231</v>
-      </c>
       <c r="BN26" t="s">
+        <v>194</v>
+      </c>
+      <c r="BO26" t="s">
         <v>195</v>
       </c>
-      <c r="BO26" t="s">
+      <c r="BP26" t="s">
         <v>196</v>
       </c>
-      <c r="BP26" t="s">
-        <v>197</v>
-      </c>
       <c r="BS26" t="s">
+        <v>95</v>
+      </c>
+      <c r="BT26" t="s">
         <v>96</v>
-      </c>
-      <c r="BT26" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:73">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D27" t="s">
+        <v>203</v>
+      </c>
+      <c r="E27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" t="s">
         <v>204</v>
       </c>
-      <c r="E27" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" t="s">
-        <v>103</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>205</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>206</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>207</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>208</v>
-      </c>
-      <c r="K27" t="s">
-        <v>209</v>
       </c>
       <c r="M27">
         <v>-9999</v>
@@ -5302,129 +5292,129 @@
         <v>-8888</v>
       </c>
       <c r="P27" t="s">
+        <v>209</v>
+      </c>
+      <c r="R27" t="s">
         <v>210</v>
       </c>
-      <c r="R27" t="s">
+      <c r="T27" t="s">
         <v>211</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>212</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>213</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>214</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>215</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>216</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>217</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AA27" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB27" t="s">
         <v>218</v>
       </c>
-      <c r="AA27" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB27" t="s">
+      <c r="AC27" t="s">
         <v>219</v>
       </c>
-      <c r="AC27" t="s">
+      <c r="AD27" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH27" t="s">
         <v>220</v>
       </c>
-      <c r="AD27" t="s">
-        <v>174</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>221</v>
-      </c>
       <c r="AL27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AR27" t="s">
+        <v>226</v>
+      </c>
+      <c r="AW27" t="s">
         <v>227</v>
       </c>
-      <c r="AW27" t="s">
+      <c r="AY27" t="s">
         <v>228</v>
       </c>
-      <c r="AY27" t="s">
+      <c r="AZ27" t="s">
         <v>229</v>
       </c>
-      <c r="AZ27" t="s">
-        <v>230</v>
-      </c>
       <c r="BA27" t="s">
+        <v>187</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC27" t="s">
         <v>188</v>
       </c>
-      <c r="BB27" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC27" t="s">
+      <c r="BD27" t="s">
         <v>189</v>
       </c>
-      <c r="BD27" t="s">
+      <c r="BH27" t="s">
         <v>190</v>
       </c>
-      <c r="BH27" t="s">
-        <v>191</v>
-      </c>
       <c r="BN27" t="s">
+        <v>194</v>
+      </c>
+      <c r="BO27" t="s">
         <v>195</v>
       </c>
-      <c r="BO27" t="s">
+      <c r="BP27" t="s">
         <v>196</v>
       </c>
-      <c r="BP27" t="s">
-        <v>197</v>
-      </c>
       <c r="BS27" t="s">
+        <v>95</v>
+      </c>
+      <c r="BT27" t="s">
         <v>96</v>
       </c>
-      <c r="BT27" t="s">
-        <v>97</v>
-      </c>
       <c r="BU27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:73">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
+        <v>246</v>
+      </c>
+      <c r="C28" t="s">
         <v>247</v>
       </c>
-      <c r="C28" t="s">
-        <v>248</v>
-      </c>
       <c r="D28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E28" s="2">
         <v>325020190403</v>
       </c>
       <c r="F28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G28" t="s">
+        <v>204</v>
+      </c>
+      <c r="H28" t="s">
         <v>205</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>206</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>207</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>208</v>
-      </c>
-      <c r="K28" t="s">
-        <v>209</v>
       </c>
       <c r="M28">
         <v>-9999</v>
@@ -5433,1898 +5423,1889 @@
         <v>-8888</v>
       </c>
       <c r="P28" t="s">
+        <v>209</v>
+      </c>
+      <c r="R28" t="s">
         <v>210</v>
       </c>
-      <c r="R28" t="s">
+      <c r="T28" t="s">
         <v>211</v>
       </c>
-      <c r="T28" t="s">
+      <c r="U28" t="s">
         <v>212</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>213</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>214</v>
       </c>
-      <c r="W28" t="s">
+      <c r="X28" t="s">
         <v>215</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>216</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>217</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="AA28" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB28" t="s">
         <v>218</v>
       </c>
-      <c r="AA28" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB28" t="s">
+      <c r="AC28" t="s">
         <v>219</v>
       </c>
-      <c r="AC28" t="s">
+      <c r="AD28" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH28" t="s">
         <v>220</v>
       </c>
-      <c r="AD28" t="s">
-        <v>174</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>221</v>
-      </c>
       <c r="AK28" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL28" t="s">
         <v>223</v>
       </c>
-      <c r="AL28" t="s">
+      <c r="AO28" t="s">
         <v>224</v>
       </c>
-      <c r="AO28" t="s">
-        <v>225</v>
-      </c>
       <c r="AR28" t="s">
+        <v>226</v>
+      </c>
+      <c r="AW28" t="s">
         <v>227</v>
       </c>
-      <c r="AW28" t="s">
+      <c r="AY28" t="s">
         <v>228</v>
       </c>
-      <c r="AY28" t="s">
+      <c r="AZ28" t="s">
         <v>229</v>
       </c>
-      <c r="AZ28" t="s">
+      <c r="BA28" t="s">
+        <v>187</v>
+      </c>
+      <c r="BB28" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC28" t="s">
+        <v>188</v>
+      </c>
+      <c r="BD28" t="s">
+        <v>189</v>
+      </c>
+      <c r="BE28" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF28" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH28" t="s">
+        <v>190</v>
+      </c>
+      <c r="BM28" t="s">
         <v>230</v>
       </c>
-      <c r="BA28" t="s">
-        <v>188</v>
-      </c>
-      <c r="BB28" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC28" t="s">
-        <v>189</v>
-      </c>
-      <c r="BD28" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE28" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF28" t="s">
-        <v>129</v>
-      </c>
-      <c r="BH28" t="s">
-        <v>191</v>
-      </c>
-      <c r="BM28" t="s">
-        <v>231</v>
-      </c>
       <c r="BN28" t="s">
+        <v>194</v>
+      </c>
+      <c r="BO28" t="s">
         <v>195</v>
       </c>
-      <c r="BO28" t="s">
+      <c r="BP28" t="s">
         <v>196</v>
       </c>
-      <c r="BP28" t="s">
-        <v>197</v>
-      </c>
       <c r="BS28" t="s">
+        <v>95</v>
+      </c>
+      <c r="BT28" t="s">
         <v>96</v>
-      </c>
-      <c r="BT28" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:73">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G29" t="s">
+        <v>321</v>
+      </c>
+      <c r="H29" t="s">
+        <v>322</v>
+      </c>
+      <c r="I29" t="s">
+        <v>323</v>
+      </c>
+      <c r="J29" t="s">
         <v>324</v>
       </c>
-      <c r="H29" t="s">
-        <v>325</v>
-      </c>
-      <c r="I29" t="s">
-        <v>326</v>
-      </c>
-      <c r="J29" t="s">
-        <v>327</v>
-      </c>
       <c r="K29" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="P29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R29" t="s">
+        <v>210</v>
+      </c>
+      <c r="T29" t="s">
         <v>211</v>
       </c>
-      <c r="T29" t="s">
-        <v>212</v>
-      </c>
       <c r="V29" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z29" t="s">
         <v>289</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="AA29" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE29" t="s">
         <v>290</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:73">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G30" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I30" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="J30" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K30" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="P30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R30" t="s">
+        <v>210</v>
+      </c>
+      <c r="T30" t="s">
         <v>211</v>
       </c>
-      <c r="T30" t="s">
-        <v>212</v>
-      </c>
       <c r="V30" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z30" t="s">
         <v>289</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="AA30" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE30" t="s">
         <v>290</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:73" ht="15.5">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G31" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H31" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J31" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K31" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="P31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R31" t="s">
+        <v>210</v>
+      </c>
+      <c r="T31" t="s">
         <v>211</v>
       </c>
-      <c r="T31" t="s">
-        <v>212</v>
-      </c>
       <c r="V31" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z31" t="s">
         <v>289</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="AA31" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE31" t="s">
         <v>290</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:73" ht="15.5">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G32" t="s">
+        <v>329</v>
+      </c>
+      <c r="H32" t="s">
+        <v>330</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="H32" t="s">
-        <v>333</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="K32" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="P32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R32" t="s">
+        <v>210</v>
+      </c>
+      <c r="T32" t="s">
         <v>211</v>
       </c>
-      <c r="T32" t="s">
-        <v>212</v>
-      </c>
       <c r="V32" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z32" t="s">
         <v>289</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="AA32" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE32" t="s">
         <v>290</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:72">
       <c r="A33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B33" t="s">
-        <v>276</v>
+        <v>393</v>
       </c>
       <c r="C33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G33" t="s">
+        <v>333</v>
+      </c>
+      <c r="H33" t="s">
+        <v>335</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="K33" t="s">
         <v>336</v>
       </c>
-      <c r="H33" t="s">
-        <v>338</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="K33" t="s">
-        <v>339</v>
-      </c>
       <c r="P33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R33" t="s">
+        <v>210</v>
+      </c>
+      <c r="T33" t="s">
         <v>211</v>
       </c>
-      <c r="T33" t="s">
-        <v>212</v>
-      </c>
       <c r="V33" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z33" t="s">
         <v>289</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="AA33" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE33" t="s">
         <v>290</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:72">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B34" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G34" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H34" t="s">
+        <v>335</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="J34" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="K34" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R34" t="s">
+        <v>210</v>
+      </c>
+      <c r="T34" t="s">
         <v>211</v>
       </c>
-      <c r="T34" t="s">
-        <v>212</v>
-      </c>
       <c r="V34" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z34" t="s">
         <v>289</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="AA34" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE34" t="s">
         <v>290</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:72" ht="15.5">
       <c r="A35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B35" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G35" t="s">
+        <v>342</v>
+      </c>
+      <c r="H35" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="H35" s="6" t="s">
-        <v>348</v>
-      </c>
       <c r="I35" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K35" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="P35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R35" t="s">
+        <v>210</v>
+      </c>
+      <c r="T35" t="s">
         <v>211</v>
       </c>
-      <c r="T35" t="s">
-        <v>212</v>
-      </c>
       <c r="V35" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z35" t="s">
         <v>289</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="AA35" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE35" t="s">
         <v>290</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="36" spans="1:72" ht="15.5">
       <c r="A36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B36" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G36" t="s">
+        <v>342</v>
+      </c>
+      <c r="H36" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="H36" s="6" t="s">
-        <v>348</v>
-      </c>
       <c r="I36" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="K36" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="P36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R36" t="s">
+        <v>210</v>
+      </c>
+      <c r="T36" t="s">
         <v>211</v>
       </c>
-      <c r="T36" t="s">
-        <v>212</v>
-      </c>
       <c r="V36" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z36" t="s">
         <v>289</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="AA36" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE36" t="s">
         <v>290</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="37" spans="1:72" ht="15.5">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B37" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D37" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G37" t="s">
+        <v>342</v>
+      </c>
+      <c r="H37" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="H37" s="6" t="s">
-        <v>348</v>
-      </c>
       <c r="I37" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J37" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="K37" t="s">
         <v>346</v>
       </c>
-      <c r="K37" t="s">
-        <v>349</v>
-      </c>
       <c r="P37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R37" t="s">
+        <v>210</v>
+      </c>
+      <c r="T37" t="s">
         <v>211</v>
       </c>
-      <c r="T37" t="s">
-        <v>212</v>
-      </c>
       <c r="V37" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z37" t="s">
         <v>289</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="AA37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE37" t="s">
         <v>290</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="38" spans="1:72" ht="15.5">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B38" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G38" t="s">
+        <v>342</v>
+      </c>
+      <c r="H38" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="H38" s="6" t="s">
-        <v>348</v>
-      </c>
       <c r="I38" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="K38" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="P38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R38" t="s">
+        <v>210</v>
+      </c>
+      <c r="T38" t="s">
         <v>211</v>
       </c>
-      <c r="T38" t="s">
-        <v>212</v>
-      </c>
       <c r="V38" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z38" t="s">
         <v>289</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="AA38" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE38" t="s">
         <v>290</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="39" spans="1:72" ht="15.5">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B39" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D39" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G39" t="s">
+        <v>342</v>
+      </c>
+      <c r="H39" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="I39" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I39" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>351</v>
-      </c>
       <c r="K39" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="P39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R39" t="s">
+        <v>210</v>
+      </c>
+      <c r="T39" t="s">
         <v>211</v>
       </c>
-      <c r="T39" t="s">
-        <v>212</v>
-      </c>
       <c r="V39" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z39" t="s">
         <v>289</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="AA39" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE39" t="s">
         <v>290</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="40" spans="1:72" ht="15.5">
       <c r="A40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B40" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D40" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G40" t="s">
+        <v>342</v>
+      </c>
+      <c r="H40" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="H40" s="6" t="s">
-        <v>348</v>
-      </c>
       <c r="I40" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K40" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="P40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R40" t="s">
+        <v>210</v>
+      </c>
+      <c r="T40" t="s">
         <v>211</v>
       </c>
-      <c r="T40" t="s">
-        <v>212</v>
-      </c>
       <c r="V40" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z40" t="s">
         <v>289</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="AA40" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE40" t="s">
         <v>290</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="41" spans="1:72" ht="15.5">
       <c r="A41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B41" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D41" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G41" t="s">
+        <v>342</v>
+      </c>
+      <c r="H41" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="H41" s="6" t="s">
-        <v>348</v>
-      </c>
       <c r="I41" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K41" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="P41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R41" t="s">
+        <v>210</v>
+      </c>
+      <c r="T41" t="s">
         <v>211</v>
       </c>
-      <c r="T41" t="s">
-        <v>212</v>
-      </c>
       <c r="V41" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z41" t="s">
         <v>289</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="AA41" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE41" t="s">
         <v>290</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:72" ht="15.5">
       <c r="A42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B42" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G42" t="s">
+        <v>342</v>
+      </c>
+      <c r="H42" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="H42" s="6" t="s">
-        <v>348</v>
-      </c>
       <c r="I42" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K42" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="P42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R42" t="s">
+        <v>210</v>
+      </c>
+      <c r="T42" t="s">
         <v>211</v>
       </c>
-      <c r="T42" t="s">
-        <v>212</v>
-      </c>
       <c r="V42" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z42" t="s">
         <v>289</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="AA42" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE42" t="s">
         <v>290</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD42" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE42" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="43" spans="1:72" ht="15.5">
       <c r="A43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B43" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D43" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G43" t="s">
+        <v>353</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="K43" t="s">
         <v>356</v>
       </c>
-      <c r="H43" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="K43" t="s">
-        <v>359</v>
-      </c>
       <c r="P43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R43" t="s">
+        <v>210</v>
+      </c>
+      <c r="T43" t="s">
         <v>211</v>
       </c>
-      <c r="T43" t="s">
-        <v>212</v>
-      </c>
       <c r="V43" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z43" t="s">
         <v>289</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="AA43" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE43" t="s">
         <v>290</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC43" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE43" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:72" ht="15.5">
       <c r="A44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B44" t="s">
+        <v>285</v>
+      </c>
+      <c r="C44" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" t="s">
+        <v>267</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F44" t="s">
+        <v>102</v>
+      </c>
+      <c r="G44" t="s">
+        <v>353</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="K44" t="s">
+        <v>356</v>
+      </c>
+      <c r="P44" t="s">
+        <v>109</v>
+      </c>
+      <c r="R44" t="s">
+        <v>210</v>
+      </c>
+      <c r="T44" t="s">
+        <v>211</v>
+      </c>
+      <c r="V44" t="s">
         <v>287</v>
       </c>
-      <c r="C44" t="s">
-        <v>101</v>
-      </c>
-      <c r="D44" t="s">
-        <v>268</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F44" t="s">
-        <v>103</v>
-      </c>
-      <c r="G44" t="s">
-        <v>356</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="K44" t="s">
-        <v>359</v>
-      </c>
-      <c r="P44" t="s">
-        <v>110</v>
-      </c>
-      <c r="R44" t="s">
-        <v>211</v>
-      </c>
-      <c r="T44" t="s">
-        <v>212</v>
-      </c>
-      <c r="V44" t="s">
+      <c r="Y44" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z44" t="s">
         <v>289</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="AA44" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE44" t="s">
         <v>290</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD44" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="45" spans="1:72" ht="15.5">
       <c r="A45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B45" t="s">
+        <v>286</v>
+      </c>
+      <c r="C45" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" t="s">
+        <v>267</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F45" t="s">
+        <v>102</v>
+      </c>
+      <c r="G45" t="s">
+        <v>353</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="J45" t="s">
+        <v>324</v>
+      </c>
+      <c r="K45" t="s">
+        <v>356</v>
+      </c>
+      <c r="P45" t="s">
+        <v>109</v>
+      </c>
+      <c r="R45" t="s">
+        <v>210</v>
+      </c>
+      <c r="T45" t="s">
+        <v>211</v>
+      </c>
+      <c r="V45" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y45" t="s">
         <v>288</v>
       </c>
-      <c r="C45" t="s">
-        <v>101</v>
-      </c>
-      <c r="D45" t="s">
-        <v>268</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F45" t="s">
-        <v>103</v>
-      </c>
-      <c r="G45" t="s">
-        <v>356</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="J45" t="s">
-        <v>327</v>
-      </c>
-      <c r="K45" t="s">
-        <v>359</v>
-      </c>
-      <c r="P45" t="s">
-        <v>110</v>
-      </c>
-      <c r="R45" t="s">
-        <v>211</v>
-      </c>
-      <c r="T45" t="s">
-        <v>212</v>
-      </c>
-      <c r="V45" t="s">
+      <c r="Z45" t="s">
         <v>289</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="AA45" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE45" t="s">
         <v>290</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC45" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD45" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE45" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="46" spans="1:72">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B46" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D46" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G46" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H46" t="s">
+        <v>316</v>
+      </c>
+      <c r="I46" t="s">
         <v>319</v>
       </c>
-      <c r="I46" t="s">
-        <v>322</v>
-      </c>
       <c r="J46" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K46" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="P46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R46" t="s">
+        <v>210</v>
+      </c>
+      <c r="T46" t="s">
         <v>211</v>
       </c>
-      <c r="T46" t="s">
-        <v>212</v>
-      </c>
       <c r="V46" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z46" t="s">
         <v>289</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="AA46" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE46" t="s">
         <v>290</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC46" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD46" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE46" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="47" spans="1:72">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B47" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D47" t="s">
+        <v>292</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G47" t="s">
+        <v>306</v>
+      </c>
+      <c r="H47" t="s">
+        <v>307</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="J47" t="s">
+        <v>358</v>
+      </c>
+      <c r="K47" t="s">
+        <v>361</v>
+      </c>
+      <c r="P47" t="s">
+        <v>109</v>
+      </c>
+      <c r="R47" t="s">
+        <v>391</v>
+      </c>
+      <c r="T47" t="s">
+        <v>392</v>
+      </c>
+      <c r="U47" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>293</v>
+      </c>
+      <c r="Z47" t="s">
         <v>294</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F47" t="s">
-        <v>103</v>
-      </c>
-      <c r="G47" t="s">
-        <v>308</v>
-      </c>
-      <c r="H47" t="s">
-        <v>309</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="J47" t="s">
-        <v>361</v>
-      </c>
-      <c r="K47" t="s">
-        <v>364</v>
-      </c>
-      <c r="P47" t="s">
-        <v>110</v>
-      </c>
-      <c r="T47" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y47" t="s">
+      <c r="AA47" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD47" t="s">
         <v>295</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="AH47" t="s">
         <v>296</v>
       </c>
-      <c r="AA47" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD47" t="s">
+      <c r="AJ47" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM47" t="s">
         <v>297</v>
       </c>
-      <c r="AH47" t="s">
+      <c r="AN47" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP47" t="s">
         <v>298</v>
       </c>
-      <c r="AJ47" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK47" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL47" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM47" t="s">
+      <c r="AQ47" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR47" t="s">
         <v>299</v>
       </c>
-      <c r="AN47" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO47" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP47" t="s">
-        <v>300</v>
-      </c>
-      <c r="AQ47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AR47" t="s">
-        <v>301</v>
-      </c>
       <c r="AS47" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT47" t="s">
         <v>70</v>
       </c>
-      <c r="AT47" t="s">
+      <c r="AU47" t="s">
         <v>71</v>
       </c>
-      <c r="AU47" t="s">
+      <c r="AV47" t="s">
         <v>72</v>
       </c>
-      <c r="AV47" t="s">
+      <c r="AW47" t="s">
         <v>73</v>
       </c>
-      <c r="AW47" t="s">
+      <c r="AX47" t="s">
         <v>74</v>
       </c>
-      <c r="AX47" t="s">
+      <c r="AY47" t="s">
         <v>75</v>
       </c>
-      <c r="AY47" t="s">
+      <c r="AZ47" t="s">
         <v>76</v>
       </c>
-      <c r="AZ47" t="s">
+      <c r="BA47" t="s">
         <v>77</v>
       </c>
-      <c r="BA47" t="s">
+      <c r="BB47" t="s">
         <v>78</v>
       </c>
-      <c r="BB47" t="s">
+      <c r="BC47" t="s">
         <v>79</v>
       </c>
-      <c r="BC47" t="s">
+      <c r="BD47" t="s">
         <v>80</v>
       </c>
-      <c r="BD47" t="s">
+      <c r="BE47" t="s">
         <v>81</v>
       </c>
-      <c r="BE47" t="s">
+      <c r="BF47" t="s">
         <v>82</v>
       </c>
-      <c r="BF47" t="s">
+      <c r="BG47" t="s">
         <v>83</v>
       </c>
-      <c r="BG47" t="s">
+      <c r="BH47" t="s">
         <v>84</v>
       </c>
-      <c r="BH47" t="s">
+      <c r="BI47" t="s">
         <v>85</v>
       </c>
-      <c r="BI47" t="s">
+      <c r="BJ47" t="s">
         <v>86</v>
       </c>
-      <c r="BJ47" t="s">
+      <c r="BK47" t="s">
         <v>87</v>
       </c>
-      <c r="BK47" t="s">
+      <c r="BL47" t="s">
         <v>88</v>
       </c>
-      <c r="BL47" t="s">
+      <c r="BM47" t="s">
         <v>89</v>
       </c>
-      <c r="BM47" t="s">
+      <c r="BN47" t="s">
         <v>90</v>
       </c>
-      <c r="BN47" t="s">
+      <c r="BO47" t="s">
         <v>91</v>
       </c>
-      <c r="BO47" t="s">
+      <c r="BP47" t="s">
         <v>92</v>
       </c>
-      <c r="BP47" t="s">
+      <c r="BQ47" t="s">
         <v>93</v>
       </c>
-      <c r="BQ47" t="s">
+      <c r="BR47" t="s">
         <v>94</v>
       </c>
-      <c r="BR47" t="s">
+      <c r="BS47" t="s">
         <v>95</v>
       </c>
-      <c r="BS47" t="s">
+      <c r="BT47" t="s">
         <v>96</v>
-      </c>
-      <c r="BT47" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:72">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B48" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D48" t="s">
+        <v>292</v>
+      </c>
+      <c r="E48" t="s">
+        <v>366</v>
+      </c>
+      <c r="F48" t="s">
+        <v>102</v>
+      </c>
+      <c r="G48" t="s">
+        <v>306</v>
+      </c>
+      <c r="H48" t="s">
+        <v>307</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="J48" t="s">
+        <v>358</v>
+      </c>
+      <c r="K48" t="s">
+        <v>363</v>
+      </c>
+      <c r="P48" t="s">
+        <v>109</v>
+      </c>
+      <c r="R48" t="s">
+        <v>391</v>
+      </c>
+      <c r="T48" t="s">
+        <v>392</v>
+      </c>
+      <c r="U48" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>293</v>
+      </c>
+      <c r="Z48" t="s">
         <v>294</v>
       </c>
-      <c r="E48" t="s">
-        <v>369</v>
-      </c>
-      <c r="F48" t="s">
-        <v>103</v>
-      </c>
-      <c r="G48" t="s">
-        <v>308</v>
-      </c>
-      <c r="H48" t="s">
-        <v>309</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="J48" t="s">
-        <v>361</v>
-      </c>
-      <c r="K48" t="s">
-        <v>366</v>
-      </c>
-      <c r="P48" t="s">
-        <v>110</v>
-      </c>
-      <c r="T48" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y48" t="s">
+      <c r="AA48" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD48" t="s">
         <v>295</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="AH48" t="s">
         <v>296</v>
       </c>
-      <c r="AA48" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC48" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD48" t="s">
+      <c r="AJ48" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM48" t="s">
         <v>297</v>
       </c>
-      <c r="AH48" t="s">
+      <c r="AN48" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP48" t="s">
         <v>298</v>
       </c>
-      <c r="AJ48" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK48" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL48" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM48" t="s">
+      <c r="AQ48" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR48" t="s">
         <v>299</v>
       </c>
-      <c r="AN48" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO48" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP48" t="s">
-        <v>300</v>
-      </c>
-      <c r="AQ48" t="s">
-        <v>68</v>
-      </c>
-      <c r="AR48" t="s">
-        <v>301</v>
-      </c>
       <c r="AS48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT48" t="s">
         <v>70</v>
       </c>
-      <c r="AT48" t="s">
+      <c r="AU48" t="s">
         <v>71</v>
       </c>
-      <c r="AU48" t="s">
+      <c r="AV48" t="s">
         <v>72</v>
       </c>
-      <c r="AV48" t="s">
+      <c r="AW48" t="s">
         <v>73</v>
       </c>
-      <c r="AW48" t="s">
+      <c r="AX48" t="s">
         <v>74</v>
       </c>
-      <c r="AX48" t="s">
+      <c r="AY48" t="s">
         <v>75</v>
       </c>
-      <c r="AY48" t="s">
+      <c r="AZ48" t="s">
         <v>76</v>
       </c>
-      <c r="AZ48" t="s">
+      <c r="BA48" t="s">
         <v>77</v>
       </c>
-      <c r="BA48" t="s">
+      <c r="BB48" t="s">
         <v>78</v>
       </c>
-      <c r="BB48" t="s">
+      <c r="BC48" t="s">
         <v>79</v>
       </c>
-      <c r="BC48" t="s">
+      <c r="BD48" t="s">
         <v>80</v>
       </c>
-      <c r="BD48" t="s">
+      <c r="BE48" t="s">
         <v>81</v>
       </c>
-      <c r="BE48" t="s">
+      <c r="BF48" t="s">
         <v>82</v>
       </c>
-      <c r="BF48" t="s">
+      <c r="BG48" t="s">
         <v>83</v>
       </c>
-      <c r="BG48" t="s">
+      <c r="BH48" t="s">
         <v>84</v>
       </c>
-      <c r="BH48" t="s">
+      <c r="BI48" t="s">
         <v>85</v>
       </c>
-      <c r="BI48" t="s">
+      <c r="BJ48" t="s">
         <v>86</v>
       </c>
-      <c r="BJ48" t="s">
+      <c r="BK48" t="s">
         <v>87</v>
       </c>
-      <c r="BK48" t="s">
+      <c r="BL48" t="s">
         <v>88</v>
       </c>
-      <c r="BL48" t="s">
+      <c r="BM48" t="s">
         <v>89</v>
       </c>
-      <c r="BM48" t="s">
+      <c r="BN48" t="s">
         <v>90</v>
       </c>
-      <c r="BN48" t="s">
+      <c r="BO48" t="s">
         <v>91</v>
       </c>
-      <c r="BO48" t="s">
+      <c r="BP48" t="s">
         <v>92</v>
       </c>
-      <c r="BP48" t="s">
+      <c r="BQ48" t="s">
         <v>93</v>
       </c>
-      <c r="BQ48" t="s">
+      <c r="BR48" t="s">
         <v>94</v>
       </c>
-      <c r="BR48" t="s">
+      <c r="BS48" t="s">
         <v>95</v>
       </c>
-      <c r="BS48" t="s">
+      <c r="BT48" t="s">
         <v>96</v>
-      </c>
-      <c r="BT48" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:68">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B49" t="s">
+        <v>367</v>
+      </c>
+      <c r="C49" t="s">
+        <v>302</v>
+      </c>
+      <c r="D49" t="s">
+        <v>301</v>
+      </c>
+      <c r="E49" t="s">
+        <v>364</v>
+      </c>
+      <c r="F49" t="s">
+        <v>303</v>
+      </c>
+      <c r="G49" t="s">
+        <v>368</v>
+      </c>
+      <c r="H49" t="s">
+        <v>369</v>
+      </c>
+      <c r="I49" t="s">
         <v>370</v>
       </c>
-      <c r="C49" t="s">
+      <c r="J49" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="P49" t="s">
+        <v>109</v>
+      </c>
+      <c r="T49" t="s">
         <v>304</v>
       </c>
-      <c r="D49" t="s">
-        <v>303</v>
-      </c>
-      <c r="E49" t="s">
-        <v>367</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="U49" t="s">
         <v>305</v>
       </c>
-      <c r="G49" t="s">
-        <v>371</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="V49" t="s">
+        <v>304</v>
+      </c>
+      <c r="W49" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ49" t="s">
         <v>372</v>
       </c>
-      <c r="I49" t="s">
+      <c r="AK49" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP49" t="s">
         <v>373</v>
       </c>
-      <c r="J49" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="P49" t="s">
-        <v>110</v>
-      </c>
-      <c r="T49" t="s">
-        <v>306</v>
-      </c>
-      <c r="U49" t="s">
-        <v>307</v>
-      </c>
-      <c r="V49" t="s">
-        <v>306</v>
-      </c>
-      <c r="W49" t="s">
-        <v>307</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA49" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC49" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD49" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ49" t="s">
-        <v>375</v>
-      </c>
-      <c r="AK49" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO49" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP49" t="s">
-        <v>376</v>
-      </c>
       <c r="AY49" t="s">
+        <v>228</v>
+      </c>
+      <c r="AZ49" t="s">
         <v>229</v>
       </c>
-      <c r="AZ49" t="s">
-        <v>230</v>
-      </c>
       <c r="BA49" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BB49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BD49" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BF49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:68">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C50" t="s">
+        <v>302</v>
+      </c>
+      <c r="D50" t="s">
+        <v>301</v>
+      </c>
+      <c r="E50" t="s">
+        <v>365</v>
+      </c>
+      <c r="F50" t="s">
+        <v>303</v>
+      </c>
+      <c r="G50" t="s">
+        <v>380</v>
+      </c>
+      <c r="H50" t="s">
+        <v>239</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K50" t="s">
+        <v>363</v>
+      </c>
+      <c r="P50" t="s">
+        <v>109</v>
+      </c>
+      <c r="R50" t="s">
+        <v>312</v>
+      </c>
+      <c r="T50" t="s">
         <v>304</v>
       </c>
-      <c r="D50" t="s">
-        <v>303</v>
-      </c>
-      <c r="E50" t="s">
-        <v>368</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="U50" t="s">
         <v>305</v>
       </c>
-      <c r="G50" t="s">
-        <v>383</v>
-      </c>
-      <c r="H50" t="s">
-        <v>240</v>
-      </c>
-      <c r="I50" s="4" t="s">
+      <c r="V50" t="s">
+        <v>304</v>
+      </c>
+      <c r="W50" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>372</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>386</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>385</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS50" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV50" t="s">
         <v>384</v>
       </c>
-      <c r="J50" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="K50" t="s">
-        <v>366</v>
-      </c>
-      <c r="P50" t="s">
-        <v>110</v>
-      </c>
-      <c r="R50" t="s">
-        <v>315</v>
-      </c>
-      <c r="T50" t="s">
-        <v>306</v>
-      </c>
-      <c r="U50" t="s">
-        <v>307</v>
-      </c>
-      <c r="V50" t="s">
-        <v>306</v>
-      </c>
-      <c r="W50" t="s">
-        <v>307</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA50" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC50" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD50" t="s">
-        <v>119</v>
-      </c>
-      <c r="AE50" t="s">
-        <v>385</v>
-      </c>
-      <c r="AF50" t="s">
-        <v>386</v>
+      <c r="AW50" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY50" t="s">
+        <v>228</v>
+      </c>
+      <c r="AZ50" t="s">
+        <v>229</v>
+      </c>
+      <c r="BD50" t="s">
+        <v>189</v>
+      </c>
+      <c r="BJ50" t="s">
+        <v>387</v>
+      </c>
+      <c r="BO50" t="s">
+        <v>195</v>
+      </c>
+      <c r="BP50" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="51" spans="1:68">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B51" t="s">
+        <v>375</v>
+      </c>
+      <c r="C51" t="s">
+        <v>302</v>
+      </c>
+      <c r="D51" t="s">
+        <v>301</v>
+      </c>
+      <c r="E51" t="s">
+        <v>365</v>
+      </c>
+      <c r="F51" t="s">
+        <v>303</v>
+      </c>
+      <c r="G51" t="s">
+        <v>376</v>
+      </c>
+      <c r="J51" t="s">
         <v>378</v>
       </c>
-      <c r="C51" t="s">
+      <c r="K51" t="s">
+        <v>377</v>
+      </c>
+      <c r="P51" t="s">
+        <v>109</v>
+      </c>
+      <c r="T51" t="s">
         <v>304</v>
       </c>
-      <c r="D51" t="s">
-        <v>303</v>
-      </c>
-      <c r="E51" t="s">
-        <v>368</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="U51" t="s">
         <v>305</v>
       </c>
-      <c r="G51" t="s">
-        <v>379</v>
-      </c>
-      <c r="J51" t="s">
-        <v>381</v>
-      </c>
-      <c r="K51" t="s">
-        <v>380</v>
-      </c>
-      <c r="P51" t="s">
-        <v>110</v>
-      </c>
-      <c r="T51" t="s">
-        <v>306</v>
-      </c>
-      <c r="U51" t="s">
-        <v>307</v>
-      </c>
       <c r="V51" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="W51" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="Y51" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z51" t="s">
         <v>171</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="AA51" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC51" t="s">
         <v>172</v>
       </c>
-      <c r="AA51" t="s">
+      <c r="AD51" t="s">
         <v>118</v>
       </c>
-      <c r="AC51" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD51" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ51" t="s">
-        <v>375</v>
-      </c>
-      <c r="AK51" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM51" t="s">
-        <v>389</v>
-      </c>
-      <c r="AN51" t="s">
-        <v>388</v>
-      </c>
-      <c r="AO51" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP51" t="s">
-        <v>376</v>
-      </c>
-      <c r="AS51" t="s">
-        <v>70</v>
-      </c>
-      <c r="AV51" t="s">
-        <v>387</v>
-      </c>
-      <c r="AW51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AY51" t="s">
-        <v>229</v>
-      </c>
-      <c r="AZ51" t="s">
-        <v>230</v>
-      </c>
-      <c r="BA51" t="s">
-        <v>188</v>
-      </c>
-      <c r="BB51" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC51" t="s">
-        <v>189</v>
-      </c>
-      <c r="BD51" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE51" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF51" t="s">
-        <v>129</v>
-      </c>
-      <c r="BJ51" t="s">
-        <v>390</v>
-      </c>
-      <c r="BN51" t="s">
-        <v>195</v>
-      </c>
-      <c r="BO51" t="s">
-        <v>196</v>
-      </c>
-      <c r="BP51" t="s">
-        <v>197</v>
+      <c r="AE51" t="s">
+        <v>382</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>

--- a/product_data/processing_metadata/C5/PIG_meta.xlsx
+++ b/product_data/processing_metadata/C5/PIG_meta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{A0C56D46-583C-47FA-9912-0986EC17F7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58E8CBF6-E398-4E6E-AA19-1F37BE192EFF}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="13_ncr:1_{A0C56D46-583C-47FA-9912-0986EC17F7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D708121-6DA8-498B-A0EB-E103C2355B47}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7D7ACF3-C0AE-4A67-A41D-E2D748D3A5A0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B7D7ACF3-C0AE-4A67-A41D-E2D748D3A5A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="435">
   <si>
     <t>353L20070114</t>
   </si>
@@ -354,9 +354,6 @@
     <t>aadcwebqueries@aad.gov.au</t>
   </si>
   <si>
-    <t>:10.4225/15/521BE3FA33859</t>
-  </si>
-  <si>
     <t>Wright_etal_2004</t>
   </si>
   <si>
@@ -1008,9 +1005,6 @@
     <t>amacdonald@whoi.edu</t>
   </si>
   <si>
-    <t>10.5194/essd-8-297-2016</t>
-  </si>
-  <si>
     <t>Bernadette Sloyan</t>
   </si>
   <si>
@@ -1216,6 +1210,135 @@
   </si>
   <si>
     <t>E:/Data_downloads/GLODAP/279</t>
+  </si>
+  <si>
+    <t>citations</t>
+  </si>
+  <si>
+    <t>SOCCOM_pig</t>
+  </si>
+  <si>
+    <t>10.4225/15/521BE3FA33859</t>
+  </si>
+  <si>
+    <t>353L20070114_pig</t>
+  </si>
+  <si>
+    <t>353L20071028_pig</t>
+  </si>
+  <si>
+    <t>353L20071231_pig</t>
+  </si>
+  <si>
+    <t>353L20080217_pig</t>
+  </si>
+  <si>
+    <t>353L20081022_pig</t>
+  </si>
+  <si>
+    <t>353L20090101_pig</t>
+  </si>
+  <si>
+    <t>353L20090219_pig</t>
+  </si>
+  <si>
+    <t>353L20091021_pig</t>
+  </si>
+  <si>
+    <t>353L20100219_pig</t>
+  </si>
+  <si>
+    <t>35MF20070104_pig</t>
+  </si>
+  <si>
+    <t>35MF19950927_pig1; 35MF19950927_pig2; 35MF19950927_pig3; 35MF19950927_pig4; 35MF19950927_pig5; 35MF19950927_pig6</t>
+  </si>
+  <si>
+    <t>35MF19950927_fluor</t>
+  </si>
+  <si>
+    <t>49NZ20031209_pig</t>
+  </si>
+  <si>
+    <t>49NZ20031106_pig</t>
+  </si>
+  <si>
+    <t>49NZ20030803_pig</t>
+  </si>
+  <si>
+    <t>49NZ20030909_pig</t>
+  </si>
+  <si>
+    <t>49NZ20031019_pig</t>
+  </si>
+  <si>
+    <t>49NZ20040127_pig</t>
+  </si>
+  <si>
+    <t>35XI20090905_pig</t>
+  </si>
+  <si>
+    <t>49NZ20121128_pig</t>
+  </si>
+  <si>
+    <t>33RR20160208_pig</t>
+  </si>
+  <si>
+    <t>29HE19951203_pig</t>
+  </si>
+  <si>
+    <t>29HE19960117_pig</t>
+  </si>
+  <si>
+    <t>31DS19940126_pig</t>
+  </si>
+  <si>
+    <t>33RO20071215_pig</t>
+  </si>
+  <si>
+    <t>35MF19980121_pig</t>
+  </si>
+  <si>
+    <t>35MF19980818_pig</t>
+  </si>
+  <si>
+    <t>35MF19981205_pig</t>
+  </si>
+  <si>
+    <t>35MF20000117_pig</t>
+  </si>
+  <si>
+    <t>49NZ20130105_pig</t>
+  </si>
+  <si>
+    <t>35MF20000719_pig</t>
+  </si>
+  <si>
+    <t>35MF20010103_pig</t>
+  </si>
+  <si>
+    <t>35MF20020104_pig</t>
+  </si>
+  <si>
+    <t>35MF20040103_pig</t>
+  </si>
+  <si>
+    <t>49HH20011127_pig</t>
+  </si>
+  <si>
+    <t>49ZS19921203_pig</t>
+  </si>
+  <si>
+    <t>61TG20030217_pig</t>
+  </si>
+  <si>
+    <t>49NZ20170208_pig</t>
+  </si>
+  <si>
+    <t>096U20160426_pig2</t>
+  </si>
+  <si>
+    <t>91AH20140402_prof</t>
   </si>
 </sst>
 </file>
@@ -1283,7 +1406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1294,6 +1417,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1609,15 +1735,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F66F91E-37FF-4E13-8317-A8978462FC2B}">
-  <dimension ref="A1:BU51"/>
+  <dimension ref="A1:BV51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:73">
+    <row r="1" spans="1:74">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1649,196 +1775,199 @@
         <v>34</v>
       </c>
       <c r="K1" t="s">
+        <v>392</v>
+      </c>
+      <c r="L1" t="s">
         <v>35</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>36</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>37</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>38</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>39</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>41</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>42</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>43</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>44</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>45</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>46</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>47</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>50</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>51</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>52</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>53</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>54</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>55</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>56</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>57</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>58</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>59</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>60</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>61</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>62</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>63</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>64</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>65</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>66</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>67</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>68</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>69</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>70</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>71</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>72</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>73</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>74</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>75</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>76</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>77</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>78</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>79</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>80</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>81</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>82</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>83</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>84</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>85</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>86</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>87</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>88</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>89</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>90</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>91</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>92</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>93</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>94</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>95</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>96</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:73">
+    <row r="2" spans="1:74">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -1867,123 +1996,126 @@
         <v>105</v>
       </c>
       <c r="J2" t="s">
+        <v>394</v>
+      </c>
+      <c r="K2" t="s">
+        <v>395</v>
+      </c>
+      <c r="L2" t="s">
         <v>106</v>
       </c>
-      <c r="K2" t="s">
+      <c r="P2" t="s">
         <v>107</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>108</v>
       </c>
-      <c r="P2" t="s">
+      <c r="U2" t="s">
         <v>109</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>110</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>111</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>112</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>113</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>114</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>115</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>116</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AE2" t="s">
         <v>117</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AL2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM2" t="s">
         <v>118</v>
       </c>
-      <c r="AK2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL2" t="s">
+      <c r="AO2" t="s">
         <v>119</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AP2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ2" t="s">
         <v>120</v>
       </c>
-      <c r="AO2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AY2" t="s">
+      <c r="BA2" t="s">
         <v>121</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BB2" t="s">
         <v>122</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BC2" t="s">
         <v>123</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BD2" t="s">
         <v>124</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BE2" t="s">
         <v>125</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BF2" t="s">
         <v>126</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BG2" t="s">
         <v>127</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BI2" t="s">
         <v>128</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BJ2" t="s">
         <v>129</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BK2" t="s">
         <v>130</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BL2" t="s">
         <v>131</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BO2" t="s">
         <v>132</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BP2" t="s">
         <v>133</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BQ2" t="s">
         <v>134</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BU2" t="s">
         <v>135</v>
       </c>
-      <c r="BT2" t="s">
-        <v>136</v>
-      </c>
     </row>
-    <row r="3" spans="1:73">
+    <row r="3" spans="1:74">
       <c r="A3" t="s">
         <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
         <v>100</v>
@@ -2007,123 +2139,126 @@
         <v>105</v>
       </c>
       <c r="J3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K3" t="s">
+        <v>396</v>
+      </c>
+      <c r="L3" t="s">
         <v>138</v>
       </c>
-      <c r="K3" t="s">
-        <v>139</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q3" t="s">
         <v>108</v>
       </c>
-      <c r="P3" t="s">
+      <c r="U3" t="s">
         <v>109</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>110</v>
       </c>
-      <c r="U3" t="s">
+      <c r="W3" t="s">
         <v>111</v>
       </c>
-      <c r="V3" t="s">
+      <c r="X3" t="s">
         <v>112</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Y3" t="s">
         <v>113</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Z3" t="s">
         <v>114</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AA3" t="s">
         <v>115</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AB3" t="s">
         <v>116</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AE3" t="s">
         <v>117</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AL3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM3" t="s">
         <v>118</v>
       </c>
-      <c r="AK3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL3" t="s">
+      <c r="AO3" t="s">
         <v>119</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AP3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ3" t="s">
         <v>120</v>
       </c>
-      <c r="AO3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AY3" t="s">
+      <c r="BA3" t="s">
         <v>121</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BB3" t="s">
         <v>122</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BC3" t="s">
         <v>123</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BD3" t="s">
         <v>124</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BE3" t="s">
         <v>125</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BF3" t="s">
         <v>126</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BG3" t="s">
         <v>127</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BI3" t="s">
         <v>128</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BJ3" t="s">
         <v>129</v>
       </c>
-      <c r="BI3" t="s">
+      <c r="BK3" t="s">
         <v>130</v>
       </c>
-      <c r="BJ3" t="s">
+      <c r="BL3" t="s">
         <v>131</v>
       </c>
-      <c r="BK3" t="s">
+      <c r="BO3" t="s">
         <v>132</v>
       </c>
-      <c r="BN3" t="s">
+      <c r="BP3" t="s">
         <v>133</v>
       </c>
-      <c r="BO3" t="s">
+      <c r="BQ3" t="s">
         <v>134</v>
       </c>
-      <c r="BP3" t="s">
+      <c r="BU3" t="s">
         <v>135</v>
       </c>
-      <c r="BT3" t="s">
-        <v>136</v>
-      </c>
     </row>
-    <row r="4" spans="1:73">
+    <row r="4" spans="1:74">
       <c r="A4" t="s">
         <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
         <v>100</v>
@@ -2147,123 +2282,126 @@
         <v>105</v>
       </c>
       <c r="J4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K4" t="s">
+        <v>397</v>
+      </c>
+      <c r="L4" t="s">
         <v>141</v>
       </c>
-      <c r="K4" t="s">
-        <v>142</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q4" t="s">
         <v>108</v>
       </c>
-      <c r="P4" t="s">
+      <c r="U4" t="s">
         <v>109</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
         <v>110</v>
       </c>
-      <c r="U4" t="s">
+      <c r="W4" t="s">
         <v>111</v>
       </c>
-      <c r="V4" t="s">
+      <c r="X4" t="s">
         <v>112</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Y4" t="s">
         <v>113</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Z4" t="s">
         <v>114</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AA4" t="s">
         <v>115</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AB4" t="s">
         <v>116</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AE4" t="s">
         <v>117</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AL4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM4" t="s">
         <v>118</v>
       </c>
-      <c r="AK4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL4" t="s">
+      <c r="AO4" t="s">
         <v>119</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AP4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ4" t="s">
         <v>120</v>
       </c>
-      <c r="AO4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AY4" t="s">
+      <c r="BA4" t="s">
         <v>121</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BB4" t="s">
         <v>122</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BC4" t="s">
         <v>123</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BD4" t="s">
         <v>124</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BE4" t="s">
         <v>125</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BF4" t="s">
         <v>126</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BG4" t="s">
         <v>127</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BI4" t="s">
         <v>128</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BJ4" t="s">
         <v>129</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BK4" t="s">
         <v>130</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BL4" t="s">
         <v>131</v>
       </c>
-      <c r="BK4" t="s">
+      <c r="BO4" t="s">
         <v>132</v>
       </c>
-      <c r="BN4" t="s">
+      <c r="BP4" t="s">
         <v>133</v>
       </c>
-      <c r="BO4" t="s">
+      <c r="BQ4" t="s">
         <v>134</v>
       </c>
-      <c r="BP4" t="s">
+      <c r="BU4" t="s">
         <v>135</v>
       </c>
-      <c r="BT4" t="s">
-        <v>136</v>
-      </c>
     </row>
-    <row r="5" spans="1:73">
+    <row r="5" spans="1:74">
       <c r="A5" t="s">
         <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C5" t="s">
         <v>100</v>
@@ -2287,123 +2425,126 @@
         <v>105</v>
       </c>
       <c r="J5" t="s">
+        <v>143</v>
+      </c>
+      <c r="K5" t="s">
+        <v>398</v>
+      </c>
+      <c r="L5" t="s">
         <v>144</v>
       </c>
-      <c r="K5" t="s">
-        <v>145</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q5" t="s">
         <v>108</v>
       </c>
-      <c r="P5" t="s">
+      <c r="U5" t="s">
         <v>109</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
         <v>110</v>
       </c>
-      <c r="U5" t="s">
+      <c r="W5" t="s">
         <v>111</v>
       </c>
-      <c r="V5" t="s">
+      <c r="X5" t="s">
         <v>112</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Y5" t="s">
         <v>113</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Z5" t="s">
         <v>114</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="AA5" t="s">
         <v>115</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AB5" t="s">
         <v>116</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AE5" t="s">
         <v>117</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AL5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM5" t="s">
         <v>118</v>
       </c>
-      <c r="AK5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL5" t="s">
+      <c r="AO5" t="s">
         <v>119</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AP5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ5" t="s">
         <v>120</v>
       </c>
-      <c r="AO5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AY5" t="s">
+      <c r="BA5" t="s">
         <v>121</v>
       </c>
-      <c r="AZ5" t="s">
+      <c r="BB5" t="s">
         <v>122</v>
       </c>
-      <c r="BA5" t="s">
+      <c r="BC5" t="s">
         <v>123</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BD5" t="s">
         <v>124</v>
       </c>
-      <c r="BC5" t="s">
+      <c r="BE5" t="s">
         <v>125</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="BF5" t="s">
         <v>126</v>
       </c>
-      <c r="BE5" t="s">
+      <c r="BG5" t="s">
         <v>127</v>
       </c>
-      <c r="BF5" t="s">
+      <c r="BI5" t="s">
         <v>128</v>
       </c>
-      <c r="BH5" t="s">
+      <c r="BJ5" t="s">
         <v>129</v>
       </c>
-      <c r="BI5" t="s">
+      <c r="BK5" t="s">
         <v>130</v>
       </c>
-      <c r="BJ5" t="s">
+      <c r="BL5" t="s">
         <v>131</v>
       </c>
-      <c r="BK5" t="s">
+      <c r="BO5" t="s">
         <v>132</v>
       </c>
-      <c r="BN5" t="s">
+      <c r="BP5" t="s">
         <v>133</v>
       </c>
-      <c r="BO5" t="s">
+      <c r="BQ5" t="s">
         <v>134</v>
       </c>
-      <c r="BP5" t="s">
+      <c r="BU5" t="s">
         <v>135</v>
       </c>
-      <c r="BT5" t="s">
-        <v>136</v>
-      </c>
     </row>
-    <row r="6" spans="1:73">
+    <row r="6" spans="1:74">
       <c r="A6" t="s">
         <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
         <v>100</v>
@@ -2427,123 +2568,126 @@
         <v>105</v>
       </c>
       <c r="J6" t="s">
+        <v>146</v>
+      </c>
+      <c r="K6" t="s">
+        <v>399</v>
+      </c>
+      <c r="L6" t="s">
         <v>147</v>
       </c>
-      <c r="K6" t="s">
-        <v>148</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q6" t="s">
         <v>108</v>
       </c>
-      <c r="P6" t="s">
+      <c r="U6" t="s">
         <v>109</v>
       </c>
-      <c r="T6" t="s">
+      <c r="V6" t="s">
         <v>110</v>
       </c>
-      <c r="U6" t="s">
+      <c r="W6" t="s">
         <v>111</v>
       </c>
-      <c r="V6" t="s">
+      <c r="X6" t="s">
         <v>112</v>
       </c>
-      <c r="W6" t="s">
+      <c r="Y6" t="s">
         <v>113</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Z6" t="s">
         <v>114</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="AA6" t="s">
         <v>115</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AB6" t="s">
         <v>116</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AE6" t="s">
         <v>117</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AL6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM6" t="s">
         <v>118</v>
       </c>
-      <c r="AK6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL6" t="s">
+      <c r="AO6" t="s">
         <v>119</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AP6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ6" t="s">
         <v>120</v>
       </c>
-      <c r="AO6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AY6" t="s">
+      <c r="BA6" t="s">
         <v>121</v>
       </c>
-      <c r="AZ6" t="s">
+      <c r="BB6" t="s">
         <v>122</v>
       </c>
-      <c r="BA6" t="s">
+      <c r="BC6" t="s">
         <v>123</v>
       </c>
-      <c r="BB6" t="s">
+      <c r="BD6" t="s">
         <v>124</v>
       </c>
-      <c r="BC6" t="s">
+      <c r="BE6" t="s">
         <v>125</v>
       </c>
-      <c r="BD6" t="s">
+      <c r="BF6" t="s">
         <v>126</v>
       </c>
-      <c r="BE6" t="s">
+      <c r="BG6" t="s">
         <v>127</v>
       </c>
-      <c r="BF6" t="s">
+      <c r="BI6" t="s">
         <v>128</v>
       </c>
-      <c r="BH6" t="s">
+      <c r="BJ6" t="s">
         <v>129</v>
       </c>
-      <c r="BI6" t="s">
+      <c r="BK6" t="s">
         <v>130</v>
       </c>
-      <c r="BJ6" t="s">
+      <c r="BL6" t="s">
         <v>131</v>
       </c>
-      <c r="BK6" t="s">
+      <c r="BO6" t="s">
         <v>132</v>
       </c>
-      <c r="BN6" t="s">
+      <c r="BP6" t="s">
         <v>133</v>
       </c>
-      <c r="BO6" t="s">
+      <c r="BQ6" t="s">
         <v>134</v>
       </c>
-      <c r="BP6" t="s">
+      <c r="BU6" t="s">
         <v>135</v>
       </c>
-      <c r="BT6" t="s">
-        <v>136</v>
-      </c>
     </row>
-    <row r="7" spans="1:73">
+    <row r="7" spans="1:74">
       <c r="A7" t="s">
         <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" t="s">
         <v>100</v>
@@ -2567,123 +2711,126 @@
         <v>105</v>
       </c>
       <c r="J7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K7" t="s">
+        <v>400</v>
+      </c>
+      <c r="L7" t="s">
         <v>150</v>
       </c>
-      <c r="K7" t="s">
-        <v>151</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q7" t="s">
         <v>108</v>
       </c>
-      <c r="P7" t="s">
+      <c r="U7" t="s">
         <v>109</v>
       </c>
-      <c r="T7" t="s">
+      <c r="V7" t="s">
         <v>110</v>
       </c>
-      <c r="U7" t="s">
+      <c r="W7" t="s">
         <v>111</v>
       </c>
-      <c r="V7" t="s">
+      <c r="X7" t="s">
         <v>112</v>
       </c>
-      <c r="W7" t="s">
+      <c r="Y7" t="s">
         <v>113</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Z7" t="s">
         <v>114</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="AA7" t="s">
         <v>115</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AB7" t="s">
         <v>116</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AE7" t="s">
         <v>117</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AL7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM7" t="s">
         <v>118</v>
       </c>
-      <c r="AK7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL7" t="s">
+      <c r="AO7" t="s">
         <v>119</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AP7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ7" t="s">
         <v>120</v>
       </c>
-      <c r="AO7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>71</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>73</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AY7" t="s">
+      <c r="BA7" t="s">
         <v>121</v>
       </c>
-      <c r="AZ7" t="s">
+      <c r="BB7" t="s">
         <v>122</v>
       </c>
-      <c r="BA7" t="s">
+      <c r="BC7" t="s">
         <v>123</v>
       </c>
-      <c r="BB7" t="s">
+      <c r="BD7" t="s">
         <v>124</v>
       </c>
-      <c r="BC7" t="s">
+      <c r="BE7" t="s">
         <v>125</v>
       </c>
-      <c r="BD7" t="s">
+      <c r="BF7" t="s">
         <v>126</v>
       </c>
-      <c r="BE7" t="s">
+      <c r="BG7" t="s">
         <v>127</v>
       </c>
-      <c r="BF7" t="s">
+      <c r="BI7" t="s">
         <v>128</v>
       </c>
-      <c r="BH7" t="s">
+      <c r="BJ7" t="s">
         <v>129</v>
       </c>
-      <c r="BI7" t="s">
+      <c r="BK7" t="s">
         <v>130</v>
       </c>
-      <c r="BJ7" t="s">
+      <c r="BL7" t="s">
         <v>131</v>
       </c>
-      <c r="BK7" t="s">
+      <c r="BO7" t="s">
         <v>132</v>
       </c>
-      <c r="BN7" t="s">
+      <c r="BP7" t="s">
         <v>133</v>
       </c>
-      <c r="BO7" t="s">
+      <c r="BQ7" t="s">
         <v>134</v>
       </c>
-      <c r="BP7" t="s">
+      <c r="BU7" t="s">
         <v>135</v>
       </c>
-      <c r="BT7" t="s">
-        <v>136</v>
-      </c>
     </row>
-    <row r="8" spans="1:73">
+    <row r="8" spans="1:74">
       <c r="A8" t="s">
         <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" t="s">
         <v>100</v>
@@ -2707,123 +2854,126 @@
         <v>105</v>
       </c>
       <c r="J8" t="s">
+        <v>152</v>
+      </c>
+      <c r="K8" t="s">
+        <v>401</v>
+      </c>
+      <c r="L8" t="s">
         <v>153</v>
       </c>
-      <c r="K8" t="s">
-        <v>154</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q8" t="s">
         <v>108</v>
       </c>
-      <c r="P8" t="s">
+      <c r="U8" t="s">
         <v>109</v>
       </c>
-      <c r="T8" t="s">
+      <c r="V8" t="s">
         <v>110</v>
       </c>
-      <c r="U8" t="s">
+      <c r="W8" t="s">
         <v>111</v>
       </c>
-      <c r="V8" t="s">
+      <c r="X8" t="s">
         <v>112</v>
       </c>
-      <c r="W8" t="s">
+      <c r="Y8" t="s">
         <v>113</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Z8" t="s">
         <v>114</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="AA8" t="s">
         <v>115</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AB8" t="s">
         <v>116</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AE8" t="s">
         <v>117</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AL8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM8" t="s">
         <v>118</v>
       </c>
-      <c r="AK8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL8" t="s">
+      <c r="AO8" t="s">
         <v>119</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AP8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ8" t="s">
         <v>120</v>
       </c>
-      <c r="AO8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>71</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>73</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AY8" t="s">
+      <c r="BA8" t="s">
         <v>121</v>
       </c>
-      <c r="AZ8" t="s">
+      <c r="BB8" t="s">
         <v>122</v>
       </c>
-      <c r="BA8" t="s">
+      <c r="BC8" t="s">
         <v>123</v>
       </c>
-      <c r="BB8" t="s">
+      <c r="BD8" t="s">
         <v>124</v>
       </c>
-      <c r="BC8" t="s">
+      <c r="BE8" t="s">
         <v>125</v>
       </c>
-      <c r="BD8" t="s">
+      <c r="BF8" t="s">
         <v>126</v>
       </c>
-      <c r="BE8" t="s">
+      <c r="BG8" t="s">
         <v>127</v>
       </c>
-      <c r="BF8" t="s">
+      <c r="BI8" t="s">
         <v>128</v>
       </c>
-      <c r="BH8" t="s">
+      <c r="BJ8" t="s">
         <v>129</v>
       </c>
-      <c r="BI8" t="s">
+      <c r="BK8" t="s">
         <v>130</v>
       </c>
-      <c r="BJ8" t="s">
+      <c r="BL8" t="s">
         <v>131</v>
       </c>
-      <c r="BK8" t="s">
+      <c r="BO8" t="s">
         <v>132</v>
       </c>
-      <c r="BN8" t="s">
+      <c r="BP8" t="s">
         <v>133</v>
       </c>
-      <c r="BO8" t="s">
+      <c r="BQ8" t="s">
         <v>134</v>
       </c>
-      <c r="BP8" t="s">
+      <c r="BU8" t="s">
         <v>135</v>
       </c>
-      <c r="BT8" t="s">
-        <v>136</v>
-      </c>
     </row>
-    <row r="9" spans="1:73">
+    <row r="9" spans="1:74">
       <c r="A9" t="s">
         <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C9" t="s">
         <v>100</v>
@@ -2847,123 +2997,126 @@
         <v>105</v>
       </c>
       <c r="J9" t="s">
+        <v>155</v>
+      </c>
+      <c r="K9" t="s">
+        <v>402</v>
+      </c>
+      <c r="L9" t="s">
         <v>156</v>
       </c>
-      <c r="K9" t="s">
-        <v>157</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q9" t="s">
         <v>108</v>
       </c>
-      <c r="P9" t="s">
+      <c r="U9" t="s">
         <v>109</v>
       </c>
-      <c r="T9" t="s">
+      <c r="V9" t="s">
         <v>110</v>
       </c>
-      <c r="U9" t="s">
+      <c r="W9" t="s">
         <v>111</v>
       </c>
-      <c r="V9" t="s">
+      <c r="X9" t="s">
         <v>112</v>
       </c>
-      <c r="W9" t="s">
+      <c r="Y9" t="s">
         <v>113</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Z9" t="s">
         <v>114</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="AA9" t="s">
         <v>115</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AB9" t="s">
         <v>116</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AE9" t="s">
         <v>117</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AL9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM9" t="s">
         <v>118</v>
       </c>
-      <c r="AK9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL9" t="s">
+      <c r="AO9" t="s">
         <v>119</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="AP9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ9" t="s">
         <v>120</v>
       </c>
-      <c r="AO9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>71</v>
-      </c>
-      <c r="AW9" t="s">
-        <v>73</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>74</v>
-      </c>
-      <c r="AY9" t="s">
+      <c r="BA9" t="s">
         <v>121</v>
       </c>
-      <c r="AZ9" t="s">
+      <c r="BB9" t="s">
         <v>122</v>
       </c>
-      <c r="BA9" t="s">
+      <c r="BC9" t="s">
         <v>123</v>
       </c>
-      <c r="BB9" t="s">
+      <c r="BD9" t="s">
         <v>124</v>
       </c>
-      <c r="BC9" t="s">
+      <c r="BE9" t="s">
         <v>125</v>
       </c>
-      <c r="BD9" t="s">
+      <c r="BF9" t="s">
         <v>126</v>
       </c>
-      <c r="BE9" t="s">
+      <c r="BG9" t="s">
         <v>127</v>
       </c>
-      <c r="BF9" t="s">
+      <c r="BI9" t="s">
         <v>128</v>
       </c>
-      <c r="BH9" t="s">
+      <c r="BJ9" t="s">
         <v>129</v>
       </c>
-      <c r="BI9" t="s">
+      <c r="BK9" t="s">
         <v>130</v>
       </c>
-      <c r="BJ9" t="s">
+      <c r="BL9" t="s">
         <v>131</v>
       </c>
-      <c r="BK9" t="s">
+      <c r="BO9" t="s">
         <v>132</v>
       </c>
-      <c r="BN9" t="s">
+      <c r="BP9" t="s">
         <v>133</v>
       </c>
-      <c r="BO9" t="s">
+      <c r="BQ9" t="s">
         <v>134</v>
       </c>
-      <c r="BP9" t="s">
+      <c r="BU9" t="s">
         <v>135</v>
       </c>
-      <c r="BT9" t="s">
-        <v>136</v>
-      </c>
     </row>
-    <row r="10" spans="1:73">
+    <row r="10" spans="1:74">
       <c r="A10" t="s">
         <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10" t="s">
         <v>100</v>
@@ -2987,129 +3140,132 @@
         <v>105</v>
       </c>
       <c r="J10" t="s">
+        <v>158</v>
+      </c>
+      <c r="K10" t="s">
+        <v>403</v>
+      </c>
+      <c r="L10" t="s">
         <v>159</v>
       </c>
-      <c r="K10" t="s">
-        <v>160</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q10" t="s">
         <v>108</v>
       </c>
-      <c r="P10" t="s">
+      <c r="U10" t="s">
         <v>109</v>
       </c>
-      <c r="T10" t="s">
+      <c r="V10" t="s">
         <v>110</v>
       </c>
-      <c r="U10" t="s">
+      <c r="W10" t="s">
         <v>111</v>
       </c>
-      <c r="V10" t="s">
+      <c r="X10" t="s">
         <v>112</v>
       </c>
-      <c r="W10" t="s">
+      <c r="Y10" t="s">
         <v>113</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Z10" t="s">
         <v>114</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="AA10" t="s">
         <v>115</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AB10" t="s">
         <v>116</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AE10" t="s">
         <v>117</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AL10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM10" t="s">
         <v>118</v>
       </c>
-      <c r="AK10" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL10" t="s">
+      <c r="AO10" t="s">
         <v>119</v>
       </c>
-      <c r="AN10" t="s">
+      <c r="AP10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ10" t="s">
         <v>120</v>
       </c>
-      <c r="AO10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>71</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AX10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AY10" t="s">
+      <c r="BA10" t="s">
         <v>121</v>
       </c>
-      <c r="AZ10" t="s">
+      <c r="BB10" t="s">
         <v>122</v>
       </c>
-      <c r="BA10" t="s">
+      <c r="BC10" t="s">
         <v>123</v>
       </c>
-      <c r="BB10" t="s">
+      <c r="BD10" t="s">
         <v>124</v>
       </c>
-      <c r="BC10" t="s">
+      <c r="BE10" t="s">
         <v>125</v>
       </c>
-      <c r="BD10" t="s">
+      <c r="BF10" t="s">
         <v>126</v>
       </c>
-      <c r="BE10" t="s">
+      <c r="BG10" t="s">
         <v>127</v>
       </c>
-      <c r="BF10" t="s">
+      <c r="BI10" t="s">
         <v>128</v>
       </c>
-      <c r="BH10" t="s">
+      <c r="BJ10" t="s">
         <v>129</v>
       </c>
-      <c r="BI10" t="s">
+      <c r="BK10" t="s">
         <v>130</v>
       </c>
-      <c r="BJ10" t="s">
+      <c r="BL10" t="s">
         <v>131</v>
       </c>
-      <c r="BK10" t="s">
+      <c r="BO10" t="s">
         <v>132</v>
       </c>
-      <c r="BN10" t="s">
+      <c r="BP10" t="s">
         <v>133</v>
       </c>
-      <c r="BO10" t="s">
+      <c r="BQ10" t="s">
         <v>134</v>
       </c>
-      <c r="BP10" t="s">
+      <c r="BU10" t="s">
         <v>135</v>
       </c>
-      <c r="BT10" t="s">
-        <v>136</v>
-      </c>
     </row>
-    <row r="11" spans="1:73">
+    <row r="11" spans="1:74">
       <c r="A11" t="s">
         <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C11" t="s">
         <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -3118,153 +3274,156 @@
         <v>102</v>
       </c>
       <c r="G11" t="s">
+        <v>162</v>
+      </c>
+      <c r="H11" t="s">
         <v>163</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>164</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
+        <v>407</v>
+      </c>
+      <c r="L11" t="s">
         <v>165</v>
       </c>
-      <c r="K11" t="s">
+      <c r="N11">
+        <v>-999</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>108</v>
+      </c>
+      <c r="S11" t="s">
         <v>166</v>
       </c>
-      <c r="M11">
-        <v>-999</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="s">
-        <v>109</v>
-      </c>
-      <c r="R11" t="s">
+      <c r="U11" t="s">
         <v>167</v>
-      </c>
-      <c r="T11" t="s">
-        <v>168</v>
-      </c>
-      <c r="U11" t="s">
-        <v>169</v>
       </c>
       <c r="V11" t="s">
         <v>168</v>
       </c>
       <c r="W11" t="s">
+        <v>167</v>
+      </c>
+      <c r="X11" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z11" t="s">
         <v>169</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="AA11" t="s">
         <v>170</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AB11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD11" t="s">
         <v>171</v>
       </c>
-      <c r="AA11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC11" t="s">
+      <c r="AE11" t="s">
         <v>172</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AI11" t="s">
         <v>173</v>
       </c>
-      <c r="AH11" t="s">
+      <c r="AK11" t="s">
         <v>174</v>
       </c>
-      <c r="AJ11" t="s">
+      <c r="AL11" t="s">
         <v>175</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AM11" t="s">
         <v>176</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AP11" t="s">
         <v>177</v>
       </c>
-      <c r="AO11" t="s">
+      <c r="AQ11" t="s">
         <v>178</v>
       </c>
-      <c r="AP11" t="s">
+      <c r="AT11" t="s">
         <v>179</v>
       </c>
-      <c r="AS11" t="s">
+      <c r="AV11" t="s">
         <v>180</v>
       </c>
-      <c r="AU11" t="s">
+      <c r="AW11" t="s">
         <v>181</v>
       </c>
-      <c r="AV11" t="s">
+      <c r="AX11" t="s">
         <v>182</v>
       </c>
-      <c r="AW11" t="s">
+      <c r="AY11" t="s">
         <v>183</v>
       </c>
-      <c r="AX11" t="s">
+      <c r="AZ11" t="s">
         <v>184</v>
       </c>
-      <c r="AY11" t="s">
+      <c r="BA11" t="s">
         <v>185</v>
       </c>
-      <c r="AZ11" t="s">
+      <c r="BB11" t="s">
         <v>186</v>
       </c>
-      <c r="BA11" t="s">
+      <c r="BC11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD11" t="s">
         <v>187</v>
       </c>
-      <c r="BB11" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC11" t="s">
+      <c r="BE11" t="s">
         <v>188</v>
       </c>
-      <c r="BD11" t="s">
+      <c r="BF11" t="s">
+        <v>126</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>127</v>
+      </c>
+      <c r="BI11" t="s">
         <v>189</v>
       </c>
-      <c r="BE11" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF11" t="s">
-        <v>128</v>
-      </c>
-      <c r="BH11" t="s">
+      <c r="BJ11" t="s">
         <v>190</v>
       </c>
-      <c r="BI11" t="s">
+      <c r="BK11" t="s">
         <v>191</v>
       </c>
-      <c r="BJ11" t="s">
+      <c r="BN11" t="s">
         <v>192</v>
       </c>
-      <c r="BM11" t="s">
+      <c r="BO11" t="s">
         <v>193</v>
       </c>
-      <c r="BN11" t="s">
+      <c r="BP11" t="s">
         <v>194</v>
       </c>
-      <c r="BO11" t="s">
+      <c r="BQ11" t="s">
         <v>195</v>
       </c>
-      <c r="BP11" t="s">
-        <v>196</v>
-      </c>
-      <c r="BS11" t="s">
+      <c r="BT11" t="s">
         <v>95</v>
       </c>
-      <c r="BT11" t="s">
+      <c r="BU11" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:73">
+    <row r="12" spans="1:74">
       <c r="A12" t="s">
         <v>98</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C12" t="s">
         <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -3273,153 +3432,156 @@
         <v>102</v>
       </c>
       <c r="G12" t="s">
+        <v>162</v>
+      </c>
+      <c r="H12" t="s">
         <v>163</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>164</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
+        <v>408</v>
+      </c>
+      <c r="L12" t="s">
         <v>165</v>
       </c>
-      <c r="K12" t="s">
+      <c r="N12">
+        <v>-999</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>108</v>
+      </c>
+      <c r="S12" t="s">
         <v>166</v>
       </c>
-      <c r="M12">
-        <v>-999</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="s">
-        <v>109</v>
-      </c>
-      <c r="R12" t="s">
+      <c r="U12" t="s">
         <v>167</v>
-      </c>
-      <c r="T12" t="s">
-        <v>168</v>
-      </c>
-      <c r="U12" t="s">
-        <v>169</v>
       </c>
       <c r="V12" t="s">
         <v>168</v>
       </c>
       <c r="W12" t="s">
+        <v>167</v>
+      </c>
+      <c r="X12" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z12" t="s">
         <v>169</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="AA12" t="s">
         <v>170</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AB12" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD12" t="s">
         <v>171</v>
       </c>
-      <c r="AA12" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC12" t="s">
+      <c r="AE12" t="s">
         <v>172</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AI12" t="s">
         <v>173</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AK12" t="s">
         <v>174</v>
       </c>
-      <c r="AJ12" t="s">
+      <c r="AL12" t="s">
         <v>175</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AM12" t="s">
         <v>176</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AP12" t="s">
         <v>177</v>
       </c>
-      <c r="AO12" t="s">
+      <c r="AQ12" t="s">
         <v>178</v>
       </c>
-      <c r="AP12" t="s">
+      <c r="AT12" t="s">
         <v>179</v>
       </c>
-      <c r="AS12" t="s">
+      <c r="AV12" t="s">
         <v>180</v>
       </c>
-      <c r="AU12" t="s">
+      <c r="AW12" t="s">
         <v>181</v>
       </c>
-      <c r="AV12" t="s">
+      <c r="AX12" t="s">
         <v>182</v>
       </c>
-      <c r="AW12" t="s">
+      <c r="AY12" t="s">
         <v>183</v>
       </c>
-      <c r="AX12" t="s">
+      <c r="AZ12" t="s">
         <v>184</v>
       </c>
-      <c r="AY12" t="s">
+      <c r="BA12" t="s">
         <v>185</v>
       </c>
-      <c r="AZ12" t="s">
+      <c r="BB12" t="s">
         <v>186</v>
       </c>
-      <c r="BA12" t="s">
+      <c r="BC12" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD12" t="s">
         <v>187</v>
       </c>
-      <c r="BB12" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC12" t="s">
+      <c r="BE12" t="s">
         <v>188</v>
       </c>
-      <c r="BD12" t="s">
+      <c r="BF12" t="s">
+        <v>126</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>127</v>
+      </c>
+      <c r="BI12" t="s">
         <v>189</v>
       </c>
-      <c r="BE12" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF12" t="s">
-        <v>128</v>
-      </c>
-      <c r="BH12" t="s">
+      <c r="BJ12" t="s">
         <v>190</v>
       </c>
-      <c r="BI12" t="s">
+      <c r="BK12" t="s">
         <v>191</v>
       </c>
-      <c r="BJ12" t="s">
+      <c r="BN12" t="s">
         <v>192</v>
       </c>
-      <c r="BM12" t="s">
+      <c r="BO12" t="s">
         <v>193</v>
       </c>
-      <c r="BN12" t="s">
+      <c r="BP12" t="s">
         <v>194</v>
       </c>
-      <c r="BO12" t="s">
+      <c r="BQ12" t="s">
         <v>195</v>
       </c>
-      <c r="BP12" t="s">
-        <v>196</v>
-      </c>
-      <c r="BS12" t="s">
+      <c r="BT12" t="s">
         <v>95</v>
       </c>
-      <c r="BT12" t="s">
+      <c r="BU12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:73">
+    <row r="13" spans="1:74">
       <c r="A13" t="s">
         <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C13" t="s">
         <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -3428,153 +3590,156 @@
         <v>102</v>
       </c>
       <c r="G13" t="s">
+        <v>162</v>
+      </c>
+      <c r="H13" t="s">
         <v>163</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>164</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
+        <v>409</v>
+      </c>
+      <c r="L13" t="s">
         <v>165</v>
       </c>
-      <c r="K13" t="s">
+      <c r="N13">
+        <v>-999</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>108</v>
+      </c>
+      <c r="S13" t="s">
         <v>166</v>
       </c>
-      <c r="M13">
-        <v>-999</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="s">
-        <v>109</v>
-      </c>
-      <c r="R13" t="s">
+      <c r="U13" t="s">
         <v>167</v>
-      </c>
-      <c r="T13" t="s">
-        <v>168</v>
-      </c>
-      <c r="U13" t="s">
-        <v>169</v>
       </c>
       <c r="V13" t="s">
         <v>168</v>
       </c>
       <c r="W13" t="s">
+        <v>167</v>
+      </c>
+      <c r="X13" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z13" t="s">
         <v>169</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="AA13" t="s">
         <v>170</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AB13" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD13" t="s">
         <v>171</v>
       </c>
-      <c r="AA13" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC13" t="s">
+      <c r="AE13" t="s">
         <v>172</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AI13" t="s">
         <v>173</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AK13" t="s">
         <v>174</v>
       </c>
-      <c r="AJ13" t="s">
+      <c r="AL13" t="s">
         <v>175</v>
       </c>
-      <c r="AK13" t="s">
+      <c r="AM13" t="s">
         <v>176</v>
       </c>
-      <c r="AL13" t="s">
+      <c r="AP13" t="s">
         <v>177</v>
       </c>
-      <c r="AO13" t="s">
+      <c r="AQ13" t="s">
         <v>178</v>
       </c>
-      <c r="AP13" t="s">
+      <c r="AT13" t="s">
         <v>179</v>
       </c>
-      <c r="AS13" t="s">
+      <c r="AV13" t="s">
         <v>180</v>
       </c>
-      <c r="AU13" t="s">
+      <c r="AW13" t="s">
         <v>181</v>
       </c>
-      <c r="AV13" t="s">
+      <c r="AX13" t="s">
         <v>182</v>
       </c>
-      <c r="AW13" t="s">
+      <c r="AY13" t="s">
         <v>183</v>
       </c>
-      <c r="AX13" t="s">
+      <c r="AZ13" t="s">
         <v>184</v>
       </c>
-      <c r="AY13" t="s">
+      <c r="BA13" t="s">
         <v>185</v>
       </c>
-      <c r="AZ13" t="s">
+      <c r="BB13" t="s">
         <v>186</v>
       </c>
-      <c r="BA13" t="s">
+      <c r="BC13" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD13" t="s">
         <v>187</v>
       </c>
-      <c r="BB13" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC13" t="s">
+      <c r="BE13" t="s">
         <v>188</v>
       </c>
-      <c r="BD13" t="s">
+      <c r="BF13" t="s">
+        <v>126</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>127</v>
+      </c>
+      <c r="BI13" t="s">
         <v>189</v>
       </c>
-      <c r="BE13" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF13" t="s">
-        <v>128</v>
-      </c>
-      <c r="BH13" t="s">
+      <c r="BJ13" t="s">
         <v>190</v>
       </c>
-      <c r="BI13" t="s">
+      <c r="BK13" t="s">
         <v>191</v>
       </c>
-      <c r="BJ13" t="s">
+      <c r="BN13" t="s">
         <v>192</v>
       </c>
-      <c r="BM13" t="s">
+      <c r="BO13" t="s">
         <v>193</v>
       </c>
-      <c r="BN13" t="s">
+      <c r="BP13" t="s">
         <v>194</v>
       </c>
-      <c r="BO13" t="s">
+      <c r="BQ13" t="s">
         <v>195</v>
       </c>
-      <c r="BP13" t="s">
-        <v>196</v>
-      </c>
-      <c r="BS13" t="s">
+      <c r="BT13" t="s">
         <v>95</v>
       </c>
-      <c r="BT13" t="s">
+      <c r="BU13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:73">
+    <row r="14" spans="1:74">
       <c r="A14" t="s">
         <v>98</v>
       </c>
       <c r="B14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C14" t="s">
         <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -3583,153 +3748,156 @@
         <v>102</v>
       </c>
       <c r="G14" t="s">
+        <v>162</v>
+      </c>
+      <c r="H14" t="s">
         <v>163</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>164</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
+        <v>410</v>
+      </c>
+      <c r="L14" t="s">
         <v>165</v>
       </c>
-      <c r="K14" t="s">
+      <c r="N14">
+        <v>-999</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>108</v>
+      </c>
+      <c r="S14" t="s">
         <v>166</v>
       </c>
-      <c r="M14">
-        <v>-999</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="s">
-        <v>109</v>
-      </c>
-      <c r="R14" t="s">
+      <c r="U14" t="s">
         <v>167</v>
-      </c>
-      <c r="T14" t="s">
-        <v>168</v>
-      </c>
-      <c r="U14" t="s">
-        <v>169</v>
       </c>
       <c r="V14" t="s">
         <v>168</v>
       </c>
       <c r="W14" t="s">
+        <v>167</v>
+      </c>
+      <c r="X14" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z14" t="s">
         <v>169</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="AA14" t="s">
         <v>170</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AB14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD14" t="s">
         <v>171</v>
       </c>
-      <c r="AA14" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC14" t="s">
+      <c r="AE14" t="s">
         <v>172</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AI14" t="s">
         <v>173</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="AK14" t="s">
         <v>174</v>
       </c>
-      <c r="AJ14" t="s">
+      <c r="AL14" t="s">
         <v>175</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AM14" t="s">
         <v>176</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AP14" t="s">
         <v>177</v>
       </c>
-      <c r="AO14" t="s">
+      <c r="AQ14" t="s">
         <v>178</v>
       </c>
-      <c r="AP14" t="s">
+      <c r="AT14" t="s">
         <v>179</v>
       </c>
-      <c r="AS14" t="s">
+      <c r="AV14" t="s">
         <v>180</v>
       </c>
-      <c r="AU14" t="s">
+      <c r="AW14" t="s">
         <v>181</v>
       </c>
-      <c r="AV14" t="s">
+      <c r="AX14" t="s">
         <v>182</v>
       </c>
-      <c r="AW14" t="s">
+      <c r="AY14" t="s">
         <v>183</v>
       </c>
-      <c r="AX14" t="s">
+      <c r="AZ14" t="s">
         <v>184</v>
       </c>
-      <c r="AY14" t="s">
+      <c r="BA14" t="s">
         <v>185</v>
       </c>
-      <c r="AZ14" t="s">
+      <c r="BB14" t="s">
         <v>186</v>
       </c>
-      <c r="BA14" t="s">
+      <c r="BC14" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD14" t="s">
         <v>187</v>
       </c>
-      <c r="BB14" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC14" t="s">
+      <c r="BE14" t="s">
         <v>188</v>
       </c>
-      <c r="BD14" t="s">
+      <c r="BF14" t="s">
+        <v>126</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>127</v>
+      </c>
+      <c r="BI14" t="s">
         <v>189</v>
       </c>
-      <c r="BE14" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF14" t="s">
-        <v>128</v>
-      </c>
-      <c r="BH14" t="s">
+      <c r="BJ14" t="s">
         <v>190</v>
       </c>
-      <c r="BI14" t="s">
+      <c r="BK14" t="s">
         <v>191</v>
       </c>
-      <c r="BJ14" t="s">
+      <c r="BN14" t="s">
         <v>192</v>
       </c>
-      <c r="BM14" t="s">
+      <c r="BO14" t="s">
         <v>193</v>
       </c>
-      <c r="BN14" t="s">
+      <c r="BP14" t="s">
         <v>194</v>
       </c>
-      <c r="BO14" t="s">
+      <c r="BQ14" t="s">
         <v>195</v>
       </c>
-      <c r="BP14" t="s">
-        <v>196</v>
-      </c>
-      <c r="BS14" t="s">
+      <c r="BT14" t="s">
         <v>95</v>
       </c>
-      <c r="BT14" t="s">
+      <c r="BU14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:73">
+    <row r="15" spans="1:74">
       <c r="A15" t="s">
         <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C15" t="s">
         <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -3738,147 +3906,150 @@
         <v>102</v>
       </c>
       <c r="G15" t="s">
+        <v>203</v>
+      </c>
+      <c r="H15" t="s">
         <v>204</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>205</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>206</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
+        <v>393</v>
+      </c>
+      <c r="L15" t="s">
         <v>207</v>
       </c>
-      <c r="K15" t="s">
+      <c r="N15">
+        <v>-9999</v>
+      </c>
+      <c r="O15">
+        <v>-8888</v>
+      </c>
+      <c r="Q15" t="s">
         <v>208</v>
       </c>
-      <c r="M15">
-        <v>-9999</v>
-      </c>
-      <c r="N15">
-        <v>-8888</v>
-      </c>
-      <c r="P15" t="s">
+      <c r="S15" t="s">
         <v>209</v>
       </c>
-      <c r="R15" t="s">
+      <c r="U15" t="s">
         <v>210</v>
       </c>
-      <c r="T15" t="s">
+      <c r="V15" t="s">
         <v>211</v>
       </c>
-      <c r="U15" t="s">
+      <c r="W15" t="s">
         <v>212</v>
       </c>
-      <c r="V15" t="s">
+      <c r="X15" t="s">
         <v>213</v>
       </c>
-      <c r="W15" t="s">
+      <c r="Y15" t="s">
         <v>214</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Z15" t="s">
         <v>215</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="AA15" t="s">
         <v>216</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AB15" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC15" t="s">
         <v>217</v>
       </c>
-      <c r="AA15" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB15" t="s">
+      <c r="AD15" t="s">
         <v>218</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AE15" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI15" t="s">
         <v>219</v>
       </c>
-      <c r="AD15" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH15" t="s">
+      <c r="AK15" t="s">
         <v>220</v>
       </c>
-      <c r="AJ15" t="s">
+      <c r="AL15" t="s">
         <v>221</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AM15" t="s">
         <v>222</v>
       </c>
-      <c r="AL15" t="s">
+      <c r="AP15" t="s">
         <v>223</v>
       </c>
-      <c r="AO15" t="s">
+      <c r="AQ15" t="s">
         <v>224</v>
       </c>
-      <c r="AP15" t="s">
+      <c r="AS15" t="s">
         <v>225</v>
       </c>
-      <c r="AR15" t="s">
+      <c r="AX15" t="s">
         <v>226</v>
       </c>
-      <c r="AW15" t="s">
+      <c r="AZ15" t="s">
         <v>227</v>
       </c>
-      <c r="AY15" t="s">
+      <c r="BA15" t="s">
         <v>228</v>
       </c>
-      <c r="AZ15" t="s">
+      <c r="BB15" t="s">
+        <v>186</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>187</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>188</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>126</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>189</v>
+      </c>
+      <c r="BN15" t="s">
         <v>229</v>
       </c>
-      <c r="BA15" t="s">
-        <v>187</v>
-      </c>
-      <c r="BB15" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC15" t="s">
-        <v>188</v>
-      </c>
-      <c r="BD15" t="s">
-        <v>189</v>
-      </c>
-      <c r="BE15" t="s">
-        <v>127</v>
-      </c>
-      <c r="BH15" t="s">
-        <v>190</v>
-      </c>
-      <c r="BM15" t="s">
+      <c r="BO15" t="s">
+        <v>193</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>194</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>195</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>95</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>96</v>
+      </c>
+      <c r="BV15" t="s">
         <v>230</v>
       </c>
-      <c r="BN15" t="s">
-        <v>194</v>
-      </c>
-      <c r="BO15" t="s">
-        <v>195</v>
-      </c>
-      <c r="BP15" t="s">
-        <v>196</v>
-      </c>
-      <c r="BS15" t="s">
-        <v>95</v>
-      </c>
-      <c r="BT15" t="s">
-        <v>96</v>
-      </c>
-      <c r="BU15" t="s">
-        <v>231</v>
-      </c>
     </row>
-    <row r="16" spans="1:73">
+    <row r="16" spans="1:74">
       <c r="A16" t="s">
         <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C16" t="s">
         <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -3887,153 +4058,156 @@
         <v>102</v>
       </c>
       <c r="G16" t="s">
+        <v>162</v>
+      </c>
+      <c r="H16" t="s">
         <v>163</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>164</v>
       </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
+        <v>411</v>
+      </c>
+      <c r="L16" t="s">
         <v>165</v>
       </c>
-      <c r="K16" t="s">
+      <c r="N16">
+        <v>-999</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>108</v>
+      </c>
+      <c r="S16" t="s">
         <v>166</v>
       </c>
-      <c r="M16">
-        <v>-999</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="s">
-        <v>109</v>
-      </c>
-      <c r="R16" t="s">
+      <c r="U16" t="s">
         <v>167</v>
-      </c>
-      <c r="T16" t="s">
-        <v>168</v>
-      </c>
-      <c r="U16" t="s">
-        <v>169</v>
       </c>
       <c r="V16" t="s">
         <v>168</v>
       </c>
       <c r="W16" t="s">
+        <v>167</v>
+      </c>
+      <c r="X16" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z16" t="s">
         <v>169</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="AA16" t="s">
         <v>170</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AB16" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD16" t="s">
         <v>171</v>
       </c>
-      <c r="AA16" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC16" t="s">
+      <c r="AE16" t="s">
         <v>172</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AI16" t="s">
         <v>173</v>
       </c>
-      <c r="AH16" t="s">
+      <c r="AK16" t="s">
         <v>174</v>
       </c>
-      <c r="AJ16" t="s">
+      <c r="AL16" t="s">
         <v>175</v>
       </c>
-      <c r="AK16" t="s">
+      <c r="AM16" t="s">
         <v>176</v>
       </c>
-      <c r="AL16" t="s">
+      <c r="AP16" t="s">
         <v>177</v>
       </c>
-      <c r="AO16" t="s">
+      <c r="AQ16" t="s">
         <v>178</v>
       </c>
-      <c r="AP16" t="s">
+      <c r="AT16" t="s">
         <v>179</v>
       </c>
-      <c r="AS16" t="s">
+      <c r="AV16" t="s">
         <v>180</v>
       </c>
-      <c r="AU16" t="s">
+      <c r="AW16" t="s">
         <v>181</v>
       </c>
-      <c r="AV16" t="s">
+      <c r="AX16" t="s">
         <v>182</v>
       </c>
-      <c r="AW16" t="s">
+      <c r="AY16" t="s">
         <v>183</v>
       </c>
-      <c r="AX16" t="s">
+      <c r="AZ16" t="s">
         <v>184</v>
       </c>
-      <c r="AY16" t="s">
+      <c r="BA16" t="s">
         <v>185</v>
       </c>
-      <c r="AZ16" t="s">
+      <c r="BB16" t="s">
         <v>186</v>
       </c>
-      <c r="BA16" t="s">
+      <c r="BC16" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD16" t="s">
         <v>187</v>
       </c>
-      <c r="BB16" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC16" t="s">
+      <c r="BE16" t="s">
         <v>188</v>
       </c>
-      <c r="BD16" t="s">
+      <c r="BF16" t="s">
+        <v>126</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>127</v>
+      </c>
+      <c r="BI16" t="s">
         <v>189</v>
       </c>
-      <c r="BE16" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF16" t="s">
-        <v>128</v>
-      </c>
-      <c r="BH16" t="s">
+      <c r="BJ16" t="s">
         <v>190</v>
       </c>
-      <c r="BI16" t="s">
+      <c r="BK16" t="s">
         <v>191</v>
       </c>
-      <c r="BJ16" t="s">
+      <c r="BN16" t="s">
         <v>192</v>
       </c>
-      <c r="BM16" t="s">
+      <c r="BO16" t="s">
         <v>193</v>
       </c>
-      <c r="BN16" t="s">
+      <c r="BP16" t="s">
         <v>194</v>
       </c>
-      <c r="BO16" t="s">
+      <c r="BQ16" t="s">
         <v>195</v>
       </c>
-      <c r="BP16" t="s">
-        <v>196</v>
-      </c>
-      <c r="BS16" t="s">
+      <c r="BT16" t="s">
         <v>95</v>
       </c>
-      <c r="BT16" t="s">
+      <c r="BU16" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:73">
+    <row r="17" spans="1:74">
       <c r="A17" t="s">
         <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C17" t="s">
         <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
@@ -4042,215 +4216,221 @@
         <v>102</v>
       </c>
       <c r="G17" t="s">
+        <v>162</v>
+      </c>
+      <c r="H17" t="s">
         <v>163</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>164</v>
       </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
+        <v>412</v>
+      </c>
+      <c r="L17" t="s">
         <v>165</v>
       </c>
-      <c r="K17" t="s">
+      <c r="N17">
+        <v>-999</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>108</v>
+      </c>
+      <c r="S17" t="s">
         <v>166</v>
       </c>
-      <c r="M17">
-        <v>-999</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="s">
-        <v>109</v>
-      </c>
-      <c r="R17" t="s">
+      <c r="U17" t="s">
         <v>167</v>
-      </c>
-      <c r="T17" t="s">
-        <v>168</v>
-      </c>
-      <c r="U17" t="s">
-        <v>169</v>
       </c>
       <c r="V17" t="s">
         <v>168</v>
       </c>
       <c r="W17" t="s">
+        <v>167</v>
+      </c>
+      <c r="X17" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z17" t="s">
         <v>169</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="AA17" t="s">
         <v>170</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AB17" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD17" t="s">
         <v>171</v>
       </c>
-      <c r="AA17" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC17" t="s">
+      <c r="AE17" t="s">
         <v>172</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AI17" t="s">
         <v>173</v>
       </c>
-      <c r="AH17" t="s">
+      <c r="AK17" t="s">
         <v>174</v>
       </c>
-      <c r="AJ17" t="s">
+      <c r="AL17" t="s">
         <v>175</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="AM17" t="s">
         <v>176</v>
       </c>
-      <c r="AL17" t="s">
+      <c r="AP17" t="s">
         <v>177</v>
       </c>
-      <c r="AO17" t="s">
+      <c r="AQ17" t="s">
         <v>178</v>
       </c>
-      <c r="AP17" t="s">
+      <c r="AT17" t="s">
         <v>179</v>
       </c>
-      <c r="AS17" t="s">
+      <c r="AV17" t="s">
         <v>180</v>
       </c>
-      <c r="AU17" t="s">
+      <c r="AW17" t="s">
         <v>181</v>
       </c>
-      <c r="AV17" t="s">
+      <c r="AX17" t="s">
         <v>182</v>
       </c>
-      <c r="AW17" t="s">
+      <c r="AY17" t="s">
         <v>183</v>
       </c>
-      <c r="AX17" t="s">
+      <c r="AZ17" t="s">
         <v>184</v>
       </c>
-      <c r="AY17" t="s">
+      <c r="BA17" t="s">
         <v>185</v>
       </c>
-      <c r="AZ17" t="s">
+      <c r="BB17" t="s">
         <v>186</v>
       </c>
-      <c r="BA17" t="s">
+      <c r="BC17" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD17" t="s">
         <v>187</v>
       </c>
-      <c r="BB17" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC17" t="s">
+      <c r="BE17" t="s">
         <v>188</v>
       </c>
-      <c r="BD17" t="s">
+      <c r="BF17" t="s">
+        <v>126</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>127</v>
+      </c>
+      <c r="BI17" t="s">
         <v>189</v>
       </c>
-      <c r="BE17" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF17" t="s">
-        <v>128</v>
-      </c>
-      <c r="BH17" t="s">
+      <c r="BJ17" t="s">
         <v>190</v>
       </c>
-      <c r="BI17" t="s">
+      <c r="BK17" t="s">
         <v>191</v>
       </c>
-      <c r="BJ17" t="s">
+      <c r="BN17" t="s">
         <v>192</v>
       </c>
-      <c r="BM17" t="s">
+      <c r="BO17" t="s">
         <v>193</v>
       </c>
-      <c r="BN17" t="s">
+      <c r="BP17" t="s">
         <v>194</v>
       </c>
-      <c r="BO17" t="s">
+      <c r="BQ17" t="s">
         <v>195</v>
       </c>
-      <c r="BP17" t="s">
-        <v>196</v>
-      </c>
-      <c r="BS17" t="s">
+      <c r="BT17" t="s">
         <v>95</v>
       </c>
-      <c r="BT17" t="s">
+      <c r="BU17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:73">
+    <row r="18" spans="1:74">
       <c r="A18" t="s">
         <v>98</v>
       </c>
       <c r="B18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C18" t="s">
         <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F18" t="s">
         <v>102</v>
       </c>
       <c r="G18" t="s">
+        <v>314</v>
+      </c>
+      <c r="H18" t="s">
         <v>315</v>
       </c>
-      <c r="H18" t="s">
-        <v>316</v>
-      </c>
       <c r="J18" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="K18" t="s">
-        <v>320</v>
-      </c>
-      <c r="P18" t="s">
-        <v>109</v>
-      </c>
-      <c r="R18" t="s">
+        <v>313</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="L18" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>108</v>
+      </c>
+      <c r="S18" t="s">
+        <v>209</v>
+      </c>
+      <c r="U18" t="s">
         <v>210</v>
       </c>
-      <c r="T18" t="s">
-        <v>211</v>
-      </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z18" t="s">
         <v>287</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="AA18" t="s">
         <v>288</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AB18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF18" t="s">
         <v>289</v>
       </c>
-      <c r="AA18" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>290</v>
-      </c>
     </row>
-    <row r="19" spans="1:73">
+    <row r="19" spans="1:74">
       <c r="A19" t="s">
         <v>98</v>
       </c>
       <c r="B19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C19" t="s">
         <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>16</v>
@@ -4259,63 +4439,66 @@
         <v>102</v>
       </c>
       <c r="G19" t="s">
+        <v>317</v>
+      </c>
+      <c r="H19" t="s">
+        <v>315</v>
+      </c>
+      <c r="I19" t="s">
         <v>318</v>
       </c>
-      <c r="H19" t="s">
+      <c r="J19" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="I19" t="s">
+      <c r="K19" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="L19" t="s">
         <v>319</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="K19" t="s">
-        <v>320</v>
-      </c>
-      <c r="P19" t="s">
-        <v>109</v>
-      </c>
-      <c r="R19" t="s">
+      <c r="Q19" t="s">
+        <v>108</v>
+      </c>
+      <c r="S19" t="s">
+        <v>209</v>
+      </c>
+      <c r="U19" t="s">
         <v>210</v>
       </c>
-      <c r="T19" t="s">
-        <v>211</v>
-      </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z19" t="s">
         <v>287</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="AA19" t="s">
         <v>288</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AB19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF19" t="s">
         <v>289</v>
       </c>
-      <c r="AA19" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>290</v>
-      </c>
     </row>
-    <row r="20" spans="1:73">
+    <row r="20" spans="1:74">
       <c r="A20" t="s">
         <v>98</v>
       </c>
       <c r="B20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C20" t="s">
         <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E20" t="s">
         <v>17</v>
@@ -4324,150 +4507,153 @@
         <v>102</v>
       </c>
       <c r="G20" t="s">
+        <v>203</v>
+      </c>
+      <c r="H20" t="s">
         <v>204</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>205</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>206</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
+        <v>393</v>
+      </c>
+      <c r="L20" t="s">
         <v>207</v>
       </c>
-      <c r="K20" t="s">
+      <c r="N20">
+        <v>-9999</v>
+      </c>
+      <c r="O20">
+        <v>-8888</v>
+      </c>
+      <c r="Q20" t="s">
         <v>208</v>
       </c>
-      <c r="M20">
-        <v>-9999</v>
-      </c>
-      <c r="N20">
-        <v>-8888</v>
-      </c>
-      <c r="P20" t="s">
+      <c r="S20" t="s">
         <v>209</v>
       </c>
-      <c r="R20" t="s">
+      <c r="U20" t="s">
         <v>210</v>
       </c>
-      <c r="T20" t="s">
+      <c r="V20" t="s">
         <v>211</v>
       </c>
-      <c r="U20" t="s">
+      <c r="W20" t="s">
         <v>212</v>
       </c>
-      <c r="V20" t="s">
+      <c r="X20" t="s">
         <v>213</v>
       </c>
-      <c r="W20" t="s">
+      <c r="Y20" t="s">
         <v>214</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Z20" t="s">
         <v>215</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="AA20" t="s">
         <v>216</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AB20" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC20" t="s">
         <v>217</v>
       </c>
-      <c r="AA20" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB20" t="s">
+      <c r="AD20" t="s">
         <v>218</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AE20" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI20" t="s">
         <v>219</v>
       </c>
-      <c r="AD20" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH20" t="s">
+      <c r="AK20" t="s">
         <v>220</v>
       </c>
-      <c r="AJ20" t="s">
+      <c r="AL20" t="s">
         <v>221</v>
       </c>
-      <c r="AK20" t="s">
+      <c r="AM20" t="s">
         <v>222</v>
       </c>
-      <c r="AL20" t="s">
+      <c r="AP20" t="s">
         <v>223</v>
       </c>
-      <c r="AO20" t="s">
+      <c r="AQ20" t="s">
         <v>224</v>
       </c>
-      <c r="AP20" t="s">
+      <c r="AS20" t="s">
         <v>225</v>
       </c>
-      <c r="AR20" t="s">
+      <c r="AX20" t="s">
         <v>226</v>
       </c>
-      <c r="AW20" t="s">
+      <c r="AZ20" t="s">
         <v>227</v>
       </c>
-      <c r="AY20" t="s">
+      <c r="BA20" t="s">
         <v>228</v>
       </c>
-      <c r="AZ20" t="s">
+      <c r="BB20" t="s">
+        <v>186</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>187</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>188</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>126</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>127</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>189</v>
+      </c>
+      <c r="BN20" t="s">
         <v>229</v>
       </c>
-      <c r="BA20" t="s">
-        <v>187</v>
-      </c>
-      <c r="BB20" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC20" t="s">
-        <v>188</v>
-      </c>
-      <c r="BD20" t="s">
-        <v>189</v>
-      </c>
-      <c r="BE20" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF20" t="s">
-        <v>128</v>
-      </c>
-      <c r="BH20" t="s">
-        <v>190</v>
-      </c>
-      <c r="BM20" t="s">
+      <c r="BO20" t="s">
+        <v>193</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>194</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>195</v>
+      </c>
+      <c r="BT20" t="s">
+        <v>95</v>
+      </c>
+      <c r="BU20" t="s">
+        <v>96</v>
+      </c>
+      <c r="BV20" t="s">
         <v>230</v>
       </c>
-      <c r="BN20" t="s">
-        <v>194</v>
-      </c>
-      <c r="BO20" t="s">
-        <v>195</v>
-      </c>
-      <c r="BP20" t="s">
-        <v>196</v>
-      </c>
-      <c r="BS20" t="s">
-        <v>95</v>
-      </c>
-      <c r="BT20" t="s">
-        <v>96</v>
-      </c>
-      <c r="BU20" t="s">
-        <v>231</v>
-      </c>
     </row>
-    <row r="21" spans="1:73">
+    <row r="21" spans="1:74">
       <c r="A21" t="s">
         <v>98</v>
       </c>
       <c r="B21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" t="s">
         <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E21" t="s">
         <v>18</v>
@@ -4476,147 +4662,150 @@
         <v>102</v>
       </c>
       <c r="G21" t="s">
+        <v>203</v>
+      </c>
+      <c r="H21" t="s">
         <v>204</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>205</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>206</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
+        <v>393</v>
+      </c>
+      <c r="L21" t="s">
         <v>207</v>
       </c>
-      <c r="K21" t="s">
+      <c r="N21">
+        <v>-9999</v>
+      </c>
+      <c r="O21">
+        <v>-8888</v>
+      </c>
+      <c r="Q21" t="s">
         <v>208</v>
       </c>
-      <c r="M21">
-        <v>-9999</v>
-      </c>
-      <c r="N21">
-        <v>-8888</v>
-      </c>
-      <c r="P21" t="s">
+      <c r="S21" t="s">
         <v>209</v>
       </c>
-      <c r="R21" t="s">
+      <c r="U21" t="s">
         <v>210</v>
       </c>
-      <c r="T21" t="s">
+      <c r="V21" t="s">
         <v>211</v>
       </c>
-      <c r="U21" t="s">
+      <c r="W21" t="s">
         <v>212</v>
       </c>
-      <c r="V21" t="s">
+      <c r="X21" t="s">
         <v>213</v>
       </c>
-      <c r="W21" t="s">
+      <c r="Y21" t="s">
         <v>214</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Z21" t="s">
         <v>215</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="AA21" t="s">
         <v>216</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AB21" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC21" t="s">
         <v>217</v>
       </c>
-      <c r="AA21" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB21" t="s">
+      <c r="AD21" t="s">
         <v>218</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AE21" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI21" t="s">
         <v>219</v>
       </c>
-      <c r="AD21" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH21" t="s">
+      <c r="AK21" t="s">
         <v>220</v>
       </c>
-      <c r="AJ21" t="s">
+      <c r="AL21" t="s">
         <v>221</v>
       </c>
-      <c r="AK21" t="s">
+      <c r="AM21" t="s">
         <v>222</v>
       </c>
-      <c r="AL21" t="s">
+      <c r="AP21" t="s">
         <v>223</v>
       </c>
-      <c r="AO21" t="s">
+      <c r="AQ21" t="s">
         <v>224</v>
       </c>
-      <c r="AP21" t="s">
+      <c r="AS21" t="s">
         <v>225</v>
       </c>
-      <c r="AR21" t="s">
+      <c r="AX21" t="s">
         <v>226</v>
       </c>
-      <c r="AW21" t="s">
+      <c r="AZ21" t="s">
         <v>227</v>
       </c>
-      <c r="AY21" t="s">
+      <c r="BA21" t="s">
         <v>228</v>
       </c>
-      <c r="AZ21" t="s">
+      <c r="BB21" t="s">
+        <v>186</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>187</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>188</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>126</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>189</v>
+      </c>
+      <c r="BN21" t="s">
         <v>229</v>
       </c>
-      <c r="BA21" t="s">
-        <v>187</v>
-      </c>
-      <c r="BB21" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC21" t="s">
-        <v>188</v>
-      </c>
-      <c r="BD21" t="s">
-        <v>189</v>
-      </c>
-      <c r="BE21" t="s">
-        <v>127</v>
-      </c>
-      <c r="BH21" t="s">
-        <v>190</v>
-      </c>
-      <c r="BM21" t="s">
+      <c r="BO21" t="s">
+        <v>193</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>194</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>195</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>95</v>
+      </c>
+      <c r="BU21" t="s">
+        <v>96</v>
+      </c>
+      <c r="BV21" t="s">
         <v>230</v>
       </c>
-      <c r="BN21" t="s">
-        <v>194</v>
-      </c>
-      <c r="BO21" t="s">
-        <v>195</v>
-      </c>
-      <c r="BP21" t="s">
-        <v>196</v>
-      </c>
-      <c r="BS21" t="s">
-        <v>95</v>
-      </c>
-      <c r="BT21" t="s">
-        <v>96</v>
-      </c>
-      <c r="BU21" t="s">
-        <v>231</v>
-      </c>
     </row>
-    <row r="22" spans="1:73">
+    <row r="22" spans="1:74">
       <c r="A22" t="s">
         <v>98</v>
       </c>
       <c r="B22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E22" t="s">
         <v>20</v>
@@ -4625,138 +4814,141 @@
         <v>102</v>
       </c>
       <c r="G22" t="s">
+        <v>203</v>
+      </c>
+      <c r="H22" t="s">
         <v>204</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>205</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>206</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
+        <v>393</v>
+      </c>
+      <c r="L22" t="s">
         <v>207</v>
       </c>
-      <c r="K22" t="s">
+      <c r="N22">
+        <v>-9999</v>
+      </c>
+      <c r="O22">
+        <v>-8888</v>
+      </c>
+      <c r="Q22" t="s">
         <v>208</v>
       </c>
-      <c r="M22">
-        <v>-9999</v>
-      </c>
-      <c r="N22">
-        <v>-8888</v>
-      </c>
-      <c r="P22" t="s">
+      <c r="S22" t="s">
         <v>209</v>
       </c>
-      <c r="R22" t="s">
+      <c r="U22" t="s">
         <v>210</v>
       </c>
-      <c r="T22" t="s">
+      <c r="V22" t="s">
         <v>211</v>
       </c>
-      <c r="U22" t="s">
+      <c r="W22" t="s">
         <v>212</v>
       </c>
-      <c r="V22" t="s">
+      <c r="X22" t="s">
         <v>213</v>
       </c>
-      <c r="W22" t="s">
+      <c r="Y22" t="s">
         <v>214</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Z22" t="s">
         <v>215</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="AA22" t="s">
         <v>216</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AB22" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC22" t="s">
         <v>217</v>
       </c>
-      <c r="AA22" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB22" t="s">
+      <c r="AD22" t="s">
         <v>218</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AE22" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI22" t="s">
         <v>219</v>
       </c>
-      <c r="AD22" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>220</v>
-      </c>
-      <c r="AK22" t="s">
+      <c r="AL22" t="s">
+        <v>221</v>
+      </c>
+      <c r="AM22" t="s">
         <v>222</v>
       </c>
-      <c r="AL22" t="s">
+      <c r="AP22" t="s">
         <v>223</v>
       </c>
-      <c r="AO22" t="s">
-        <v>224</v>
-      </c>
-      <c r="AR22" t="s">
+      <c r="AS22" t="s">
+        <v>225</v>
+      </c>
+      <c r="AX22" t="s">
         <v>226</v>
       </c>
-      <c r="AW22" t="s">
+      <c r="AZ22" t="s">
         <v>227</v>
       </c>
-      <c r="AY22" t="s">
+      <c r="BA22" t="s">
         <v>228</v>
       </c>
-      <c r="AZ22" t="s">
+      <c r="BB22" t="s">
+        <v>186</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>187</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>188</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>127</v>
+      </c>
+      <c r="BI22" t="s">
+        <v>189</v>
+      </c>
+      <c r="BN22" t="s">
         <v>229</v>
       </c>
-      <c r="BA22" t="s">
-        <v>187</v>
-      </c>
-      <c r="BB22" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC22" t="s">
-        <v>188</v>
-      </c>
-      <c r="BD22" t="s">
-        <v>189</v>
-      </c>
-      <c r="BF22" t="s">
-        <v>128</v>
-      </c>
-      <c r="BH22" t="s">
-        <v>190</v>
-      </c>
-      <c r="BM22" t="s">
-        <v>230</v>
-      </c>
-      <c r="BN22" t="s">
+      <c r="BO22" t="s">
+        <v>193</v>
+      </c>
+      <c r="BP22" t="s">
         <v>194</v>
       </c>
-      <c r="BO22" t="s">
+      <c r="BQ22" t="s">
         <v>195</v>
       </c>
-      <c r="BP22" t="s">
-        <v>196</v>
-      </c>
-      <c r="BS22" t="s">
+      <c r="BT22" t="s">
         <v>95</v>
       </c>
-      <c r="BT22" t="s">
+      <c r="BU22" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:73">
+    <row r="23" spans="1:74">
       <c r="A23" t="s">
         <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C23" t="s">
         <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E23" t="s">
         <v>21</v>
@@ -4765,141 +4957,144 @@
         <v>102</v>
       </c>
       <c r="G23" t="s">
+        <v>203</v>
+      </c>
+      <c r="H23" t="s">
         <v>204</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>205</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>206</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
+        <v>393</v>
+      </c>
+      <c r="L23" t="s">
         <v>207</v>
       </c>
-      <c r="K23" t="s">
+      <c r="N23">
+        <v>-9999</v>
+      </c>
+      <c r="O23">
+        <v>-8888</v>
+      </c>
+      <c r="Q23" t="s">
         <v>208</v>
       </c>
-      <c r="M23">
-        <v>-9999</v>
-      </c>
-      <c r="N23">
-        <v>-8888</v>
-      </c>
-      <c r="P23" t="s">
+      <c r="S23" t="s">
         <v>209</v>
       </c>
-      <c r="R23" t="s">
+      <c r="U23" t="s">
         <v>210</v>
       </c>
-      <c r="T23" t="s">
+      <c r="V23" t="s">
         <v>211</v>
       </c>
-      <c r="U23" t="s">
+      <c r="W23" t="s">
         <v>212</v>
       </c>
-      <c r="V23" t="s">
+      <c r="X23" t="s">
         <v>213</v>
       </c>
-      <c r="W23" t="s">
+      <c r="Y23" t="s">
         <v>214</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Z23" t="s">
         <v>215</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="AA23" t="s">
         <v>216</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AB23" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC23" t="s">
         <v>217</v>
       </c>
-      <c r="AA23" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB23" t="s">
+      <c r="AD23" t="s">
         <v>218</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AE23" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI23" t="s">
         <v>219</v>
       </c>
-      <c r="AD23" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>220</v>
-      </c>
-      <c r="AK23" t="s">
+      <c r="AL23" t="s">
+        <v>221</v>
+      </c>
+      <c r="AM23" t="s">
         <v>222</v>
       </c>
-      <c r="AL23" t="s">
+      <c r="AP23" t="s">
         <v>223</v>
       </c>
-      <c r="AO23" t="s">
-        <v>224</v>
-      </c>
-      <c r="AR23" t="s">
+      <c r="AS23" t="s">
+        <v>225</v>
+      </c>
+      <c r="AX23" t="s">
         <v>226</v>
       </c>
-      <c r="AW23" t="s">
+      <c r="AZ23" t="s">
         <v>227</v>
       </c>
-      <c r="AY23" t="s">
+      <c r="BA23" t="s">
         <v>228</v>
       </c>
-      <c r="AZ23" t="s">
+      <c r="BB23" t="s">
+        <v>186</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>187</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>188</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>127</v>
+      </c>
+      <c r="BI23" t="s">
+        <v>189</v>
+      </c>
+      <c r="BN23" t="s">
         <v>229</v>
       </c>
-      <c r="BA23" t="s">
-        <v>187</v>
-      </c>
-      <c r="BB23" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC23" t="s">
-        <v>188</v>
-      </c>
-      <c r="BD23" t="s">
-        <v>189</v>
-      </c>
-      <c r="BF23" t="s">
-        <v>128</v>
-      </c>
-      <c r="BH23" t="s">
-        <v>190</v>
-      </c>
-      <c r="BM23" t="s">
+      <c r="BO23" t="s">
+        <v>193</v>
+      </c>
+      <c r="BP23" t="s">
+        <v>194</v>
+      </c>
+      <c r="BQ23" t="s">
+        <v>195</v>
+      </c>
+      <c r="BT23" t="s">
+        <v>95</v>
+      </c>
+      <c r="BU23" t="s">
+        <v>96</v>
+      </c>
+      <c r="BV23" t="s">
         <v>230</v>
       </c>
-      <c r="BN23" t="s">
-        <v>194</v>
-      </c>
-      <c r="BO23" t="s">
-        <v>195</v>
-      </c>
-      <c r="BP23" t="s">
-        <v>196</v>
-      </c>
-      <c r="BS23" t="s">
-        <v>95</v>
-      </c>
-      <c r="BT23" t="s">
-        <v>96</v>
-      </c>
-      <c r="BU23" t="s">
-        <v>231</v>
-      </c>
     </row>
-    <row r="24" spans="1:73">
+    <row r="24" spans="1:74">
       <c r="A24" t="s">
         <v>98</v>
       </c>
       <c r="B24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C24" t="s">
         <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E24" t="s">
         <v>22</v>
@@ -4908,361 +5103,370 @@
         <v>102</v>
       </c>
       <c r="G24" t="s">
+        <v>203</v>
+      </c>
+      <c r="H24" t="s">
         <v>204</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>205</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>206</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
+        <v>393</v>
+      </c>
+      <c r="L24" t="s">
         <v>207</v>
       </c>
-      <c r="K24" t="s">
+      <c r="N24">
+        <v>-9999</v>
+      </c>
+      <c r="O24">
+        <v>-8888</v>
+      </c>
+      <c r="Q24" t="s">
         <v>208</v>
       </c>
-      <c r="M24">
-        <v>-9999</v>
-      </c>
-      <c r="N24">
-        <v>-8888</v>
-      </c>
-      <c r="P24" t="s">
+      <c r="S24" t="s">
         <v>209</v>
       </c>
-      <c r="R24" t="s">
+      <c r="U24" t="s">
         <v>210</v>
       </c>
-      <c r="T24" t="s">
+      <c r="V24" t="s">
         <v>211</v>
       </c>
-      <c r="U24" t="s">
+      <c r="W24" t="s">
         <v>212</v>
       </c>
-      <c r="V24" t="s">
+      <c r="X24" t="s">
         <v>213</v>
       </c>
-      <c r="W24" t="s">
+      <c r="Y24" t="s">
         <v>214</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Z24" t="s">
         <v>215</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="AA24" t="s">
         <v>216</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AB24" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC24" t="s">
         <v>217</v>
       </c>
-      <c r="AA24" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB24" t="s">
+      <c r="AD24" t="s">
         <v>218</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AE24" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI24" t="s">
         <v>219</v>
       </c>
-      <c r="AD24" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH24" t="s">
+      <c r="AK24" t="s">
         <v>220</v>
       </c>
-      <c r="AJ24" t="s">
+      <c r="AL24" t="s">
         <v>221</v>
       </c>
-      <c r="AK24" t="s">
+      <c r="AM24" t="s">
         <v>222</v>
       </c>
-      <c r="AL24" t="s">
+      <c r="AP24" t="s">
         <v>223</v>
       </c>
-      <c r="AO24" t="s">
+      <c r="AQ24" t="s">
         <v>224</v>
       </c>
-      <c r="AP24" t="s">
+      <c r="AS24" t="s">
         <v>225</v>
       </c>
-      <c r="AR24" t="s">
+      <c r="AX24" t="s">
         <v>226</v>
       </c>
-      <c r="AW24" t="s">
+      <c r="AZ24" t="s">
         <v>227</v>
       </c>
-      <c r="AY24" t="s">
+      <c r="BA24" t="s">
         <v>228</v>
       </c>
-      <c r="AZ24" t="s">
+      <c r="BB24" t="s">
+        <v>186</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>187</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>188</v>
+      </c>
+      <c r="BF24" t="s">
+        <v>126</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>127</v>
+      </c>
+      <c r="BI24" t="s">
+        <v>189</v>
+      </c>
+      <c r="BN24" t="s">
         <v>229</v>
       </c>
-      <c r="BA24" t="s">
-        <v>187</v>
-      </c>
-      <c r="BB24" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC24" t="s">
-        <v>188</v>
-      </c>
-      <c r="BD24" t="s">
-        <v>189</v>
-      </c>
-      <c r="BE24" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF24" t="s">
-        <v>128</v>
-      </c>
-      <c r="BH24" t="s">
-        <v>190</v>
-      </c>
-      <c r="BM24" t="s">
+      <c r="BO24" t="s">
+        <v>193</v>
+      </c>
+      <c r="BP24" t="s">
+        <v>194</v>
+      </c>
+      <c r="BQ24" t="s">
+        <v>195</v>
+      </c>
+      <c r="BT24" t="s">
+        <v>95</v>
+      </c>
+      <c r="BU24" t="s">
+        <v>96</v>
+      </c>
+      <c r="BV24" t="s">
         <v>230</v>
       </c>
-      <c r="BN24" t="s">
-        <v>194</v>
-      </c>
-      <c r="BO24" t="s">
-        <v>195</v>
-      </c>
-      <c r="BP24" t="s">
-        <v>196</v>
-      </c>
-      <c r="BS24" t="s">
-        <v>95</v>
-      </c>
-      <c r="BT24" t="s">
-        <v>96</v>
-      </c>
-      <c r="BU24" t="s">
-        <v>231</v>
-      </c>
     </row>
-    <row r="25" spans="1:73">
+    <row r="25" spans="1:74">
       <c r="A25" t="s">
         <v>98</v>
       </c>
       <c r="B25" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C25" t="s">
+        <v>301</v>
+      </c>
+      <c r="D25" t="s">
+        <v>300</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F25" t="s">
         <v>302</v>
       </c>
-      <c r="D25" t="s">
-        <v>301</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
+        <v>307</v>
+      </c>
+      <c r="H25" t="s">
+        <v>310</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="J25" t="s">
+        <v>308</v>
+      </c>
+      <c r="K25" t="s">
+        <v>434</v>
+      </c>
+      <c r="L25" t="s">
+        <v>312</v>
+      </c>
+      <c r="S25" t="s">
+        <v>311</v>
+      </c>
+      <c r="U25" t="s">
         <v>303</v>
-      </c>
-      <c r="G25" t="s">
-        <v>308</v>
-      </c>
-      <c r="H25" t="s">
-        <v>311</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="J25" t="s">
-        <v>309</v>
-      </c>
-      <c r="K25" t="s">
-        <v>313</v>
-      </c>
-      <c r="R25" t="s">
-        <v>312</v>
-      </c>
-      <c r="T25" t="s">
-        <v>304</v>
-      </c>
-      <c r="U25" t="s">
-        <v>305</v>
       </c>
       <c r="V25" t="s">
         <v>304</v>
       </c>
       <c r="W25" t="s">
-        <v>305</v>
-      </c>
-      <c r="Y25" t="s">
+        <v>303</v>
+      </c>
+      <c r="X25" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA25" t="s">
         <v>170</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AB25" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD25" t="s">
         <v>171</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AE25" t="s">
         <v>117</v>
       </c>
-      <c r="AC25" t="s">
-        <v>172</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:73">
+    <row r="26" spans="1:74">
       <c r="A26" t="s">
         <v>98</v>
       </c>
       <c r="B26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C26" t="s">
         <v>100</v>
       </c>
       <c r="D26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E26" t="s">
         <v>23</v>
       </c>
       <c r="F26" t="s">
+        <v>236</v>
+      </c>
+      <c r="G26" t="s">
         <v>237</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>238</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>239</v>
       </c>
-      <c r="I26" t="s">
+      <c r="K26" t="s">
+        <v>413</v>
+      </c>
+      <c r="L26" t="s">
         <v>240</v>
       </c>
-      <c r="K26" t="s">
+      <c r="O26">
+        <v>-9999</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>208</v>
+      </c>
+      <c r="S26" t="s">
+        <v>209</v>
+      </c>
+      <c r="U26" t="s">
+        <v>388</v>
+      </c>
+      <c r="V26" t="s">
         <v>241</v>
       </c>
-      <c r="N26">
-        <v>-9999</v>
-      </c>
-      <c r="P26" t="s">
-        <v>209</v>
-      </c>
-      <c r="R26" t="s">
-        <v>210</v>
-      </c>
-      <c r="T26" t="s">
-        <v>390</v>
-      </c>
-      <c r="U26" t="s">
+      <c r="W26" t="s">
+        <v>212</v>
+      </c>
+      <c r="X26" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>217</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>219</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>220</v>
+      </c>
+      <c r="AL26" t="s">
         <v>242</v>
       </c>
-      <c r="V26" t="s">
-        <v>213</v>
-      </c>
-      <c r="W26" t="s">
-        <v>214</v>
-      </c>
-      <c r="X26" t="s">
-        <v>215</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>217</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>218</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>220</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>221</v>
-      </c>
-      <c r="AK26" t="s">
+      <c r="AM26" t="s">
+        <v>222</v>
+      </c>
+      <c r="AP26" t="s">
         <v>243</v>
       </c>
-      <c r="AL26" t="s">
-        <v>223</v>
-      </c>
-      <c r="AO26" t="s">
-        <v>244</v>
-      </c>
-      <c r="AP26" t="s">
+      <c r="AQ26" t="s">
+        <v>224</v>
+      </c>
+      <c r="AS26" t="s">
         <v>225</v>
       </c>
-      <c r="AR26" t="s">
+      <c r="AX26" t="s">
         <v>226</v>
       </c>
-      <c r="AW26" t="s">
+      <c r="AZ26" t="s">
         <v>227</v>
       </c>
-      <c r="AY26" t="s">
+      <c r="BA26" t="s">
         <v>228</v>
       </c>
-      <c r="AZ26" t="s">
+      <c r="BB26" t="s">
+        <v>186</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>187</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>188</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>126</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>127</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>189</v>
+      </c>
+      <c r="BN26" t="s">
         <v>229</v>
       </c>
-      <c r="BA26" t="s">
-        <v>187</v>
-      </c>
-      <c r="BB26" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC26" t="s">
-        <v>188</v>
-      </c>
-      <c r="BD26" t="s">
-        <v>189</v>
-      </c>
-      <c r="BE26" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF26" t="s">
-        <v>128</v>
-      </c>
-      <c r="BH26" t="s">
-        <v>190</v>
-      </c>
-      <c r="BM26" t="s">
-        <v>230</v>
-      </c>
-      <c r="BN26" t="s">
+      <c r="BO26" t="s">
+        <v>193</v>
+      </c>
+      <c r="BP26" t="s">
         <v>194</v>
       </c>
-      <c r="BO26" t="s">
+      <c r="BQ26" t="s">
         <v>195</v>
       </c>
-      <c r="BP26" t="s">
-        <v>196</v>
-      </c>
-      <c r="BS26" t="s">
+      <c r="BT26" t="s">
         <v>95</v>
       </c>
-      <c r="BT26" t="s">
+      <c r="BU26" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:73">
+    <row r="27" spans="1:74">
       <c r="A27" t="s">
         <v>98</v>
       </c>
       <c r="B27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C27" t="s">
         <v>100</v>
       </c>
       <c r="D27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E27" t="s">
         <v>24</v>
@@ -5271,129 +5475,132 @@
         <v>102</v>
       </c>
       <c r="G27" t="s">
+        <v>203</v>
+      </c>
+      <c r="H27" t="s">
         <v>204</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>205</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>206</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
+        <v>393</v>
+      </c>
+      <c r="L27" t="s">
         <v>207</v>
       </c>
-      <c r="K27" t="s">
+      <c r="N27">
+        <v>-9999</v>
+      </c>
+      <c r="O27">
+        <v>-8888</v>
+      </c>
+      <c r="Q27" t="s">
         <v>208</v>
       </c>
-      <c r="M27">
-        <v>-9999</v>
-      </c>
-      <c r="N27">
-        <v>-8888</v>
-      </c>
-      <c r="P27" t="s">
+      <c r="S27" t="s">
         <v>209</v>
       </c>
-      <c r="R27" t="s">
+      <c r="U27" t="s">
         <v>210</v>
       </c>
-      <c r="T27" t="s">
+      <c r="V27" t="s">
         <v>211</v>
       </c>
-      <c r="U27" t="s">
+      <c r="W27" t="s">
         <v>212</v>
       </c>
-      <c r="V27" t="s">
+      <c r="X27" t="s">
         <v>213</v>
       </c>
-      <c r="W27" t="s">
+      <c r="Y27" t="s">
         <v>214</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Z27" t="s">
         <v>215</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="AA27" t="s">
         <v>216</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AB27" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC27" t="s">
         <v>217</v>
       </c>
-      <c r="AA27" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB27" t="s">
+      <c r="AD27" t="s">
         <v>218</v>
       </c>
-      <c r="AC27" t="s">
+      <c r="AE27" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI27" t="s">
         <v>219</v>
       </c>
-      <c r="AD27" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>220</v>
-      </c>
-      <c r="AL27" t="s">
-        <v>223</v>
-      </c>
-      <c r="AR27" t="s">
+      <c r="AM27" t="s">
+        <v>222</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>225</v>
+      </c>
+      <c r="AX27" t="s">
         <v>226</v>
       </c>
-      <c r="AW27" t="s">
+      <c r="AZ27" t="s">
         <v>227</v>
       </c>
-      <c r="AY27" t="s">
+      <c r="BA27" t="s">
         <v>228</v>
       </c>
-      <c r="AZ27" t="s">
-        <v>229</v>
-      </c>
-      <c r="BA27" t="s">
+      <c r="BB27" t="s">
+        <v>186</v>
+      </c>
+      <c r="BC27" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD27" t="s">
         <v>187</v>
       </c>
-      <c r="BB27" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC27" t="s">
+      <c r="BE27" t="s">
         <v>188</v>
       </c>
-      <c r="BD27" t="s">
+      <c r="BI27" t="s">
         <v>189</v>
       </c>
-      <c r="BH27" t="s">
-        <v>190</v>
-      </c>
-      <c r="BN27" t="s">
+      <c r="BO27" t="s">
+        <v>193</v>
+      </c>
+      <c r="BP27" t="s">
         <v>194</v>
       </c>
-      <c r="BO27" t="s">
+      <c r="BQ27" t="s">
         <v>195</v>
       </c>
-      <c r="BP27" t="s">
-        <v>196</v>
-      </c>
-      <c r="BS27" t="s">
+      <c r="BT27" t="s">
         <v>95</v>
       </c>
-      <c r="BT27" t="s">
+      <c r="BU27" t="s">
         <v>96</v>
       </c>
-      <c r="BU27" t="s">
-        <v>231</v>
+      <c r="BV27" t="s">
+        <v>230</v>
       </c>
     </row>
-    <row r="28" spans="1:73">
+    <row r="28" spans="1:74">
       <c r="A28" t="s">
         <v>98</v>
       </c>
       <c r="B28" t="s">
+        <v>245</v>
+      </c>
+      <c r="C28" t="s">
         <v>246</v>
       </c>
-      <c r="C28" t="s">
-        <v>247</v>
-      </c>
       <c r="D28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E28" s="2">
         <v>325020190403</v>
@@ -5402,1237 +5609,1282 @@
         <v>102</v>
       </c>
       <c r="G28" t="s">
+        <v>203</v>
+      </c>
+      <c r="H28" t="s">
         <v>204</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>205</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>206</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
+        <v>393</v>
+      </c>
+      <c r="L28" t="s">
         <v>207</v>
       </c>
-      <c r="K28" t="s">
+      <c r="N28">
+        <v>-9999</v>
+      </c>
+      <c r="O28">
+        <v>-8888</v>
+      </c>
+      <c r="Q28" t="s">
         <v>208</v>
       </c>
-      <c r="M28">
-        <v>-9999</v>
-      </c>
-      <c r="N28">
-        <v>-8888</v>
-      </c>
-      <c r="P28" t="s">
+      <c r="S28" t="s">
         <v>209</v>
       </c>
-      <c r="R28" t="s">
+      <c r="U28" t="s">
         <v>210</v>
       </c>
-      <c r="T28" t="s">
+      <c r="V28" t="s">
         <v>211</v>
       </c>
-      <c r="U28" t="s">
+      <c r="W28" t="s">
         <v>212</v>
       </c>
-      <c r="V28" t="s">
+      <c r="X28" t="s">
         <v>213</v>
       </c>
-      <c r="W28" t="s">
+      <c r="Y28" t="s">
         <v>214</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Z28" t="s">
         <v>215</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="AA28" t="s">
         <v>216</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="AB28" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC28" t="s">
         <v>217</v>
       </c>
-      <c r="AA28" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB28" t="s">
+      <c r="AD28" t="s">
         <v>218</v>
       </c>
-      <c r="AC28" t="s">
+      <c r="AE28" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI28" t="s">
         <v>219</v>
       </c>
-      <c r="AD28" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>220</v>
-      </c>
-      <c r="AK28" t="s">
+      <c r="AL28" t="s">
+        <v>221</v>
+      </c>
+      <c r="AM28" t="s">
         <v>222</v>
       </c>
-      <c r="AL28" t="s">
+      <c r="AP28" t="s">
         <v>223</v>
       </c>
-      <c r="AO28" t="s">
-        <v>224</v>
-      </c>
-      <c r="AR28" t="s">
+      <c r="AS28" t="s">
+        <v>225</v>
+      </c>
+      <c r="AX28" t="s">
         <v>226</v>
       </c>
-      <c r="AW28" t="s">
+      <c r="AZ28" t="s">
         <v>227</v>
       </c>
-      <c r="AY28" t="s">
+      <c r="BA28" t="s">
         <v>228</v>
       </c>
-      <c r="AZ28" t="s">
+      <c r="BB28" t="s">
+        <v>186</v>
+      </c>
+      <c r="BC28" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD28" t="s">
+        <v>187</v>
+      </c>
+      <c r="BE28" t="s">
+        <v>188</v>
+      </c>
+      <c r="BF28" t="s">
+        <v>126</v>
+      </c>
+      <c r="BG28" t="s">
+        <v>127</v>
+      </c>
+      <c r="BI28" t="s">
+        <v>189</v>
+      </c>
+      <c r="BN28" t="s">
         <v>229</v>
       </c>
-      <c r="BA28" t="s">
-        <v>187</v>
-      </c>
-      <c r="BB28" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC28" t="s">
-        <v>188</v>
-      </c>
-      <c r="BD28" t="s">
-        <v>189</v>
-      </c>
-      <c r="BE28" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF28" t="s">
-        <v>128</v>
-      </c>
-      <c r="BH28" t="s">
-        <v>190</v>
-      </c>
-      <c r="BM28" t="s">
-        <v>230</v>
-      </c>
-      <c r="BN28" t="s">
+      <c r="BO28" t="s">
+        <v>193</v>
+      </c>
+      <c r="BP28" t="s">
         <v>194</v>
       </c>
-      <c r="BO28" t="s">
+      <c r="BQ28" t="s">
         <v>195</v>
       </c>
-      <c r="BP28" t="s">
-        <v>196</v>
-      </c>
-      <c r="BS28" t="s">
+      <c r="BT28" t="s">
         <v>95</v>
       </c>
-      <c r="BT28" t="s">
+      <c r="BU28" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:73">
+    <row r="29" spans="1:74">
       <c r="A29" t="s">
         <v>98</v>
       </c>
       <c r="B29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C29" t="s">
         <v>100</v>
       </c>
       <c r="D29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F29" t="s">
         <v>102</v>
       </c>
       <c r="G29" t="s">
+        <v>320</v>
+      </c>
+      <c r="H29" t="s">
         <v>321</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>322</v>
       </c>
-      <c r="I29" t="s">
-        <v>323</v>
-      </c>
-      <c r="J29" t="s">
-        <v>324</v>
-      </c>
-      <c r="K29" t="s">
-        <v>291</v>
-      </c>
-      <c r="P29" t="s">
-        <v>109</v>
-      </c>
-      <c r="R29" t="s">
+      <c r="K29" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="L29" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>108</v>
+      </c>
+      <c r="S29" t="s">
+        <v>209</v>
+      </c>
+      <c r="U29" t="s">
         <v>210</v>
       </c>
-      <c r="T29" t="s">
-        <v>211</v>
-      </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z29" t="s">
         <v>287</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="AA29" t="s">
         <v>288</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AB29" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF29" t="s">
         <v>289</v>
       </c>
-      <c r="AA29" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>290</v>
-      </c>
     </row>
-    <row r="30" spans="1:73">
+    <row r="30" spans="1:74">
       <c r="A30" t="s">
         <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C30" t="s">
         <v>100</v>
       </c>
       <c r="D30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F30" t="s">
         <v>102</v>
       </c>
       <c r="G30" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I30" t="s">
-        <v>326</v>
-      </c>
-      <c r="J30" t="s">
         <v>324</v>
       </c>
-      <c r="K30" t="s">
-        <v>354</v>
-      </c>
-      <c r="P30" t="s">
-        <v>109</v>
-      </c>
-      <c r="R30" t="s">
+      <c r="K30" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="L30" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>108</v>
+      </c>
+      <c r="S30" t="s">
+        <v>209</v>
+      </c>
+      <c r="U30" t="s">
         <v>210</v>
       </c>
-      <c r="T30" t="s">
-        <v>211</v>
-      </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z30" t="s">
         <v>287</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="AA30" t="s">
         <v>288</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="AB30" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF30" t="s">
         <v>289</v>
       </c>
-      <c r="AA30" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>290</v>
-      </c>
     </row>
-    <row r="31" spans="1:73" ht="15.5">
+    <row r="31" spans="1:74" ht="15.5">
       <c r="A31" t="s">
         <v>98</v>
       </c>
       <c r="B31" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C31" t="s">
         <v>100</v>
       </c>
       <c r="D31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F31" t="s">
         <v>102</v>
       </c>
       <c r="G31" t="s">
+        <v>327</v>
+      </c>
+      <c r="H31" t="s">
+        <v>328</v>
+      </c>
+      <c r="I31" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="H31" t="s">
-        <v>330</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>331</v>
-      </c>
       <c r="J31" t="s">
-        <v>327</v>
-      </c>
-      <c r="K31" t="s">
-        <v>328</v>
-      </c>
-      <c r="P31" t="s">
-        <v>109</v>
-      </c>
-      <c r="R31" t="s">
+        <v>325</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="L31" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>108</v>
+      </c>
+      <c r="S31" t="s">
+        <v>209</v>
+      </c>
+      <c r="U31" t="s">
         <v>210</v>
       </c>
-      <c r="T31" t="s">
-        <v>211</v>
-      </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z31" t="s">
         <v>287</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="AA31" t="s">
         <v>288</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="AB31" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF31" t="s">
         <v>289</v>
       </c>
-      <c r="AA31" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>290</v>
-      </c>
     </row>
-    <row r="32" spans="1:73" ht="15.5">
+    <row r="32" spans="1:74" ht="15.5">
       <c r="A32" t="s">
         <v>98</v>
       </c>
       <c r="B32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C32" t="s">
         <v>100</v>
       </c>
       <c r="D32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F32" t="s">
         <v>102</v>
       </c>
       <c r="G32" t="s">
+        <v>327</v>
+      </c>
+      <c r="H32" t="s">
+        <v>328</v>
+      </c>
+      <c r="I32" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="H32" t="s">
+      <c r="J32" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="I32" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="K32" t="s">
-        <v>328</v>
-      </c>
-      <c r="P32" t="s">
-        <v>109</v>
-      </c>
-      <c r="R32" t="s">
+      <c r="K32" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="L32" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>108</v>
+      </c>
+      <c r="S32" t="s">
+        <v>209</v>
+      </c>
+      <c r="U32" t="s">
         <v>210</v>
       </c>
-      <c r="T32" t="s">
-        <v>211</v>
-      </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z32" t="s">
         <v>287</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="AA32" t="s">
         <v>288</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="AB32" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF32" t="s">
         <v>289</v>
       </c>
-      <c r="AA32" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>290</v>
-      </c>
     </row>
-    <row r="33" spans="1:72">
+    <row r="33" spans="1:73">
       <c r="A33" t="s">
         <v>98</v>
       </c>
       <c r="B33" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C33" t="s">
         <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F33" t="s">
         <v>102</v>
       </c>
       <c r="G33" t="s">
+        <v>331</v>
+      </c>
+      <c r="H33" t="s">
         <v>333</v>
       </c>
-      <c r="H33" t="s">
-        <v>335</v>
-      </c>
       <c r="I33" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J33" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="L33" t="s">
         <v>334</v>
       </c>
-      <c r="K33" t="s">
-        <v>336</v>
-      </c>
-      <c r="P33" t="s">
-        <v>109</v>
-      </c>
-      <c r="R33" t="s">
+      <c r="Q33" t="s">
+        <v>108</v>
+      </c>
+      <c r="S33" t="s">
+        <v>209</v>
+      </c>
+      <c r="U33" t="s">
         <v>210</v>
       </c>
-      <c r="T33" t="s">
-        <v>211</v>
-      </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z33" t="s">
         <v>287</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="AA33" t="s">
         <v>288</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="AB33" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF33" t="s">
         <v>289</v>
       </c>
-      <c r="AA33" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>290</v>
-      </c>
     </row>
-    <row r="34" spans="1:72">
+    <row r="34" spans="1:73">
       <c r="A34" t="s">
         <v>98</v>
       </c>
       <c r="B34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C34" t="s">
         <v>100</v>
       </c>
       <c r="D34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F34" t="s">
         <v>102</v>
       </c>
       <c r="G34" t="s">
+        <v>331</v>
+      </c>
+      <c r="H34" t="s">
         <v>333</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J34" s="1" t="s">
+      <c r="K34" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="L34" t="s">
         <v>337</v>
       </c>
-      <c r="K34" t="s">
-        <v>339</v>
-      </c>
-      <c r="P34" t="s">
-        <v>109</v>
-      </c>
-      <c r="R34" t="s">
+      <c r="Q34" t="s">
+        <v>108</v>
+      </c>
+      <c r="S34" t="s">
+        <v>209</v>
+      </c>
+      <c r="U34" t="s">
         <v>210</v>
       </c>
-      <c r="T34" t="s">
-        <v>211</v>
-      </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z34" t="s">
         <v>287</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="AA34" t="s">
         <v>288</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AB34" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF34" t="s">
         <v>289</v>
       </c>
-      <c r="AA34" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>290</v>
-      </c>
     </row>
-    <row r="35" spans="1:72" ht="15.5">
+    <row r="35" spans="1:73" ht="15.5">
       <c r="A35" t="s">
         <v>98</v>
       </c>
       <c r="B35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C35" t="s">
         <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F35" t="s">
         <v>102</v>
       </c>
       <c r="G35" t="s">
+        <v>340</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="H35" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="I35" s="4" t="s">
+      <c r="J35" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="L35" t="s">
         <v>344</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="K35" t="s">
-        <v>346</v>
-      </c>
-      <c r="P35" t="s">
-        <v>109</v>
-      </c>
-      <c r="R35" t="s">
+      <c r="Q35" t="s">
+        <v>108</v>
+      </c>
+      <c r="S35" t="s">
+        <v>209</v>
+      </c>
+      <c r="U35" t="s">
         <v>210</v>
       </c>
-      <c r="T35" t="s">
-        <v>211</v>
-      </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z35" t="s">
         <v>287</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="AA35" t="s">
         <v>288</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="AB35" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF35" t="s">
         <v>289</v>
       </c>
-      <c r="AA35" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>290</v>
-      </c>
     </row>
-    <row r="36" spans="1:72" ht="15.5">
+    <row r="36" spans="1:73" ht="15.5">
       <c r="A36" t="s">
         <v>98</v>
       </c>
       <c r="B36" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C36" t="s">
         <v>100</v>
       </c>
       <c r="D36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F36" t="s">
         <v>102</v>
       </c>
       <c r="G36" t="s">
+        <v>340</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="I36" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="H36" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="I36" s="4" t="s">
+      <c r="J36" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="L36" t="s">
         <v>344</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="K36" t="s">
-        <v>346</v>
-      </c>
-      <c r="P36" t="s">
-        <v>109</v>
-      </c>
-      <c r="R36" t="s">
+      <c r="Q36" t="s">
+        <v>108</v>
+      </c>
+      <c r="S36" t="s">
+        <v>209</v>
+      </c>
+      <c r="U36" t="s">
         <v>210</v>
       </c>
-      <c r="T36" t="s">
-        <v>211</v>
-      </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z36" t="s">
         <v>287</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="AA36" t="s">
         <v>288</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="AB36" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF36" t="s">
         <v>289</v>
       </c>
-      <c r="AA36" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>290</v>
-      </c>
     </row>
-    <row r="37" spans="1:72" ht="15.5">
+    <row r="37" spans="1:73" ht="15.5">
       <c r="A37" t="s">
         <v>98</v>
       </c>
       <c r="B37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C37" t="s">
         <v>100</v>
       </c>
       <c r="D37" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F37" t="s">
         <v>102</v>
       </c>
       <c r="G37" t="s">
+        <v>340</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="I37" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="H37" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="I37" s="4" t="s">
+      <c r="J37" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="L37" t="s">
         <v>344</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="K37" t="s">
-        <v>346</v>
-      </c>
-      <c r="P37" t="s">
-        <v>109</v>
-      </c>
-      <c r="R37" t="s">
+      <c r="Q37" t="s">
+        <v>108</v>
+      </c>
+      <c r="S37" t="s">
+        <v>209</v>
+      </c>
+      <c r="U37" t="s">
         <v>210</v>
       </c>
-      <c r="T37" t="s">
-        <v>211</v>
-      </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z37" t="s">
         <v>287</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="AA37" t="s">
         <v>288</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="AB37" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF37" t="s">
         <v>289</v>
       </c>
-      <c r="AA37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>290</v>
-      </c>
     </row>
-    <row r="38" spans="1:72" ht="15.5">
+    <row r="38" spans="1:73" ht="15.5">
       <c r="A38" t="s">
         <v>98</v>
       </c>
       <c r="B38" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C38" t="s">
         <v>100</v>
       </c>
       <c r="D38" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F38" t="s">
         <v>102</v>
       </c>
       <c r="G38" t="s">
+        <v>340</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="J38" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="K38" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="L38" t="s">
         <v>344</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="K38" t="s">
-        <v>346</v>
-      </c>
-      <c r="P38" t="s">
-        <v>109</v>
-      </c>
-      <c r="R38" t="s">
+      <c r="Q38" t="s">
+        <v>108</v>
+      </c>
+      <c r="S38" t="s">
+        <v>209</v>
+      </c>
+      <c r="U38" t="s">
         <v>210</v>
       </c>
-      <c r="T38" t="s">
-        <v>211</v>
-      </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z38" t="s">
         <v>287</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="AA38" t="s">
         <v>288</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="AB38" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF38" t="s">
         <v>289</v>
       </c>
-      <c r="AA38" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>290</v>
-      </c>
     </row>
-    <row r="39" spans="1:72" ht="15.5">
+    <row r="39" spans="1:73" ht="15.5">
       <c r="A39" t="s">
         <v>98</v>
       </c>
       <c r="B39" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C39" t="s">
         <v>100</v>
       </c>
       <c r="D39" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F39" t="s">
         <v>102</v>
       </c>
       <c r="G39" t="s">
+        <v>340</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="I39" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="H39" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="I39" s="4" t="s">
+      <c r="J39" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="L39" t="s">
         <v>344</v>
       </c>
-      <c r="J39" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="K39" t="s">
-        <v>346</v>
-      </c>
-      <c r="P39" t="s">
-        <v>109</v>
-      </c>
-      <c r="R39" t="s">
+      <c r="Q39" t="s">
+        <v>108</v>
+      </c>
+      <c r="S39" t="s">
+        <v>209</v>
+      </c>
+      <c r="U39" t="s">
         <v>210</v>
       </c>
-      <c r="T39" t="s">
-        <v>211</v>
-      </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z39" t="s">
         <v>287</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="AA39" t="s">
         <v>288</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="AB39" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF39" t="s">
         <v>289</v>
       </c>
-      <c r="AA39" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>290</v>
-      </c>
     </row>
-    <row r="40" spans="1:72" ht="15.5">
+    <row r="40" spans="1:73" ht="15.5">
       <c r="A40" t="s">
         <v>98</v>
       </c>
       <c r="B40" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C40" t="s">
         <v>100</v>
       </c>
       <c r="D40" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F40" t="s">
         <v>102</v>
       </c>
       <c r="G40" t="s">
+        <v>340</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="I40" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="H40" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="I40" s="4" t="s">
+      <c r="J40" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="L40" t="s">
         <v>344</v>
       </c>
-      <c r="J40" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="K40" t="s">
-        <v>346</v>
-      </c>
-      <c r="P40" t="s">
-        <v>109</v>
-      </c>
-      <c r="R40" t="s">
+      <c r="Q40" t="s">
+        <v>108</v>
+      </c>
+      <c r="S40" t="s">
+        <v>209</v>
+      </c>
+      <c r="U40" t="s">
         <v>210</v>
       </c>
-      <c r="T40" t="s">
-        <v>211</v>
-      </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z40" t="s">
         <v>287</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="AA40" t="s">
         <v>288</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="AB40" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF40" t="s">
         <v>289</v>
       </c>
-      <c r="AA40" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>290</v>
-      </c>
     </row>
-    <row r="41" spans="1:72" ht="15.5">
+    <row r="41" spans="1:73" ht="15.5">
       <c r="A41" t="s">
         <v>98</v>
       </c>
       <c r="B41" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C41" t="s">
         <v>100</v>
       </c>
       <c r="D41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F41" t="s">
         <v>102</v>
       </c>
       <c r="G41" t="s">
+        <v>340</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="I41" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="H41" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="I41" s="4" t="s">
+      <c r="J41" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="L41" t="s">
         <v>344</v>
       </c>
-      <c r="J41" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="K41" t="s">
-        <v>346</v>
-      </c>
-      <c r="P41" t="s">
-        <v>109</v>
-      </c>
-      <c r="R41" t="s">
+      <c r="Q41" t="s">
+        <v>108</v>
+      </c>
+      <c r="S41" t="s">
+        <v>209</v>
+      </c>
+      <c r="U41" t="s">
         <v>210</v>
       </c>
-      <c r="T41" t="s">
-        <v>211</v>
-      </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z41" t="s">
         <v>287</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="AA41" t="s">
         <v>288</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="AB41" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF41" t="s">
         <v>289</v>
       </c>
-      <c r="AA41" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>290</v>
-      </c>
     </row>
-    <row r="42" spans="1:72" ht="15.5">
+    <row r="42" spans="1:73" ht="15.5">
       <c r="A42" t="s">
         <v>98</v>
       </c>
       <c r="B42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C42" t="s">
         <v>100</v>
       </c>
       <c r="D42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F42" t="s">
         <v>102</v>
       </c>
       <c r="G42" t="s">
+        <v>340</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="I42" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="H42" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="I42" s="4" t="s">
+      <c r="J42" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="L42" t="s">
         <v>344</v>
       </c>
-      <c r="J42" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="K42" t="s">
-        <v>346</v>
-      </c>
-      <c r="P42" t="s">
-        <v>109</v>
-      </c>
-      <c r="R42" t="s">
+      <c r="Q42" t="s">
+        <v>108</v>
+      </c>
+      <c r="S42" t="s">
+        <v>209</v>
+      </c>
+      <c r="U42" t="s">
         <v>210</v>
       </c>
-      <c r="T42" t="s">
-        <v>211</v>
-      </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z42" t="s">
         <v>287</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="AA42" t="s">
         <v>288</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="AB42" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF42" t="s">
         <v>289</v>
       </c>
-      <c r="AA42" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD42" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE42" t="s">
-        <v>290</v>
-      </c>
     </row>
-    <row r="43" spans="1:72" ht="15.5">
+    <row r="43" spans="1:73" ht="15.5">
       <c r="A43" t="s">
         <v>98</v>
       </c>
       <c r="B43" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C43" t="s">
         <v>100</v>
       </c>
       <c r="D43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F43" t="s">
         <v>102</v>
       </c>
       <c r="G43" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="K43" t="s">
-        <v>356</v>
-      </c>
-      <c r="P43" t="s">
-        <v>109</v>
-      </c>
-      <c r="R43" t="s">
+        <v>350</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="L43" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>108</v>
+      </c>
+      <c r="S43" t="s">
+        <v>209</v>
+      </c>
+      <c r="U43" t="s">
         <v>210</v>
       </c>
-      <c r="T43" t="s">
-        <v>211</v>
-      </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z43" t="s">
         <v>287</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="AA43" t="s">
         <v>288</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="AB43" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF43" t="s">
         <v>289</v>
       </c>
-      <c r="AA43" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC43" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE43" t="s">
-        <v>290</v>
-      </c>
     </row>
-    <row r="44" spans="1:72" ht="15.5">
+    <row r="44" spans="1:73" ht="15.5">
       <c r="A44" t="s">
         <v>98</v>
       </c>
       <c r="B44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C44" t="s">
         <v>100</v>
       </c>
       <c r="D44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F44" t="s">
         <v>102</v>
       </c>
       <c r="G44" t="s">
+        <v>351</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="J44" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="H44" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="K44" t="s">
-        <v>356</v>
-      </c>
-      <c r="P44" t="s">
-        <v>109</v>
-      </c>
-      <c r="R44" t="s">
+      <c r="K44" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="L44" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>108</v>
+      </c>
+      <c r="S44" t="s">
+        <v>209</v>
+      </c>
+      <c r="U44" t="s">
         <v>210</v>
       </c>
-      <c r="T44" t="s">
-        <v>211</v>
-      </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z44" t="s">
         <v>287</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="AA44" t="s">
         <v>288</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="AB44" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF44" t="s">
         <v>289</v>
       </c>
-      <c r="AA44" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD44" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>290</v>
-      </c>
     </row>
-    <row r="45" spans="1:72" ht="15.5">
+    <row r="45" spans="1:73" ht="15.5">
       <c r="A45" t="s">
         <v>98</v>
       </c>
       <c r="B45" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C45" t="s">
         <v>100</v>
       </c>
       <c r="D45" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F45" t="s">
         <v>102</v>
       </c>
       <c r="G45" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="J45" t="s">
-        <v>324</v>
-      </c>
-      <c r="K45" t="s">
-        <v>356</v>
-      </c>
-      <c r="P45" t="s">
-        <v>109</v>
-      </c>
-      <c r="R45" t="s">
+        <v>355</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="L45" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>108</v>
+      </c>
+      <c r="S45" t="s">
+        <v>209</v>
+      </c>
+      <c r="U45" t="s">
         <v>210</v>
       </c>
-      <c r="T45" t="s">
-        <v>211</v>
-      </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z45" t="s">
         <v>287</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="AA45" t="s">
         <v>288</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="AB45" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF45" t="s">
         <v>289</v>
       </c>
-      <c r="AA45" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC45" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD45" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE45" t="s">
-        <v>290</v>
-      </c>
     </row>
-    <row r="46" spans="1:72">
+    <row r="46" spans="1:73">
       <c r="A46" t="s">
         <v>98</v>
       </c>
       <c r="B46" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C46" t="s">
         <v>100</v>
       </c>
       <c r="D46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>13</v>
@@ -6641,63 +6893,63 @@
         <v>102</v>
       </c>
       <c r="G46" t="s">
+        <v>317</v>
+      </c>
+      <c r="H46" t="s">
+        <v>315</v>
+      </c>
+      <c r="I46" t="s">
         <v>318</v>
       </c>
-      <c r="H46" t="s">
-        <v>316</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="K46" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="L46" t="s">
         <v>319</v>
       </c>
-      <c r="J46" t="s">
-        <v>324</v>
-      </c>
-      <c r="K46" t="s">
-        <v>320</v>
-      </c>
-      <c r="P46" t="s">
-        <v>109</v>
-      </c>
-      <c r="R46" t="s">
+      <c r="Q46" t="s">
+        <v>108</v>
+      </c>
+      <c r="S46" t="s">
+        <v>209</v>
+      </c>
+      <c r="U46" t="s">
         <v>210</v>
       </c>
-      <c r="T46" t="s">
-        <v>211</v>
-      </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z46" t="s">
         <v>287</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="AA46" t="s">
         <v>288</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="AB46" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF46" t="s">
         <v>289</v>
       </c>
-      <c r="AA46" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC46" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD46" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE46" t="s">
-        <v>290</v>
-      </c>
     </row>
-    <row r="47" spans="1:72">
+    <row r="47" spans="1:73">
       <c r="A47" t="s">
         <v>98</v>
       </c>
       <c r="B47" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C47" t="s">
         <v>100</v>
       </c>
       <c r="D47" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>19</v>
@@ -6706,606 +6958,617 @@
         <v>102</v>
       </c>
       <c r="G47" t="s">
+        <v>305</v>
+      </c>
+      <c r="H47" t="s">
         <v>306</v>
       </c>
-      <c r="H47" t="s">
-        <v>307</v>
-      </c>
       <c r="I47" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J47" t="s">
-        <v>358</v>
-      </c>
-      <c r="K47" t="s">
-        <v>361</v>
-      </c>
-      <c r="P47" t="s">
-        <v>109</v>
-      </c>
-      <c r="R47" t="s">
-        <v>391</v>
-      </c>
-      <c r="T47" t="s">
-        <v>392</v>
+        <v>356</v>
+      </c>
+      <c r="K47" s="3"/>
+      <c r="L47" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>108</v>
+      </c>
+      <c r="S47" t="s">
+        <v>389</v>
       </c>
       <c r="U47" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y47" t="s">
+        <v>390</v>
+      </c>
+      <c r="V47" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>292</v>
+      </c>
+      <c r="AA47" t="s">
         <v>293</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="AB47" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE47" t="s">
         <v>294</v>
       </c>
-      <c r="AA47" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>172</v>
-      </c>
-      <c r="AD47" t="s">
+      <c r="AI47" t="s">
         <v>295</v>
       </c>
-      <c r="AH47" t="s">
+      <c r="AK47" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN47" t="s">
         <v>296</v>
       </c>
-      <c r="AJ47" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK47" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL47" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM47" t="s">
+      <c r="AO47" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP47" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ47" t="s">
         <v>297</v>
       </c>
-      <c r="AN47" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO47" t="s">
-        <v>65</v>
-      </c>
-      <c r="AP47" t="s">
+      <c r="AR47" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS47" t="s">
         <v>298</v>
       </c>
-      <c r="AQ47" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR47" t="s">
-        <v>299</v>
-      </c>
-      <c r="AS47" t="s">
+      <c r="AT47" t="s">
         <v>69</v>
       </c>
-      <c r="AT47" t="s">
+      <c r="AU47" t="s">
         <v>70</v>
       </c>
-      <c r="AU47" t="s">
+      <c r="AV47" t="s">
         <v>71</v>
       </c>
-      <c r="AV47" t="s">
+      <c r="AW47" t="s">
         <v>72</v>
       </c>
-      <c r="AW47" t="s">
+      <c r="AX47" t="s">
         <v>73</v>
       </c>
-      <c r="AX47" t="s">
+      <c r="AY47" t="s">
         <v>74</v>
       </c>
-      <c r="AY47" t="s">
+      <c r="AZ47" t="s">
         <v>75</v>
       </c>
-      <c r="AZ47" t="s">
+      <c r="BA47" t="s">
         <v>76</v>
       </c>
-      <c r="BA47" t="s">
+      <c r="BB47" t="s">
         <v>77</v>
       </c>
-      <c r="BB47" t="s">
+      <c r="BC47" t="s">
         <v>78</v>
       </c>
-      <c r="BC47" t="s">
+      <c r="BD47" t="s">
         <v>79</v>
       </c>
-      <c r="BD47" t="s">
+      <c r="BE47" t="s">
         <v>80</v>
       </c>
-      <c r="BE47" t="s">
+      <c r="BF47" t="s">
         <v>81</v>
       </c>
-      <c r="BF47" t="s">
+      <c r="BG47" t="s">
         <v>82</v>
       </c>
-      <c r="BG47" t="s">
+      <c r="BH47" t="s">
         <v>83</v>
       </c>
-      <c r="BH47" t="s">
+      <c r="BI47" t="s">
         <v>84</v>
       </c>
-      <c r="BI47" t="s">
+      <c r="BJ47" t="s">
         <v>85</v>
       </c>
-      <c r="BJ47" t="s">
+      <c r="BK47" t="s">
         <v>86</v>
       </c>
-      <c r="BK47" t="s">
+      <c r="BL47" t="s">
         <v>87</v>
       </c>
-      <c r="BL47" t="s">
+      <c r="BM47" t="s">
         <v>88</v>
       </c>
-      <c r="BM47" t="s">
+      <c r="BN47" t="s">
         <v>89</v>
       </c>
-      <c r="BN47" t="s">
+      <c r="BO47" t="s">
         <v>90</v>
       </c>
-      <c r="BO47" t="s">
+      <c r="BP47" t="s">
         <v>91</v>
       </c>
-      <c r="BP47" t="s">
+      <c r="BQ47" t="s">
         <v>92</v>
       </c>
-      <c r="BQ47" t="s">
+      <c r="BR47" t="s">
         <v>93</v>
       </c>
-      <c r="BR47" t="s">
+      <c r="BS47" t="s">
         <v>94</v>
       </c>
-      <c r="BS47" t="s">
+      <c r="BT47" t="s">
         <v>95</v>
       </c>
-      <c r="BT47" t="s">
+      <c r="BU47" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:72">
+    <row r="48" spans="1:73">
       <c r="A48" t="s">
         <v>98</v>
       </c>
       <c r="B48" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C48" t="s">
         <v>100</v>
       </c>
       <c r="D48" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E48" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F48" t="s">
         <v>102</v>
       </c>
       <c r="G48" t="s">
+        <v>305</v>
+      </c>
+      <c r="H48" t="s">
         <v>306</v>
       </c>
-      <c r="H48" t="s">
-        <v>307</v>
-      </c>
       <c r="I48" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J48" t="s">
-        <v>358</v>
-      </c>
-      <c r="K48" t="s">
-        <v>363</v>
-      </c>
-      <c r="P48" t="s">
-        <v>109</v>
-      </c>
-      <c r="R48" t="s">
-        <v>391</v>
-      </c>
-      <c r="T48" t="s">
-        <v>392</v>
+        <v>356</v>
+      </c>
+      <c r="K48" s="3"/>
+      <c r="L48" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>108</v>
+      </c>
+      <c r="S48" t="s">
+        <v>389</v>
       </c>
       <c r="U48" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y48" t="s">
+        <v>390</v>
+      </c>
+      <c r="V48" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>292</v>
+      </c>
+      <c r="AA48" t="s">
         <v>293</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="AB48" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE48" t="s">
         <v>294</v>
       </c>
-      <c r="AA48" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC48" t="s">
-        <v>172</v>
-      </c>
-      <c r="AD48" t="s">
+      <c r="AI48" t="s">
         <v>295</v>
       </c>
-      <c r="AH48" t="s">
+      <c r="AK48" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN48" t="s">
         <v>296</v>
       </c>
-      <c r="AJ48" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK48" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL48" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM48" t="s">
+      <c r="AO48" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP48" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ48" t="s">
         <v>297</v>
       </c>
-      <c r="AN48" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO48" t="s">
-        <v>65</v>
-      </c>
-      <c r="AP48" t="s">
+      <c r="AR48" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS48" t="s">
         <v>298</v>
       </c>
-      <c r="AQ48" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR48" t="s">
-        <v>299</v>
-      </c>
-      <c r="AS48" t="s">
+      <c r="AT48" t="s">
         <v>69</v>
       </c>
-      <c r="AT48" t="s">
+      <c r="AU48" t="s">
         <v>70</v>
       </c>
-      <c r="AU48" t="s">
+      <c r="AV48" t="s">
         <v>71</v>
       </c>
-      <c r="AV48" t="s">
+      <c r="AW48" t="s">
         <v>72</v>
       </c>
-      <c r="AW48" t="s">
+      <c r="AX48" t="s">
         <v>73</v>
       </c>
-      <c r="AX48" t="s">
+      <c r="AY48" t="s">
         <v>74</v>
       </c>
-      <c r="AY48" t="s">
+      <c r="AZ48" t="s">
         <v>75</v>
       </c>
-      <c r="AZ48" t="s">
+      <c r="BA48" t="s">
         <v>76</v>
       </c>
-      <c r="BA48" t="s">
+      <c r="BB48" t="s">
         <v>77</v>
       </c>
-      <c r="BB48" t="s">
+      <c r="BC48" t="s">
         <v>78</v>
       </c>
-      <c r="BC48" t="s">
+      <c r="BD48" t="s">
         <v>79</v>
       </c>
-      <c r="BD48" t="s">
+      <c r="BE48" t="s">
         <v>80</v>
       </c>
-      <c r="BE48" t="s">
+      <c r="BF48" t="s">
         <v>81</v>
       </c>
-      <c r="BF48" t="s">
+      <c r="BG48" t="s">
         <v>82</v>
       </c>
-      <c r="BG48" t="s">
+      <c r="BH48" t="s">
         <v>83</v>
       </c>
-      <c r="BH48" t="s">
+      <c r="BI48" t="s">
         <v>84</v>
       </c>
-      <c r="BI48" t="s">
+      <c r="BJ48" t="s">
         <v>85</v>
       </c>
-      <c r="BJ48" t="s">
+      <c r="BK48" t="s">
         <v>86</v>
       </c>
-      <c r="BK48" t="s">
+      <c r="BL48" t="s">
         <v>87</v>
       </c>
-      <c r="BL48" t="s">
+      <c r="BM48" t="s">
         <v>88</v>
       </c>
-      <c r="BM48" t="s">
+      <c r="BN48" t="s">
         <v>89</v>
       </c>
-      <c r="BN48" t="s">
+      <c r="BO48" t="s">
         <v>90</v>
       </c>
-      <c r="BO48" t="s">
+      <c r="BP48" t="s">
         <v>91</v>
       </c>
-      <c r="BP48" t="s">
+      <c r="BQ48" t="s">
         <v>92</v>
       </c>
-      <c r="BQ48" t="s">
+      <c r="BR48" t="s">
         <v>93</v>
       </c>
-      <c r="BR48" t="s">
+      <c r="BS48" t="s">
         <v>94</v>
       </c>
-      <c r="BS48" t="s">
+      <c r="BT48" t="s">
         <v>95</v>
       </c>
-      <c r="BT48" t="s">
+      <c r="BU48" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:68">
+    <row r="49" spans="1:69">
       <c r="A49" t="s">
         <v>98</v>
       </c>
       <c r="B49" t="s">
+        <v>365</v>
+      </c>
+      <c r="C49" t="s">
+        <v>301</v>
+      </c>
+      <c r="D49" t="s">
+        <v>300</v>
+      </c>
+      <c r="E49" t="s">
+        <v>362</v>
+      </c>
+      <c r="F49" t="s">
+        <v>302</v>
+      </c>
+      <c r="G49" t="s">
+        <v>366</v>
+      </c>
+      <c r="H49" t="s">
         <v>367</v>
       </c>
-      <c r="C49" t="s">
-        <v>302</v>
-      </c>
-      <c r="D49" t="s">
-        <v>301</v>
-      </c>
-      <c r="E49" t="s">
-        <v>364</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="I49" t="s">
+        <v>368</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K49" t="s">
+        <v>404</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>108</v>
+      </c>
+      <c r="U49" t="s">
         <v>303</v>
-      </c>
-      <c r="G49" t="s">
-        <v>368</v>
-      </c>
-      <c r="H49" t="s">
-        <v>369</v>
-      </c>
-      <c r="I49" t="s">
-        <v>370</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="P49" t="s">
-        <v>109</v>
-      </c>
-      <c r="T49" t="s">
-        <v>304</v>
-      </c>
-      <c r="U49" t="s">
-        <v>305</v>
       </c>
       <c r="V49" t="s">
         <v>304</v>
       </c>
       <c r="W49" t="s">
-        <v>305</v>
-      </c>
-      <c r="Y49" t="s">
+        <v>303</v>
+      </c>
+      <c r="X49" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA49" t="s">
         <v>170</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="AB49" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD49" t="s">
         <v>171</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="AE49" t="s">
         <v>117</v>
       </c>
-      <c r="AC49" t="s">
-        <v>172</v>
-      </c>
-      <c r="AD49" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ49" t="s">
-        <v>372</v>
-      </c>
       <c r="AK49" t="s">
+        <v>370</v>
+      </c>
+      <c r="AL49" t="s">
         <v>61</v>
       </c>
-      <c r="AO49" t="s">
+      <c r="AP49" t="s">
         <v>65</v>
       </c>
-      <c r="AP49" t="s">
-        <v>373</v>
-      </c>
-      <c r="AY49" t="s">
+      <c r="AQ49" t="s">
+        <v>371</v>
+      </c>
+      <c r="AZ49" t="s">
+        <v>227</v>
+      </c>
+      <c r="BA49" t="s">
         <v>228</v>
       </c>
-      <c r="AZ49" t="s">
-        <v>229</v>
-      </c>
-      <c r="BA49" t="s">
-        <v>187</v>
-      </c>
       <c r="BB49" t="s">
+        <v>186</v>
+      </c>
+      <c r="BC49" t="s">
         <v>78</v>
       </c>
-      <c r="BD49" t="s">
-        <v>189</v>
-      </c>
-      <c r="BF49" t="s">
-        <v>128</v>
+      <c r="BE49" t="s">
+        <v>188</v>
+      </c>
+      <c r="BG49" t="s">
+        <v>127</v>
       </c>
     </row>
-    <row r="50" spans="1:68">
+    <row r="50" spans="1:69">
       <c r="A50" t="s">
         <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C50" t="s">
+        <v>301</v>
+      </c>
+      <c r="D50" t="s">
+        <v>300</v>
+      </c>
+      <c r="E50" t="s">
+        <v>363</v>
+      </c>
+      <c r="F50" t="s">
         <v>302</v>
       </c>
-      <c r="D50" t="s">
-        <v>301</v>
-      </c>
-      <c r="E50" t="s">
-        <v>365</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
+        <v>378</v>
+      </c>
+      <c r="H50" t="s">
+        <v>238</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="L50" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>108</v>
+      </c>
+      <c r="S50" t="s">
+        <v>311</v>
+      </c>
+      <c r="U50" t="s">
         <v>303</v>
-      </c>
-      <c r="G50" t="s">
-        <v>380</v>
-      </c>
-      <c r="H50" t="s">
-        <v>239</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="K50" t="s">
-        <v>363</v>
-      </c>
-      <c r="P50" t="s">
-        <v>109</v>
-      </c>
-      <c r="R50" t="s">
-        <v>312</v>
-      </c>
-      <c r="T50" t="s">
-        <v>304</v>
-      </c>
-      <c r="U50" t="s">
-        <v>305</v>
       </c>
       <c r="V50" t="s">
         <v>304</v>
       </c>
       <c r="W50" t="s">
-        <v>305</v>
-      </c>
-      <c r="Y50" t="s">
+        <v>303</v>
+      </c>
+      <c r="X50" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA50" t="s">
         <v>170</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="AB50" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD50" t="s">
         <v>171</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="AE50" t="s">
         <v>117</v>
       </c>
-      <c r="AC50" t="s">
-        <v>172</v>
-      </c>
-      <c r="AD50" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ50" t="s">
-        <v>372</v>
-      </c>
       <c r="AK50" t="s">
+        <v>370</v>
+      </c>
+      <c r="AL50" t="s">
         <v>61</v>
       </c>
-      <c r="AM50" t="s">
-        <v>386</v>
-      </c>
       <c r="AN50" t="s">
+        <v>384</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>383</v>
+      </c>
+      <c r="AP50" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT50" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW50" t="s">
+        <v>382</v>
+      </c>
+      <c r="AX50" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ50" t="s">
+        <v>227</v>
+      </c>
+      <c r="BA50" t="s">
+        <v>228</v>
+      </c>
+      <c r="BE50" t="s">
+        <v>188</v>
+      </c>
+      <c r="BK50" t="s">
         <v>385</v>
       </c>
-      <c r="AO50" t="s">
-        <v>65</v>
-      </c>
-      <c r="AS50" t="s">
-        <v>69</v>
-      </c>
-      <c r="AV50" t="s">
-        <v>384</v>
-      </c>
-      <c r="AW50" t="s">
-        <v>73</v>
-      </c>
-      <c r="AY50" t="s">
-        <v>228</v>
-      </c>
-      <c r="AZ50" t="s">
-        <v>229</v>
-      </c>
-      <c r="BD50" t="s">
-        <v>189</v>
-      </c>
-      <c r="BJ50" t="s">
-        <v>387</v>
-      </c>
-      <c r="BO50" t="s">
+      <c r="BP50" t="s">
+        <v>194</v>
+      </c>
+      <c r="BQ50" t="s">
         <v>195</v>
       </c>
-      <c r="BP50" t="s">
-        <v>196</v>
-      </c>
     </row>
-    <row r="51" spans="1:68">
+    <row r="51" spans="1:69">
       <c r="A51" t="s">
         <v>98</v>
       </c>
       <c r="B51" t="s">
+        <v>373</v>
+      </c>
+      <c r="C51" t="s">
+        <v>301</v>
+      </c>
+      <c r="D51" t="s">
+        <v>300</v>
+      </c>
+      <c r="E51" t="s">
+        <v>363</v>
+      </c>
+      <c r="F51" t="s">
+        <v>302</v>
+      </c>
+      <c r="G51" t="s">
+        <v>374</v>
+      </c>
+      <c r="J51" t="s">
+        <v>376</v>
+      </c>
+      <c r="K51" t="s">
+        <v>406</v>
+      </c>
+      <c r="L51" t="s">
         <v>375</v>
       </c>
-      <c r="C51" t="s">
-        <v>302</v>
-      </c>
-      <c r="D51" t="s">
-        <v>301</v>
-      </c>
-      <c r="E51" t="s">
-        <v>365</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="Q51" t="s">
+        <v>108</v>
+      </c>
+      <c r="U51" t="s">
         <v>303</v>
-      </c>
-      <c r="G51" t="s">
-        <v>376</v>
-      </c>
-      <c r="J51" t="s">
-        <v>378</v>
-      </c>
-      <c r="K51" t="s">
-        <v>377</v>
-      </c>
-      <c r="P51" t="s">
-        <v>109</v>
-      </c>
-      <c r="T51" t="s">
-        <v>304</v>
-      </c>
-      <c r="U51" t="s">
-        <v>305</v>
       </c>
       <c r="V51" t="s">
         <v>304</v>
       </c>
       <c r="W51" t="s">
-        <v>305</v>
-      </c>
-      <c r="Y51" t="s">
+        <v>303</v>
+      </c>
+      <c r="X51" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA51" t="s">
         <v>170</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="AB51" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD51" t="s">
         <v>171</v>
       </c>
-      <c r="AA51" t="s">
+      <c r="AE51" t="s">
         <v>117</v>
       </c>
-      <c r="AC51" t="s">
-        <v>172</v>
-      </c>
-      <c r="AD51" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE51" t="s">
-        <v>382</v>
-      </c>
       <c r="AF51" t="s">
-        <v>383</v>
+        <v>380</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>

--- a/product_data/processing_metadata/C5/PIG_meta.xlsx
+++ b/product_data/processing_metadata/C5/PIG_meta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="13_ncr:1_{A0C56D46-583C-47FA-9912-0986EC17F7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D708121-6DA8-498B-A0EB-E103C2355B47}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{6D903790-D07D-4718-95DE-5C627830A9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C6B4431-D1A2-4A6F-904C-F1607034843B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B7D7ACF3-C0AE-4A67-A41D-E2D748D3A5A0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="425">
   <si>
     <t>353L20070114</t>
   </si>
@@ -354,9 +354,6 @@
     <t>aadcwebqueries@aad.gov.au</t>
   </si>
   <si>
-    <t>Wright_etal_2004</t>
-  </si>
-  <si>
     <t>all</t>
   </si>
   <si>
@@ -450,72 +447,48 @@
     <t>10.4225/15/521BECBAC1F75</t>
   </si>
   <si>
-    <t>Wright_etal_2005</t>
-  </si>
-  <si>
     <t>E:/Data_downloads/AADC/HPLC/353L20071231</t>
   </si>
   <si>
     <t>10.4225/15/521BF2BAF13CA</t>
   </si>
   <si>
-    <t>Wright_etal_2006</t>
-  </si>
-  <si>
     <t>E:/Data_downloads/AADC/HPLC/353L20080217</t>
   </si>
   <si>
     <t>10.4225/15/521BFF78485E6</t>
   </si>
   <si>
-    <t>Wright_etal_2007</t>
-  </si>
-  <si>
     <t>E:/Data_downloads/AADC/HPLC/353L20081022</t>
   </si>
   <si>
     <t>10.4225/15/521C080AE09CE</t>
   </si>
   <si>
-    <t>Wright_etal_2008</t>
-  </si>
-  <si>
     <t>E:/Data_downloads/AADC/HPLC/353L20090101</t>
   </si>
   <si>
     <t>10.4225/15/521C0DF59E573</t>
   </si>
   <si>
-    <t>Wright_etal_2009</t>
-  </si>
-  <si>
     <t>E:/Data_downloads/AADC/HPLC/353L20090219</t>
   </si>
   <si>
     <t>10.4225/15/5244E3F79E38B</t>
   </si>
   <si>
-    <t>Wright_etal_2010</t>
-  </si>
-  <si>
     <t>E:/Data_downloads/AADC/HPLC/353L20091021</t>
   </si>
   <si>
     <t>10.4225/15/5244EC8C7BC02</t>
   </si>
   <si>
-    <t>Wright_etal_2011</t>
-  </si>
-  <si>
     <t>E:/Data_downloads/AADC/HPLC/353L20100219</t>
   </si>
   <si>
     <t>10.4225/15/52450EBCAC268</t>
   </si>
   <si>
-    <t>Wright_etal_2012</t>
-  </si>
-  <si>
     <t>E:/Data_downloads/IMOS_SRS/49NZ20031209/HPLC</t>
   </si>
   <si>
@@ -909,9 +882,6 @@
     <t>Mueller_2003</t>
   </si>
   <si>
-    <t>MAREDAT</t>
-  </si>
-  <si>
     <t>Lat</t>
   </si>
   <si>
@@ -936,9 +906,6 @@
     <t>E:/Data_downloads/MAREDAT/47</t>
   </si>
   <si>
-    <t>PANGEA</t>
-  </si>
-  <si>
     <t>.tab</t>
   </si>
   <si>
@@ -1038,9 +1005,6 @@
     <t>NOAA</t>
   </si>
   <si>
-    <t>Unknown_flor</t>
-  </si>
-  <si>
     <t>10.3334/CDIAC/otg.CLIVAR_P18_2007</t>
   </si>
   <si>
@@ -1092,9 +1056,6 @@
     <t>M Ishii</t>
   </si>
   <si>
-    <t>Unknown_fluor</t>
-  </si>
-  <si>
     <t>10.3334/CDIAC/otg.CARINA_49ZS19921203</t>
   </si>
   <si>
@@ -1212,9 +1173,6 @@
     <t>E:/Data_downloads/GLODAP/279</t>
   </si>
   <si>
-    <t>citations</t>
-  </si>
-  <si>
     <t>SOCCOM_pig</t>
   </si>
   <si>
@@ -1339,6 +1297,18 @@
   </si>
   <si>
     <t>91AH20140402_prof</t>
+  </si>
+  <si>
+    <t>citation</t>
+  </si>
+  <si>
+    <t>PANGEAE</t>
+  </si>
+  <si>
+    <t>Unknown_fluorometry</t>
+  </si>
+  <si>
+    <t>MAREDAT_1; MAREDAT_2</t>
   </si>
 </sst>
 </file>
@@ -1737,8 +1707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F66F91E-37FF-4E13-8317-A8978462FC2B}">
   <dimension ref="A1:BV51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1775,7 +1745,7 @@
         <v>34</v>
       </c>
       <c r="K1" t="s">
-        <v>392</v>
+        <v>421</v>
       </c>
       <c r="L1" t="s">
         <v>35</v>
@@ -1996,55 +1966,55 @@
         <v>105</v>
       </c>
       <c r="J2" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="K2" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="L2" t="s">
+        <v>156</v>
+      </c>
+      <c r="P2" t="s">
         <v>106</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>107</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="U2" t="s">
         <v>108</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>109</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>110</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>111</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>112</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>113</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>114</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>115</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AE2" t="s">
         <v>116</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>117</v>
       </c>
       <c r="AL2" t="s">
         <v>61</v>
       </c>
       <c r="AM2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO2" t="s">
         <v>118</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>119</v>
       </c>
       <c r="AP2" t="s">
         <v>65</v>
@@ -2062,52 +2032,52 @@
         <v>74</v>
       </c>
       <c r="AZ2" t="s">
+        <v>119</v>
+      </c>
+      <c r="BA2" t="s">
         <v>120</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BB2" t="s">
         <v>121</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BC2" t="s">
         <v>122</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BD2" t="s">
         <v>123</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BE2" t="s">
         <v>124</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BF2" t="s">
         <v>125</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BG2" t="s">
         <v>126</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BI2" t="s">
         <v>127</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BJ2" t="s">
         <v>128</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BK2" t="s">
         <v>129</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>130</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BO2" t="s">
         <v>131</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BP2" t="s">
         <v>132</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BQ2" t="s">
         <v>133</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BU2" t="s">
         <v>134</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:74">
@@ -2115,7 +2085,7 @@
         <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
         <v>100</v>
@@ -2139,55 +2109,55 @@
         <v>105</v>
       </c>
       <c r="J3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K3" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="L3" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="P3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q3" t="s">
         <v>107</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="U3" t="s">
         <v>108</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>109</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>110</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>111</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>112</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>113</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>114</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>115</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AE3" t="s">
         <v>116</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>117</v>
       </c>
       <c r="AL3" t="s">
         <v>61</v>
       </c>
       <c r="AM3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO3" t="s">
         <v>118</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>119</v>
       </c>
       <c r="AP3" t="s">
         <v>65</v>
@@ -2205,52 +2175,52 @@
         <v>74</v>
       </c>
       <c r="AZ3" t="s">
+        <v>119</v>
+      </c>
+      <c r="BA3" t="s">
         <v>120</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BB3" t="s">
         <v>121</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BC3" t="s">
         <v>122</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BD3" t="s">
         <v>123</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BE3" t="s">
         <v>124</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BF3" t="s">
         <v>125</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BG3" t="s">
         <v>126</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BI3" t="s">
         <v>127</v>
       </c>
-      <c r="BI3" t="s">
+      <c r="BJ3" t="s">
         <v>128</v>
       </c>
-      <c r="BJ3" t="s">
+      <c r="BK3" t="s">
         <v>129</v>
       </c>
-      <c r="BK3" t="s">
+      <c r="BL3" t="s">
         <v>130</v>
       </c>
-      <c r="BL3" t="s">
+      <c r="BO3" t="s">
         <v>131</v>
       </c>
-      <c r="BO3" t="s">
+      <c r="BP3" t="s">
         <v>132</v>
       </c>
-      <c r="BP3" t="s">
+      <c r="BQ3" t="s">
         <v>133</v>
       </c>
-      <c r="BQ3" t="s">
+      <c r="BU3" t="s">
         <v>134</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:74">
@@ -2258,7 +2228,7 @@
         <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
         <v>100</v>
@@ -2282,55 +2252,55 @@
         <v>105</v>
       </c>
       <c r="J4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K4" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="L4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="P4" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q4" t="s">
         <v>107</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="U4" t="s">
         <v>108</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>109</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>110</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>111</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>112</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>113</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>114</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>115</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AE4" t="s">
         <v>116</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>117</v>
       </c>
       <c r="AL4" t="s">
         <v>61</v>
       </c>
       <c r="AM4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO4" t="s">
         <v>118</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>119</v>
       </c>
       <c r="AP4" t="s">
         <v>65</v>
@@ -2348,52 +2318,52 @@
         <v>74</v>
       </c>
       <c r="AZ4" t="s">
+        <v>119</v>
+      </c>
+      <c r="BA4" t="s">
         <v>120</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BB4" t="s">
         <v>121</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BC4" t="s">
         <v>122</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BD4" t="s">
         <v>123</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BE4" t="s">
         <v>124</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BF4" t="s">
         <v>125</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BG4" t="s">
         <v>126</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BI4" t="s">
         <v>127</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BJ4" t="s">
         <v>128</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BK4" t="s">
         <v>129</v>
       </c>
-      <c r="BK4" t="s">
+      <c r="BL4" t="s">
         <v>130</v>
       </c>
-      <c r="BL4" t="s">
+      <c r="BO4" t="s">
         <v>131</v>
       </c>
-      <c r="BO4" t="s">
+      <c r="BP4" t="s">
         <v>132</v>
       </c>
-      <c r="BP4" t="s">
+      <c r="BQ4" t="s">
         <v>133</v>
       </c>
-      <c r="BQ4" t="s">
+      <c r="BU4" t="s">
         <v>134</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:74">
@@ -2401,7 +2371,7 @@
         <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
         <v>100</v>
@@ -2425,55 +2395,55 @@
         <v>105</v>
       </c>
       <c r="J5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K5" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="L5" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="P5" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q5" t="s">
         <v>107</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="U5" t="s">
         <v>108</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>109</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>110</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>111</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>112</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>113</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>114</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>115</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AE5" t="s">
         <v>116</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>117</v>
       </c>
       <c r="AL5" t="s">
         <v>61</v>
       </c>
       <c r="AM5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO5" t="s">
         <v>118</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>119</v>
       </c>
       <c r="AP5" t="s">
         <v>65</v>
@@ -2491,52 +2461,52 @@
         <v>74</v>
       </c>
       <c r="AZ5" t="s">
+        <v>119</v>
+      </c>
+      <c r="BA5" t="s">
         <v>120</v>
       </c>
-      <c r="BA5" t="s">
+      <c r="BB5" t="s">
         <v>121</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BC5" t="s">
         <v>122</v>
       </c>
-      <c r="BC5" t="s">
+      <c r="BD5" t="s">
         <v>123</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="BE5" t="s">
         <v>124</v>
       </c>
-      <c r="BE5" t="s">
+      <c r="BF5" t="s">
         <v>125</v>
       </c>
-      <c r="BF5" t="s">
+      <c r="BG5" t="s">
         <v>126</v>
       </c>
-      <c r="BG5" t="s">
+      <c r="BI5" t="s">
         <v>127</v>
       </c>
-      <c r="BI5" t="s">
+      <c r="BJ5" t="s">
         <v>128</v>
       </c>
-      <c r="BJ5" t="s">
+      <c r="BK5" t="s">
         <v>129</v>
       </c>
-      <c r="BK5" t="s">
+      <c r="BL5" t="s">
         <v>130</v>
       </c>
-      <c r="BL5" t="s">
+      <c r="BO5" t="s">
         <v>131</v>
       </c>
-      <c r="BO5" t="s">
+      <c r="BP5" t="s">
         <v>132</v>
       </c>
-      <c r="BP5" t="s">
+      <c r="BQ5" t="s">
         <v>133</v>
       </c>
-      <c r="BQ5" t="s">
+      <c r="BU5" t="s">
         <v>134</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:74">
@@ -2544,7 +2514,7 @@
         <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
         <v>100</v>
@@ -2568,55 +2538,55 @@
         <v>105</v>
       </c>
       <c r="J6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K6" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="L6" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="P6" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q6" t="s">
         <v>107</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="U6" t="s">
         <v>108</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>109</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>110</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>111</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>112</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>113</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>114</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>115</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AE6" t="s">
         <v>116</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>117</v>
       </c>
       <c r="AL6" t="s">
         <v>61</v>
       </c>
       <c r="AM6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO6" t="s">
         <v>118</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>119</v>
       </c>
       <c r="AP6" t="s">
         <v>65</v>
@@ -2634,52 +2604,52 @@
         <v>74</v>
       </c>
       <c r="AZ6" t="s">
+        <v>119</v>
+      </c>
+      <c r="BA6" t="s">
         <v>120</v>
       </c>
-      <c r="BA6" t="s">
+      <c r="BB6" t="s">
         <v>121</v>
       </c>
-      <c r="BB6" t="s">
+      <c r="BC6" t="s">
         <v>122</v>
       </c>
-      <c r="BC6" t="s">
+      <c r="BD6" t="s">
         <v>123</v>
       </c>
-      <c r="BD6" t="s">
+      <c r="BE6" t="s">
         <v>124</v>
       </c>
-      <c r="BE6" t="s">
+      <c r="BF6" t="s">
         <v>125</v>
       </c>
-      <c r="BF6" t="s">
+      <c r="BG6" t="s">
         <v>126</v>
       </c>
-      <c r="BG6" t="s">
+      <c r="BI6" t="s">
         <v>127</v>
       </c>
-      <c r="BI6" t="s">
+      <c r="BJ6" t="s">
         <v>128</v>
       </c>
-      <c r="BJ6" t="s">
+      <c r="BK6" t="s">
         <v>129</v>
       </c>
-      <c r="BK6" t="s">
+      <c r="BL6" t="s">
         <v>130</v>
       </c>
-      <c r="BL6" t="s">
+      <c r="BO6" t="s">
         <v>131</v>
       </c>
-      <c r="BO6" t="s">
+      <c r="BP6" t="s">
         <v>132</v>
       </c>
-      <c r="BP6" t="s">
+      <c r="BQ6" t="s">
         <v>133</v>
       </c>
-      <c r="BQ6" t="s">
+      <c r="BU6" t="s">
         <v>134</v>
-      </c>
-      <c r="BU6" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:74">
@@ -2687,7 +2657,7 @@
         <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
         <v>100</v>
@@ -2711,55 +2681,55 @@
         <v>105</v>
       </c>
       <c r="J7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K7" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="L7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="P7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q7" t="s">
         <v>107</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="U7" t="s">
         <v>108</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>109</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>110</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>111</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>112</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>113</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>114</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>115</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AE7" t="s">
         <v>116</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>117</v>
       </c>
       <c r="AL7" t="s">
         <v>61</v>
       </c>
       <c r="AM7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO7" t="s">
         <v>118</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>119</v>
       </c>
       <c r="AP7" t="s">
         <v>65</v>
@@ -2777,52 +2747,52 @@
         <v>74</v>
       </c>
       <c r="AZ7" t="s">
+        <v>119</v>
+      </c>
+      <c r="BA7" t="s">
         <v>120</v>
       </c>
-      <c r="BA7" t="s">
+      <c r="BB7" t="s">
         <v>121</v>
       </c>
-      <c r="BB7" t="s">
+      <c r="BC7" t="s">
         <v>122</v>
       </c>
-      <c r="BC7" t="s">
+      <c r="BD7" t="s">
         <v>123</v>
       </c>
-      <c r="BD7" t="s">
+      <c r="BE7" t="s">
         <v>124</v>
       </c>
-      <c r="BE7" t="s">
+      <c r="BF7" t="s">
         <v>125</v>
       </c>
-      <c r="BF7" t="s">
+      <c r="BG7" t="s">
         <v>126</v>
       </c>
-      <c r="BG7" t="s">
+      <c r="BI7" t="s">
         <v>127</v>
       </c>
-      <c r="BI7" t="s">
+      <c r="BJ7" t="s">
         <v>128</v>
       </c>
-      <c r="BJ7" t="s">
+      <c r="BK7" t="s">
         <v>129</v>
       </c>
-      <c r="BK7" t="s">
+      <c r="BL7" t="s">
         <v>130</v>
       </c>
-      <c r="BL7" t="s">
+      <c r="BO7" t="s">
         <v>131</v>
       </c>
-      <c r="BO7" t="s">
+      <c r="BP7" t="s">
         <v>132</v>
       </c>
-      <c r="BP7" t="s">
+      <c r="BQ7" t="s">
         <v>133</v>
       </c>
-      <c r="BQ7" t="s">
+      <c r="BU7" t="s">
         <v>134</v>
-      </c>
-      <c r="BU7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:74">
@@ -2830,7 +2800,7 @@
         <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C8" t="s">
         <v>100</v>
@@ -2854,55 +2824,55 @@
         <v>105</v>
       </c>
       <c r="J8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="K8" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="L8" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P8" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q8" t="s">
         <v>107</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="U8" t="s">
         <v>108</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>109</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>110</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>111</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>112</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>113</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>114</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>115</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AE8" t="s">
         <v>116</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>117</v>
       </c>
       <c r="AL8" t="s">
         <v>61</v>
       </c>
       <c r="AM8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO8" t="s">
         <v>118</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>119</v>
       </c>
       <c r="AP8" t="s">
         <v>65</v>
@@ -2920,52 +2890,52 @@
         <v>74</v>
       </c>
       <c r="AZ8" t="s">
+        <v>119</v>
+      </c>
+      <c r="BA8" t="s">
         <v>120</v>
       </c>
-      <c r="BA8" t="s">
+      <c r="BB8" t="s">
         <v>121</v>
       </c>
-      <c r="BB8" t="s">
+      <c r="BC8" t="s">
         <v>122</v>
       </c>
-      <c r="BC8" t="s">
+      <c r="BD8" t="s">
         <v>123</v>
       </c>
-      <c r="BD8" t="s">
+      <c r="BE8" t="s">
         <v>124</v>
       </c>
-      <c r="BE8" t="s">
+      <c r="BF8" t="s">
         <v>125</v>
       </c>
-      <c r="BF8" t="s">
+      <c r="BG8" t="s">
         <v>126</v>
       </c>
-      <c r="BG8" t="s">
+      <c r="BI8" t="s">
         <v>127</v>
       </c>
-      <c r="BI8" t="s">
+      <c r="BJ8" t="s">
         <v>128</v>
       </c>
-      <c r="BJ8" t="s">
+      <c r="BK8" t="s">
         <v>129</v>
       </c>
-      <c r="BK8" t="s">
+      <c r="BL8" t="s">
         <v>130</v>
       </c>
-      <c r="BL8" t="s">
+      <c r="BO8" t="s">
         <v>131</v>
       </c>
-      <c r="BO8" t="s">
+      <c r="BP8" t="s">
         <v>132</v>
       </c>
-      <c r="BP8" t="s">
+      <c r="BQ8" t="s">
         <v>133</v>
       </c>
-      <c r="BQ8" t="s">
+      <c r="BU8" t="s">
         <v>134</v>
-      </c>
-      <c r="BU8" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:74">
@@ -2973,7 +2943,7 @@
         <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C9" t="s">
         <v>100</v>
@@ -2997,55 +2967,55 @@
         <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="K9" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="L9" t="s">
         <v>156</v>
       </c>
       <c r="P9" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q9" t="s">
         <v>107</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="U9" t="s">
         <v>108</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>109</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>110</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>111</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>112</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>113</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>114</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>115</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AE9" t="s">
         <v>116</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>117</v>
       </c>
       <c r="AL9" t="s">
         <v>61</v>
       </c>
       <c r="AM9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO9" t="s">
         <v>118</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>119</v>
       </c>
       <c r="AP9" t="s">
         <v>65</v>
@@ -3063,52 +3033,52 @@
         <v>74</v>
       </c>
       <c r="AZ9" t="s">
+        <v>119</v>
+      </c>
+      <c r="BA9" t="s">
         <v>120</v>
       </c>
-      <c r="BA9" t="s">
+      <c r="BB9" t="s">
         <v>121</v>
       </c>
-      <c r="BB9" t="s">
+      <c r="BC9" t="s">
         <v>122</v>
       </c>
-      <c r="BC9" t="s">
+      <c r="BD9" t="s">
         <v>123</v>
       </c>
-      <c r="BD9" t="s">
+      <c r="BE9" t="s">
         <v>124</v>
       </c>
-      <c r="BE9" t="s">
+      <c r="BF9" t="s">
         <v>125</v>
       </c>
-      <c r="BF9" t="s">
+      <c r="BG9" t="s">
         <v>126</v>
       </c>
-      <c r="BG9" t="s">
+      <c r="BI9" t="s">
         <v>127</v>
       </c>
-      <c r="BI9" t="s">
+      <c r="BJ9" t="s">
         <v>128</v>
       </c>
-      <c r="BJ9" t="s">
+      <c r="BK9" t="s">
         <v>129</v>
       </c>
-      <c r="BK9" t="s">
+      <c r="BL9" t="s">
         <v>130</v>
       </c>
-      <c r="BL9" t="s">
+      <c r="BO9" t="s">
         <v>131</v>
       </c>
-      <c r="BO9" t="s">
+      <c r="BP9" t="s">
         <v>132</v>
       </c>
-      <c r="BP9" t="s">
+      <c r="BQ9" t="s">
         <v>133</v>
       </c>
-      <c r="BQ9" t="s">
+      <c r="BU9" t="s">
         <v>134</v>
-      </c>
-      <c r="BU9" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:74">
@@ -3116,7 +3086,7 @@
         <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C10" t="s">
         <v>100</v>
@@ -3140,55 +3110,55 @@
         <v>105</v>
       </c>
       <c r="J10" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="K10" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="L10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P10" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q10" t="s">
         <v>107</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="U10" t="s">
         <v>108</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>109</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>110</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>111</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>112</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>113</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>114</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>115</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AE10" t="s">
         <v>116</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>117</v>
       </c>
       <c r="AL10" t="s">
         <v>61</v>
       </c>
       <c r="AM10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO10" t="s">
         <v>118</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>119</v>
       </c>
       <c r="AP10" t="s">
         <v>65</v>
@@ -3206,52 +3176,52 @@
         <v>74</v>
       </c>
       <c r="AZ10" t="s">
+        <v>119</v>
+      </c>
+      <c r="BA10" t="s">
         <v>120</v>
       </c>
-      <c r="BA10" t="s">
+      <c r="BB10" t="s">
         <v>121</v>
       </c>
-      <c r="BB10" t="s">
+      <c r="BC10" t="s">
         <v>122</v>
       </c>
-      <c r="BC10" t="s">
+      <c r="BD10" t="s">
         <v>123</v>
       </c>
-      <c r="BD10" t="s">
+      <c r="BE10" t="s">
         <v>124</v>
       </c>
-      <c r="BE10" t="s">
+      <c r="BF10" t="s">
         <v>125</v>
       </c>
-      <c r="BF10" t="s">
+      <c r="BG10" t="s">
         <v>126</v>
       </c>
-      <c r="BG10" t="s">
+      <c r="BI10" t="s">
         <v>127</v>
       </c>
-      <c r="BI10" t="s">
+      <c r="BJ10" t="s">
         <v>128</v>
       </c>
-      <c r="BJ10" t="s">
+      <c r="BK10" t="s">
         <v>129</v>
       </c>
-      <c r="BK10" t="s">
+      <c r="BL10" t="s">
         <v>130</v>
       </c>
-      <c r="BL10" t="s">
+      <c r="BO10" t="s">
         <v>131</v>
       </c>
-      <c r="BO10" t="s">
+      <c r="BP10" t="s">
         <v>132</v>
       </c>
-      <c r="BP10" t="s">
+      <c r="BQ10" t="s">
         <v>133</v>
       </c>
-      <c r="BQ10" t="s">
+      <c r="BU10" t="s">
         <v>134</v>
-      </c>
-      <c r="BU10" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:74">
@@ -3259,13 +3229,13 @@
         <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C11" t="s">
         <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -3274,19 +3244,19 @@
         <v>102</v>
       </c>
       <c r="G11" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="H11" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="I11" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="K11" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="L11" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="N11">
         <v>-999</v>
@@ -3295,115 +3265,115 @@
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S11" t="s">
+        <v>157</v>
+      </c>
+      <c r="U11" t="s">
+        <v>158</v>
+      </c>
+      <c r="V11" t="s">
+        <v>159</v>
+      </c>
+      <c r="W11" t="s">
+        <v>158</v>
+      </c>
+      <c r="X11" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL11" t="s">
         <v>166</v>
       </c>
-      <c r="U11" t="s">
+      <c r="AM11" t="s">
         <v>167</v>
       </c>
-      <c r="V11" t="s">
+      <c r="AP11" t="s">
         <v>168</v>
       </c>
-      <c r="W11" t="s">
-        <v>167</v>
-      </c>
-      <c r="X11" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z11" t="s">
+      <c r="AQ11" t="s">
         <v>169</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AT11" t="s">
         <v>170</v>
       </c>
-      <c r="AB11" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD11" t="s">
+      <c r="AV11" t="s">
         <v>171</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AW11" t="s">
         <v>172</v>
       </c>
-      <c r="AI11" t="s">
+      <c r="AX11" t="s">
         <v>173</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AY11" t="s">
         <v>174</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AZ11" t="s">
         <v>175</v>
       </c>
-      <c r="AM11" t="s">
+      <c r="BA11" t="s">
         <v>176</v>
       </c>
-      <c r="AP11" t="s">
+      <c r="BB11" t="s">
         <v>177</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>178</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>179</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>180</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>181</v>
-      </c>
-      <c r="AX11" t="s">
-        <v>182</v>
-      </c>
-      <c r="AY11" t="s">
-        <v>183</v>
-      </c>
-      <c r="AZ11" t="s">
-        <v>184</v>
-      </c>
-      <c r="BA11" t="s">
-        <v>185</v>
-      </c>
-      <c r="BB11" t="s">
-        <v>186</v>
       </c>
       <c r="BC11" t="s">
         <v>78</v>
       </c>
       <c r="BD11" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="BE11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="BF11" t="s">
+        <v>125</v>
+      </c>
+      <c r="BG11" t="s">
         <v>126</v>
       </c>
-      <c r="BG11" t="s">
-        <v>127</v>
-      </c>
       <c r="BI11" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="BJ11" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="BK11" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="BN11" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="BO11" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="BP11" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="BQ11" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="BT11" t="s">
         <v>95</v>
@@ -3417,13 +3387,13 @@
         <v>98</v>
       </c>
       <c r="B12" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C12" t="s">
         <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -3432,19 +3402,19 @@
         <v>102</v>
       </c>
       <c r="G12" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="H12" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="I12" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="K12" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="L12" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="N12">
         <v>-999</v>
@@ -3453,115 +3423,115 @@
         <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S12" t="s">
+        <v>157</v>
+      </c>
+      <c r="U12" t="s">
+        <v>158</v>
+      </c>
+      <c r="V12" t="s">
+        <v>159</v>
+      </c>
+      <c r="W12" t="s">
+        <v>158</v>
+      </c>
+      <c r="X12" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL12" t="s">
         <v>166</v>
       </c>
-      <c r="U12" t="s">
+      <c r="AM12" t="s">
         <v>167</v>
       </c>
-      <c r="V12" t="s">
+      <c r="AP12" t="s">
         <v>168</v>
       </c>
-      <c r="W12" t="s">
-        <v>167</v>
-      </c>
-      <c r="X12" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z12" t="s">
+      <c r="AQ12" t="s">
         <v>169</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AT12" t="s">
         <v>170</v>
       </c>
-      <c r="AB12" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD12" t="s">
+      <c r="AV12" t="s">
         <v>171</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AW12" t="s">
         <v>172</v>
       </c>
-      <c r="AI12" t="s">
+      <c r="AX12" t="s">
         <v>173</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AY12" t="s">
         <v>174</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AZ12" t="s">
         <v>175</v>
       </c>
-      <c r="AM12" t="s">
+      <c r="BA12" t="s">
         <v>176</v>
       </c>
-      <c r="AP12" t="s">
+      <c r="BB12" t="s">
         <v>177</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>178</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>179</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>180</v>
-      </c>
-      <c r="AW12" t="s">
-        <v>181</v>
-      </c>
-      <c r="AX12" t="s">
-        <v>182</v>
-      </c>
-      <c r="AY12" t="s">
-        <v>183</v>
-      </c>
-      <c r="AZ12" t="s">
-        <v>184</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>185</v>
-      </c>
-      <c r="BB12" t="s">
-        <v>186</v>
       </c>
       <c r="BC12" t="s">
         <v>78</v>
       </c>
       <c r="BD12" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="BE12" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="BF12" t="s">
+        <v>125</v>
+      </c>
+      <c r="BG12" t="s">
         <v>126</v>
       </c>
-      <c r="BG12" t="s">
-        <v>127</v>
-      </c>
       <c r="BI12" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="BJ12" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="BK12" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="BN12" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="BO12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="BP12" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="BQ12" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="BT12" t="s">
         <v>95</v>
@@ -3575,13 +3545,13 @@
         <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C13" t="s">
         <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -3590,19 +3560,19 @@
         <v>102</v>
       </c>
       <c r="G13" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="H13" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="I13" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="K13" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="L13" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="N13">
         <v>-999</v>
@@ -3611,115 +3581,115 @@
         <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S13" t="s">
+        <v>157</v>
+      </c>
+      <c r="U13" t="s">
+        <v>158</v>
+      </c>
+      <c r="V13" t="s">
+        <v>159</v>
+      </c>
+      <c r="W13" t="s">
+        <v>158</v>
+      </c>
+      <c r="X13" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL13" t="s">
         <v>166</v>
       </c>
-      <c r="U13" t="s">
+      <c r="AM13" t="s">
         <v>167</v>
       </c>
-      <c r="V13" t="s">
+      <c r="AP13" t="s">
         <v>168</v>
       </c>
-      <c r="W13" t="s">
-        <v>167</v>
-      </c>
-      <c r="X13" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z13" t="s">
+      <c r="AQ13" t="s">
         <v>169</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AT13" t="s">
         <v>170</v>
       </c>
-      <c r="AB13" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD13" t="s">
+      <c r="AV13" t="s">
         <v>171</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AW13" t="s">
         <v>172</v>
       </c>
-      <c r="AI13" t="s">
+      <c r="AX13" t="s">
         <v>173</v>
       </c>
-      <c r="AK13" t="s">
+      <c r="AY13" t="s">
         <v>174</v>
       </c>
-      <c r="AL13" t="s">
+      <c r="AZ13" t="s">
         <v>175</v>
       </c>
-      <c r="AM13" t="s">
+      <c r="BA13" t="s">
         <v>176</v>
       </c>
-      <c r="AP13" t="s">
+      <c r="BB13" t="s">
         <v>177</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>178</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>179</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>180</v>
-      </c>
-      <c r="AW13" t="s">
-        <v>181</v>
-      </c>
-      <c r="AX13" t="s">
-        <v>182</v>
-      </c>
-      <c r="AY13" t="s">
-        <v>183</v>
-      </c>
-      <c r="AZ13" t="s">
-        <v>184</v>
-      </c>
-      <c r="BA13" t="s">
-        <v>185</v>
-      </c>
-      <c r="BB13" t="s">
-        <v>186</v>
       </c>
       <c r="BC13" t="s">
         <v>78</v>
       </c>
       <c r="BD13" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="BE13" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="BF13" t="s">
+        <v>125</v>
+      </c>
+      <c r="BG13" t="s">
         <v>126</v>
       </c>
-      <c r="BG13" t="s">
-        <v>127</v>
-      </c>
       <c r="BI13" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="BJ13" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="BK13" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="BN13" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="BO13" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="BP13" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="BQ13" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="BT13" t="s">
         <v>95</v>
@@ -3733,13 +3703,13 @@
         <v>98</v>
       </c>
       <c r="B14" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C14" t="s">
         <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -3748,19 +3718,19 @@
         <v>102</v>
       </c>
       <c r="G14" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="H14" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="I14" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="K14" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="L14" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="N14">
         <v>-999</v>
@@ -3769,115 +3739,115 @@
         <v>0</v>
       </c>
       <c r="Q14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S14" t="s">
+        <v>157</v>
+      </c>
+      <c r="U14" t="s">
+        <v>158</v>
+      </c>
+      <c r="V14" t="s">
+        <v>159</v>
+      </c>
+      <c r="W14" t="s">
+        <v>158</v>
+      </c>
+      <c r="X14" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL14" t="s">
         <v>166</v>
       </c>
-      <c r="U14" t="s">
+      <c r="AM14" t="s">
         <v>167</v>
       </c>
-      <c r="V14" t="s">
+      <c r="AP14" t="s">
         <v>168</v>
       </c>
-      <c r="W14" t="s">
-        <v>167</v>
-      </c>
-      <c r="X14" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z14" t="s">
+      <c r="AQ14" t="s">
         <v>169</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AT14" t="s">
         <v>170</v>
       </c>
-      <c r="AB14" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD14" t="s">
+      <c r="AV14" t="s">
         <v>171</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AW14" t="s">
         <v>172</v>
       </c>
-      <c r="AI14" t="s">
+      <c r="AX14" t="s">
         <v>173</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AY14" t="s">
         <v>174</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AZ14" t="s">
         <v>175</v>
       </c>
-      <c r="AM14" t="s">
+      <c r="BA14" t="s">
         <v>176</v>
       </c>
-      <c r="AP14" t="s">
+      <c r="BB14" t="s">
         <v>177</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>178</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>179</v>
-      </c>
-      <c r="AV14" t="s">
-        <v>180</v>
-      </c>
-      <c r="AW14" t="s">
-        <v>181</v>
-      </c>
-      <c r="AX14" t="s">
-        <v>182</v>
-      </c>
-      <c r="AY14" t="s">
-        <v>183</v>
-      </c>
-      <c r="AZ14" t="s">
-        <v>184</v>
-      </c>
-      <c r="BA14" t="s">
-        <v>185</v>
-      </c>
-      <c r="BB14" t="s">
-        <v>186</v>
       </c>
       <c r="BC14" t="s">
         <v>78</v>
       </c>
       <c r="BD14" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="BE14" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="BF14" t="s">
+        <v>125</v>
+      </c>
+      <c r="BG14" t="s">
         <v>126</v>
       </c>
-      <c r="BG14" t="s">
-        <v>127</v>
-      </c>
       <c r="BI14" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="BJ14" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="BK14" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="BN14" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="BO14" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="BP14" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="BQ14" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="BT14" t="s">
         <v>95</v>
@@ -3891,13 +3861,13 @@
         <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C15" t="s">
         <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -3906,22 +3876,22 @@
         <v>102</v>
       </c>
       <c r="G15" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="H15" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="I15" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="J15" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="K15" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="L15" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="N15">
         <v>-9999</v>
@@ -3930,103 +3900,103 @@
         <v>-8888</v>
       </c>
       <c r="Q15" t="s">
+        <v>199</v>
+      </c>
+      <c r="S15" t="s">
+        <v>200</v>
+      </c>
+      <c r="U15" t="s">
+        <v>201</v>
+      </c>
+      <c r="V15" t="s">
+        <v>202</v>
+      </c>
+      <c r="W15" t="s">
+        <v>203</v>
+      </c>
+      <c r="X15" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC15" t="s">
         <v>208</v>
       </c>
-      <c r="S15" t="s">
+      <c r="AD15" t="s">
         <v>209</v>
       </c>
-      <c r="U15" t="s">
+      <c r="AE15" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI15" t="s">
         <v>210</v>
       </c>
-      <c r="V15" t="s">
+      <c r="AK15" t="s">
         <v>211</v>
       </c>
-      <c r="W15" t="s">
+      <c r="AL15" t="s">
         <v>212</v>
       </c>
-      <c r="X15" t="s">
+      <c r="AM15" t="s">
         <v>213</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="AP15" t="s">
         <v>214</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AQ15" t="s">
         <v>215</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AS15" t="s">
         <v>216</v>
       </c>
-      <c r="AB15" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC15" t="s">
+      <c r="AX15" t="s">
         <v>217</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AZ15" t="s">
         <v>218</v>
       </c>
-      <c r="AE15" t="s">
-        <v>172</v>
-      </c>
-      <c r="AI15" t="s">
+      <c r="BA15" t="s">
         <v>219</v>
       </c>
-      <c r="AK15" t="s">
-        <v>220</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>221</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>222</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>223</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>224</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>225</v>
-      </c>
-      <c r="AX15" t="s">
-        <v>226</v>
-      </c>
-      <c r="AZ15" t="s">
-        <v>227</v>
-      </c>
-      <c r="BA15" t="s">
-        <v>228</v>
-      </c>
       <c r="BB15" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="BC15" t="s">
         <v>78</v>
       </c>
       <c r="BD15" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="BE15" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="BF15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BI15" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="BN15" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="BO15" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="BP15" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="BQ15" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="BT15" t="s">
         <v>95</v>
@@ -4035,7 +4005,7 @@
         <v>96</v>
       </c>
       <c r="BV15" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:74">
@@ -4043,13 +4013,13 @@
         <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C16" t="s">
         <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -4058,19 +4028,19 @@
         <v>102</v>
       </c>
       <c r="G16" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="H16" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="I16" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="K16" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="L16" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="N16">
         <v>-999</v>
@@ -4079,115 +4049,115 @@
         <v>0</v>
       </c>
       <c r="Q16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S16" t="s">
+        <v>157</v>
+      </c>
+      <c r="U16" t="s">
+        <v>158</v>
+      </c>
+      <c r="V16" t="s">
+        <v>159</v>
+      </c>
+      <c r="W16" t="s">
+        <v>158</v>
+      </c>
+      <c r="X16" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL16" t="s">
         <v>166</v>
       </c>
-      <c r="U16" t="s">
+      <c r="AM16" t="s">
         <v>167</v>
       </c>
-      <c r="V16" t="s">
+      <c r="AP16" t="s">
         <v>168</v>
       </c>
-      <c r="W16" t="s">
-        <v>167</v>
-      </c>
-      <c r="X16" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z16" t="s">
+      <c r="AQ16" t="s">
         <v>169</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AT16" t="s">
         <v>170</v>
       </c>
-      <c r="AB16" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD16" t="s">
+      <c r="AV16" t="s">
         <v>171</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AW16" t="s">
         <v>172</v>
       </c>
-      <c r="AI16" t="s">
+      <c r="AX16" t="s">
         <v>173</v>
       </c>
-      <c r="AK16" t="s">
+      <c r="AY16" t="s">
         <v>174</v>
       </c>
-      <c r="AL16" t="s">
+      <c r="AZ16" t="s">
         <v>175</v>
       </c>
-      <c r="AM16" t="s">
+      <c r="BA16" t="s">
         <v>176</v>
       </c>
-      <c r="AP16" t="s">
+      <c r="BB16" t="s">
         <v>177</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>178</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>179</v>
-      </c>
-      <c r="AV16" t="s">
-        <v>180</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>181</v>
-      </c>
-      <c r="AX16" t="s">
-        <v>182</v>
-      </c>
-      <c r="AY16" t="s">
-        <v>183</v>
-      </c>
-      <c r="AZ16" t="s">
-        <v>184</v>
-      </c>
-      <c r="BA16" t="s">
-        <v>185</v>
-      </c>
-      <c r="BB16" t="s">
-        <v>186</v>
       </c>
       <c r="BC16" t="s">
         <v>78</v>
       </c>
       <c r="BD16" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="BE16" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="BF16" t="s">
+        <v>125</v>
+      </c>
+      <c r="BG16" t="s">
         <v>126</v>
       </c>
-      <c r="BG16" t="s">
-        <v>127</v>
-      </c>
       <c r="BI16" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="BJ16" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="BK16" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="BN16" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="BO16" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="BP16" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="BQ16" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="BT16" t="s">
         <v>95</v>
@@ -4201,13 +4171,13 @@
         <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C17" t="s">
         <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
@@ -4216,19 +4186,19 @@
         <v>102</v>
       </c>
       <c r="G17" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="H17" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="I17" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="K17" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="L17" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="N17">
         <v>-999</v>
@@ -4237,115 +4207,115 @@
         <v>0</v>
       </c>
       <c r="Q17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S17" t="s">
+        <v>157</v>
+      </c>
+      <c r="U17" t="s">
+        <v>158</v>
+      </c>
+      <c r="V17" t="s">
+        <v>159</v>
+      </c>
+      <c r="W17" t="s">
+        <v>158</v>
+      </c>
+      <c r="X17" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL17" t="s">
         <v>166</v>
       </c>
-      <c r="U17" t="s">
+      <c r="AM17" t="s">
         <v>167</v>
       </c>
-      <c r="V17" t="s">
+      <c r="AP17" t="s">
         <v>168</v>
       </c>
-      <c r="W17" t="s">
-        <v>167</v>
-      </c>
-      <c r="X17" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z17" t="s">
+      <c r="AQ17" t="s">
         <v>169</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AT17" t="s">
         <v>170</v>
       </c>
-      <c r="AB17" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD17" t="s">
+      <c r="AV17" t="s">
         <v>171</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AW17" t="s">
         <v>172</v>
       </c>
-      <c r="AI17" t="s">
+      <c r="AX17" t="s">
         <v>173</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="AY17" t="s">
         <v>174</v>
       </c>
-      <c r="AL17" t="s">
+      <c r="AZ17" t="s">
         <v>175</v>
       </c>
-      <c r="AM17" t="s">
+      <c r="BA17" t="s">
         <v>176</v>
       </c>
-      <c r="AP17" t="s">
+      <c r="BB17" t="s">
         <v>177</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>178</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>179</v>
-      </c>
-      <c r="AV17" t="s">
-        <v>180</v>
-      </c>
-      <c r="AW17" t="s">
-        <v>181</v>
-      </c>
-      <c r="AX17" t="s">
-        <v>182</v>
-      </c>
-      <c r="AY17" t="s">
-        <v>183</v>
-      </c>
-      <c r="AZ17" t="s">
-        <v>184</v>
-      </c>
-      <c r="BA17" t="s">
-        <v>185</v>
-      </c>
-      <c r="BB17" t="s">
-        <v>186</v>
       </c>
       <c r="BC17" t="s">
         <v>78</v>
       </c>
       <c r="BD17" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="BE17" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="BF17" t="s">
+        <v>125</v>
+      </c>
+      <c r="BG17" t="s">
         <v>126</v>
       </c>
-      <c r="BG17" t="s">
-        <v>127</v>
-      </c>
       <c r="BI17" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="BJ17" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="BK17" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="BN17" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="BO17" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="BP17" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="BQ17" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="BT17" t="s">
         <v>95</v>
@@ -4359,64 +4329,64 @@
         <v>98</v>
       </c>
       <c r="B18" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C18" t="s">
         <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="F18" t="s">
         <v>102</v>
       </c>
       <c r="G18" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="H18" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="L18" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="Q18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S18" t="s">
+        <v>200</v>
+      </c>
+      <c r="U18" t="s">
+        <v>201</v>
+      </c>
+      <c r="W18" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD18" t="s">
         <v>209</v>
       </c>
-      <c r="U18" t="s">
-        <v>210</v>
-      </c>
-      <c r="W18" t="s">
-        <v>286</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>288</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>218</v>
-      </c>
       <c r="AE18" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AF18" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:74">
@@ -4424,13 +4394,13 @@
         <v>98</v>
       </c>
       <c r="B19" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C19" t="s">
         <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>16</v>
@@ -4439,52 +4409,52 @@
         <v>102</v>
       </c>
       <c r="G19" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="H19" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="I19" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="L19" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="Q19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S19" t="s">
+        <v>200</v>
+      </c>
+      <c r="U19" t="s">
+        <v>201</v>
+      </c>
+      <c r="W19" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD19" t="s">
         <v>209</v>
       </c>
-      <c r="U19" t="s">
-        <v>210</v>
-      </c>
-      <c r="W19" t="s">
-        <v>286</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>288</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>218</v>
-      </c>
       <c r="AE19" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AF19" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:74">
@@ -4492,13 +4462,13 @@
         <v>98</v>
       </c>
       <c r="B20" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C20" t="s">
         <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E20" t="s">
         <v>17</v>
@@ -4507,22 +4477,22 @@
         <v>102</v>
       </c>
       <c r="G20" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="H20" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="I20" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="J20" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="K20" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="L20" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="N20">
         <v>-9999</v>
@@ -4531,106 +4501,106 @@
         <v>-8888</v>
       </c>
       <c r="Q20" t="s">
+        <v>199</v>
+      </c>
+      <c r="S20" t="s">
+        <v>200</v>
+      </c>
+      <c r="U20" t="s">
+        <v>201</v>
+      </c>
+      <c r="V20" t="s">
+        <v>202</v>
+      </c>
+      <c r="W20" t="s">
+        <v>203</v>
+      </c>
+      <c r="X20" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC20" t="s">
         <v>208</v>
       </c>
-      <c r="S20" t="s">
+      <c r="AD20" t="s">
         <v>209</v>
       </c>
-      <c r="U20" t="s">
+      <c r="AE20" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI20" t="s">
         <v>210</v>
       </c>
-      <c r="V20" t="s">
+      <c r="AK20" t="s">
         <v>211</v>
       </c>
-      <c r="W20" t="s">
+      <c r="AL20" t="s">
         <v>212</v>
       </c>
-      <c r="X20" t="s">
+      <c r="AM20" t="s">
         <v>213</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="AP20" t="s">
         <v>214</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AQ20" t="s">
         <v>215</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AS20" t="s">
         <v>216</v>
       </c>
-      <c r="AB20" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC20" t="s">
+      <c r="AX20" t="s">
         <v>217</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AZ20" t="s">
         <v>218</v>
       </c>
-      <c r="AE20" t="s">
-        <v>172</v>
-      </c>
-      <c r="AI20" t="s">
+      <c r="BA20" t="s">
         <v>219</v>
       </c>
-      <c r="AK20" t="s">
-        <v>220</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>221</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>222</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>223</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>224</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>225</v>
-      </c>
-      <c r="AX20" t="s">
-        <v>226</v>
-      </c>
-      <c r="AZ20" t="s">
-        <v>227</v>
-      </c>
-      <c r="BA20" t="s">
-        <v>228</v>
-      </c>
       <c r="BB20" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="BC20" t="s">
         <v>78</v>
       </c>
       <c r="BD20" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="BE20" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="BF20" t="s">
+        <v>125</v>
+      </c>
+      <c r="BG20" t="s">
         <v>126</v>
       </c>
-      <c r="BG20" t="s">
-        <v>127</v>
-      </c>
       <c r="BI20" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="BN20" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="BO20" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="BP20" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="BQ20" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="BT20" t="s">
         <v>95</v>
@@ -4639,7 +4609,7 @@
         <v>96</v>
       </c>
       <c r="BV20" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:74">
@@ -4647,13 +4617,13 @@
         <v>98</v>
       </c>
       <c r="B21" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C21" t="s">
         <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E21" t="s">
         <v>18</v>
@@ -4662,22 +4632,22 @@
         <v>102</v>
       </c>
       <c r="G21" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="H21" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="I21" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="J21" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="K21" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="L21" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="N21">
         <v>-9999</v>
@@ -4686,103 +4656,103 @@
         <v>-8888</v>
       </c>
       <c r="Q21" t="s">
+        <v>199</v>
+      </c>
+      <c r="S21" t="s">
+        <v>200</v>
+      </c>
+      <c r="U21" t="s">
+        <v>201</v>
+      </c>
+      <c r="V21" t="s">
+        <v>202</v>
+      </c>
+      <c r="W21" t="s">
+        <v>203</v>
+      </c>
+      <c r="X21" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC21" t="s">
         <v>208</v>
       </c>
-      <c r="S21" t="s">
+      <c r="AD21" t="s">
         <v>209</v>
       </c>
-      <c r="U21" t="s">
+      <c r="AE21" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI21" t="s">
         <v>210</v>
       </c>
-      <c r="V21" t="s">
+      <c r="AK21" t="s">
         <v>211</v>
       </c>
-      <c r="W21" t="s">
+      <c r="AL21" t="s">
         <v>212</v>
       </c>
-      <c r="X21" t="s">
+      <c r="AM21" t="s">
         <v>213</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="AP21" t="s">
         <v>214</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AQ21" t="s">
         <v>215</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AS21" t="s">
         <v>216</v>
       </c>
-      <c r="AB21" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC21" t="s">
+      <c r="AX21" t="s">
         <v>217</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AZ21" t="s">
         <v>218</v>
       </c>
-      <c r="AE21" t="s">
-        <v>172</v>
-      </c>
-      <c r="AI21" t="s">
+      <c r="BA21" t="s">
         <v>219</v>
       </c>
-      <c r="AK21" t="s">
-        <v>220</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>221</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>222</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>223</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>224</v>
-      </c>
-      <c r="AS21" t="s">
-        <v>225</v>
-      </c>
-      <c r="AX21" t="s">
-        <v>226</v>
-      </c>
-      <c r="AZ21" t="s">
-        <v>227</v>
-      </c>
-      <c r="BA21" t="s">
-        <v>228</v>
-      </c>
       <c r="BB21" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="BC21" t="s">
         <v>78</v>
       </c>
       <c r="BD21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="BE21" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="BF21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BI21" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="BN21" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="BO21" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="BP21" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="BQ21" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="BT21" t="s">
         <v>95</v>
@@ -4791,7 +4761,7 @@
         <v>96</v>
       </c>
       <c r="BV21" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:74">
@@ -4799,13 +4769,13 @@
         <v>98</v>
       </c>
       <c r="B22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C22" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="D22" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E22" t="s">
         <v>20</v>
@@ -4814,22 +4784,22 @@
         <v>102</v>
       </c>
       <c r="G22" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="H22" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="I22" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="J22" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="K22" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="L22" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="N22">
         <v>-9999</v>
@@ -4838,97 +4808,97 @@
         <v>-8888</v>
       </c>
       <c r="Q22" t="s">
+        <v>199</v>
+      </c>
+      <c r="S22" t="s">
+        <v>200</v>
+      </c>
+      <c r="U22" t="s">
+        <v>201</v>
+      </c>
+      <c r="V22" t="s">
+        <v>202</v>
+      </c>
+      <c r="W22" t="s">
+        <v>203</v>
+      </c>
+      <c r="X22" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC22" t="s">
         <v>208</v>
       </c>
-      <c r="S22" t="s">
+      <c r="AD22" t="s">
         <v>209</v>
       </c>
-      <c r="U22" t="s">
+      <c r="AE22" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI22" t="s">
         <v>210</v>
       </c>
-      <c r="V22" t="s">
-        <v>211</v>
-      </c>
-      <c r="W22" t="s">
+      <c r="AL22" t="s">
         <v>212</v>
       </c>
-      <c r="X22" t="s">
+      <c r="AM22" t="s">
         <v>213</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="AP22" t="s">
         <v>214</v>
       </c>
-      <c r="Z22" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA22" t="s">
+      <c r="AS22" t="s">
         <v>216</v>
       </c>
-      <c r="AB22" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC22" t="s">
+      <c r="AX22" t="s">
         <v>217</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AZ22" t="s">
         <v>218</v>
       </c>
-      <c r="AE22" t="s">
-        <v>172</v>
-      </c>
-      <c r="AI22" t="s">
+      <c r="BA22" t="s">
         <v>219</v>
       </c>
-      <c r="AL22" t="s">
-        <v>221</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>222</v>
-      </c>
-      <c r="AP22" t="s">
-        <v>223</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>225</v>
-      </c>
-      <c r="AX22" t="s">
-        <v>226</v>
-      </c>
-      <c r="AZ22" t="s">
-        <v>227</v>
-      </c>
-      <c r="BA22" t="s">
-        <v>228</v>
-      </c>
       <c r="BB22" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="BC22" t="s">
         <v>78</v>
       </c>
       <c r="BD22" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="BE22" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="BG22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BI22" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="BN22" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="BO22" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="BP22" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="BQ22" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="BT22" t="s">
         <v>95</v>
@@ -4942,13 +4912,13 @@
         <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C23" t="s">
         <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E23" t="s">
         <v>21</v>
@@ -4957,22 +4927,22 @@
         <v>102</v>
       </c>
       <c r="G23" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="H23" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="I23" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="J23" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="K23" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="L23" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="N23">
         <v>-9999</v>
@@ -4981,97 +4951,97 @@
         <v>-8888</v>
       </c>
       <c r="Q23" t="s">
+        <v>199</v>
+      </c>
+      <c r="S23" t="s">
+        <v>200</v>
+      </c>
+      <c r="U23" t="s">
+        <v>201</v>
+      </c>
+      <c r="V23" t="s">
+        <v>202</v>
+      </c>
+      <c r="W23" t="s">
+        <v>203</v>
+      </c>
+      <c r="X23" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC23" t="s">
         <v>208</v>
       </c>
-      <c r="S23" t="s">
+      <c r="AD23" t="s">
         <v>209</v>
       </c>
-      <c r="U23" t="s">
+      <c r="AE23" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI23" t="s">
         <v>210</v>
       </c>
-      <c r="V23" t="s">
-        <v>211</v>
-      </c>
-      <c r="W23" t="s">
+      <c r="AL23" t="s">
         <v>212</v>
       </c>
-      <c r="X23" t="s">
+      <c r="AM23" t="s">
         <v>213</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="AP23" t="s">
         <v>214</v>
       </c>
-      <c r="Z23" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA23" t="s">
+      <c r="AS23" t="s">
         <v>216</v>
       </c>
-      <c r="AB23" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC23" t="s">
+      <c r="AX23" t="s">
         <v>217</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AZ23" t="s">
         <v>218</v>
       </c>
-      <c r="AE23" t="s">
-        <v>172</v>
-      </c>
-      <c r="AI23" t="s">
+      <c r="BA23" t="s">
         <v>219</v>
       </c>
-      <c r="AL23" t="s">
-        <v>221</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>222</v>
-      </c>
-      <c r="AP23" t="s">
-        <v>223</v>
-      </c>
-      <c r="AS23" t="s">
-        <v>225</v>
-      </c>
-      <c r="AX23" t="s">
-        <v>226</v>
-      </c>
-      <c r="AZ23" t="s">
-        <v>227</v>
-      </c>
-      <c r="BA23" t="s">
-        <v>228</v>
-      </c>
       <c r="BB23" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="BC23" t="s">
         <v>78</v>
       </c>
       <c r="BD23" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="BE23" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="BG23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BI23" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="BN23" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="BO23" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="BP23" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="BQ23" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="BT23" t="s">
         <v>95</v>
@@ -5080,7 +5050,7 @@
         <v>96</v>
       </c>
       <c r="BV23" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:74">
@@ -5088,13 +5058,13 @@
         <v>98</v>
       </c>
       <c r="B24" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C24" t="s">
         <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E24" t="s">
         <v>22</v>
@@ -5103,22 +5073,22 @@
         <v>102</v>
       </c>
       <c r="G24" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="H24" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="I24" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="J24" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="K24" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="L24" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="N24">
         <v>-9999</v>
@@ -5127,106 +5097,106 @@
         <v>-8888</v>
       </c>
       <c r="Q24" t="s">
+        <v>199</v>
+      </c>
+      <c r="S24" t="s">
+        <v>200</v>
+      </c>
+      <c r="U24" t="s">
+        <v>201</v>
+      </c>
+      <c r="V24" t="s">
+        <v>202</v>
+      </c>
+      <c r="W24" t="s">
+        <v>203</v>
+      </c>
+      <c r="X24" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC24" t="s">
         <v>208</v>
       </c>
-      <c r="S24" t="s">
+      <c r="AD24" t="s">
         <v>209</v>
       </c>
-      <c r="U24" t="s">
+      <c r="AE24" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI24" t="s">
         <v>210</v>
       </c>
-      <c r="V24" t="s">
+      <c r="AK24" t="s">
         <v>211</v>
       </c>
-      <c r="W24" t="s">
+      <c r="AL24" t="s">
         <v>212</v>
       </c>
-      <c r="X24" t="s">
+      <c r="AM24" t="s">
         <v>213</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="AP24" t="s">
         <v>214</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AQ24" t="s">
         <v>215</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AS24" t="s">
         <v>216</v>
       </c>
-      <c r="AB24" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC24" t="s">
+      <c r="AX24" t="s">
         <v>217</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AZ24" t="s">
         <v>218</v>
       </c>
-      <c r="AE24" t="s">
-        <v>172</v>
-      </c>
-      <c r="AI24" t="s">
+      <c r="BA24" t="s">
         <v>219</v>
       </c>
-      <c r="AK24" t="s">
-        <v>220</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>221</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>222</v>
-      </c>
-      <c r="AP24" t="s">
-        <v>223</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>224</v>
-      </c>
-      <c r="AS24" t="s">
-        <v>225</v>
-      </c>
-      <c r="AX24" t="s">
-        <v>226</v>
-      </c>
-      <c r="AZ24" t="s">
-        <v>227</v>
-      </c>
-      <c r="BA24" t="s">
-        <v>228</v>
-      </c>
       <c r="BB24" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="BC24" t="s">
         <v>78</v>
       </c>
       <c r="BD24" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="BE24" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="BF24" t="s">
+        <v>125</v>
+      </c>
+      <c r="BG24" t="s">
         <v>126</v>
       </c>
-      <c r="BG24" t="s">
-        <v>127</v>
-      </c>
       <c r="BI24" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="BN24" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="BO24" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="BP24" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="BQ24" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="BT24" t="s">
         <v>95</v>
@@ -5235,7 +5205,7 @@
         <v>96</v>
       </c>
       <c r="BV24" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:74">
@@ -5243,67 +5213,67 @@
         <v>98</v>
       </c>
       <c r="B25" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C25" t="s">
+        <v>290</v>
+      </c>
+      <c r="D25" t="s">
+        <v>422</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F25" t="s">
+        <v>291</v>
+      </c>
+      <c r="G25" t="s">
+        <v>296</v>
+      </c>
+      <c r="H25" t="s">
+        <v>299</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="J25" t="s">
+        <v>297</v>
+      </c>
+      <c r="K25" t="s">
+        <v>420</v>
+      </c>
+      <c r="L25" t="s">
         <v>301</v>
       </c>
-      <c r="D25" t="s">
+      <c r="S25" t="s">
         <v>300</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="F25" t="s">
-        <v>302</v>
-      </c>
-      <c r="G25" t="s">
-        <v>307</v>
-      </c>
-      <c r="H25" t="s">
-        <v>310</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="J25" t="s">
-        <v>308</v>
-      </c>
-      <c r="K25" t="s">
-        <v>434</v>
-      </c>
-      <c r="L25" t="s">
-        <v>312</v>
-      </c>
-      <c r="S25" t="s">
-        <v>311</v>
-      </c>
       <c r="U25" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="V25" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="W25" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="X25" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="Z25" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="AA25" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="AB25" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE25" t="s">
         <v>116</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>171</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>117</v>
       </c>
       <c r="AF25" t="s">
         <v>61</v>
@@ -5314,139 +5284,139 @@
         <v>98</v>
       </c>
       <c r="B26" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C26" t="s">
         <v>100</v>
       </c>
       <c r="D26" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E26" t="s">
         <v>23</v>
       </c>
       <c r="F26" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G26" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="H26" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="I26" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="K26" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="L26" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="O26">
         <v>-9999</v>
       </c>
       <c r="Q26" t="s">
+        <v>199</v>
+      </c>
+      <c r="S26" t="s">
+        <v>200</v>
+      </c>
+      <c r="U26" t="s">
+        <v>375</v>
+      </c>
+      <c r="V26" t="s">
+        <v>232</v>
+      </c>
+      <c r="W26" t="s">
+        <v>203</v>
+      </c>
+      <c r="X26" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC26" t="s">
         <v>208</v>
       </c>
-      <c r="S26" t="s">
+      <c r="AD26" t="s">
         <v>209</v>
       </c>
-      <c r="U26" t="s">
-        <v>388</v>
-      </c>
-      <c r="V26" t="s">
-        <v>241</v>
-      </c>
-      <c r="W26" t="s">
-        <v>212</v>
-      </c>
-      <c r="X26" t="s">
+      <c r="AE26" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>210</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>211</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>233</v>
+      </c>
+      <c r="AM26" t="s">
         <v>213</v>
       </c>
-      <c r="Y26" t="s">
-        <v>214</v>
-      </c>
-      <c r="Z26" t="s">
+      <c r="AP26" t="s">
+        <v>234</v>
+      </c>
+      <c r="AQ26" t="s">
         <v>215</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AS26" t="s">
         <v>216</v>
       </c>
-      <c r="AB26" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC26" t="s">
+      <c r="AX26" t="s">
         <v>217</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AZ26" t="s">
         <v>218</v>
       </c>
-      <c r="AE26" t="s">
-        <v>172</v>
-      </c>
-      <c r="AI26" t="s">
+      <c r="BA26" t="s">
         <v>219</v>
       </c>
-      <c r="AK26" t="s">
-        <v>220</v>
-      </c>
-      <c r="AL26" t="s">
-        <v>242</v>
-      </c>
-      <c r="AM26" t="s">
-        <v>222</v>
-      </c>
-      <c r="AP26" t="s">
-        <v>243</v>
-      </c>
-      <c r="AQ26" t="s">
-        <v>224</v>
-      </c>
-      <c r="AS26" t="s">
-        <v>225</v>
-      </c>
-      <c r="AX26" t="s">
-        <v>226</v>
-      </c>
-      <c r="AZ26" t="s">
-        <v>227</v>
-      </c>
-      <c r="BA26" t="s">
-        <v>228</v>
-      </c>
       <c r="BB26" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="BC26" t="s">
         <v>78</v>
       </c>
       <c r="BD26" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="BE26" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="BF26" t="s">
+        <v>125</v>
+      </c>
+      <c r="BG26" t="s">
         <v>126</v>
       </c>
-      <c r="BG26" t="s">
-        <v>127</v>
-      </c>
       <c r="BI26" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="BN26" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="BO26" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="BP26" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="BQ26" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="BT26" t="s">
         <v>95</v>
@@ -5460,13 +5430,13 @@
         <v>98</v>
       </c>
       <c r="B27" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C27" t="s">
         <v>100</v>
       </c>
       <c r="D27" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E27" t="s">
         <v>24</v>
@@ -5475,22 +5445,22 @@
         <v>102</v>
       </c>
       <c r="G27" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="H27" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="I27" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="J27" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="K27" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="L27" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="N27">
         <v>-9999</v>
@@ -5499,85 +5469,85 @@
         <v>-8888</v>
       </c>
       <c r="Q27" t="s">
+        <v>199</v>
+      </c>
+      <c r="S27" t="s">
+        <v>200</v>
+      </c>
+      <c r="U27" t="s">
+        <v>201</v>
+      </c>
+      <c r="V27" t="s">
+        <v>202</v>
+      </c>
+      <c r="W27" t="s">
+        <v>203</v>
+      </c>
+      <c r="X27" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC27" t="s">
         <v>208</v>
       </c>
-      <c r="S27" t="s">
+      <c r="AD27" t="s">
         <v>209</v>
       </c>
-      <c r="U27" t="s">
+      <c r="AE27" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI27" t="s">
         <v>210</v>
       </c>
-      <c r="V27" t="s">
-        <v>211</v>
-      </c>
-      <c r="W27" t="s">
-        <v>212</v>
-      </c>
-      <c r="X27" t="s">
+      <c r="AM27" t="s">
         <v>213</v>
       </c>
-      <c r="Y27" t="s">
-        <v>214</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA27" t="s">
+      <c r="AS27" t="s">
         <v>216</v>
       </c>
-      <c r="AB27" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC27" t="s">
+      <c r="AX27" t="s">
         <v>217</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AZ27" t="s">
         <v>218</v>
       </c>
-      <c r="AE27" t="s">
-        <v>172</v>
-      </c>
-      <c r="AI27" t="s">
+      <c r="BA27" t="s">
         <v>219</v>
       </c>
-      <c r="AM27" t="s">
-        <v>222</v>
-      </c>
-      <c r="AS27" t="s">
-        <v>225</v>
-      </c>
-      <c r="AX27" t="s">
-        <v>226</v>
-      </c>
-      <c r="AZ27" t="s">
-        <v>227</v>
-      </c>
-      <c r="BA27" t="s">
-        <v>228</v>
-      </c>
       <c r="BB27" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="BC27" t="s">
         <v>78</v>
       </c>
       <c r="BD27" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="BE27" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="BI27" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="BO27" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="BP27" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="BQ27" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="BT27" t="s">
         <v>95</v>
@@ -5586,7 +5556,7 @@
         <v>96</v>
       </c>
       <c r="BV27" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:74">
@@ -5594,13 +5564,13 @@
         <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C28" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="D28" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E28" s="2">
         <v>325020190403</v>
@@ -5609,22 +5579,22 @@
         <v>102</v>
       </c>
       <c r="G28" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="H28" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="I28" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="J28" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="K28" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="L28" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="N28">
         <v>-9999</v>
@@ -5633,100 +5603,100 @@
         <v>-8888</v>
       </c>
       <c r="Q28" t="s">
+        <v>199</v>
+      </c>
+      <c r="S28" t="s">
+        <v>200</v>
+      </c>
+      <c r="U28" t="s">
+        <v>201</v>
+      </c>
+      <c r="V28" t="s">
+        <v>202</v>
+      </c>
+      <c r="W28" t="s">
+        <v>203</v>
+      </c>
+      <c r="X28" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC28" t="s">
         <v>208</v>
       </c>
-      <c r="S28" t="s">
+      <c r="AD28" t="s">
         <v>209</v>
       </c>
-      <c r="U28" t="s">
+      <c r="AE28" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI28" t="s">
         <v>210</v>
       </c>
-      <c r="V28" t="s">
-        <v>211</v>
-      </c>
-      <c r="W28" t="s">
+      <c r="AL28" t="s">
         <v>212</v>
       </c>
-      <c r="X28" t="s">
+      <c r="AM28" t="s">
         <v>213</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="AP28" t="s">
         <v>214</v>
       </c>
-      <c r="Z28" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA28" t="s">
+      <c r="AS28" t="s">
         <v>216</v>
       </c>
-      <c r="AB28" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC28" t="s">
+      <c r="AX28" t="s">
         <v>217</v>
       </c>
-      <c r="AD28" t="s">
+      <c r="AZ28" t="s">
         <v>218</v>
       </c>
-      <c r="AE28" t="s">
-        <v>172</v>
-      </c>
-      <c r="AI28" t="s">
+      <c r="BA28" t="s">
         <v>219</v>
       </c>
-      <c r="AL28" t="s">
-        <v>221</v>
-      </c>
-      <c r="AM28" t="s">
-        <v>222</v>
-      </c>
-      <c r="AP28" t="s">
-        <v>223</v>
-      </c>
-      <c r="AS28" t="s">
-        <v>225</v>
-      </c>
-      <c r="AX28" t="s">
-        <v>226</v>
-      </c>
-      <c r="AZ28" t="s">
-        <v>227</v>
-      </c>
-      <c r="BA28" t="s">
-        <v>228</v>
-      </c>
       <c r="BB28" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="BC28" t="s">
         <v>78</v>
       </c>
       <c r="BD28" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="BE28" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="BF28" t="s">
+        <v>125</v>
+      </c>
+      <c r="BG28" t="s">
         <v>126</v>
       </c>
-      <c r="BG28" t="s">
-        <v>127</v>
-      </c>
       <c r="BI28" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="BN28" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="BO28" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="BP28" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="BQ28" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="BT28" t="s">
         <v>95</v>
@@ -5740,64 +5710,64 @@
         <v>98</v>
       </c>
       <c r="B29" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C29" t="s">
         <v>100</v>
       </c>
       <c r="D29" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F29" t="s">
         <v>102</v>
       </c>
       <c r="G29" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="H29" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="I29" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="L29" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="Q29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S29" t="s">
+        <v>200</v>
+      </c>
+      <c r="U29" t="s">
+        <v>201</v>
+      </c>
+      <c r="W29" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD29" t="s">
         <v>209</v>
       </c>
-      <c r="U29" t="s">
-        <v>210</v>
-      </c>
-      <c r="W29" t="s">
-        <v>286</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>288</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>218</v>
-      </c>
       <c r="AE29" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AF29" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:74">
@@ -5805,64 +5775,64 @@
         <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C30" t="s">
         <v>100</v>
       </c>
       <c r="D30" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="F30" t="s">
         <v>102</v>
       </c>
       <c r="G30" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="H30" t="s">
+        <v>154</v>
+      </c>
+      <c r="I30" t="s">
+        <v>313</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="L30" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>107</v>
+      </c>
+      <c r="S30" t="s">
+        <v>200</v>
+      </c>
+      <c r="U30" t="s">
+        <v>201</v>
+      </c>
+      <c r="W30" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE30" t="s">
         <v>163</v>
       </c>
-      <c r="I30" t="s">
-        <v>324</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="L30" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>108</v>
-      </c>
-      <c r="S30" t="s">
-        <v>209</v>
-      </c>
-      <c r="U30" t="s">
-        <v>210</v>
-      </c>
-      <c r="W30" t="s">
-        <v>286</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>288</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>218</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>172</v>
-      </c>
       <c r="AF30" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:74" ht="15.5">
@@ -5870,67 +5840,67 @@
         <v>98</v>
       </c>
       <c r="B31" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C31" t="s">
         <v>100</v>
       </c>
       <c r="D31" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="F31" t="s">
         <v>102</v>
       </c>
       <c r="G31" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="H31" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="J31" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="L31" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="Q31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S31" t="s">
+        <v>200</v>
+      </c>
+      <c r="U31" t="s">
+        <v>201</v>
+      </c>
+      <c r="W31" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD31" t="s">
         <v>209</v>
       </c>
-      <c r="U31" t="s">
-        <v>210</v>
-      </c>
-      <c r="W31" t="s">
-        <v>286</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>288</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>218</v>
-      </c>
       <c r="AE31" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AF31" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:74" ht="15.5">
@@ -5938,67 +5908,67 @@
         <v>98</v>
       </c>
       <c r="B32" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C32" t="s">
         <v>100</v>
       </c>
       <c r="D32" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="F32" t="s">
         <v>102</v>
       </c>
       <c r="G32" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="H32" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="L32" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="Q32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S32" t="s">
+        <v>200</v>
+      </c>
+      <c r="U32" t="s">
+        <v>201</v>
+      </c>
+      <c r="W32" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD32" t="s">
         <v>209</v>
       </c>
-      <c r="U32" t="s">
-        <v>210</v>
-      </c>
-      <c r="W32" t="s">
-        <v>286</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>288</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>218</v>
-      </c>
       <c r="AE32" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AF32" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:73">
@@ -6006,67 +5976,67 @@
         <v>98</v>
       </c>
       <c r="B33" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="C33" t="s">
         <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="F33" t="s">
         <v>102</v>
       </c>
       <c r="G33" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="H33" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="L33" t="s">
-        <v>334</v>
+        <v>423</v>
       </c>
       <c r="Q33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S33" t="s">
+        <v>200</v>
+      </c>
+      <c r="U33" t="s">
+        <v>201</v>
+      </c>
+      <c r="W33" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD33" t="s">
         <v>209</v>
       </c>
-      <c r="U33" t="s">
-        <v>210</v>
-      </c>
-      <c r="W33" t="s">
-        <v>286</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>288</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>218</v>
-      </c>
       <c r="AE33" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AF33" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:73">
@@ -6074,67 +6044,67 @@
         <v>98</v>
       </c>
       <c r="B34" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C34" t="s">
         <v>100</v>
       </c>
       <c r="D34" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F34" t="s">
         <v>102</v>
       </c>
       <c r="G34" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="H34" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="L34" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="Q34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S34" t="s">
+        <v>200</v>
+      </c>
+      <c r="U34" t="s">
+        <v>201</v>
+      </c>
+      <c r="W34" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD34" t="s">
         <v>209</v>
       </c>
-      <c r="U34" t="s">
-        <v>210</v>
-      </c>
-      <c r="W34" t="s">
-        <v>286</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>288</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>218</v>
-      </c>
       <c r="AE34" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AF34" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:73" ht="15.5">
@@ -6142,67 +6112,67 @@
         <v>98</v>
       </c>
       <c r="B35" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C35" t="s">
         <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="F35" t="s">
         <v>102</v>
       </c>
       <c r="G35" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="L35" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="Q35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S35" t="s">
+        <v>200</v>
+      </c>
+      <c r="U35" t="s">
+        <v>201</v>
+      </c>
+      <c r="W35" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD35" t="s">
         <v>209</v>
       </c>
-      <c r="U35" t="s">
-        <v>210</v>
-      </c>
-      <c r="W35" t="s">
-        <v>286</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>288</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>218</v>
-      </c>
       <c r="AE35" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AF35" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:73" ht="15.5">
@@ -6210,67 +6180,67 @@
         <v>98</v>
       </c>
       <c r="B36" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C36" t="s">
         <v>100</v>
       </c>
       <c r="D36" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="F36" t="s">
         <v>102</v>
       </c>
       <c r="G36" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="L36" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="Q36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S36" t="s">
+        <v>200</v>
+      </c>
+      <c r="U36" t="s">
+        <v>201</v>
+      </c>
+      <c r="W36" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD36" t="s">
         <v>209</v>
       </c>
-      <c r="U36" t="s">
-        <v>210</v>
-      </c>
-      <c r="W36" t="s">
-        <v>286</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>288</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>218</v>
-      </c>
       <c r="AE36" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AF36" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:73" ht="15.5">
@@ -6278,67 +6248,67 @@
         <v>98</v>
       </c>
       <c r="B37" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C37" t="s">
         <v>100</v>
       </c>
       <c r="D37" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F37" t="s">
         <v>102</v>
       </c>
       <c r="G37" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="L37" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="Q37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S37" t="s">
+        <v>200</v>
+      </c>
+      <c r="U37" t="s">
+        <v>201</v>
+      </c>
+      <c r="W37" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD37" t="s">
         <v>209</v>
       </c>
-      <c r="U37" t="s">
-        <v>210</v>
-      </c>
-      <c r="W37" t="s">
-        <v>286</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>288</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>218</v>
-      </c>
       <c r="AE37" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AF37" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:73" ht="15.5">
@@ -6346,67 +6316,67 @@
         <v>98</v>
       </c>
       <c r="B38" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C38" t="s">
         <v>100</v>
       </c>
       <c r="D38" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F38" t="s">
         <v>102</v>
       </c>
       <c r="G38" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="L38" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="Q38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S38" t="s">
+        <v>200</v>
+      </c>
+      <c r="U38" t="s">
+        <v>201</v>
+      </c>
+      <c r="W38" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD38" t="s">
         <v>209</v>
       </c>
-      <c r="U38" t="s">
-        <v>210</v>
-      </c>
-      <c r="W38" t="s">
-        <v>286</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>288</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>218</v>
-      </c>
       <c r="AE38" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AF38" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:73" ht="15.5">
@@ -6414,67 +6384,67 @@
         <v>98</v>
       </c>
       <c r="B39" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C39" t="s">
         <v>100</v>
       </c>
       <c r="D39" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F39" t="s">
         <v>102</v>
       </c>
       <c r="G39" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="L39" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="Q39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S39" t="s">
+        <v>200</v>
+      </c>
+      <c r="U39" t="s">
+        <v>201</v>
+      </c>
+      <c r="W39" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD39" t="s">
         <v>209</v>
       </c>
-      <c r="U39" t="s">
-        <v>210</v>
-      </c>
-      <c r="W39" t="s">
-        <v>286</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>288</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>218</v>
-      </c>
       <c r="AE39" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AF39" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:73" ht="15.5">
@@ -6482,67 +6452,67 @@
         <v>98</v>
       </c>
       <c r="B40" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C40" t="s">
         <v>100</v>
       </c>
       <c r="D40" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="F40" t="s">
         <v>102</v>
       </c>
       <c r="G40" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="L40" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="Q40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S40" t="s">
+        <v>200</v>
+      </c>
+      <c r="U40" t="s">
+        <v>201</v>
+      </c>
+      <c r="W40" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD40" t="s">
         <v>209</v>
       </c>
-      <c r="U40" t="s">
-        <v>210</v>
-      </c>
-      <c r="W40" t="s">
-        <v>286</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>288</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>218</v>
-      </c>
       <c r="AE40" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AF40" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:73" ht="15.5">
@@ -6550,67 +6520,67 @@
         <v>98</v>
       </c>
       <c r="B41" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C41" t="s">
         <v>100</v>
       </c>
       <c r="D41" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F41" t="s">
         <v>102</v>
       </c>
       <c r="G41" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="L41" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="Q41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S41" t="s">
+        <v>200</v>
+      </c>
+      <c r="U41" t="s">
+        <v>201</v>
+      </c>
+      <c r="W41" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD41" t="s">
         <v>209</v>
       </c>
-      <c r="U41" t="s">
-        <v>210</v>
-      </c>
-      <c r="W41" t="s">
-        <v>286</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>288</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>218</v>
-      </c>
       <c r="AE41" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AF41" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="42" spans="1:73" ht="15.5">
@@ -6618,67 +6588,67 @@
         <v>98</v>
       </c>
       <c r="B42" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C42" t="s">
         <v>100</v>
       </c>
       <c r="D42" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="F42" t="s">
         <v>102</v>
       </c>
       <c r="G42" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="L42" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="Q42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S42" t="s">
+        <v>200</v>
+      </c>
+      <c r="U42" t="s">
+        <v>201</v>
+      </c>
+      <c r="W42" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD42" t="s">
         <v>209</v>
       </c>
-      <c r="U42" t="s">
-        <v>210</v>
-      </c>
-      <c r="W42" t="s">
-        <v>286</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>288</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD42" t="s">
-        <v>218</v>
-      </c>
       <c r="AE42" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AF42" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:73" ht="15.5">
@@ -6686,64 +6656,64 @@
         <v>98</v>
       </c>
       <c r="B43" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C43" t="s">
         <v>100</v>
       </c>
       <c r="D43" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="F43" t="s">
         <v>102</v>
       </c>
       <c r="G43" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="L43" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="Q43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S43" t="s">
+        <v>200</v>
+      </c>
+      <c r="U43" t="s">
+        <v>201</v>
+      </c>
+      <c r="W43" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD43" t="s">
         <v>209</v>
       </c>
-      <c r="U43" t="s">
-        <v>210</v>
-      </c>
-      <c r="W43" t="s">
-        <v>286</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>288</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>218</v>
-      </c>
       <c r="AE43" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AF43" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="44" spans="1:73" ht="15.5">
@@ -6751,64 +6721,64 @@
         <v>98</v>
       </c>
       <c r="B44" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C44" t="s">
         <v>100</v>
       </c>
       <c r="D44" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="F44" t="s">
         <v>102</v>
       </c>
       <c r="G44" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="L44" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="Q44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S44" t="s">
+        <v>200</v>
+      </c>
+      <c r="U44" t="s">
+        <v>201</v>
+      </c>
+      <c r="W44" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD44" t="s">
         <v>209</v>
       </c>
-      <c r="U44" t="s">
-        <v>210</v>
-      </c>
-      <c r="W44" t="s">
-        <v>286</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>288</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD44" t="s">
-        <v>218</v>
-      </c>
       <c r="AE44" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AF44" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:73" ht="15.5">
@@ -6816,61 +6786,61 @@
         <v>98</v>
       </c>
       <c r="B45" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C45" t="s">
         <v>100</v>
       </c>
       <c r="D45" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="F45" t="s">
         <v>102</v>
       </c>
       <c r="G45" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="L45" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="Q45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S45" t="s">
+        <v>200</v>
+      </c>
+      <c r="U45" t="s">
+        <v>201</v>
+      </c>
+      <c r="W45" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD45" t="s">
         <v>209</v>
       </c>
-      <c r="U45" t="s">
-        <v>210</v>
-      </c>
-      <c r="W45" t="s">
-        <v>286</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>288</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD45" t="s">
-        <v>218</v>
-      </c>
       <c r="AE45" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AF45" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="46" spans="1:73">
@@ -6878,13 +6848,13 @@
         <v>98</v>
       </c>
       <c r="B46" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C46" t="s">
         <v>100</v>
       </c>
       <c r="D46" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>13</v>
@@ -6893,49 +6863,49 @@
         <v>102</v>
       </c>
       <c r="G46" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="H46" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="I46" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="L46" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="Q46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S46" t="s">
+        <v>200</v>
+      </c>
+      <c r="U46" t="s">
+        <v>201</v>
+      </c>
+      <c r="W46" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD46" t="s">
         <v>209</v>
       </c>
-      <c r="U46" t="s">
-        <v>210</v>
-      </c>
-      <c r="W46" t="s">
-        <v>286</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>288</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD46" t="s">
-        <v>218</v>
-      </c>
       <c r="AE46" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AF46" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47" spans="1:73">
@@ -6943,13 +6913,13 @@
         <v>98</v>
       </c>
       <c r="B47" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C47" t="s">
         <v>100</v>
       </c>
       <c r="D47" t="s">
-        <v>291</v>
+        <v>422</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>19</v>
@@ -6958,50 +6928,52 @@
         <v>102</v>
       </c>
       <c r="G47" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="H47" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="J47" t="s">
-        <v>356</v>
-      </c>
-      <c r="K47" s="3"/>
+        <v>343</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>424</v>
+      </c>
       <c r="L47" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="Q47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S47" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="U47" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="V47" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="Z47" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="AA47" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="AB47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AD47" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="AE47" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="AI47" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="AK47" t="s">
         <v>60</v>
@@ -7013,7 +6985,7 @@
         <v>62</v>
       </c>
       <c r="AN47" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="AO47" t="s">
         <v>64</v>
@@ -7022,13 +6994,13 @@
         <v>65</v>
       </c>
       <c r="AQ47" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="AR47" t="s">
         <v>67</v>
       </c>
       <c r="AS47" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="AT47" t="s">
         <v>69</v>
@@ -7120,65 +7092,67 @@
         <v>98</v>
       </c>
       <c r="B48" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="C48" t="s">
         <v>100</v>
       </c>
       <c r="D48" t="s">
-        <v>291</v>
+        <v>422</v>
       </c>
       <c r="E48" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F48" t="s">
         <v>102</v>
       </c>
       <c r="G48" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="H48" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="J48" t="s">
-        <v>356</v>
-      </c>
-      <c r="K48" s="3"/>
+        <v>343</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>424</v>
+      </c>
       <c r="L48" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="Q48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S48" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="U48" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="V48" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="Z48" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="AA48" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="AB48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AD48" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="AE48" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="AI48" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="AK48" t="s">
         <v>60</v>
@@ -7190,7 +7164,7 @@
         <v>62</v>
       </c>
       <c r="AN48" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="AO48" t="s">
         <v>64</v>
@@ -7199,13 +7173,13 @@
         <v>65</v>
       </c>
       <c r="AQ48" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="AR48" t="s">
         <v>67</v>
       </c>
       <c r="AS48" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="AT48" t="s">
         <v>69</v>
@@ -7297,70 +7271,70 @@
         <v>98</v>
       </c>
       <c r="B49" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="C49" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D49" t="s">
-        <v>300</v>
+        <v>422</v>
       </c>
       <c r="E49" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="F49" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="G49" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="H49" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="I49" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="K49" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="L49" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>107</v>
+      </c>
+      <c r="U49" t="s">
+        <v>292</v>
+      </c>
+      <c r="V49" t="s">
+        <v>293</v>
+      </c>
+      <c r="W49" t="s">
+        <v>292</v>
+      </c>
+      <c r="X49" t="s">
+        <v>293</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK49" t="s">
         <v>357</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>108</v>
-      </c>
-      <c r="U49" t="s">
-        <v>303</v>
-      </c>
-      <c r="V49" t="s">
-        <v>304</v>
-      </c>
-      <c r="W49" t="s">
-        <v>303</v>
-      </c>
-      <c r="X49" t="s">
-        <v>304</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA49" t="s">
-        <v>170</v>
-      </c>
-      <c r="AB49" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD49" t="s">
-        <v>171</v>
-      </c>
-      <c r="AE49" t="s">
-        <v>117</v>
-      </c>
-      <c r="AK49" t="s">
-        <v>370</v>
       </c>
       <c r="AL49" t="s">
         <v>61</v>
@@ -7369,25 +7343,25 @@
         <v>65</v>
       </c>
       <c r="AQ49" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="AZ49" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="BA49" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="BB49" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="BC49" t="s">
         <v>78</v>
       </c>
       <c r="BE49" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="BG49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:69">
@@ -7395,82 +7369,82 @@
         <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="C50" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D50" t="s">
+        <v>422</v>
+      </c>
+      <c r="E50" t="s">
+        <v>350</v>
+      </c>
+      <c r="F50" t="s">
+        <v>291</v>
+      </c>
+      <c r="G50" t="s">
+        <v>365</v>
+      </c>
+      <c r="H50" t="s">
+        <v>229</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="L50" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>107</v>
+      </c>
+      <c r="S50" t="s">
         <v>300</v>
       </c>
-      <c r="E50" t="s">
-        <v>363</v>
-      </c>
-      <c r="F50" t="s">
-        <v>302</v>
-      </c>
-      <c r="G50" t="s">
-        <v>378</v>
-      </c>
-      <c r="H50" t="s">
-        <v>238</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="L50" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>108</v>
-      </c>
-      <c r="S50" t="s">
-        <v>311</v>
-      </c>
       <c r="U50" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="V50" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="W50" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="X50" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="Z50" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="AA50" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="AB50" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE50" t="s">
         <v>116</v>
       </c>
-      <c r="AD50" t="s">
-        <v>171</v>
-      </c>
-      <c r="AE50" t="s">
-        <v>117</v>
-      </c>
       <c r="AK50" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="AL50" t="s">
         <v>61</v>
       </c>
       <c r="AN50" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="AO50" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="AP50" t="s">
         <v>65</v>
@@ -7479,28 +7453,28 @@
         <v>69</v>
       </c>
       <c r="AW50" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="AX50" t="s">
         <v>73</v>
       </c>
       <c r="AZ50" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="BA50" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="BE50" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="BK50" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="BP50" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="BQ50" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:69">
@@ -7508,67 +7482,67 @@
         <v>98</v>
       </c>
       <c r="B51" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="C51" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D51" t="s">
-        <v>300</v>
+        <v>422</v>
       </c>
       <c r="E51" t="s">
+        <v>350</v>
+      </c>
+      <c r="F51" t="s">
+        <v>291</v>
+      </c>
+      <c r="G51" t="s">
+        <v>361</v>
+      </c>
+      <c r="J51" t="s">
         <v>363</v>
       </c>
-      <c r="F51" t="s">
-        <v>302</v>
-      </c>
-      <c r="G51" t="s">
-        <v>374</v>
-      </c>
-      <c r="J51" t="s">
-        <v>376</v>
-      </c>
       <c r="K51" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="L51" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="Q51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U51" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="V51" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="W51" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="X51" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="Z51" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="AA51" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="AB51" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE51" t="s">
         <v>116</v>
       </c>
-      <c r="AD51" t="s">
-        <v>171</v>
-      </c>
-      <c r="AE51" t="s">
-        <v>117</v>
-      </c>
       <c r="AF51" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="AG51" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>

--- a/product_data/processing_metadata/C5/PIG_meta.xlsx
+++ b/product_data/processing_metadata/C5/PIG_meta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{6D903790-D07D-4718-95DE-5C627830A9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C6B4431-D1A2-4A6F-904C-F1607034843B}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{6D903790-D07D-4718-95DE-5C627830A9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D652741-C3ED-4164-B49F-4E4F21A6899D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B7D7ACF3-C0AE-4A67-A41D-E2D748D3A5A0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7D7ACF3-C0AE-4A67-A41D-E2D748D3A5A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="427">
   <si>
     <t>353L20070114</t>
   </si>
@@ -504,9 +504,6 @@
     <t>Ian.Barton@csiro.au</t>
   </si>
   <si>
-    <t>Wright_etal_1991</t>
-  </si>
-  <si>
     <t>Station_Code</t>
   </si>
   <si>
@@ -630,9 +627,6 @@
     <t>10.5067/SeaBASS/SOCCOM/DATA001</t>
   </si>
   <si>
-    <t>VanHeukelem _Thomas_2001</t>
-  </si>
-  <si>
     <t>GMT</t>
   </si>
   <si>
@@ -729,9 +723,6 @@
     <t>claustre@obs-vlfr.fr</t>
   </si>
   <si>
-    <t>Uitz_2008</t>
-  </si>
-  <si>
     <t>%Y%m%d</t>
   </si>
   <si>
@@ -939,9 +930,6 @@
     <t>Event</t>
   </si>
   <si>
-    <t>deVillers_2013</t>
-  </si>
-  <si>
     <t>10.3334/CDIAC/OTG.GOSHIP_P14S_S04_2012</t>
   </si>
   <si>
@@ -1011,9 +999,6 @@
     <t>Richard.A.Feely@noaa.gov</t>
   </si>
   <si>
-    <t>UCSB_2007</t>
-  </si>
-  <si>
     <t>10.3334/CDIAC/otg.CARINA_35MF19980121</t>
   </si>
   <si>
@@ -1068,15 +1053,9 @@
     <t>10.1594/PANGAEA.793246</t>
   </si>
   <si>
-    <t>Unknown_hplc</t>
-  </si>
-  <si>
     <t>enquiries@bodc.ac.uk</t>
   </si>
   <si>
-    <t>BOFS_hplc</t>
-  </si>
-  <si>
     <t>E:/Data_downloads/MAREDAT/18</t>
   </si>
   <si>
@@ -1122,9 +1101,6 @@
     <t>Chantal Descolas-Gros</t>
   </si>
   <si>
-    <t>JGOFS_1994</t>
-  </si>
-  <si>
     <t>10.1594/PANGAEA.803187</t>
   </si>
   <si>
@@ -1309,6 +1285,36 @@
   </si>
   <si>
     <t>MAREDAT_1; MAREDAT_2</t>
+  </si>
+  <si>
+    <t>analysis_type</t>
+  </si>
+  <si>
+    <t>Wright_1991</t>
+  </si>
+  <si>
+    <t>BOFS</t>
+  </si>
+  <si>
+    <t>JGOFS</t>
+  </si>
+  <si>
+    <t>Ras_2008</t>
+  </si>
+  <si>
+    <t>deVilliers_2013</t>
+  </si>
+  <si>
+    <t>VanHeukelem_Thomas_2001</t>
+  </si>
+  <si>
+    <t>HPLC</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Unknown_HPLC</t>
   </si>
 </sst>
 </file>
@@ -1376,7 +1382,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1390,6 +1396,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1705,15 +1712,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F66F91E-37FF-4E13-8317-A8978462FC2B}">
-  <dimension ref="A1:BV51"/>
+  <dimension ref="A1:BW51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="Z33" sqref="Z33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:74">
+    <row r="1" spans="1:75">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1745,199 +1752,202 @@
         <v>34</v>
       </c>
       <c r="K1" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="L1" t="s">
+        <v>417</v>
+      </c>
+      <c r="M1" t="s">
         <v>35</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>36</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>37</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>38</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>40</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>41</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>42</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>43</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>44</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>45</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>46</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>47</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>48</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>50</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>51</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>53</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>54</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>55</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>57</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>58</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>59</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>61</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>62</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>63</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>64</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>65</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>66</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>67</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>68</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>69</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>70</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>71</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>72</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>73</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>74</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>75</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>76</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>77</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>78</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>79</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>80</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>81</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>82</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>83</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>84</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>85</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>86</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>87</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>88</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>89</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>90</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>91</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>92</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>93</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>94</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>95</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>96</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:74">
+    <row r="2" spans="1:75">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -1966,121 +1976,124 @@
         <v>105</v>
       </c>
       <c r="J2" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="K2" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="L2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P2" t="s">
+        <v>424</v>
+      </c>
+      <c r="M2" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q2" t="s">
         <v>106</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>107</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>108</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>109</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>110</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>111</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>112</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>113</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>114</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>115</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>116</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>61</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>117</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>118</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>65</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
         <v>69</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AW2" t="s">
         <v>71</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AY2" t="s">
         <v>73</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="AZ2" t="s">
         <v>74</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BA2" t="s">
         <v>119</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BB2" t="s">
         <v>120</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BC2" t="s">
         <v>121</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BD2" t="s">
         <v>122</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BE2" t="s">
         <v>123</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BF2" t="s">
         <v>124</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BG2" t="s">
         <v>125</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BH2" t="s">
         <v>126</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BJ2" t="s">
         <v>127</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BK2" t="s">
         <v>128</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>129</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
         <v>130</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BP2" t="s">
         <v>131</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BQ2" t="s">
         <v>132</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BR2" t="s">
         <v>133</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="BV2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:74">
+    <row r="3" spans="1:75">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -2112,118 +2125,121 @@
         <v>136</v>
       </c>
       <c r="K3" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="L3" t="s">
-        <v>156</v>
-      </c>
-      <c r="P3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M3" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q3" t="s">
         <v>106</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>107</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>108</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>109</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>110</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>111</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>112</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>113</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>114</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>115</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>116</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
         <v>61</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AN3" t="s">
         <v>117</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AP3" t="s">
         <v>118</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AQ3" t="s">
         <v>65</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AU3" t="s">
         <v>69</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AW3" t="s">
         <v>71</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AY3" t="s">
         <v>73</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="AZ3" t="s">
         <v>74</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BA3" t="s">
         <v>119</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BB3" t="s">
         <v>120</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BC3" t="s">
         <v>121</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BD3" t="s">
         <v>122</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BE3" t="s">
         <v>123</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BF3" t="s">
         <v>124</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BG3" t="s">
         <v>125</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BH3" t="s">
         <v>126</v>
       </c>
-      <c r="BI3" t="s">
+      <c r="BJ3" t="s">
         <v>127</v>
       </c>
-      <c r="BJ3" t="s">
+      <c r="BK3" t="s">
         <v>128</v>
       </c>
-      <c r="BK3" t="s">
+      <c r="BL3" t="s">
         <v>129</v>
       </c>
-      <c r="BL3" t="s">
+      <c r="BM3" t="s">
         <v>130</v>
       </c>
-      <c r="BO3" t="s">
+      <c r="BP3" t="s">
         <v>131</v>
       </c>
-      <c r="BP3" t="s">
+      <c r="BQ3" t="s">
         <v>132</v>
       </c>
-      <c r="BQ3" t="s">
+      <c r="BR3" t="s">
         <v>133</v>
       </c>
-      <c r="BU3" t="s">
+      <c r="BV3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:74">
+    <row r="4" spans="1:75">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -2255,118 +2271,121 @@
         <v>138</v>
       </c>
       <c r="K4" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="L4" t="s">
-        <v>156</v>
-      </c>
-      <c r="P4" t="s">
+        <v>424</v>
+      </c>
+      <c r="M4" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q4" t="s">
         <v>106</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>107</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>108</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>109</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>110</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>111</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>112</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>113</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>114</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>115</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>116</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
         <v>61</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AN4" t="s">
         <v>117</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AP4" t="s">
         <v>118</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AQ4" t="s">
         <v>65</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AU4" t="s">
         <v>69</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AW4" t="s">
         <v>71</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AY4" t="s">
         <v>73</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="AZ4" t="s">
         <v>74</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BA4" t="s">
         <v>119</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BB4" t="s">
         <v>120</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BC4" t="s">
         <v>121</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BD4" t="s">
         <v>122</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BE4" t="s">
         <v>123</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BF4" t="s">
         <v>124</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BG4" t="s">
         <v>125</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BH4" t="s">
         <v>126</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BJ4" t="s">
         <v>127</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BK4" t="s">
         <v>128</v>
       </c>
-      <c r="BK4" t="s">
+      <c r="BL4" t="s">
         <v>129</v>
       </c>
-      <c r="BL4" t="s">
+      <c r="BM4" t="s">
         <v>130</v>
       </c>
-      <c r="BO4" t="s">
+      <c r="BP4" t="s">
         <v>131</v>
       </c>
-      <c r="BP4" t="s">
+      <c r="BQ4" t="s">
         <v>132</v>
       </c>
-      <c r="BQ4" t="s">
+      <c r="BR4" t="s">
         <v>133</v>
       </c>
-      <c r="BU4" t="s">
+      <c r="BV4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:74">
+    <row r="5" spans="1:75">
       <c r="A5" t="s">
         <v>98</v>
       </c>
@@ -2398,118 +2417,121 @@
         <v>140</v>
       </c>
       <c r="K5" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="L5" t="s">
-        <v>156</v>
-      </c>
-      <c r="P5" t="s">
+        <v>424</v>
+      </c>
+      <c r="M5" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q5" t="s">
         <v>106</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>107</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>108</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>109</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>110</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>111</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>112</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>113</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>114</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>115</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>116</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AM5" t="s">
         <v>61</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AN5" t="s">
         <v>117</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AP5" t="s">
         <v>118</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AQ5" t="s">
         <v>65</v>
       </c>
-      <c r="AT5" t="s">
+      <c r="AU5" t="s">
         <v>69</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="AW5" t="s">
         <v>71</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AY5" t="s">
         <v>73</v>
       </c>
-      <c r="AY5" t="s">
+      <c r="AZ5" t="s">
         <v>74</v>
       </c>
-      <c r="AZ5" t="s">
+      <c r="BA5" t="s">
         <v>119</v>
       </c>
-      <c r="BA5" t="s">
+      <c r="BB5" t="s">
         <v>120</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BC5" t="s">
         <v>121</v>
       </c>
-      <c r="BC5" t="s">
+      <c r="BD5" t="s">
         <v>122</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="BE5" t="s">
         <v>123</v>
       </c>
-      <c r="BE5" t="s">
+      <c r="BF5" t="s">
         <v>124</v>
       </c>
-      <c r="BF5" t="s">
+      <c r="BG5" t="s">
         <v>125</v>
       </c>
-      <c r="BG5" t="s">
+      <c r="BH5" t="s">
         <v>126</v>
       </c>
-      <c r="BI5" t="s">
+      <c r="BJ5" t="s">
         <v>127</v>
       </c>
-      <c r="BJ5" t="s">
+      <c r="BK5" t="s">
         <v>128</v>
       </c>
-      <c r="BK5" t="s">
+      <c r="BL5" t="s">
         <v>129</v>
       </c>
-      <c r="BL5" t="s">
+      <c r="BM5" t="s">
         <v>130</v>
       </c>
-      <c r="BO5" t="s">
+      <c r="BP5" t="s">
         <v>131</v>
       </c>
-      <c r="BP5" t="s">
+      <c r="BQ5" t="s">
         <v>132</v>
       </c>
-      <c r="BQ5" t="s">
+      <c r="BR5" t="s">
         <v>133</v>
       </c>
-      <c r="BU5" t="s">
+      <c r="BV5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:74">
+    <row r="6" spans="1:75">
       <c r="A6" t="s">
         <v>98</v>
       </c>
@@ -2541,118 +2563,121 @@
         <v>142</v>
       </c>
       <c r="K6" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="L6" t="s">
-        <v>156</v>
-      </c>
-      <c r="P6" t="s">
+        <v>424</v>
+      </c>
+      <c r="M6" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q6" t="s">
         <v>106</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>107</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>108</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>109</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>110</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>111</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>112</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>113</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>114</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>115</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>116</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AM6" t="s">
         <v>61</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AN6" t="s">
         <v>117</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AP6" t="s">
         <v>118</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AQ6" t="s">
         <v>65</v>
       </c>
-      <c r="AT6" t="s">
+      <c r="AU6" t="s">
         <v>69</v>
       </c>
-      <c r="AV6" t="s">
+      <c r="AW6" t="s">
         <v>71</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="AY6" t="s">
         <v>73</v>
       </c>
-      <c r="AY6" t="s">
+      <c r="AZ6" t="s">
         <v>74</v>
       </c>
-      <c r="AZ6" t="s">
+      <c r="BA6" t="s">
         <v>119</v>
       </c>
-      <c r="BA6" t="s">
+      <c r="BB6" t="s">
         <v>120</v>
       </c>
-      <c r="BB6" t="s">
+      <c r="BC6" t="s">
         <v>121</v>
       </c>
-      <c r="BC6" t="s">
+      <c r="BD6" t="s">
         <v>122</v>
       </c>
-      <c r="BD6" t="s">
+      <c r="BE6" t="s">
         <v>123</v>
       </c>
-      <c r="BE6" t="s">
+      <c r="BF6" t="s">
         <v>124</v>
       </c>
-      <c r="BF6" t="s">
+      <c r="BG6" t="s">
         <v>125</v>
       </c>
-      <c r="BG6" t="s">
+      <c r="BH6" t="s">
         <v>126</v>
       </c>
-      <c r="BI6" t="s">
+      <c r="BJ6" t="s">
         <v>127</v>
       </c>
-      <c r="BJ6" t="s">
+      <c r="BK6" t="s">
         <v>128</v>
       </c>
-      <c r="BK6" t="s">
+      <c r="BL6" t="s">
         <v>129</v>
       </c>
-      <c r="BL6" t="s">
+      <c r="BM6" t="s">
         <v>130</v>
       </c>
-      <c r="BO6" t="s">
+      <c r="BP6" t="s">
         <v>131</v>
       </c>
-      <c r="BP6" t="s">
+      <c r="BQ6" t="s">
         <v>132</v>
       </c>
-      <c r="BQ6" t="s">
+      <c r="BR6" t="s">
         <v>133</v>
       </c>
-      <c r="BU6" t="s">
+      <c r="BV6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:74">
+    <row r="7" spans="1:75">
       <c r="A7" t="s">
         <v>98</v>
       </c>
@@ -2684,118 +2709,121 @@
         <v>144</v>
       </c>
       <c r="K7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="L7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P7" t="s">
+        <v>424</v>
+      </c>
+      <c r="M7" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q7" t="s">
         <v>106</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>107</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>108</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>109</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>110</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>111</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>112</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>113</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>114</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>115</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>116</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AM7" t="s">
         <v>61</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AN7" t="s">
         <v>117</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AP7" t="s">
         <v>118</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="AQ7" t="s">
         <v>65</v>
       </c>
-      <c r="AT7" t="s">
+      <c r="AU7" t="s">
         <v>69</v>
       </c>
-      <c r="AV7" t="s">
+      <c r="AW7" t="s">
         <v>71</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="AY7" t="s">
         <v>73</v>
       </c>
-      <c r="AY7" t="s">
+      <c r="AZ7" t="s">
         <v>74</v>
       </c>
-      <c r="AZ7" t="s">
+      <c r="BA7" t="s">
         <v>119</v>
       </c>
-      <c r="BA7" t="s">
+      <c r="BB7" t="s">
         <v>120</v>
       </c>
-      <c r="BB7" t="s">
+      <c r="BC7" t="s">
         <v>121</v>
       </c>
-      <c r="BC7" t="s">
+      <c r="BD7" t="s">
         <v>122</v>
       </c>
-      <c r="BD7" t="s">
+      <c r="BE7" t="s">
         <v>123</v>
       </c>
-      <c r="BE7" t="s">
+      <c r="BF7" t="s">
         <v>124</v>
       </c>
-      <c r="BF7" t="s">
+      <c r="BG7" t="s">
         <v>125</v>
       </c>
-      <c r="BG7" t="s">
+      <c r="BH7" t="s">
         <v>126</v>
       </c>
-      <c r="BI7" t="s">
+      <c r="BJ7" t="s">
         <v>127</v>
       </c>
-      <c r="BJ7" t="s">
+      <c r="BK7" t="s">
         <v>128</v>
       </c>
-      <c r="BK7" t="s">
+      <c r="BL7" t="s">
         <v>129</v>
       </c>
-      <c r="BL7" t="s">
+      <c r="BM7" t="s">
         <v>130</v>
       </c>
-      <c r="BO7" t="s">
+      <c r="BP7" t="s">
         <v>131</v>
       </c>
-      <c r="BP7" t="s">
+      <c r="BQ7" t="s">
         <v>132</v>
       </c>
-      <c r="BQ7" t="s">
+      <c r="BR7" t="s">
         <v>133</v>
       </c>
-      <c r="BU7" t="s">
+      <c r="BV7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:74">
+    <row r="8" spans="1:75">
       <c r="A8" t="s">
         <v>98</v>
       </c>
@@ -2827,118 +2855,121 @@
         <v>146</v>
       </c>
       <c r="K8" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="L8" t="s">
-        <v>156</v>
-      </c>
-      <c r="P8" t="s">
+        <v>424</v>
+      </c>
+      <c r="M8" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q8" t="s">
         <v>106</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>107</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>108</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>109</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>110</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>111</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>112</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>113</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>114</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>115</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>116</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AM8" t="s">
         <v>61</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AN8" t="s">
         <v>117</v>
       </c>
-      <c r="AO8" t="s">
+      <c r="AP8" t="s">
         <v>118</v>
       </c>
-      <c r="AP8" t="s">
+      <c r="AQ8" t="s">
         <v>65</v>
       </c>
-      <c r="AT8" t="s">
+      <c r="AU8" t="s">
         <v>69</v>
       </c>
-      <c r="AV8" t="s">
+      <c r="AW8" t="s">
         <v>71</v>
       </c>
-      <c r="AX8" t="s">
+      <c r="AY8" t="s">
         <v>73</v>
       </c>
-      <c r="AY8" t="s">
+      <c r="AZ8" t="s">
         <v>74</v>
       </c>
-      <c r="AZ8" t="s">
+      <c r="BA8" t="s">
         <v>119</v>
       </c>
-      <c r="BA8" t="s">
+      <c r="BB8" t="s">
         <v>120</v>
       </c>
-      <c r="BB8" t="s">
+      <c r="BC8" t="s">
         <v>121</v>
       </c>
-      <c r="BC8" t="s">
+      <c r="BD8" t="s">
         <v>122</v>
       </c>
-      <c r="BD8" t="s">
+      <c r="BE8" t="s">
         <v>123</v>
       </c>
-      <c r="BE8" t="s">
+      <c r="BF8" t="s">
         <v>124</v>
       </c>
-      <c r="BF8" t="s">
+      <c r="BG8" t="s">
         <v>125</v>
       </c>
-      <c r="BG8" t="s">
+      <c r="BH8" t="s">
         <v>126</v>
       </c>
-      <c r="BI8" t="s">
+      <c r="BJ8" t="s">
         <v>127</v>
       </c>
-      <c r="BJ8" t="s">
+      <c r="BK8" t="s">
         <v>128</v>
       </c>
-      <c r="BK8" t="s">
+      <c r="BL8" t="s">
         <v>129</v>
       </c>
-      <c r="BL8" t="s">
+      <c r="BM8" t="s">
         <v>130</v>
       </c>
-      <c r="BO8" t="s">
+      <c r="BP8" t="s">
         <v>131</v>
       </c>
-      <c r="BP8" t="s">
+      <c r="BQ8" t="s">
         <v>132</v>
       </c>
-      <c r="BQ8" t="s">
+      <c r="BR8" t="s">
         <v>133</v>
       </c>
-      <c r="BU8" t="s">
+      <c r="BV8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:74">
+    <row r="9" spans="1:75">
       <c r="A9" t="s">
         <v>98</v>
       </c>
@@ -2970,118 +3001,121 @@
         <v>148</v>
       </c>
       <c r="K9" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="L9" t="s">
-        <v>156</v>
-      </c>
-      <c r="P9" t="s">
+        <v>424</v>
+      </c>
+      <c r="M9" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q9" t="s">
         <v>106</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>107</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>108</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>109</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>110</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>111</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>112</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>113</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>114</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>115</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>116</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AM9" t="s">
         <v>61</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="AN9" t="s">
         <v>117</v>
       </c>
-      <c r="AO9" t="s">
+      <c r="AP9" t="s">
         <v>118</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="AQ9" t="s">
         <v>65</v>
       </c>
-      <c r="AT9" t="s">
+      <c r="AU9" t="s">
         <v>69</v>
       </c>
-      <c r="AV9" t="s">
+      <c r="AW9" t="s">
         <v>71</v>
       </c>
-      <c r="AX9" t="s">
+      <c r="AY9" t="s">
         <v>73</v>
       </c>
-      <c r="AY9" t="s">
+      <c r="AZ9" t="s">
         <v>74</v>
       </c>
-      <c r="AZ9" t="s">
+      <c r="BA9" t="s">
         <v>119</v>
       </c>
-      <c r="BA9" t="s">
+      <c r="BB9" t="s">
         <v>120</v>
       </c>
-      <c r="BB9" t="s">
+      <c r="BC9" t="s">
         <v>121</v>
       </c>
-      <c r="BC9" t="s">
+      <c r="BD9" t="s">
         <v>122</v>
       </c>
-      <c r="BD9" t="s">
+      <c r="BE9" t="s">
         <v>123</v>
       </c>
-      <c r="BE9" t="s">
+      <c r="BF9" t="s">
         <v>124</v>
       </c>
-      <c r="BF9" t="s">
+      <c r="BG9" t="s">
         <v>125</v>
       </c>
-      <c r="BG9" t="s">
+      <c r="BH9" t="s">
         <v>126</v>
       </c>
-      <c r="BI9" t="s">
+      <c r="BJ9" t="s">
         <v>127</v>
       </c>
-      <c r="BJ9" t="s">
+      <c r="BK9" t="s">
         <v>128</v>
       </c>
-      <c r="BK9" t="s">
+      <c r="BL9" t="s">
         <v>129</v>
       </c>
-      <c r="BL9" t="s">
+      <c r="BM9" t="s">
         <v>130</v>
       </c>
-      <c r="BO9" t="s">
+      <c r="BP9" t="s">
         <v>131</v>
       </c>
-      <c r="BP9" t="s">
+      <c r="BQ9" t="s">
         <v>132</v>
       </c>
-      <c r="BQ9" t="s">
+      <c r="BR9" t="s">
         <v>133</v>
       </c>
-      <c r="BU9" t="s">
+      <c r="BV9" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:74">
+    <row r="10" spans="1:75">
       <c r="A10" t="s">
         <v>98</v>
       </c>
@@ -3113,118 +3147,121 @@
         <v>150</v>
       </c>
       <c r="K10" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="L10" t="s">
-        <v>156</v>
-      </c>
-      <c r="P10" t="s">
+        <v>424</v>
+      </c>
+      <c r="M10" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q10" t="s">
         <v>106</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>107</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>108</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>109</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>110</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>111</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>112</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>113</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>114</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>115</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>116</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AM10" t="s">
         <v>61</v>
       </c>
-      <c r="AM10" t="s">
+      <c r="AN10" t="s">
         <v>117</v>
       </c>
-      <c r="AO10" t="s">
+      <c r="AP10" t="s">
         <v>118</v>
       </c>
-      <c r="AP10" t="s">
+      <c r="AQ10" t="s">
         <v>65</v>
       </c>
-      <c r="AT10" t="s">
+      <c r="AU10" t="s">
         <v>69</v>
       </c>
-      <c r="AV10" t="s">
+      <c r="AW10" t="s">
         <v>71</v>
       </c>
-      <c r="AX10" t="s">
+      <c r="AY10" t="s">
         <v>73</v>
       </c>
-      <c r="AY10" t="s">
+      <c r="AZ10" t="s">
         <v>74</v>
       </c>
-      <c r="AZ10" t="s">
+      <c r="BA10" t="s">
         <v>119</v>
       </c>
-      <c r="BA10" t="s">
+      <c r="BB10" t="s">
         <v>120</v>
       </c>
-      <c r="BB10" t="s">
+      <c r="BC10" t="s">
         <v>121</v>
       </c>
-      <c r="BC10" t="s">
+      <c r="BD10" t="s">
         <v>122</v>
       </c>
-      <c r="BD10" t="s">
+      <c r="BE10" t="s">
         <v>123</v>
       </c>
-      <c r="BE10" t="s">
+      <c r="BF10" t="s">
         <v>124</v>
       </c>
-      <c r="BF10" t="s">
+      <c r="BG10" t="s">
         <v>125</v>
       </c>
-      <c r="BG10" t="s">
+      <c r="BH10" t="s">
         <v>126</v>
       </c>
-      <c r="BI10" t="s">
+      <c r="BJ10" t="s">
         <v>127</v>
       </c>
-      <c r="BJ10" t="s">
+      <c r="BK10" t="s">
         <v>128</v>
       </c>
-      <c r="BK10" t="s">
+      <c r="BL10" t="s">
         <v>129</v>
       </c>
-      <c r="BL10" t="s">
+      <c r="BM10" t="s">
         <v>130</v>
       </c>
-      <c r="BO10" t="s">
+      <c r="BP10" t="s">
         <v>131</v>
       </c>
-      <c r="BP10" t="s">
+      <c r="BQ10" t="s">
         <v>132</v>
       </c>
-      <c r="BQ10" t="s">
+      <c r="BR10" t="s">
         <v>133</v>
       </c>
-      <c r="BU10" t="s">
+      <c r="BV10" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:74">
+    <row r="11" spans="1:75">
       <c r="A11" t="s">
         <v>98</v>
       </c>
@@ -3253,141 +3290,144 @@
         <v>155</v>
       </c>
       <c r="K11" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="L11" t="s">
+        <v>424</v>
+      </c>
+      <c r="M11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O11">
+        <v>-999</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
+        <v>107</v>
+      </c>
+      <c r="T11" t="s">
         <v>156</v>
       </c>
-      <c r="N11">
-        <v>-999</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>107</v>
-      </c>
-      <c r="S11" t="s">
+      <c r="V11" t="s">
         <v>157</v>
-      </c>
-      <c r="U11" t="s">
-        <v>158</v>
-      </c>
-      <c r="V11" t="s">
-        <v>159</v>
       </c>
       <c r="W11" t="s">
         <v>158</v>
       </c>
       <c r="X11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA11" t="s">
         <v>159</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AB11" t="s">
         <v>160</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AC11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE11" t="s">
         <v>161</v>
       </c>
-      <c r="AB11" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD11" t="s">
+      <c r="AF11" t="s">
         <v>162</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AJ11" t="s">
         <v>163</v>
       </c>
-      <c r="AI11" t="s">
+      <c r="AL11" t="s">
         <v>164</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AM11" t="s">
         <v>165</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AN11" t="s">
         <v>166</v>
       </c>
-      <c r="AM11" t="s">
+      <c r="AQ11" t="s">
         <v>167</v>
       </c>
-      <c r="AP11" t="s">
+      <c r="AR11" t="s">
         <v>168</v>
       </c>
-      <c r="AQ11" t="s">
+      <c r="AU11" t="s">
         <v>169</v>
       </c>
-      <c r="AT11" t="s">
+      <c r="AW11" t="s">
         <v>170</v>
       </c>
-      <c r="AV11" t="s">
+      <c r="AX11" t="s">
         <v>171</v>
       </c>
-      <c r="AW11" t="s">
+      <c r="AY11" t="s">
         <v>172</v>
       </c>
-      <c r="AX11" t="s">
+      <c r="AZ11" t="s">
         <v>173</v>
       </c>
-      <c r="AY11" t="s">
+      <c r="BA11" t="s">
         <v>174</v>
       </c>
-      <c r="AZ11" t="s">
+      <c r="BB11" t="s">
         <v>175</v>
       </c>
-      <c r="BA11" t="s">
+      <c r="BC11" t="s">
         <v>176</v>
       </c>
-      <c r="BB11" t="s">
+      <c r="BD11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE11" t="s">
         <v>177</v>
       </c>
-      <c r="BC11" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD11" t="s">
+      <c r="BF11" t="s">
         <v>178</v>
       </c>
-      <c r="BE11" t="s">
+      <c r="BG11" t="s">
+        <v>125</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ11" t="s">
         <v>179</v>
       </c>
-      <c r="BF11" t="s">
-        <v>125</v>
-      </c>
-      <c r="BG11" t="s">
-        <v>126</v>
-      </c>
-      <c r="BI11" t="s">
+      <c r="BK11" t="s">
         <v>180</v>
       </c>
-      <c r="BJ11" t="s">
+      <c r="BL11" t="s">
         <v>181</v>
       </c>
-      <c r="BK11" t="s">
+      <c r="BO11" t="s">
         <v>182</v>
       </c>
-      <c r="BN11" t="s">
+      <c r="BP11" t="s">
         <v>183</v>
       </c>
-      <c r="BO11" t="s">
+      <c r="BQ11" t="s">
         <v>184</v>
       </c>
-      <c r="BP11" t="s">
+      <c r="BR11" t="s">
         <v>185</v>
       </c>
-      <c r="BQ11" t="s">
-        <v>186</v>
-      </c>
-      <c r="BT11" t="s">
+      <c r="BU11" t="s">
         <v>95</v>
       </c>
-      <c r="BU11" t="s">
+      <c r="BV11" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:74">
+    <row r="12" spans="1:75">
       <c r="A12" t="s">
         <v>98</v>
       </c>
       <c r="B12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C12" t="s">
         <v>100</v>
@@ -3411,141 +3451,144 @@
         <v>155</v>
       </c>
       <c r="K12" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="L12" t="s">
+        <v>424</v>
+      </c>
+      <c r="M12" t="s">
+        <v>418</v>
+      </c>
+      <c r="O12">
+        <v>-999</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
+        <v>107</v>
+      </c>
+      <c r="T12" t="s">
         <v>156</v>
       </c>
-      <c r="N12">
-        <v>-999</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>107</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="V12" t="s">
         <v>157</v>
-      </c>
-      <c r="U12" t="s">
-        <v>158</v>
-      </c>
-      <c r="V12" t="s">
-        <v>159</v>
       </c>
       <c r="W12" t="s">
         <v>158</v>
       </c>
       <c r="X12" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA12" t="s">
         <v>159</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AB12" t="s">
         <v>160</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AC12" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE12" t="s">
         <v>161</v>
       </c>
-      <c r="AB12" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD12" t="s">
+      <c r="AF12" t="s">
         <v>162</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AJ12" t="s">
         <v>163</v>
       </c>
-      <c r="AI12" t="s">
+      <c r="AL12" t="s">
         <v>164</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AM12" t="s">
         <v>165</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AN12" t="s">
         <v>166</v>
       </c>
-      <c r="AM12" t="s">
+      <c r="AQ12" t="s">
         <v>167</v>
       </c>
-      <c r="AP12" t="s">
+      <c r="AR12" t="s">
         <v>168</v>
       </c>
-      <c r="AQ12" t="s">
+      <c r="AU12" t="s">
         <v>169</v>
       </c>
-      <c r="AT12" t="s">
+      <c r="AW12" t="s">
         <v>170</v>
       </c>
-      <c r="AV12" t="s">
+      <c r="AX12" t="s">
         <v>171</v>
       </c>
-      <c r="AW12" t="s">
+      <c r="AY12" t="s">
         <v>172</v>
       </c>
-      <c r="AX12" t="s">
+      <c r="AZ12" t="s">
         <v>173</v>
       </c>
-      <c r="AY12" t="s">
+      <c r="BA12" t="s">
         <v>174</v>
       </c>
-      <c r="AZ12" t="s">
+      <c r="BB12" t="s">
         <v>175</v>
       </c>
-      <c r="BA12" t="s">
+      <c r="BC12" t="s">
         <v>176</v>
       </c>
-      <c r="BB12" t="s">
+      <c r="BD12" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE12" t="s">
         <v>177</v>
       </c>
-      <c r="BC12" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD12" t="s">
+      <c r="BF12" t="s">
         <v>178</v>
       </c>
-      <c r="BE12" t="s">
+      <c r="BG12" t="s">
+        <v>125</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ12" t="s">
         <v>179</v>
       </c>
-      <c r="BF12" t="s">
-        <v>125</v>
-      </c>
-      <c r="BG12" t="s">
-        <v>126</v>
-      </c>
-      <c r="BI12" t="s">
+      <c r="BK12" t="s">
         <v>180</v>
       </c>
-      <c r="BJ12" t="s">
+      <c r="BL12" t="s">
         <v>181</v>
       </c>
-      <c r="BK12" t="s">
+      <c r="BO12" t="s">
         <v>182</v>
       </c>
-      <c r="BN12" t="s">
+      <c r="BP12" t="s">
         <v>183</v>
       </c>
-      <c r="BO12" t="s">
+      <c r="BQ12" t="s">
         <v>184</v>
       </c>
-      <c r="BP12" t="s">
+      <c r="BR12" t="s">
         <v>185</v>
       </c>
-      <c r="BQ12" t="s">
-        <v>186</v>
-      </c>
-      <c r="BT12" t="s">
+      <c r="BU12" t="s">
         <v>95</v>
       </c>
-      <c r="BU12" t="s">
+      <c r="BV12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:74">
+    <row r="13" spans="1:75">
       <c r="A13" t="s">
         <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C13" t="s">
         <v>100</v>
@@ -3569,141 +3612,144 @@
         <v>155</v>
       </c>
       <c r="K13" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="L13" t="s">
+        <v>424</v>
+      </c>
+      <c r="M13" t="s">
+        <v>418</v>
+      </c>
+      <c r="O13">
+        <v>-999</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
+        <v>107</v>
+      </c>
+      <c r="T13" t="s">
         <v>156</v>
       </c>
-      <c r="N13">
-        <v>-999</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>107</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="V13" t="s">
         <v>157</v>
-      </c>
-      <c r="U13" t="s">
-        <v>158</v>
-      </c>
-      <c r="V13" t="s">
-        <v>159</v>
       </c>
       <c r="W13" t="s">
         <v>158</v>
       </c>
       <c r="X13" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA13" t="s">
         <v>159</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AB13" t="s">
         <v>160</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AC13" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE13" t="s">
         <v>161</v>
       </c>
-      <c r="AB13" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD13" t="s">
+      <c r="AF13" t="s">
         <v>162</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AJ13" t="s">
         <v>163</v>
       </c>
-      <c r="AI13" t="s">
+      <c r="AL13" t="s">
         <v>164</v>
       </c>
-      <c r="AK13" t="s">
+      <c r="AM13" t="s">
         <v>165</v>
       </c>
-      <c r="AL13" t="s">
+      <c r="AN13" t="s">
         <v>166</v>
       </c>
-      <c r="AM13" t="s">
+      <c r="AQ13" t="s">
         <v>167</v>
       </c>
-      <c r="AP13" t="s">
+      <c r="AR13" t="s">
         <v>168</v>
       </c>
-      <c r="AQ13" t="s">
+      <c r="AU13" t="s">
         <v>169</v>
       </c>
-      <c r="AT13" t="s">
+      <c r="AW13" t="s">
         <v>170</v>
       </c>
-      <c r="AV13" t="s">
+      <c r="AX13" t="s">
         <v>171</v>
       </c>
-      <c r="AW13" t="s">
+      <c r="AY13" t="s">
         <v>172</v>
       </c>
-      <c r="AX13" t="s">
+      <c r="AZ13" t="s">
         <v>173</v>
       </c>
-      <c r="AY13" t="s">
+      <c r="BA13" t="s">
         <v>174</v>
       </c>
-      <c r="AZ13" t="s">
+      <c r="BB13" t="s">
         <v>175</v>
       </c>
-      <c r="BA13" t="s">
+      <c r="BC13" t="s">
         <v>176</v>
       </c>
-      <c r="BB13" t="s">
+      <c r="BD13" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE13" t="s">
         <v>177</v>
       </c>
-      <c r="BC13" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD13" t="s">
+      <c r="BF13" t="s">
         <v>178</v>
       </c>
-      <c r="BE13" t="s">
+      <c r="BG13" t="s">
+        <v>125</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ13" t="s">
         <v>179</v>
       </c>
-      <c r="BF13" t="s">
-        <v>125</v>
-      </c>
-      <c r="BG13" t="s">
-        <v>126</v>
-      </c>
-      <c r="BI13" t="s">
+      <c r="BK13" t="s">
         <v>180</v>
       </c>
-      <c r="BJ13" t="s">
+      <c r="BL13" t="s">
         <v>181</v>
       </c>
-      <c r="BK13" t="s">
+      <c r="BO13" t="s">
         <v>182</v>
       </c>
-      <c r="BN13" t="s">
+      <c r="BP13" t="s">
         <v>183</v>
       </c>
-      <c r="BO13" t="s">
+      <c r="BQ13" t="s">
         <v>184</v>
       </c>
-      <c r="BP13" t="s">
+      <c r="BR13" t="s">
         <v>185</v>
       </c>
-      <c r="BQ13" t="s">
-        <v>186</v>
-      </c>
-      <c r="BT13" t="s">
+      <c r="BU13" t="s">
         <v>95</v>
       </c>
-      <c r="BU13" t="s">
+      <c r="BV13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:74">
+    <row r="14" spans="1:75">
       <c r="A14" t="s">
         <v>98</v>
       </c>
       <c r="B14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C14" t="s">
         <v>100</v>
@@ -3727,147 +3773,150 @@
         <v>155</v>
       </c>
       <c r="K14" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="L14" t="s">
+        <v>424</v>
+      </c>
+      <c r="M14" t="s">
+        <v>418</v>
+      </c>
+      <c r="O14">
+        <v>-999</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="R14" t="s">
+        <v>107</v>
+      </c>
+      <c r="T14" t="s">
         <v>156</v>
       </c>
-      <c r="N14">
-        <v>-999</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>107</v>
-      </c>
-      <c r="S14" t="s">
+      <c r="V14" t="s">
         <v>157</v>
-      </c>
-      <c r="U14" t="s">
-        <v>158</v>
-      </c>
-      <c r="V14" t="s">
-        <v>159</v>
       </c>
       <c r="W14" t="s">
         <v>158</v>
       </c>
       <c r="X14" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA14" t="s">
         <v>159</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AB14" t="s">
         <v>160</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AC14" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE14" t="s">
         <v>161</v>
       </c>
-      <c r="AB14" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD14" t="s">
+      <c r="AF14" t="s">
         <v>162</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AJ14" t="s">
         <v>163</v>
       </c>
-      <c r="AI14" t="s">
+      <c r="AL14" t="s">
         <v>164</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AM14" t="s">
         <v>165</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AN14" t="s">
         <v>166</v>
       </c>
-      <c r="AM14" t="s">
+      <c r="AQ14" t="s">
         <v>167</v>
       </c>
-      <c r="AP14" t="s">
+      <c r="AR14" t="s">
         <v>168</v>
       </c>
-      <c r="AQ14" t="s">
+      <c r="AU14" t="s">
         <v>169</v>
       </c>
-      <c r="AT14" t="s">
+      <c r="AW14" t="s">
         <v>170</v>
       </c>
-      <c r="AV14" t="s">
+      <c r="AX14" t="s">
         <v>171</v>
       </c>
-      <c r="AW14" t="s">
+      <c r="AY14" t="s">
         <v>172</v>
       </c>
-      <c r="AX14" t="s">
+      <c r="AZ14" t="s">
         <v>173</v>
       </c>
-      <c r="AY14" t="s">
+      <c r="BA14" t="s">
         <v>174</v>
       </c>
-      <c r="AZ14" t="s">
+      <c r="BB14" t="s">
         <v>175</v>
       </c>
-      <c r="BA14" t="s">
+      <c r="BC14" t="s">
         <v>176</v>
       </c>
-      <c r="BB14" t="s">
+      <c r="BD14" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE14" t="s">
         <v>177</v>
       </c>
-      <c r="BC14" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD14" t="s">
+      <c r="BF14" t="s">
         <v>178</v>
       </c>
-      <c r="BE14" t="s">
+      <c r="BG14" t="s">
+        <v>125</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ14" t="s">
         <v>179</v>
       </c>
-      <c r="BF14" t="s">
-        <v>125</v>
-      </c>
-      <c r="BG14" t="s">
-        <v>126</v>
-      </c>
-      <c r="BI14" t="s">
+      <c r="BK14" t="s">
         <v>180</v>
       </c>
-      <c r="BJ14" t="s">
+      <c r="BL14" t="s">
         <v>181</v>
       </c>
-      <c r="BK14" t="s">
+      <c r="BO14" t="s">
         <v>182</v>
       </c>
-      <c r="BN14" t="s">
+      <c r="BP14" t="s">
         <v>183</v>
       </c>
-      <c r="BO14" t="s">
+      <c r="BQ14" t="s">
         <v>184</v>
       </c>
-      <c r="BP14" t="s">
+      <c r="BR14" t="s">
         <v>185</v>
       </c>
-      <c r="BQ14" t="s">
-        <v>186</v>
-      </c>
-      <c r="BT14" t="s">
+      <c r="BU14" t="s">
         <v>95</v>
       </c>
-      <c r="BU14" t="s">
+      <c r="BV14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:74">
+    <row r="15" spans="1:75">
       <c r="A15" t="s">
         <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C15" t="s">
         <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -3876,144 +3925,147 @@
         <v>102</v>
       </c>
       <c r="G15" t="s">
+        <v>193</v>
+      </c>
+      <c r="H15" t="s">
         <v>194</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>195</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>196</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
+        <v>371</v>
+      </c>
+      <c r="L15" t="s">
+        <v>424</v>
+      </c>
+      <c r="M15" t="s">
+        <v>423</v>
+      </c>
+      <c r="O15">
+        <v>-9999</v>
+      </c>
+      <c r="P15">
+        <v>-8888</v>
+      </c>
+      <c r="R15" t="s">
         <v>197</v>
       </c>
-      <c r="K15" t="s">
-        <v>379</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="T15" t="s">
         <v>198</v>
       </c>
-      <c r="N15">
-        <v>-9999</v>
-      </c>
-      <c r="O15">
-        <v>-8888</v>
-      </c>
-      <c r="Q15" t="s">
+      <c r="V15" t="s">
         <v>199</v>
       </c>
-      <c r="S15" t="s">
+      <c r="W15" t="s">
         <v>200</v>
       </c>
-      <c r="U15" t="s">
+      <c r="X15" t="s">
         <v>201</v>
       </c>
-      <c r="V15" t="s">
+      <c r="Y15" t="s">
         <v>202</v>
       </c>
-      <c r="W15" t="s">
+      <c r="Z15" t="s">
         <v>203</v>
       </c>
-      <c r="X15" t="s">
+      <c r="AA15" t="s">
         <v>204</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="AB15" t="s">
         <v>205</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AC15" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD15" t="s">
         <v>206</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AE15" t="s">
         <v>207</v>
       </c>
-      <c r="AB15" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC15" t="s">
+      <c r="AF15" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ15" t="s">
         <v>208</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AL15" t="s">
         <v>209</v>
       </c>
-      <c r="AE15" t="s">
-        <v>163</v>
-      </c>
-      <c r="AI15" t="s">
+      <c r="AM15" t="s">
         <v>210</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AN15" t="s">
         <v>211</v>
       </c>
-      <c r="AL15" t="s">
+      <c r="AQ15" t="s">
         <v>212</v>
       </c>
-      <c r="AM15" t="s">
+      <c r="AR15" t="s">
         <v>213</v>
       </c>
-      <c r="AP15" t="s">
+      <c r="AT15" t="s">
         <v>214</v>
       </c>
-      <c r="AQ15" t="s">
+      <c r="AY15" t="s">
         <v>215</v>
       </c>
-      <c r="AS15" t="s">
+      <c r="BA15" t="s">
         <v>216</v>
       </c>
-      <c r="AX15" t="s">
+      <c r="BB15" t="s">
         <v>217</v>
       </c>
-      <c r="AZ15" t="s">
+      <c r="BC15" t="s">
+        <v>176</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>177</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>178</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>125</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>179</v>
+      </c>
+      <c r="BO15" t="s">
         <v>218</v>
       </c>
-      <c r="BA15" t="s">
+      <c r="BP15" t="s">
+        <v>183</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>184</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>185</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>95</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>96</v>
+      </c>
+      <c r="BW15" t="s">
         <v>219</v>
       </c>
-      <c r="BB15" t="s">
-        <v>177</v>
-      </c>
-      <c r="BC15" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD15" t="s">
-        <v>178</v>
-      </c>
-      <c r="BE15" t="s">
-        <v>179</v>
-      </c>
-      <c r="BF15" t="s">
-        <v>125</v>
-      </c>
-      <c r="BI15" t="s">
-        <v>180</v>
-      </c>
-      <c r="BN15" t="s">
-        <v>220</v>
-      </c>
-      <c r="BO15" t="s">
-        <v>184</v>
-      </c>
-      <c r="BP15" t="s">
-        <v>185</v>
-      </c>
-      <c r="BQ15" t="s">
-        <v>186</v>
-      </c>
-      <c r="BT15" t="s">
-        <v>95</v>
-      </c>
-      <c r="BU15" t="s">
-        <v>96</v>
-      </c>
-      <c r="BV15" t="s">
-        <v>221</v>
-      </c>
     </row>
-    <row r="16" spans="1:74">
+    <row r="16" spans="1:75">
       <c r="A16" t="s">
         <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C16" t="s">
         <v>100</v>
@@ -4037,141 +4089,144 @@
         <v>155</v>
       </c>
       <c r="K16" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="L16" t="s">
+        <v>424</v>
+      </c>
+      <c r="M16" t="s">
+        <v>418</v>
+      </c>
+      <c r="O16">
+        <v>-999</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="R16" t="s">
+        <v>107</v>
+      </c>
+      <c r="T16" t="s">
         <v>156</v>
       </c>
-      <c r="N16">
-        <v>-999</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>107</v>
-      </c>
-      <c r="S16" t="s">
+      <c r="V16" t="s">
         <v>157</v>
-      </c>
-      <c r="U16" t="s">
-        <v>158</v>
-      </c>
-      <c r="V16" t="s">
-        <v>159</v>
       </c>
       <c r="W16" t="s">
         <v>158</v>
       </c>
       <c r="X16" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA16" t="s">
         <v>159</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AB16" t="s">
         <v>160</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AC16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE16" t="s">
         <v>161</v>
       </c>
-      <c r="AB16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD16" t="s">
+      <c r="AF16" t="s">
         <v>162</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AJ16" t="s">
         <v>163</v>
       </c>
-      <c r="AI16" t="s">
+      <c r="AL16" t="s">
         <v>164</v>
       </c>
-      <c r="AK16" t="s">
+      <c r="AM16" t="s">
         <v>165</v>
       </c>
-      <c r="AL16" t="s">
+      <c r="AN16" t="s">
         <v>166</v>
       </c>
-      <c r="AM16" t="s">
+      <c r="AQ16" t="s">
         <v>167</v>
       </c>
-      <c r="AP16" t="s">
+      <c r="AR16" t="s">
         <v>168</v>
       </c>
-      <c r="AQ16" t="s">
+      <c r="AU16" t="s">
         <v>169</v>
       </c>
-      <c r="AT16" t="s">
+      <c r="AW16" t="s">
         <v>170</v>
       </c>
-      <c r="AV16" t="s">
+      <c r="AX16" t="s">
         <v>171</v>
       </c>
-      <c r="AW16" t="s">
+      <c r="AY16" t="s">
         <v>172</v>
       </c>
-      <c r="AX16" t="s">
+      <c r="AZ16" t="s">
         <v>173</v>
       </c>
-      <c r="AY16" t="s">
+      <c r="BA16" t="s">
         <v>174</v>
       </c>
-      <c r="AZ16" t="s">
+      <c r="BB16" t="s">
         <v>175</v>
       </c>
-      <c r="BA16" t="s">
+      <c r="BC16" t="s">
         <v>176</v>
       </c>
-      <c r="BB16" t="s">
+      <c r="BD16" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE16" t="s">
         <v>177</v>
       </c>
-      <c r="BC16" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD16" t="s">
+      <c r="BF16" t="s">
         <v>178</v>
       </c>
-      <c r="BE16" t="s">
+      <c r="BG16" t="s">
+        <v>125</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ16" t="s">
         <v>179</v>
       </c>
-      <c r="BF16" t="s">
-        <v>125</v>
-      </c>
-      <c r="BG16" t="s">
-        <v>126</v>
-      </c>
-      <c r="BI16" t="s">
+      <c r="BK16" t="s">
         <v>180</v>
       </c>
-      <c r="BJ16" t="s">
+      <c r="BL16" t="s">
         <v>181</v>
       </c>
-      <c r="BK16" t="s">
+      <c r="BO16" t="s">
         <v>182</v>
       </c>
-      <c r="BN16" t="s">
+      <c r="BP16" t="s">
         <v>183</v>
       </c>
-      <c r="BO16" t="s">
+      <c r="BQ16" t="s">
         <v>184</v>
       </c>
-      <c r="BP16" t="s">
+      <c r="BR16" t="s">
         <v>185</v>
       </c>
-      <c r="BQ16" t="s">
-        <v>186</v>
-      </c>
-      <c r="BT16" t="s">
+      <c r="BU16" t="s">
         <v>95</v>
       </c>
-      <c r="BU16" t="s">
+      <c r="BV16" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:74">
+    <row r="17" spans="1:75">
       <c r="A17" t="s">
         <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C17" t="s">
         <v>100</v>
@@ -4195,212 +4250,218 @@
         <v>155</v>
       </c>
       <c r="K17" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="L17" t="s">
+        <v>424</v>
+      </c>
+      <c r="M17" t="s">
+        <v>418</v>
+      </c>
+      <c r="O17">
+        <v>-999</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="R17" t="s">
+        <v>107</v>
+      </c>
+      <c r="T17" t="s">
         <v>156</v>
       </c>
-      <c r="N17">
-        <v>-999</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>107</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="V17" t="s">
         <v>157</v>
-      </c>
-      <c r="U17" t="s">
-        <v>158</v>
-      </c>
-      <c r="V17" t="s">
-        <v>159</v>
       </c>
       <c r="W17" t="s">
         <v>158</v>
       </c>
       <c r="X17" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA17" t="s">
         <v>159</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AB17" t="s">
         <v>160</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AC17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE17" t="s">
         <v>161</v>
       </c>
-      <c r="AB17" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD17" t="s">
+      <c r="AF17" t="s">
         <v>162</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AJ17" t="s">
         <v>163</v>
       </c>
-      <c r="AI17" t="s">
+      <c r="AL17" t="s">
         <v>164</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="AM17" t="s">
         <v>165</v>
       </c>
-      <c r="AL17" t="s">
+      <c r="AN17" t="s">
         <v>166</v>
       </c>
-      <c r="AM17" t="s">
+      <c r="AQ17" t="s">
         <v>167</v>
       </c>
-      <c r="AP17" t="s">
+      <c r="AR17" t="s">
         <v>168</v>
       </c>
-      <c r="AQ17" t="s">
+      <c r="AU17" t="s">
         <v>169</v>
       </c>
-      <c r="AT17" t="s">
+      <c r="AW17" t="s">
         <v>170</v>
       </c>
-      <c r="AV17" t="s">
+      <c r="AX17" t="s">
         <v>171</v>
       </c>
-      <c r="AW17" t="s">
+      <c r="AY17" t="s">
         <v>172</v>
       </c>
-      <c r="AX17" t="s">
+      <c r="AZ17" t="s">
         <v>173</v>
       </c>
-      <c r="AY17" t="s">
+      <c r="BA17" t="s">
         <v>174</v>
       </c>
-      <c r="AZ17" t="s">
+      <c r="BB17" t="s">
         <v>175</v>
       </c>
-      <c r="BA17" t="s">
+      <c r="BC17" t="s">
         <v>176</v>
       </c>
-      <c r="BB17" t="s">
+      <c r="BD17" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE17" t="s">
         <v>177</v>
       </c>
-      <c r="BC17" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD17" t="s">
+      <c r="BF17" t="s">
         <v>178</v>
       </c>
-      <c r="BE17" t="s">
+      <c r="BG17" t="s">
+        <v>125</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ17" t="s">
         <v>179</v>
       </c>
-      <c r="BF17" t="s">
-        <v>125</v>
-      </c>
-      <c r="BG17" t="s">
-        <v>126</v>
-      </c>
-      <c r="BI17" t="s">
+      <c r="BK17" t="s">
         <v>180</v>
       </c>
-      <c r="BJ17" t="s">
+      <c r="BL17" t="s">
         <v>181</v>
       </c>
-      <c r="BK17" t="s">
+      <c r="BO17" t="s">
         <v>182</v>
       </c>
-      <c r="BN17" t="s">
+      <c r="BP17" t="s">
         <v>183</v>
       </c>
-      <c r="BO17" t="s">
+      <c r="BQ17" t="s">
         <v>184</v>
       </c>
-      <c r="BP17" t="s">
+      <c r="BR17" t="s">
         <v>185</v>
       </c>
-      <c r="BQ17" t="s">
-        <v>186</v>
-      </c>
-      <c r="BT17" t="s">
+      <c r="BU17" t="s">
         <v>95</v>
       </c>
-      <c r="BU17" t="s">
+      <c r="BV17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:74">
+    <row r="18" spans="1:75">
       <c r="A18" t="s">
         <v>98</v>
       </c>
       <c r="B18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C18" t="s">
         <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="F18" t="s">
         <v>102</v>
       </c>
       <c r="G18" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H18" t="s">
+        <v>300</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="M18" t="s">
         <v>304</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="L18" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>107</v>
       </c>
-      <c r="S18" t="s">
-        <v>200</v>
-      </c>
-      <c r="U18" t="s">
-        <v>201</v>
-      </c>
-      <c r="W18" t="s">
+      <c r="T18" t="s">
+        <v>198</v>
+      </c>
+      <c r="V18" t="s">
+        <v>199</v>
+      </c>
+      <c r="X18" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>276</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG18" t="s">
         <v>277</v>
       </c>
-      <c r="Z18" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>280</v>
-      </c>
     </row>
-    <row r="19" spans="1:74">
+    <row r="19" spans="1:75">
       <c r="A19" t="s">
         <v>98</v>
       </c>
       <c r="B19" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C19" t="s">
         <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>16</v>
@@ -4409,66 +4470,69 @@
         <v>102</v>
       </c>
       <c r="G19" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H19" t="s">
+        <v>300</v>
+      </c>
+      <c r="I19" t="s">
+        <v>303</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="M19" t="s">
         <v>304</v>
       </c>
-      <c r="I19" t="s">
-        <v>307</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="L19" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>107</v>
       </c>
-      <c r="S19" t="s">
-        <v>200</v>
-      </c>
-      <c r="U19" t="s">
-        <v>201</v>
-      </c>
-      <c r="W19" t="s">
+      <c r="T19" t="s">
+        <v>198</v>
+      </c>
+      <c r="V19" t="s">
+        <v>199</v>
+      </c>
+      <c r="X19" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>276</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG19" t="s">
         <v>277</v>
       </c>
-      <c r="Z19" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>280</v>
-      </c>
     </row>
-    <row r="20" spans="1:74">
+    <row r="20" spans="1:75">
       <c r="A20" t="s">
         <v>98</v>
       </c>
       <c r="B20" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C20" t="s">
         <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E20" t="s">
         <v>17</v>
@@ -4477,153 +4541,156 @@
         <v>102</v>
       </c>
       <c r="G20" t="s">
+        <v>193</v>
+      </c>
+      <c r="H20" t="s">
         <v>194</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>195</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>196</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
+        <v>371</v>
+      </c>
+      <c r="L20" t="s">
+        <v>424</v>
+      </c>
+      <c r="M20" t="s">
+        <v>423</v>
+      </c>
+      <c r="O20">
+        <v>-9999</v>
+      </c>
+      <c r="P20">
+        <v>-8888</v>
+      </c>
+      <c r="R20" t="s">
         <v>197</v>
       </c>
-      <c r="K20" t="s">
-        <v>379</v>
-      </c>
-      <c r="L20" t="s">
+      <c r="T20" t="s">
         <v>198</v>
       </c>
-      <c r="N20">
-        <v>-9999</v>
-      </c>
-      <c r="O20">
-        <v>-8888</v>
-      </c>
-      <c r="Q20" t="s">
+      <c r="V20" t="s">
         <v>199</v>
       </c>
-      <c r="S20" t="s">
+      <c r="W20" t="s">
         <v>200</v>
       </c>
-      <c r="U20" t="s">
+      <c r="X20" t="s">
         <v>201</v>
       </c>
-      <c r="V20" t="s">
+      <c r="Y20" t="s">
         <v>202</v>
       </c>
-      <c r="W20" t="s">
+      <c r="Z20" t="s">
         <v>203</v>
       </c>
-      <c r="X20" t="s">
+      <c r="AA20" t="s">
         <v>204</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="AB20" t="s">
         <v>205</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AC20" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD20" t="s">
         <v>206</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AE20" t="s">
         <v>207</v>
       </c>
-      <c r="AB20" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC20" t="s">
+      <c r="AF20" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ20" t="s">
         <v>208</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AL20" t="s">
         <v>209</v>
       </c>
-      <c r="AE20" t="s">
-        <v>163</v>
-      </c>
-      <c r="AI20" t="s">
+      <c r="AM20" t="s">
         <v>210</v>
       </c>
-      <c r="AK20" t="s">
+      <c r="AN20" t="s">
         <v>211</v>
       </c>
-      <c r="AL20" t="s">
+      <c r="AQ20" t="s">
         <v>212</v>
       </c>
-      <c r="AM20" t="s">
+      <c r="AR20" t="s">
         <v>213</v>
       </c>
-      <c r="AP20" t="s">
+      <c r="AT20" t="s">
         <v>214</v>
       </c>
-      <c r="AQ20" t="s">
+      <c r="AY20" t="s">
         <v>215</v>
       </c>
-      <c r="AS20" t="s">
+      <c r="BA20" t="s">
         <v>216</v>
       </c>
-      <c r="AX20" t="s">
+      <c r="BB20" t="s">
         <v>217</v>
       </c>
-      <c r="AZ20" t="s">
+      <c r="BC20" t="s">
+        <v>176</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>177</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>178</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>125</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>179</v>
+      </c>
+      <c r="BO20" t="s">
         <v>218</v>
       </c>
-      <c r="BA20" t="s">
+      <c r="BP20" t="s">
+        <v>183</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>184</v>
+      </c>
+      <c r="BR20" t="s">
+        <v>185</v>
+      </c>
+      <c r="BU20" t="s">
+        <v>95</v>
+      </c>
+      <c r="BV20" t="s">
+        <v>96</v>
+      </c>
+      <c r="BW20" t="s">
         <v>219</v>
       </c>
-      <c r="BB20" t="s">
-        <v>177</v>
-      </c>
-      <c r="BC20" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD20" t="s">
-        <v>178</v>
-      </c>
-      <c r="BE20" t="s">
-        <v>179</v>
-      </c>
-      <c r="BF20" t="s">
-        <v>125</v>
-      </c>
-      <c r="BG20" t="s">
-        <v>126</v>
-      </c>
-      <c r="BI20" t="s">
-        <v>180</v>
-      </c>
-      <c r="BN20" t="s">
-        <v>220</v>
-      </c>
-      <c r="BO20" t="s">
-        <v>184</v>
-      </c>
-      <c r="BP20" t="s">
-        <v>185</v>
-      </c>
-      <c r="BQ20" t="s">
-        <v>186</v>
-      </c>
-      <c r="BT20" t="s">
-        <v>95</v>
-      </c>
-      <c r="BU20" t="s">
-        <v>96</v>
-      </c>
-      <c r="BV20" t="s">
-        <v>221</v>
-      </c>
     </row>
-    <row r="21" spans="1:74">
+    <row r="21" spans="1:75">
       <c r="A21" t="s">
         <v>98</v>
       </c>
       <c r="B21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C21" t="s">
         <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E21" t="s">
         <v>18</v>
@@ -4632,150 +4699,153 @@
         <v>102</v>
       </c>
       <c r="G21" t="s">
+        <v>193</v>
+      </c>
+      <c r="H21" t="s">
         <v>194</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>195</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>196</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
+        <v>371</v>
+      </c>
+      <c r="L21" t="s">
+        <v>424</v>
+      </c>
+      <c r="M21" t="s">
+        <v>423</v>
+      </c>
+      <c r="O21">
+        <v>-9999</v>
+      </c>
+      <c r="P21">
+        <v>-8888</v>
+      </c>
+      <c r="R21" t="s">
         <v>197</v>
       </c>
-      <c r="K21" t="s">
-        <v>379</v>
-      </c>
-      <c r="L21" t="s">
+      <c r="T21" t="s">
         <v>198</v>
       </c>
-      <c r="N21">
-        <v>-9999</v>
-      </c>
-      <c r="O21">
-        <v>-8888</v>
-      </c>
-      <c r="Q21" t="s">
+      <c r="V21" t="s">
         <v>199</v>
       </c>
-      <c r="S21" t="s">
+      <c r="W21" t="s">
         <v>200</v>
       </c>
-      <c r="U21" t="s">
+      <c r="X21" t="s">
         <v>201</v>
       </c>
-      <c r="V21" t="s">
+      <c r="Y21" t="s">
         <v>202</v>
       </c>
-      <c r="W21" t="s">
+      <c r="Z21" t="s">
         <v>203</v>
       </c>
-      <c r="X21" t="s">
+      <c r="AA21" t="s">
         <v>204</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="AB21" t="s">
         <v>205</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AC21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD21" t="s">
         <v>206</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AE21" t="s">
         <v>207</v>
       </c>
-      <c r="AB21" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC21" t="s">
+      <c r="AF21" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ21" t="s">
         <v>208</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AL21" t="s">
         <v>209</v>
       </c>
-      <c r="AE21" t="s">
-        <v>163</v>
-      </c>
-      <c r="AI21" t="s">
+      <c r="AM21" t="s">
         <v>210</v>
       </c>
-      <c r="AK21" t="s">
+      <c r="AN21" t="s">
         <v>211</v>
       </c>
-      <c r="AL21" t="s">
+      <c r="AQ21" t="s">
         <v>212</v>
       </c>
-      <c r="AM21" t="s">
+      <c r="AR21" t="s">
         <v>213</v>
       </c>
-      <c r="AP21" t="s">
+      <c r="AT21" t="s">
         <v>214</v>
       </c>
-      <c r="AQ21" t="s">
+      <c r="AY21" t="s">
         <v>215</v>
       </c>
-      <c r="AS21" t="s">
+      <c r="BA21" t="s">
         <v>216</v>
       </c>
-      <c r="AX21" t="s">
+      <c r="BB21" t="s">
         <v>217</v>
       </c>
-      <c r="AZ21" t="s">
+      <c r="BC21" t="s">
+        <v>176</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>177</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>178</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>125</v>
+      </c>
+      <c r="BJ21" t="s">
+        <v>179</v>
+      </c>
+      <c r="BO21" t="s">
         <v>218</v>
       </c>
-      <c r="BA21" t="s">
+      <c r="BP21" t="s">
+        <v>183</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>184</v>
+      </c>
+      <c r="BR21" t="s">
+        <v>185</v>
+      </c>
+      <c r="BU21" t="s">
+        <v>95</v>
+      </c>
+      <c r="BV21" t="s">
+        <v>96</v>
+      </c>
+      <c r="BW21" t="s">
         <v>219</v>
       </c>
-      <c r="BB21" t="s">
-        <v>177</v>
-      </c>
-      <c r="BC21" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD21" t="s">
-        <v>178</v>
-      </c>
-      <c r="BE21" t="s">
-        <v>179</v>
-      </c>
-      <c r="BF21" t="s">
-        <v>125</v>
-      </c>
-      <c r="BI21" t="s">
-        <v>180</v>
-      </c>
-      <c r="BN21" t="s">
-        <v>220</v>
-      </c>
-      <c r="BO21" t="s">
-        <v>184</v>
-      </c>
-      <c r="BP21" t="s">
-        <v>185</v>
-      </c>
-      <c r="BQ21" t="s">
-        <v>186</v>
-      </c>
-      <c r="BT21" t="s">
-        <v>95</v>
-      </c>
-      <c r="BU21" t="s">
-        <v>96</v>
-      </c>
-      <c r="BV21" t="s">
-        <v>221</v>
-      </c>
     </row>
-    <row r="22" spans="1:74">
+    <row r="22" spans="1:75">
       <c r="A22" t="s">
         <v>98</v>
       </c>
       <c r="B22" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C22" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E22" t="s">
         <v>20</v>
@@ -4784,141 +4854,144 @@
         <v>102</v>
       </c>
       <c r="G22" t="s">
+        <v>193</v>
+      </c>
+      <c r="H22" t="s">
         <v>194</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>195</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>196</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
+        <v>371</v>
+      </c>
+      <c r="L22" t="s">
+        <v>424</v>
+      </c>
+      <c r="M22" t="s">
+        <v>423</v>
+      </c>
+      <c r="O22">
+        <v>-9999</v>
+      </c>
+      <c r="P22">
+        <v>-8888</v>
+      </c>
+      <c r="R22" t="s">
         <v>197</v>
       </c>
-      <c r="K22" t="s">
-        <v>379</v>
-      </c>
-      <c r="L22" t="s">
+      <c r="T22" t="s">
         <v>198</v>
       </c>
-      <c r="N22">
-        <v>-9999</v>
-      </c>
-      <c r="O22">
-        <v>-8888</v>
-      </c>
-      <c r="Q22" t="s">
+      <c r="V22" t="s">
         <v>199</v>
       </c>
-      <c r="S22" t="s">
+      <c r="W22" t="s">
         <v>200</v>
       </c>
-      <c r="U22" t="s">
+      <c r="X22" t="s">
         <v>201</v>
       </c>
-      <c r="V22" t="s">
+      <c r="Y22" t="s">
         <v>202</v>
       </c>
-      <c r="W22" t="s">
+      <c r="Z22" t="s">
         <v>203</v>
       </c>
-      <c r="X22" t="s">
+      <c r="AA22" t="s">
         <v>204</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="AB22" t="s">
         <v>205</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AC22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD22" t="s">
         <v>206</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AE22" t="s">
         <v>207</v>
       </c>
-      <c r="AB22" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC22" t="s">
+      <c r="AF22" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ22" t="s">
         <v>208</v>
       </c>
-      <c r="AD22" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>163</v>
-      </c>
-      <c r="AI22" t="s">
+      <c r="AM22" t="s">
         <v>210</v>
       </c>
-      <c r="AL22" t="s">
+      <c r="AN22" t="s">
+        <v>211</v>
+      </c>
+      <c r="AQ22" t="s">
         <v>212</v>
       </c>
-      <c r="AM22" t="s">
-        <v>213</v>
-      </c>
-      <c r="AP22" t="s">
+      <c r="AT22" t="s">
         <v>214</v>
       </c>
-      <c r="AS22" t="s">
+      <c r="AY22" t="s">
+        <v>215</v>
+      </c>
+      <c r="BA22" t="s">
         <v>216</v>
       </c>
-      <c r="AX22" t="s">
+      <c r="BB22" t="s">
         <v>217</v>
       </c>
-      <c r="AZ22" t="s">
+      <c r="BC22" t="s">
+        <v>176</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>177</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>178</v>
+      </c>
+      <c r="BH22" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ22" t="s">
+        <v>179</v>
+      </c>
+      <c r="BO22" t="s">
         <v>218</v>
       </c>
-      <c r="BA22" t="s">
-        <v>219</v>
-      </c>
-      <c r="BB22" t="s">
-        <v>177</v>
-      </c>
-      <c r="BC22" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD22" t="s">
-        <v>178</v>
-      </c>
-      <c r="BE22" t="s">
-        <v>179</v>
-      </c>
-      <c r="BG22" t="s">
-        <v>126</v>
-      </c>
-      <c r="BI22" t="s">
-        <v>180</v>
-      </c>
-      <c r="BN22" t="s">
-        <v>220</v>
-      </c>
-      <c r="BO22" t="s">
+      <c r="BP22" t="s">
+        <v>183</v>
+      </c>
+      <c r="BQ22" t="s">
         <v>184</v>
       </c>
-      <c r="BP22" t="s">
+      <c r="BR22" t="s">
         <v>185</v>
       </c>
-      <c r="BQ22" t="s">
-        <v>186</v>
-      </c>
-      <c r="BT22" t="s">
+      <c r="BU22" t="s">
         <v>95</v>
       </c>
-      <c r="BU22" t="s">
+      <c r="BV22" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:74">
+    <row r="23" spans="1:75">
       <c r="A23" t="s">
         <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C23" t="s">
         <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E23" t="s">
         <v>21</v>
@@ -4927,144 +5000,147 @@
         <v>102</v>
       </c>
       <c r="G23" t="s">
+        <v>193</v>
+      </c>
+      <c r="H23" t="s">
         <v>194</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>195</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>196</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
+        <v>371</v>
+      </c>
+      <c r="L23" t="s">
+        <v>424</v>
+      </c>
+      <c r="M23" t="s">
+        <v>423</v>
+      </c>
+      <c r="O23">
+        <v>-9999</v>
+      </c>
+      <c r="P23">
+        <v>-8888</v>
+      </c>
+      <c r="R23" t="s">
         <v>197</v>
       </c>
-      <c r="K23" t="s">
-        <v>379</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="T23" t="s">
         <v>198</v>
       </c>
-      <c r="N23">
-        <v>-9999</v>
-      </c>
-      <c r="O23">
-        <v>-8888</v>
-      </c>
-      <c r="Q23" t="s">
+      <c r="V23" t="s">
         <v>199</v>
       </c>
-      <c r="S23" t="s">
+      <c r="W23" t="s">
         <v>200</v>
       </c>
-      <c r="U23" t="s">
+      <c r="X23" t="s">
         <v>201</v>
       </c>
-      <c r="V23" t="s">
+      <c r="Y23" t="s">
         <v>202</v>
       </c>
-      <c r="W23" t="s">
+      <c r="Z23" t="s">
         <v>203</v>
       </c>
-      <c r="X23" t="s">
+      <c r="AA23" t="s">
         <v>204</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="AB23" t="s">
         <v>205</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AC23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD23" t="s">
         <v>206</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AE23" t="s">
         <v>207</v>
       </c>
-      <c r="AB23" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC23" t="s">
+      <c r="AF23" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ23" t="s">
         <v>208</v>
       </c>
-      <c r="AD23" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>163</v>
-      </c>
-      <c r="AI23" t="s">
+      <c r="AM23" t="s">
         <v>210</v>
       </c>
-      <c r="AL23" t="s">
+      <c r="AN23" t="s">
+        <v>211</v>
+      </c>
+      <c r="AQ23" t="s">
         <v>212</v>
       </c>
-      <c r="AM23" t="s">
-        <v>213</v>
-      </c>
-      <c r="AP23" t="s">
+      <c r="AT23" t="s">
         <v>214</v>
       </c>
-      <c r="AS23" t="s">
+      <c r="AY23" t="s">
+        <v>215</v>
+      </c>
+      <c r="BA23" t="s">
         <v>216</v>
       </c>
-      <c r="AX23" t="s">
+      <c r="BB23" t="s">
         <v>217</v>
       </c>
-      <c r="AZ23" t="s">
+      <c r="BC23" t="s">
+        <v>176</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>177</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>178</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ23" t="s">
+        <v>179</v>
+      </c>
+      <c r="BO23" t="s">
         <v>218</v>
       </c>
-      <c r="BA23" t="s">
+      <c r="BP23" t="s">
+        <v>183</v>
+      </c>
+      <c r="BQ23" t="s">
+        <v>184</v>
+      </c>
+      <c r="BR23" t="s">
+        <v>185</v>
+      </c>
+      <c r="BU23" t="s">
+        <v>95</v>
+      </c>
+      <c r="BV23" t="s">
+        <v>96</v>
+      </c>
+      <c r="BW23" t="s">
         <v>219</v>
       </c>
-      <c r="BB23" t="s">
-        <v>177</v>
-      </c>
-      <c r="BC23" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD23" t="s">
-        <v>178</v>
-      </c>
-      <c r="BE23" t="s">
-        <v>179</v>
-      </c>
-      <c r="BG23" t="s">
-        <v>126</v>
-      </c>
-      <c r="BI23" t="s">
-        <v>180</v>
-      </c>
-      <c r="BN23" t="s">
-        <v>220</v>
-      </c>
-      <c r="BO23" t="s">
-        <v>184</v>
-      </c>
-      <c r="BP23" t="s">
-        <v>185</v>
-      </c>
-      <c r="BQ23" t="s">
-        <v>186</v>
-      </c>
-      <c r="BT23" t="s">
-        <v>95</v>
-      </c>
-      <c r="BU23" t="s">
-        <v>96</v>
-      </c>
-      <c r="BV23" t="s">
-        <v>221</v>
-      </c>
     </row>
-    <row r="24" spans="1:74">
+    <row r="24" spans="1:75">
       <c r="A24" t="s">
         <v>98</v>
       </c>
       <c r="B24" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C24" t="s">
         <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E24" t="s">
         <v>22</v>
@@ -5073,370 +5149,379 @@
         <v>102</v>
       </c>
       <c r="G24" t="s">
+        <v>193</v>
+      </c>
+      <c r="H24" t="s">
         <v>194</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>195</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>196</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
+        <v>371</v>
+      </c>
+      <c r="L24" t="s">
+        <v>424</v>
+      </c>
+      <c r="M24" t="s">
+        <v>423</v>
+      </c>
+      <c r="O24">
+        <v>-9999</v>
+      </c>
+      <c r="P24">
+        <v>-8888</v>
+      </c>
+      <c r="R24" t="s">
         <v>197</v>
       </c>
-      <c r="K24" t="s">
-        <v>379</v>
-      </c>
-      <c r="L24" t="s">
+      <c r="T24" t="s">
         <v>198</v>
       </c>
-      <c r="N24">
-        <v>-9999</v>
-      </c>
-      <c r="O24">
-        <v>-8888</v>
-      </c>
-      <c r="Q24" t="s">
+      <c r="V24" t="s">
         <v>199</v>
       </c>
-      <c r="S24" t="s">
+      <c r="W24" t="s">
         <v>200</v>
       </c>
-      <c r="U24" t="s">
+      <c r="X24" t="s">
         <v>201</v>
       </c>
-      <c r="V24" t="s">
+      <c r="Y24" t="s">
         <v>202</v>
       </c>
-      <c r="W24" t="s">
+      <c r="Z24" t="s">
         <v>203</v>
       </c>
-      <c r="X24" t="s">
+      <c r="AA24" t="s">
         <v>204</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="AB24" t="s">
         <v>205</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AC24" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD24" t="s">
         <v>206</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AE24" t="s">
         <v>207</v>
       </c>
-      <c r="AB24" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC24" t="s">
+      <c r="AF24" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ24" t="s">
         <v>208</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AL24" t="s">
         <v>209</v>
       </c>
-      <c r="AE24" t="s">
-        <v>163</v>
-      </c>
-      <c r="AI24" t="s">
+      <c r="AM24" t="s">
         <v>210</v>
       </c>
-      <c r="AK24" t="s">
+      <c r="AN24" t="s">
         <v>211</v>
       </c>
-      <c r="AL24" t="s">
+      <c r="AQ24" t="s">
         <v>212</v>
       </c>
-      <c r="AM24" t="s">
+      <c r="AR24" t="s">
         <v>213</v>
       </c>
-      <c r="AP24" t="s">
+      <c r="AT24" t="s">
         <v>214</v>
       </c>
-      <c r="AQ24" t="s">
+      <c r="AY24" t="s">
         <v>215</v>
       </c>
-      <c r="AS24" t="s">
+      <c r="BA24" t="s">
         <v>216</v>
       </c>
-      <c r="AX24" t="s">
+      <c r="BB24" t="s">
         <v>217</v>
       </c>
-      <c r="AZ24" t="s">
+      <c r="BC24" t="s">
+        <v>176</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>177</v>
+      </c>
+      <c r="BF24" t="s">
+        <v>178</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>125</v>
+      </c>
+      <c r="BH24" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ24" t="s">
+        <v>179</v>
+      </c>
+      <c r="BO24" t="s">
         <v>218</v>
       </c>
-      <c r="BA24" t="s">
+      <c r="BP24" t="s">
+        <v>183</v>
+      </c>
+      <c r="BQ24" t="s">
+        <v>184</v>
+      </c>
+      <c r="BR24" t="s">
+        <v>185</v>
+      </c>
+      <c r="BU24" t="s">
+        <v>95</v>
+      </c>
+      <c r="BV24" t="s">
+        <v>96</v>
+      </c>
+      <c r="BW24" t="s">
         <v>219</v>
       </c>
-      <c r="BB24" t="s">
-        <v>177</v>
-      </c>
-      <c r="BC24" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD24" t="s">
-        <v>178</v>
-      </c>
-      <c r="BE24" t="s">
-        <v>179</v>
-      </c>
-      <c r="BF24" t="s">
-        <v>125</v>
-      </c>
-      <c r="BG24" t="s">
-        <v>126</v>
-      </c>
-      <c r="BI24" t="s">
-        <v>180</v>
-      </c>
-      <c r="BN24" t="s">
-        <v>220</v>
-      </c>
-      <c r="BO24" t="s">
-        <v>184</v>
-      </c>
-      <c r="BP24" t="s">
-        <v>185</v>
-      </c>
-      <c r="BQ24" t="s">
-        <v>186</v>
-      </c>
-      <c r="BT24" t="s">
-        <v>95</v>
-      </c>
-      <c r="BU24" t="s">
-        <v>96</v>
-      </c>
-      <c r="BV24" t="s">
-        <v>221</v>
-      </c>
     </row>
-    <row r="25" spans="1:74">
+    <row r="25" spans="1:75">
       <c r="A25" t="s">
         <v>98</v>
       </c>
       <c r="B25" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C25" t="s">
+        <v>287</v>
+      </c>
+      <c r="D25" t="s">
+        <v>414</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F25" t="s">
+        <v>288</v>
+      </c>
+      <c r="G25" t="s">
+        <v>293</v>
+      </c>
+      <c r="H25" t="s">
+        <v>296</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="J25" t="s">
+        <v>294</v>
+      </c>
+      <c r="K25" t="s">
+        <v>412</v>
+      </c>
+      <c r="L25" t="s">
+        <v>425</v>
+      </c>
+      <c r="M25" t="s">
+        <v>422</v>
+      </c>
+      <c r="T25" t="s">
+        <v>297</v>
+      </c>
+      <c r="V25" t="s">
+        <v>289</v>
+      </c>
+      <c r="W25" t="s">
         <v>290</v>
       </c>
-      <c r="D25" t="s">
-        <v>422</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F25" t="s">
-        <v>291</v>
-      </c>
-      <c r="G25" t="s">
-        <v>296</v>
-      </c>
-      <c r="H25" t="s">
-        <v>299</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="J25" t="s">
-        <v>297</v>
-      </c>
-      <c r="K25" t="s">
-        <v>420</v>
-      </c>
-      <c r="L25" t="s">
-        <v>301</v>
-      </c>
-      <c r="S25" t="s">
-        <v>300</v>
-      </c>
-      <c r="U25" t="s">
-        <v>292</v>
-      </c>
-      <c r="V25" t="s">
-        <v>293</v>
-      </c>
-      <c r="W25" t="s">
-        <v>292</v>
-      </c>
       <c r="X25" t="s">
-        <v>293</v>
-      </c>
-      <c r="Z25" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB25" t="s">
         <v>160</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AC25" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE25" t="s">
         <v>161</v>
       </c>
-      <c r="AB25" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
         <v>116</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:74">
+    <row r="26" spans="1:75">
       <c r="A26" t="s">
         <v>98</v>
       </c>
       <c r="B26" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C26" t="s">
         <v>100</v>
       </c>
       <c r="D26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E26" t="s">
         <v>23</v>
       </c>
       <c r="F26" t="s">
+        <v>225</v>
+      </c>
+      <c r="G26" t="s">
+        <v>226</v>
+      </c>
+      <c r="H26" t="s">
         <v>227</v>
       </c>
-      <c r="G26" t="s">
+      <c r="I26" t="s">
         <v>228</v>
       </c>
-      <c r="H26" t="s">
+      <c r="K26" t="s">
+        <v>391</v>
+      </c>
+      <c r="L26" t="s">
+        <v>424</v>
+      </c>
+      <c r="M26" t="s">
+        <v>421</v>
+      </c>
+      <c r="P26">
+        <v>-9999</v>
+      </c>
+      <c r="R26" t="s">
+        <v>197</v>
+      </c>
+      <c r="T26" t="s">
+        <v>198</v>
+      </c>
+      <c r="V26" t="s">
+        <v>367</v>
+      </c>
+      <c r="W26" t="s">
         <v>229</v>
       </c>
-      <c r="I26" t="s">
+      <c r="X26" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM26" t="s">
         <v>230</v>
       </c>
-      <c r="K26" t="s">
-        <v>399</v>
-      </c>
-      <c r="L26" t="s">
+      <c r="AN26" t="s">
+        <v>211</v>
+      </c>
+      <c r="AQ26" t="s">
         <v>231</v>
       </c>
-      <c r="O26">
-        <v>-9999</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>199</v>
-      </c>
-      <c r="S26" t="s">
-        <v>200</v>
-      </c>
-      <c r="U26" t="s">
-        <v>375</v>
-      </c>
-      <c r="V26" t="s">
-        <v>232</v>
-      </c>
-      <c r="W26" t="s">
-        <v>203</v>
-      </c>
-      <c r="X26" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>205</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>206</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>207</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>208</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>163</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>210</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>211</v>
-      </c>
-      <c r="AL26" t="s">
-        <v>233</v>
-      </c>
-      <c r="AM26" t="s">
+      <c r="AR26" t="s">
         <v>213</v>
       </c>
-      <c r="AP26" t="s">
-        <v>234</v>
-      </c>
-      <c r="AQ26" t="s">
+      <c r="AT26" t="s">
+        <v>214</v>
+      </c>
+      <c r="AY26" t="s">
         <v>215</v>
       </c>
-      <c r="AS26" t="s">
+      <c r="BA26" t="s">
         <v>216</v>
       </c>
-      <c r="AX26" t="s">
+      <c r="BB26" t="s">
         <v>217</v>
       </c>
-      <c r="AZ26" t="s">
+      <c r="BC26" t="s">
+        <v>176</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>177</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>178</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>125</v>
+      </c>
+      <c r="BH26" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>179</v>
+      </c>
+      <c r="BO26" t="s">
         <v>218</v>
       </c>
-      <c r="BA26" t="s">
-        <v>219</v>
-      </c>
-      <c r="BB26" t="s">
-        <v>177</v>
-      </c>
-      <c r="BC26" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD26" t="s">
-        <v>178</v>
-      </c>
-      <c r="BE26" t="s">
-        <v>179</v>
-      </c>
-      <c r="BF26" t="s">
-        <v>125</v>
-      </c>
-      <c r="BG26" t="s">
-        <v>126</v>
-      </c>
-      <c r="BI26" t="s">
-        <v>180</v>
-      </c>
-      <c r="BN26" t="s">
-        <v>220</v>
-      </c>
-      <c r="BO26" t="s">
+      <c r="BP26" t="s">
+        <v>183</v>
+      </c>
+      <c r="BQ26" t="s">
         <v>184</v>
       </c>
-      <c r="BP26" t="s">
+      <c r="BR26" t="s">
         <v>185</v>
       </c>
-      <c r="BQ26" t="s">
-        <v>186</v>
-      </c>
-      <c r="BT26" t="s">
+      <c r="BU26" t="s">
         <v>95</v>
       </c>
-      <c r="BU26" t="s">
+      <c r="BV26" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:74">
+    <row r="27" spans="1:75">
       <c r="A27" t="s">
         <v>98</v>
       </c>
       <c r="B27" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C27" t="s">
         <v>100</v>
       </c>
       <c r="D27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E27" t="s">
         <v>24</v>
@@ -5445,132 +5530,135 @@
         <v>102</v>
       </c>
       <c r="G27" t="s">
+        <v>193</v>
+      </c>
+      <c r="H27" t="s">
         <v>194</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>195</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>196</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
+        <v>371</v>
+      </c>
+      <c r="L27" t="s">
+        <v>424</v>
+      </c>
+      <c r="M27" t="s">
+        <v>423</v>
+      </c>
+      <c r="O27">
+        <v>-9999</v>
+      </c>
+      <c r="P27">
+        <v>-8888</v>
+      </c>
+      <c r="R27" t="s">
         <v>197</v>
       </c>
-      <c r="K27" t="s">
-        <v>379</v>
-      </c>
-      <c r="L27" t="s">
+      <c r="T27" t="s">
         <v>198</v>
       </c>
-      <c r="N27">
-        <v>-9999</v>
-      </c>
-      <c r="O27">
-        <v>-8888</v>
-      </c>
-      <c r="Q27" t="s">
+      <c r="V27" t="s">
         <v>199</v>
       </c>
-      <c r="S27" t="s">
+      <c r="W27" t="s">
         <v>200</v>
       </c>
-      <c r="U27" t="s">
+      <c r="X27" t="s">
         <v>201</v>
       </c>
-      <c r="V27" t="s">
+      <c r="Y27" t="s">
         <v>202</v>
       </c>
-      <c r="W27" t="s">
+      <c r="Z27" t="s">
         <v>203</v>
       </c>
-      <c r="X27" t="s">
+      <c r="AA27" t="s">
         <v>204</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="AB27" t="s">
         <v>205</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AC27" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD27" t="s">
         <v>206</v>
       </c>
-      <c r="AA27" t="s">
+      <c r="AE27" t="s">
         <v>207</v>
       </c>
-      <c r="AB27" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC27" t="s">
+      <c r="AF27" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ27" t="s">
         <v>208</v>
       </c>
-      <c r="AD27" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>163</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>210</v>
-      </c>
-      <c r="AM27" t="s">
-        <v>213</v>
-      </c>
-      <c r="AS27" t="s">
+      <c r="AN27" t="s">
+        <v>211</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>214</v>
+      </c>
+      <c r="AY27" t="s">
+        <v>215</v>
+      </c>
+      <c r="BA27" t="s">
         <v>216</v>
       </c>
-      <c r="AX27" t="s">
+      <c r="BB27" t="s">
         <v>217</v>
       </c>
-      <c r="AZ27" t="s">
-        <v>218</v>
-      </c>
-      <c r="BA27" t="s">
+      <c r="BC27" t="s">
+        <v>176</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>177</v>
+      </c>
+      <c r="BF27" t="s">
+        <v>178</v>
+      </c>
+      <c r="BJ27" t="s">
+        <v>179</v>
+      </c>
+      <c r="BP27" t="s">
+        <v>183</v>
+      </c>
+      <c r="BQ27" t="s">
+        <v>184</v>
+      </c>
+      <c r="BR27" t="s">
+        <v>185</v>
+      </c>
+      <c r="BU27" t="s">
+        <v>95</v>
+      </c>
+      <c r="BV27" t="s">
+        <v>96</v>
+      </c>
+      <c r="BW27" t="s">
         <v>219</v>
       </c>
-      <c r="BB27" t="s">
-        <v>177</v>
-      </c>
-      <c r="BC27" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD27" t="s">
-        <v>178</v>
-      </c>
-      <c r="BE27" t="s">
-        <v>179</v>
-      </c>
-      <c r="BI27" t="s">
-        <v>180</v>
-      </c>
-      <c r="BO27" t="s">
-        <v>184</v>
-      </c>
-      <c r="BP27" t="s">
-        <v>185</v>
-      </c>
-      <c r="BQ27" t="s">
-        <v>186</v>
-      </c>
-      <c r="BT27" t="s">
-        <v>95</v>
-      </c>
-      <c r="BU27" t="s">
-        <v>96</v>
-      </c>
-      <c r="BV27" t="s">
-        <v>221</v>
-      </c>
     </row>
-    <row r="28" spans="1:74">
+    <row r="28" spans="1:75">
       <c r="A28" t="s">
         <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C28" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E28" s="2">
         <v>325020190403</v>
@@ -5579,1282 +5667,1312 @@
         <v>102</v>
       </c>
       <c r="G28" t="s">
+        <v>193</v>
+      </c>
+      <c r="H28" t="s">
         <v>194</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>195</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>196</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
+        <v>371</v>
+      </c>
+      <c r="L28" t="s">
+        <v>424</v>
+      </c>
+      <c r="M28" t="s">
+        <v>423</v>
+      </c>
+      <c r="O28">
+        <v>-9999</v>
+      </c>
+      <c r="P28">
+        <v>-8888</v>
+      </c>
+      <c r="R28" t="s">
         <v>197</v>
       </c>
-      <c r="K28" t="s">
-        <v>379</v>
-      </c>
-      <c r="L28" t="s">
+      <c r="T28" t="s">
         <v>198</v>
       </c>
-      <c r="N28">
-        <v>-9999</v>
-      </c>
-      <c r="O28">
-        <v>-8888</v>
-      </c>
-      <c r="Q28" t="s">
+      <c r="V28" t="s">
         <v>199</v>
       </c>
-      <c r="S28" t="s">
+      <c r="W28" t="s">
         <v>200</v>
       </c>
-      <c r="U28" t="s">
+      <c r="X28" t="s">
         <v>201</v>
       </c>
-      <c r="V28" t="s">
+      <c r="Y28" t="s">
         <v>202</v>
       </c>
-      <c r="W28" t="s">
+      <c r="Z28" t="s">
         <v>203</v>
       </c>
-      <c r="X28" t="s">
+      <c r="AA28" t="s">
         <v>204</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="AB28" t="s">
         <v>205</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="AC28" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD28" t="s">
         <v>206</v>
       </c>
-      <c r="AA28" t="s">
+      <c r="AE28" t="s">
         <v>207</v>
       </c>
-      <c r="AB28" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC28" t="s">
+      <c r="AF28" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ28" t="s">
         <v>208</v>
       </c>
-      <c r="AD28" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>163</v>
-      </c>
-      <c r="AI28" t="s">
+      <c r="AM28" t="s">
         <v>210</v>
       </c>
-      <c r="AL28" t="s">
+      <c r="AN28" t="s">
+        <v>211</v>
+      </c>
+      <c r="AQ28" t="s">
         <v>212</v>
       </c>
-      <c r="AM28" t="s">
-        <v>213</v>
-      </c>
-      <c r="AP28" t="s">
+      <c r="AT28" t="s">
         <v>214</v>
       </c>
-      <c r="AS28" t="s">
+      <c r="AY28" t="s">
+        <v>215</v>
+      </c>
+      <c r="BA28" t="s">
         <v>216</v>
       </c>
-      <c r="AX28" t="s">
+      <c r="BB28" t="s">
         <v>217</v>
       </c>
-      <c r="AZ28" t="s">
+      <c r="BC28" t="s">
+        <v>176</v>
+      </c>
+      <c r="BD28" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE28" t="s">
+        <v>177</v>
+      </c>
+      <c r="BF28" t="s">
+        <v>178</v>
+      </c>
+      <c r="BG28" t="s">
+        <v>125</v>
+      </c>
+      <c r="BH28" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ28" t="s">
+        <v>179</v>
+      </c>
+      <c r="BO28" t="s">
         <v>218</v>
       </c>
-      <c r="BA28" t="s">
-        <v>219</v>
-      </c>
-      <c r="BB28" t="s">
-        <v>177</v>
-      </c>
-      <c r="BC28" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD28" t="s">
-        <v>178</v>
-      </c>
-      <c r="BE28" t="s">
-        <v>179</v>
-      </c>
-      <c r="BF28" t="s">
-        <v>125</v>
-      </c>
-      <c r="BG28" t="s">
-        <v>126</v>
-      </c>
-      <c r="BI28" t="s">
-        <v>180</v>
-      </c>
-      <c r="BN28" t="s">
-        <v>220</v>
-      </c>
-      <c r="BO28" t="s">
+      <c r="BP28" t="s">
+        <v>183</v>
+      </c>
+      <c r="BQ28" t="s">
         <v>184</v>
       </c>
-      <c r="BP28" t="s">
+      <c r="BR28" t="s">
         <v>185</v>
       </c>
-      <c r="BQ28" t="s">
-        <v>186</v>
-      </c>
-      <c r="BT28" t="s">
+      <c r="BU28" t="s">
         <v>95</v>
       </c>
-      <c r="BU28" t="s">
+      <c r="BV28" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:74">
+    <row r="29" spans="1:75">
       <c r="A29" t="s">
         <v>98</v>
       </c>
       <c r="B29" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C29" t="s">
         <v>100</v>
       </c>
       <c r="D29" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F29" t="s">
         <v>102</v>
       </c>
       <c r="G29" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H29" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I29" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="L29" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q29" t="s">
+        <v>393</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="M29" t="s">
+        <v>278</v>
+      </c>
+      <c r="R29" t="s">
         <v>107</v>
       </c>
-      <c r="S29" t="s">
-        <v>200</v>
-      </c>
-      <c r="U29" t="s">
-        <v>201</v>
-      </c>
-      <c r="W29" t="s">
+      <c r="T29" t="s">
+        <v>198</v>
+      </c>
+      <c r="V29" t="s">
+        <v>199</v>
+      </c>
+      <c r="X29" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>276</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG29" t="s">
         <v>277</v>
       </c>
-      <c r="Z29" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>280</v>
-      </c>
     </row>
-    <row r="30" spans="1:74">
+    <row r="30" spans="1:75">
       <c r="A30" t="s">
         <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C30" t="s">
         <v>100</v>
       </c>
       <c r="D30" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F30" t="s">
         <v>102</v>
       </c>
       <c r="G30" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H30" t="s">
         <v>154</v>
       </c>
       <c r="I30" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="L30" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q30" t="s">
+        <v>411</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="M30" t="s">
+        <v>415</v>
+      </c>
+      <c r="R30" t="s">
         <v>107</v>
       </c>
-      <c r="S30" t="s">
-        <v>200</v>
-      </c>
-      <c r="U30" t="s">
-        <v>201</v>
-      </c>
-      <c r="W30" t="s">
+      <c r="T30" t="s">
+        <v>198</v>
+      </c>
+      <c r="V30" t="s">
+        <v>199</v>
+      </c>
+      <c r="X30" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>276</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG30" t="s">
         <v>277</v>
       </c>
-      <c r="Z30" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>280</v>
-      </c>
     </row>
-    <row r="31" spans="1:74" ht="15.5">
+    <row r="31" spans="1:75" ht="15.5">
       <c r="A31" t="s">
         <v>98</v>
       </c>
       <c r="B31" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C31" t="s">
         <v>100</v>
       </c>
       <c r="D31" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F31" t="s">
         <v>102</v>
       </c>
       <c r="G31" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H31" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J31" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="L31" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q31" t="s">
+        <v>394</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="M31" t="s">
+        <v>311</v>
+      </c>
+      <c r="R31" t="s">
         <v>107</v>
       </c>
-      <c r="S31" t="s">
-        <v>200</v>
-      </c>
-      <c r="U31" t="s">
-        <v>201</v>
-      </c>
-      <c r="W31" t="s">
+      <c r="T31" t="s">
+        <v>198</v>
+      </c>
+      <c r="V31" t="s">
+        <v>199</v>
+      </c>
+      <c r="X31" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>276</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG31" t="s">
         <v>277</v>
       </c>
-      <c r="Z31" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>280</v>
-      </c>
     </row>
-    <row r="32" spans="1:74" ht="15.5">
+    <row r="32" spans="1:75" ht="15.5">
       <c r="A32" t="s">
         <v>98</v>
       </c>
       <c r="B32" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C32" t="s">
         <v>100</v>
       </c>
       <c r="D32" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F32" t="s">
         <v>102</v>
       </c>
       <c r="G32" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H32" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="L32" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q32" t="s">
+        <v>395</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="M32" t="s">
+        <v>311</v>
+      </c>
+      <c r="R32" t="s">
         <v>107</v>
       </c>
-      <c r="S32" t="s">
-        <v>200</v>
-      </c>
-      <c r="U32" t="s">
-        <v>201</v>
-      </c>
-      <c r="W32" t="s">
+      <c r="T32" t="s">
+        <v>198</v>
+      </c>
+      <c r="V32" t="s">
+        <v>199</v>
+      </c>
+      <c r="X32" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>276</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG32" t="s">
         <v>277</v>
       </c>
-      <c r="Z32" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>280</v>
-      </c>
     </row>
-    <row r="33" spans="1:73">
+    <row r="33" spans="1:74">
       <c r="A33" t="s">
         <v>98</v>
       </c>
       <c r="B33" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C33" t="s">
         <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F33" t="s">
         <v>102</v>
       </c>
       <c r="G33" t="s">
+        <v>316</v>
+      </c>
+      <c r="H33" t="s">
+        <v>318</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="H33" t="s">
-        <v>322</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="J33" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="L33" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q33" t="s">
+        <v>396</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="M33" t="s">
+        <v>415</v>
+      </c>
+      <c r="R33" t="s">
         <v>107</v>
       </c>
-      <c r="S33" t="s">
-        <v>200</v>
-      </c>
-      <c r="U33" t="s">
-        <v>201</v>
-      </c>
-      <c r="W33" t="s">
+      <c r="T33" t="s">
+        <v>198</v>
+      </c>
+      <c r="V33" t="s">
+        <v>199</v>
+      </c>
+      <c r="X33" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>276</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG33" t="s">
         <v>277</v>
       </c>
-      <c r="Z33" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>280</v>
-      </c>
     </row>
-    <row r="34" spans="1:73">
+    <row r="34" spans="1:74">
       <c r="A34" t="s">
         <v>98</v>
       </c>
       <c r="B34" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C34" t="s">
         <v>100</v>
       </c>
       <c r="D34" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F34" t="s">
         <v>102</v>
       </c>
       <c r="G34" t="s">
+        <v>316</v>
+      </c>
+      <c r="H34" t="s">
+        <v>318</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="H34" t="s">
-        <v>322</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="J34" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="L34" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q34" t="s">
+        <v>397</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="M34" t="s">
+        <v>415</v>
+      </c>
+      <c r="R34" t="s">
         <v>107</v>
       </c>
-      <c r="S34" t="s">
-        <v>200</v>
-      </c>
-      <c r="U34" t="s">
-        <v>201</v>
-      </c>
-      <c r="W34" t="s">
+      <c r="T34" t="s">
+        <v>198</v>
+      </c>
+      <c r="V34" t="s">
+        <v>199</v>
+      </c>
+      <c r="X34" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>276</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG34" t="s">
         <v>277</v>
       </c>
-      <c r="Z34" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>280</v>
-      </c>
     </row>
-    <row r="35" spans="1:73" ht="15.5">
+    <row r="35" spans="1:74" ht="15.5">
       <c r="A35" t="s">
         <v>98</v>
       </c>
       <c r="B35" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C35" t="s">
         <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F35" t="s">
         <v>102</v>
       </c>
       <c r="G35" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="L35" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q35" t="s">
+        <v>398</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="M35" t="s">
+        <v>327</v>
+      </c>
+      <c r="R35" t="s">
         <v>107</v>
       </c>
-      <c r="S35" t="s">
-        <v>200</v>
-      </c>
-      <c r="U35" t="s">
-        <v>201</v>
-      </c>
-      <c r="W35" t="s">
+      <c r="T35" t="s">
+        <v>198</v>
+      </c>
+      <c r="V35" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>276</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG35" t="s">
         <v>277</v>
       </c>
-      <c r="Z35" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF35" t="s">
-        <v>280</v>
-      </c>
     </row>
-    <row r="36" spans="1:73" ht="15.5">
+    <row r="36" spans="1:74" ht="15.5">
       <c r="A36" t="s">
         <v>98</v>
       </c>
       <c r="B36" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C36" t="s">
         <v>100</v>
       </c>
       <c r="D36" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F36" t="s">
         <v>102</v>
       </c>
       <c r="G36" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="J36" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="M36" t="s">
         <v>327</v>
       </c>
-      <c r="K36" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="L36" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q36" t="s">
+      <c r="R36" t="s">
         <v>107</v>
       </c>
-      <c r="S36" t="s">
-        <v>200</v>
-      </c>
-      <c r="U36" t="s">
-        <v>201</v>
-      </c>
-      <c r="W36" t="s">
+      <c r="T36" t="s">
+        <v>198</v>
+      </c>
+      <c r="V36" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>276</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG36" t="s">
         <v>277</v>
       </c>
-      <c r="Z36" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF36" t="s">
-        <v>280</v>
-      </c>
     </row>
-    <row r="37" spans="1:73" ht="15.5">
+    <row r="37" spans="1:74" ht="15.5">
       <c r="A37" t="s">
         <v>98</v>
       </c>
       <c r="B37" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C37" t="s">
         <v>100</v>
       </c>
       <c r="D37" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F37" t="s">
         <v>102</v>
       </c>
       <c r="G37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="L37" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q37" t="s">
+        <v>400</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="M37" t="s">
+        <v>327</v>
+      </c>
+      <c r="R37" t="s">
         <v>107</v>
       </c>
-      <c r="S37" t="s">
-        <v>200</v>
-      </c>
-      <c r="U37" t="s">
-        <v>201</v>
-      </c>
-      <c r="W37" t="s">
+      <c r="T37" t="s">
+        <v>198</v>
+      </c>
+      <c r="V37" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>276</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG37" t="s">
         <v>277</v>
       </c>
-      <c r="Z37" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>280</v>
-      </c>
     </row>
-    <row r="38" spans="1:73" ht="15.5">
+    <row r="38" spans="1:74" ht="15.5">
       <c r="A38" t="s">
         <v>98</v>
       </c>
       <c r="B38" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C38" t="s">
         <v>100</v>
       </c>
       <c r="D38" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F38" t="s">
         <v>102</v>
       </c>
       <c r="G38" t="s">
+        <v>323</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="H38" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="K38" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="L38" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q38" t="s">
+        <v>401</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="M38" t="s">
+        <v>327</v>
+      </c>
+      <c r="R38" t="s">
         <v>107</v>
       </c>
-      <c r="S38" t="s">
-        <v>200</v>
-      </c>
-      <c r="U38" t="s">
-        <v>201</v>
-      </c>
-      <c r="W38" t="s">
+      <c r="T38" t="s">
+        <v>198</v>
+      </c>
+      <c r="V38" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>276</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG38" t="s">
         <v>277</v>
       </c>
-      <c r="Z38" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>280</v>
-      </c>
     </row>
-    <row r="39" spans="1:73" ht="15.5">
+    <row r="39" spans="1:74" ht="15.5">
       <c r="A39" t="s">
         <v>98</v>
       </c>
       <c r="B39" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C39" t="s">
         <v>100</v>
       </c>
       <c r="D39" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F39" t="s">
         <v>102</v>
       </c>
       <c r="G39" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="L39" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q39" t="s">
+        <v>403</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="M39" t="s">
+        <v>327</v>
+      </c>
+      <c r="R39" t="s">
         <v>107</v>
       </c>
-      <c r="S39" t="s">
-        <v>200</v>
-      </c>
-      <c r="U39" t="s">
-        <v>201</v>
-      </c>
-      <c r="W39" t="s">
+      <c r="T39" t="s">
+        <v>198</v>
+      </c>
+      <c r="V39" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>276</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG39" t="s">
         <v>277</v>
       </c>
-      <c r="Z39" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>280</v>
-      </c>
     </row>
-    <row r="40" spans="1:73" ht="15.5">
+    <row r="40" spans="1:74" ht="15.5">
       <c r="A40" t="s">
         <v>98</v>
       </c>
       <c r="B40" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C40" t="s">
         <v>100</v>
       </c>
       <c r="D40" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F40" t="s">
         <v>102</v>
       </c>
       <c r="G40" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="I40" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="J40" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="K40" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="L40" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q40" t="s">
+        <v>404</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="M40" t="s">
+        <v>327</v>
+      </c>
+      <c r="R40" t="s">
         <v>107</v>
       </c>
-      <c r="S40" t="s">
-        <v>200</v>
-      </c>
-      <c r="U40" t="s">
-        <v>201</v>
-      </c>
-      <c r="W40" t="s">
+      <c r="T40" t="s">
+        <v>198</v>
+      </c>
+      <c r="V40" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>276</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG40" t="s">
         <v>277</v>
       </c>
-      <c r="Z40" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>280</v>
-      </c>
     </row>
-    <row r="41" spans="1:73" ht="15.5">
+    <row r="41" spans="1:74" ht="15.5">
       <c r="A41" t="s">
         <v>98</v>
       </c>
       <c r="B41" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C41" t="s">
         <v>100</v>
       </c>
       <c r="D41" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F41" t="s">
         <v>102</v>
       </c>
       <c r="G41" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H41" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="J41" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="I41" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="K41" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="L41" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q41" t="s">
+        <v>405</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="M41" t="s">
+        <v>327</v>
+      </c>
+      <c r="R41" t="s">
         <v>107</v>
       </c>
-      <c r="S41" t="s">
-        <v>200</v>
-      </c>
-      <c r="U41" t="s">
-        <v>201</v>
-      </c>
-      <c r="W41" t="s">
+      <c r="T41" t="s">
+        <v>198</v>
+      </c>
+      <c r="V41" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>276</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG41" t="s">
         <v>277</v>
       </c>
-      <c r="Z41" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF41" t="s">
-        <v>280</v>
-      </c>
     </row>
-    <row r="42" spans="1:73" ht="15.5">
+    <row r="42" spans="1:74" ht="15.5">
       <c r="A42" t="s">
         <v>98</v>
       </c>
       <c r="B42" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C42" t="s">
         <v>100</v>
       </c>
       <c r="D42" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F42" t="s">
         <v>102</v>
       </c>
       <c r="G42" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="L42" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q42" t="s">
+        <v>406</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="M42" t="s">
+        <v>327</v>
+      </c>
+      <c r="R42" t="s">
         <v>107</v>
       </c>
-      <c r="S42" t="s">
-        <v>200</v>
-      </c>
-      <c r="U42" t="s">
-        <v>201</v>
-      </c>
-      <c r="W42" t="s">
+      <c r="T42" t="s">
+        <v>198</v>
+      </c>
+      <c r="V42" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>276</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG42" t="s">
         <v>277</v>
       </c>
-      <c r="Z42" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD42" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE42" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF42" t="s">
-        <v>280</v>
-      </c>
     </row>
-    <row r="43" spans="1:73" ht="15.5">
+    <row r="43" spans="1:74" ht="15.5">
       <c r="A43" t="s">
         <v>98</v>
       </c>
       <c r="B43" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C43" t="s">
         <v>100</v>
       </c>
       <c r="D43" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F43" t="s">
         <v>102</v>
       </c>
       <c r="G43" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="L43" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q43" t="s">
+        <v>407</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="M43" t="s">
+        <v>336</v>
+      </c>
+      <c r="R43" t="s">
         <v>107</v>
       </c>
-      <c r="S43" t="s">
-        <v>200</v>
-      </c>
-      <c r="U43" t="s">
-        <v>201</v>
-      </c>
-      <c r="W43" t="s">
+      <c r="T43" t="s">
+        <v>198</v>
+      </c>
+      <c r="V43" t="s">
+        <v>199</v>
+      </c>
+      <c r="X43" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>276</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG43" t="s">
         <v>277</v>
       </c>
-      <c r="Z43" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE43" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF43" t="s">
-        <v>280</v>
-      </c>
     </row>
-    <row r="44" spans="1:73" ht="15.5">
+    <row r="44" spans="1:74" ht="15.5">
       <c r="A44" t="s">
         <v>98</v>
       </c>
       <c r="B44" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C44" t="s">
         <v>100</v>
       </c>
       <c r="D44" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F44" t="s">
         <v>102</v>
       </c>
       <c r="G44" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="L44" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q44" t="s">
+        <v>408</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="M44" t="s">
+        <v>336</v>
+      </c>
+      <c r="R44" t="s">
         <v>107</v>
       </c>
-      <c r="S44" t="s">
-        <v>200</v>
-      </c>
-      <c r="U44" t="s">
-        <v>201</v>
-      </c>
-      <c r="W44" t="s">
+      <c r="T44" t="s">
+        <v>198</v>
+      </c>
+      <c r="V44" t="s">
+        <v>199</v>
+      </c>
+      <c r="X44" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>276</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG44" t="s">
         <v>277</v>
       </c>
-      <c r="Z44" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD44" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF44" t="s">
-        <v>280</v>
-      </c>
     </row>
-    <row r="45" spans="1:73" ht="15.5">
+    <row r="45" spans="1:74" ht="15.5">
       <c r="A45" t="s">
         <v>98</v>
       </c>
       <c r="B45" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C45" t="s">
         <v>100</v>
       </c>
       <c r="D45" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F45" t="s">
         <v>102</v>
       </c>
       <c r="G45" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="L45" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q45" t="s">
+        <v>409</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="M45" t="s">
+        <v>336</v>
+      </c>
+      <c r="R45" t="s">
         <v>107</v>
       </c>
-      <c r="S45" t="s">
-        <v>200</v>
-      </c>
-      <c r="U45" t="s">
-        <v>201</v>
-      </c>
-      <c r="W45" t="s">
+      <c r="T45" t="s">
+        <v>198</v>
+      </c>
+      <c r="V45" t="s">
+        <v>199</v>
+      </c>
+      <c r="X45" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>276</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG45" t="s">
         <v>277</v>
       </c>
-      <c r="Z45" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD45" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE45" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF45" t="s">
-        <v>280</v>
-      </c>
     </row>
-    <row r="46" spans="1:73">
+    <row r="46" spans="1:74">
       <c r="A46" t="s">
         <v>98</v>
       </c>
       <c r="B46" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C46" t="s">
         <v>100</v>
       </c>
       <c r="D46" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>13</v>
@@ -6863,63 +6981,66 @@
         <v>102</v>
       </c>
       <c r="G46" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H46" t="s">
+        <v>300</v>
+      </c>
+      <c r="I46" t="s">
+        <v>303</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="M46" t="s">
         <v>304</v>
       </c>
-      <c r="I46" t="s">
-        <v>307</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="L46" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q46" t="s">
+      <c r="R46" t="s">
         <v>107</v>
       </c>
-      <c r="S46" t="s">
-        <v>200</v>
-      </c>
-      <c r="U46" t="s">
-        <v>201</v>
-      </c>
-      <c r="W46" t="s">
+      <c r="T46" t="s">
+        <v>198</v>
+      </c>
+      <c r="V46" t="s">
+        <v>199</v>
+      </c>
+      <c r="X46" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>276</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG46" t="s">
         <v>277</v>
       </c>
-      <c r="Z46" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD46" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE46" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF46" t="s">
-        <v>280</v>
-      </c>
     </row>
-    <row r="47" spans="1:73">
+    <row r="47" spans="1:74">
       <c r="A47" t="s">
         <v>98</v>
       </c>
       <c r="B47" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C47" t="s">
         <v>100</v>
       </c>
       <c r="D47" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>19</v>
@@ -6928,621 +7049,636 @@
         <v>102</v>
       </c>
       <c r="G47" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H47" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="J47" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="K47" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="L47" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="L47" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q47" t="s">
+      <c r="M47" t="s">
+        <v>419</v>
+      </c>
+      <c r="R47" t="s">
         <v>107</v>
       </c>
-      <c r="S47" t="s">
-        <v>376</v>
-      </c>
-      <c r="U47" t="s">
-        <v>377</v>
+      <c r="T47" t="s">
+        <v>368</v>
       </c>
       <c r="V47" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z47" t="s">
+        <v>369</v>
+      </c>
+      <c r="W47" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>280</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>281</v>
+      </c>
+      <c r="AJ47" t="s">
         <v>282</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AL47" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO47" t="s">
         <v>283</v>
       </c>
-      <c r="AB47" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD47" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE47" t="s">
+      <c r="AP47" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR47" t="s">
         <v>284</v>
       </c>
-      <c r="AI47" t="s">
+      <c r="AS47" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT47" t="s">
         <v>285</v>
       </c>
-      <c r="AK47" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL47" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM47" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN47" t="s">
-        <v>286</v>
-      </c>
-      <c r="AO47" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP47" t="s">
-        <v>65</v>
-      </c>
-      <c r="AQ47" t="s">
-        <v>287</v>
-      </c>
-      <c r="AR47" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS47" t="s">
-        <v>288</v>
-      </c>
-      <c r="AT47" t="s">
+      <c r="AU47" t="s">
         <v>69</v>
       </c>
-      <c r="AU47" t="s">
+      <c r="AV47" t="s">
         <v>70</v>
       </c>
-      <c r="AV47" t="s">
+      <c r="AW47" t="s">
         <v>71</v>
       </c>
-      <c r="AW47" t="s">
+      <c r="AX47" t="s">
         <v>72</v>
       </c>
-      <c r="AX47" t="s">
+      <c r="AY47" t="s">
         <v>73</v>
       </c>
-      <c r="AY47" t="s">
+      <c r="AZ47" t="s">
         <v>74</v>
       </c>
-      <c r="AZ47" t="s">
+      <c r="BA47" t="s">
         <v>75</v>
       </c>
-      <c r="BA47" t="s">
+      <c r="BB47" t="s">
         <v>76</v>
       </c>
-      <c r="BB47" t="s">
+      <c r="BC47" t="s">
         <v>77</v>
       </c>
-      <c r="BC47" t="s">
+      <c r="BD47" t="s">
         <v>78</v>
       </c>
-      <c r="BD47" t="s">
+      <c r="BE47" t="s">
         <v>79</v>
       </c>
-      <c r="BE47" t="s">
+      <c r="BF47" t="s">
         <v>80</v>
       </c>
-      <c r="BF47" t="s">
+      <c r="BG47" t="s">
         <v>81</v>
       </c>
-      <c r="BG47" t="s">
+      <c r="BH47" t="s">
         <v>82</v>
       </c>
-      <c r="BH47" t="s">
+      <c r="BI47" t="s">
         <v>83</v>
       </c>
-      <c r="BI47" t="s">
+      <c r="BJ47" t="s">
         <v>84</v>
       </c>
-      <c r="BJ47" t="s">
+      <c r="BK47" t="s">
         <v>85</v>
       </c>
-      <c r="BK47" t="s">
+      <c r="BL47" t="s">
         <v>86</v>
       </c>
-      <c r="BL47" t="s">
+      <c r="BM47" t="s">
         <v>87</v>
       </c>
-      <c r="BM47" t="s">
+      <c r="BN47" t="s">
         <v>88</v>
       </c>
-      <c r="BN47" t="s">
+      <c r="BO47" t="s">
         <v>89</v>
       </c>
-      <c r="BO47" t="s">
+      <c r="BP47" t="s">
         <v>90</v>
       </c>
-      <c r="BP47" t="s">
+      <c r="BQ47" t="s">
         <v>91</v>
       </c>
-      <c r="BQ47" t="s">
+      <c r="BR47" t="s">
         <v>92</v>
       </c>
-      <c r="BR47" t="s">
+      <c r="BS47" t="s">
         <v>93</v>
       </c>
-      <c r="BS47" t="s">
+      <c r="BT47" t="s">
         <v>94</v>
       </c>
-      <c r="BT47" t="s">
+      <c r="BU47" t="s">
         <v>95</v>
       </c>
-      <c r="BU47" t="s">
+      <c r="BV47" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:73">
+    <row r="48" spans="1:74">
       <c r="A48" t="s">
         <v>98</v>
       </c>
       <c r="B48" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C48" t="s">
         <v>100</v>
       </c>
       <c r="D48" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E48" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F48" t="s">
         <v>102</v>
       </c>
       <c r="G48" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H48" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="J48" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="K48" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="L48" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="L48" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q48" t="s">
+      <c r="M48" t="s">
+        <v>341</v>
+      </c>
+      <c r="R48" t="s">
         <v>107</v>
       </c>
-      <c r="S48" t="s">
-        <v>376</v>
-      </c>
-      <c r="U48" t="s">
-        <v>377</v>
+      <c r="T48" t="s">
+        <v>368</v>
       </c>
       <c r="V48" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z48" t="s">
+        <v>369</v>
+      </c>
+      <c r="W48" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>280</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>281</v>
+      </c>
+      <c r="AJ48" t="s">
         <v>282</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="AL48" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO48" t="s">
         <v>283</v>
       </c>
-      <c r="AB48" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD48" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE48" t="s">
+      <c r="AP48" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR48" t="s">
         <v>284</v>
       </c>
-      <c r="AI48" t="s">
+      <c r="AS48" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT48" t="s">
         <v>285</v>
       </c>
-      <c r="AK48" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL48" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM48" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN48" t="s">
-        <v>286</v>
-      </c>
-      <c r="AO48" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP48" t="s">
-        <v>65</v>
-      </c>
-      <c r="AQ48" t="s">
-        <v>287</v>
-      </c>
-      <c r="AR48" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS48" t="s">
-        <v>288</v>
-      </c>
-      <c r="AT48" t="s">
+      <c r="AU48" t="s">
         <v>69</v>
       </c>
-      <c r="AU48" t="s">
+      <c r="AV48" t="s">
         <v>70</v>
       </c>
-      <c r="AV48" t="s">
+      <c r="AW48" t="s">
         <v>71</v>
       </c>
-      <c r="AW48" t="s">
+      <c r="AX48" t="s">
         <v>72</v>
       </c>
-      <c r="AX48" t="s">
+      <c r="AY48" t="s">
         <v>73</v>
       </c>
-      <c r="AY48" t="s">
+      <c r="AZ48" t="s">
         <v>74</v>
       </c>
-      <c r="AZ48" t="s">
+      <c r="BA48" t="s">
         <v>75</v>
       </c>
-      <c r="BA48" t="s">
+      <c r="BB48" t="s">
         <v>76</v>
       </c>
-      <c r="BB48" t="s">
+      <c r="BC48" t="s">
         <v>77</v>
       </c>
-      <c r="BC48" t="s">
+      <c r="BD48" t="s">
         <v>78</v>
       </c>
-      <c r="BD48" t="s">
+      <c r="BE48" t="s">
         <v>79</v>
       </c>
-      <c r="BE48" t="s">
+      <c r="BF48" t="s">
         <v>80</v>
       </c>
-      <c r="BF48" t="s">
+      <c r="BG48" t="s">
         <v>81</v>
       </c>
-      <c r="BG48" t="s">
+      <c r="BH48" t="s">
         <v>82</v>
       </c>
-      <c r="BH48" t="s">
+      <c r="BI48" t="s">
         <v>83</v>
       </c>
-      <c r="BI48" t="s">
+      <c r="BJ48" t="s">
         <v>84</v>
       </c>
-      <c r="BJ48" t="s">
+      <c r="BK48" t="s">
         <v>85</v>
       </c>
-      <c r="BK48" t="s">
+      <c r="BL48" t="s">
         <v>86</v>
       </c>
-      <c r="BL48" t="s">
+      <c r="BM48" t="s">
         <v>87</v>
       </c>
-      <c r="BM48" t="s">
+      <c r="BN48" t="s">
         <v>88</v>
       </c>
-      <c r="BN48" t="s">
+      <c r="BO48" t="s">
         <v>89</v>
       </c>
-      <c r="BO48" t="s">
+      <c r="BP48" t="s">
         <v>90</v>
       </c>
-      <c r="BP48" t="s">
+      <c r="BQ48" t="s">
         <v>91</v>
       </c>
-      <c r="BQ48" t="s">
+      <c r="BR48" t="s">
         <v>92</v>
       </c>
-      <c r="BR48" t="s">
+      <c r="BS48" t="s">
         <v>93</v>
       </c>
-      <c r="BS48" t="s">
+      <c r="BT48" t="s">
         <v>94</v>
       </c>
-      <c r="BT48" t="s">
+      <c r="BU48" t="s">
         <v>95</v>
       </c>
-      <c r="BU48" t="s">
+      <c r="BV48" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:69">
+    <row r="49" spans="1:70">
       <c r="A49" t="s">
         <v>98</v>
       </c>
       <c r="B49" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C49" t="s">
+        <v>287</v>
+      </c>
+      <c r="D49" t="s">
+        <v>414</v>
+      </c>
+      <c r="E49" t="s">
+        <v>342</v>
+      </c>
+      <c r="F49" t="s">
+        <v>288</v>
+      </c>
+      <c r="G49" t="s">
+        <v>346</v>
+      </c>
+      <c r="H49" t="s">
+        <v>347</v>
+      </c>
+      <c r="I49" t="s">
+        <v>348</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K49" t="s">
+        <v>382</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="R49" t="s">
+        <v>107</v>
+      </c>
+      <c r="V49" t="s">
+        <v>289</v>
+      </c>
+      <c r="W49" t="s">
         <v>290</v>
       </c>
-      <c r="D49" t="s">
-        <v>422</v>
-      </c>
-      <c r="E49" t="s">
-        <v>349</v>
-      </c>
-      <c r="F49" t="s">
-        <v>291</v>
-      </c>
-      <c r="G49" t="s">
-        <v>353</v>
-      </c>
-      <c r="H49" t="s">
-        <v>354</v>
-      </c>
-      <c r="I49" t="s">
-        <v>355</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="K49" t="s">
-        <v>390</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>107</v>
-      </c>
-      <c r="U49" t="s">
-        <v>292</v>
-      </c>
-      <c r="V49" t="s">
-        <v>293</v>
-      </c>
-      <c r="W49" t="s">
-        <v>292</v>
-      </c>
       <c r="X49" t="s">
-        <v>293</v>
-      </c>
-      <c r="Z49" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB49" t="s">
         <v>160</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="AC49" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE49" t="s">
         <v>161</v>
       </c>
-      <c r="AB49" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD49" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE49" t="s">
+      <c r="AF49" t="s">
         <v>116</v>
       </c>
-      <c r="AK49" t="s">
-        <v>357</v>
-      </c>
       <c r="AL49" t="s">
+        <v>350</v>
+      </c>
+      <c r="AM49" t="s">
         <v>61</v>
       </c>
-      <c r="AP49" t="s">
+      <c r="AQ49" t="s">
         <v>65</v>
       </c>
-      <c r="AQ49" t="s">
-        <v>358</v>
-      </c>
-      <c r="AZ49" t="s">
-        <v>218</v>
+      <c r="AR49" t="s">
+        <v>351</v>
       </c>
       <c r="BA49" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="BB49" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="BC49" t="s">
+        <v>176</v>
+      </c>
+      <c r="BD49" t="s">
         <v>78</v>
       </c>
-      <c r="BE49" t="s">
-        <v>179</v>
-      </c>
-      <c r="BG49" t="s">
+      <c r="BF49" t="s">
+        <v>178</v>
+      </c>
+      <c r="BH49" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:69">
+    <row r="50" spans="1:70">
       <c r="A50" t="s">
         <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C50" t="s">
+        <v>287</v>
+      </c>
+      <c r="D50" t="s">
+        <v>414</v>
+      </c>
+      <c r="E50" t="s">
+        <v>343</v>
+      </c>
+      <c r="F50" t="s">
+        <v>288</v>
+      </c>
+      <c r="G50" t="s">
+        <v>357</v>
+      </c>
+      <c r="H50" t="s">
+        <v>227</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L50" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="M50" t="s">
+        <v>341</v>
+      </c>
+      <c r="R50" t="s">
+        <v>107</v>
+      </c>
+      <c r="T50" t="s">
+        <v>297</v>
+      </c>
+      <c r="V50" t="s">
+        <v>289</v>
+      </c>
+      <c r="W50" t="s">
         <v>290</v>
       </c>
-      <c r="D50" t="s">
-        <v>422</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="X50" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL50" t="s">
         <v>350</v>
       </c>
-      <c r="F50" t="s">
-        <v>291</v>
-      </c>
-      <c r="G50" t="s">
-        <v>365</v>
-      </c>
-      <c r="H50" t="s">
-        <v>229</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="J50" s="7" t="s">
+      <c r="AM50" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>363</v>
+      </c>
+      <c r="AP50" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU50" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX50" t="s">
+        <v>361</v>
+      </c>
+      <c r="AY50" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA50" t="s">
+        <v>216</v>
+      </c>
+      <c r="BB50" t="s">
+        <v>217</v>
+      </c>
+      <c r="BF50" t="s">
+        <v>178</v>
+      </c>
+      <c r="BL50" t="s">
         <v>364</v>
       </c>
-      <c r="K50" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="L50" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>107</v>
-      </c>
-      <c r="S50" t="s">
-        <v>300</v>
-      </c>
-      <c r="U50" t="s">
-        <v>292</v>
-      </c>
-      <c r="V50" t="s">
-        <v>293</v>
-      </c>
-      <c r="W50" t="s">
-        <v>292</v>
-      </c>
-      <c r="X50" t="s">
-        <v>293</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA50" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB50" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD50" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE50" t="s">
-        <v>116</v>
-      </c>
-      <c r="AK50" t="s">
-        <v>357</v>
-      </c>
-      <c r="AL50" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN50" t="s">
-        <v>371</v>
-      </c>
-      <c r="AO50" t="s">
-        <v>370</v>
-      </c>
-      <c r="AP50" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT50" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW50" t="s">
-        <v>369</v>
-      </c>
-      <c r="AX50" t="s">
-        <v>73</v>
-      </c>
-      <c r="AZ50" t="s">
-        <v>218</v>
-      </c>
-      <c r="BA50" t="s">
-        <v>219</v>
-      </c>
-      <c r="BE50" t="s">
-        <v>179</v>
-      </c>
-      <c r="BK50" t="s">
-        <v>372</v>
-      </c>
-      <c r="BP50" t="s">
+      <c r="BQ50" t="s">
+        <v>184</v>
+      </c>
+      <c r="BR50" t="s">
         <v>185</v>
       </c>
-      <c r="BQ50" t="s">
-        <v>186</v>
-      </c>
     </row>
-    <row r="51" spans="1:69">
+    <row r="51" spans="1:70">
       <c r="A51" t="s">
         <v>98</v>
       </c>
       <c r="B51" t="s">
+        <v>353</v>
+      </c>
+      <c r="C51" t="s">
+        <v>287</v>
+      </c>
+      <c r="D51" t="s">
+        <v>414</v>
+      </c>
+      <c r="E51" t="s">
+        <v>343</v>
+      </c>
+      <c r="F51" t="s">
+        <v>288</v>
+      </c>
+      <c r="G51" t="s">
+        <v>354</v>
+      </c>
+      <c r="J51" t="s">
+        <v>355</v>
+      </c>
+      <c r="K51" t="s">
+        <v>384</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="M51" t="s">
+        <v>420</v>
+      </c>
+      <c r="R51" t="s">
+        <v>107</v>
+      </c>
+      <c r="V51" t="s">
+        <v>289</v>
+      </c>
+      <c r="W51" t="s">
+        <v>290</v>
+      </c>
+      <c r="X51" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>359</v>
+      </c>
+      <c r="AH51" t="s">
         <v>360</v>
-      </c>
-      <c r="C51" t="s">
-        <v>290</v>
-      </c>
-      <c r="D51" t="s">
-        <v>422</v>
-      </c>
-      <c r="E51" t="s">
-        <v>350</v>
-      </c>
-      <c r="F51" t="s">
-        <v>291</v>
-      </c>
-      <c r="G51" t="s">
-        <v>361</v>
-      </c>
-      <c r="J51" t="s">
-        <v>363</v>
-      </c>
-      <c r="K51" t="s">
-        <v>392</v>
-      </c>
-      <c r="L51" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>107</v>
-      </c>
-      <c r="U51" t="s">
-        <v>292</v>
-      </c>
-      <c r="V51" t="s">
-        <v>293</v>
-      </c>
-      <c r="W51" t="s">
-        <v>292</v>
-      </c>
-      <c r="X51" t="s">
-        <v>293</v>
-      </c>
-      <c r="Z51" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA51" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB51" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD51" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE51" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF51" t="s">
-        <v>367</v>
-      </c>
-      <c r="AG51" t="s">
-        <v>368</v>
       </c>
     </row>
   </sheetData>

--- a/product_data/processing_metadata/C5/PIG_meta.xlsx
+++ b/product_data/processing_metadata/C5/PIG_meta.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{6D903790-D07D-4718-95DE-5C627830A9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D652741-C3ED-4164-B49F-4E4F21A6899D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7D7ACF3-C0AE-4A67-A41D-E2D748D3A5A0}"/>
+    <workbookView xWindow="2260" yWindow="130" windowWidth="15600" windowHeight="8900" xr2:uid="{B7D7ACF3-C0AE-4A67-A41D-E2D748D3A5A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1714,8 +1714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F66F91E-37FF-4E13-8317-A8978462FC2B}">
   <dimension ref="A1:BW51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="Z33" sqref="Z33"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/product_data/processing_metadata/C5/PIG_meta.xlsx
+++ b/product_data/processing_metadata/C5/PIG_meta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{6D903790-D07D-4718-95DE-5C627830A9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D652741-C3ED-4164-B49F-4E4F21A6899D}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="13_ncr:1_{6D903790-D07D-4718-95DE-5C627830A9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54CBEF45-E198-4D7A-A693-EBE38F6BCEE6}"/>
   <bookViews>
-    <workbookView xWindow="2260" yWindow="130" windowWidth="15600" windowHeight="8900" xr2:uid="{B7D7ACF3-C0AE-4A67-A41D-E2D748D3A5A0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7D7ACF3-C0AE-4A67-A41D-E2D748D3A5A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="426">
   <si>
     <t>353L20070114</t>
   </si>
@@ -225,9 +225,6 @@
     <t>Chla_ide</t>
   </si>
   <si>
-    <t>Chla_ allom</t>
-  </si>
-  <si>
     <t>Chla_prime</t>
   </si>
   <si>
@@ -369,9 +366,6 @@
     <t>TimeUTC</t>
   </si>
   <si>
-    <t>%H:%M:%S %p</t>
-  </si>
-  <si>
     <t>Sample</t>
   </si>
   <si>
@@ -1315,6 +1309,9 @@
   </si>
   <si>
     <t>Unknown_HPLC</t>
+  </si>
+  <si>
+    <t>%I:%M:%S %p</t>
   </si>
 </sst>
 </file>
@@ -1714,8 +1711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F66F91E-37FF-4E13-8317-A8978462FC2B}">
   <dimension ref="A1:BW51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1752,10 +1749,10 @@
         <v>34</v>
       </c>
       <c r="K1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="L1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="M1" t="s">
         <v>35</v>
@@ -1842,1461 +1839,1461 @@
         <v>62</v>
       </c>
       <c r="AO1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AP1" t="s">
         <v>63</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>64</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>65</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>66</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>67</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>68</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>69</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>70</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>71</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>72</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>73</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>74</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>75</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>76</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>77</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>78</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>79</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>80</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>81</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>82</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>83</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>84</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>85</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>86</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>87</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>88</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>89</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>90</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>91</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>92</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>93</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>94</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>95</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>96</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:75">
       <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
         <v>98</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>99</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>100</v>
-      </c>
-      <c r="D2" t="s">
-        <v>101</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
       <c r="F2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" t="s">
         <v>102</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>103</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>104</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>370</v>
+      </c>
+      <c r="K2" t="s">
+        <v>371</v>
+      </c>
+      <c r="L2" t="s">
+        <v>422</v>
+      </c>
+      <c r="M2" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q2" t="s">
         <v>105</v>
       </c>
-      <c r="J2" t="s">
-        <v>372</v>
-      </c>
-      <c r="K2" t="s">
-        <v>373</v>
-      </c>
-      <c r="L2" t="s">
-        <v>424</v>
-      </c>
-      <c r="M2" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>106</v>
       </c>
-      <c r="R2" t="s">
+      <c r="V2" t="s">
         <v>107</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>108</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>109</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
+        <v>425</v>
+      </c>
+      <c r="Z2" t="s">
         <v>110</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>111</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>112</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>113</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AF2" t="s">
         <v>114</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>116</v>
       </c>
       <c r="AM2" t="s">
         <v>61</v>
       </c>
       <c r="AN2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA2" t="s">
         <v>117</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="BB2" t="s">
         <v>118</v>
       </c>
-      <c r="AQ2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>74</v>
-      </c>
-      <c r="BA2" t="s">
+      <c r="BC2" t="s">
         <v>119</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BD2" t="s">
         <v>120</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BE2" t="s">
         <v>121</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BF2" t="s">
         <v>122</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BG2" t="s">
         <v>123</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BH2" t="s">
         <v>124</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BJ2" t="s">
         <v>125</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BK2" t="s">
         <v>126</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BL2" t="s">
         <v>127</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BM2" t="s">
         <v>128</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BP2" t="s">
         <v>129</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BQ2" t="s">
         <v>130</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BR2" t="s">
         <v>131</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BV2" t="s">
         <v>132</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>133</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:75">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" t="s">
         <v>100</v>
-      </c>
-      <c r="D3" t="s">
-        <v>101</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
       </c>
       <c r="F3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" t="s">
         <v>102</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>103</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>104</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K3" t="s">
+        <v>372</v>
+      </c>
+      <c r="L3" t="s">
+        <v>422</v>
+      </c>
+      <c r="M3" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q3" t="s">
         <v>105</v>
       </c>
-      <c r="J3" t="s">
-        <v>136</v>
-      </c>
-      <c r="K3" t="s">
-        <v>374</v>
-      </c>
-      <c r="L3" t="s">
-        <v>424</v>
-      </c>
-      <c r="M3" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>106</v>
       </c>
-      <c r="R3" t="s">
+      <c r="V3" t="s">
         <v>107</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>108</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>109</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
+        <v>425</v>
+      </c>
+      <c r="Z3" t="s">
         <v>110</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AA3" t="s">
         <v>111</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AB3" t="s">
         <v>112</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AC3" t="s">
         <v>113</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AF3" t="s">
         <v>114</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>116</v>
       </c>
       <c r="AM3" t="s">
         <v>61</v>
       </c>
       <c r="AN3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA3" t="s">
         <v>117</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="BB3" t="s">
         <v>118</v>
       </c>
-      <c r="AQ3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>74</v>
-      </c>
-      <c r="BA3" t="s">
+      <c r="BC3" t="s">
         <v>119</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BD3" t="s">
         <v>120</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BE3" t="s">
         <v>121</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BF3" t="s">
         <v>122</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BG3" t="s">
         <v>123</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BH3" t="s">
         <v>124</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BJ3" t="s">
         <v>125</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BK3" t="s">
         <v>126</v>
       </c>
-      <c r="BJ3" t="s">
+      <c r="BL3" t="s">
         <v>127</v>
       </c>
-      <c r="BK3" t="s">
+      <c r="BM3" t="s">
         <v>128</v>
       </c>
-      <c r="BL3" t="s">
+      <c r="BP3" t="s">
         <v>129</v>
       </c>
-      <c r="BM3" t="s">
+      <c r="BQ3" t="s">
         <v>130</v>
       </c>
-      <c r="BP3" t="s">
+      <c r="BR3" t="s">
         <v>131</v>
       </c>
-      <c r="BQ3" t="s">
+      <c r="BV3" t="s">
         <v>132</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>133</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:75">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" t="s">
         <v>100</v>
-      </c>
-      <c r="D4" t="s">
-        <v>101</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
       <c r="F4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" t="s">
         <v>102</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>103</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>104</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K4" t="s">
+        <v>373</v>
+      </c>
+      <c r="L4" t="s">
+        <v>422</v>
+      </c>
+      <c r="M4" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q4" t="s">
         <v>105</v>
       </c>
-      <c r="J4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K4" t="s">
-        <v>375</v>
-      </c>
-      <c r="L4" t="s">
-        <v>424</v>
-      </c>
-      <c r="M4" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>106</v>
       </c>
-      <c r="R4" t="s">
+      <c r="V4" t="s">
         <v>107</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>108</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>109</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
+        <v>425</v>
+      </c>
+      <c r="Z4" t="s">
         <v>110</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AA4" t="s">
         <v>111</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AB4" t="s">
         <v>112</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AC4" t="s">
         <v>113</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AF4" t="s">
         <v>114</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>116</v>
       </c>
       <c r="AM4" t="s">
         <v>61</v>
       </c>
       <c r="AN4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA4" t="s">
         <v>117</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="BB4" t="s">
         <v>118</v>
       </c>
-      <c r="AQ4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>74</v>
-      </c>
-      <c r="BA4" t="s">
+      <c r="BC4" t="s">
         <v>119</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BD4" t="s">
         <v>120</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BE4" t="s">
         <v>121</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BF4" t="s">
         <v>122</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BG4" t="s">
         <v>123</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BH4" t="s">
         <v>124</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BJ4" t="s">
         <v>125</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BK4" t="s">
         <v>126</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BL4" t="s">
         <v>127</v>
       </c>
-      <c r="BK4" t="s">
+      <c r="BM4" t="s">
         <v>128</v>
       </c>
-      <c r="BL4" t="s">
+      <c r="BP4" t="s">
         <v>129</v>
       </c>
-      <c r="BM4" t="s">
+      <c r="BQ4" t="s">
         <v>130</v>
       </c>
-      <c r="BP4" t="s">
+      <c r="BR4" t="s">
         <v>131</v>
       </c>
-      <c r="BQ4" t="s">
+      <c r="BV4" t="s">
         <v>132</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>133</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:75">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" t="s">
         <v>100</v>
-      </c>
-      <c r="D5" t="s">
-        <v>101</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
       </c>
       <c r="F5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" t="s">
         <v>102</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>103</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>104</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K5" t="s">
+        <v>374</v>
+      </c>
+      <c r="L5" t="s">
+        <v>422</v>
+      </c>
+      <c r="M5" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q5" t="s">
         <v>105</v>
       </c>
-      <c r="J5" t="s">
-        <v>140</v>
-      </c>
-      <c r="K5" t="s">
-        <v>376</v>
-      </c>
-      <c r="L5" t="s">
-        <v>424</v>
-      </c>
-      <c r="M5" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>106</v>
       </c>
-      <c r="R5" t="s">
+      <c r="V5" t="s">
         <v>107</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>108</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>109</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
+        <v>425</v>
+      </c>
+      <c r="Z5" t="s">
         <v>110</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="AA5" t="s">
         <v>111</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AB5" t="s">
         <v>112</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AC5" t="s">
         <v>113</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AF5" t="s">
         <v>114</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>116</v>
       </c>
       <c r="AM5" t="s">
         <v>61</v>
       </c>
       <c r="AN5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA5" t="s">
         <v>117</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="BB5" t="s">
         <v>118</v>
       </c>
-      <c r="AQ5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>74</v>
-      </c>
-      <c r="BA5" t="s">
+      <c r="BC5" t="s">
         <v>119</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BD5" t="s">
         <v>120</v>
       </c>
-      <c r="BC5" t="s">
+      <c r="BE5" t="s">
         <v>121</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="BF5" t="s">
         <v>122</v>
       </c>
-      <c r="BE5" t="s">
+      <c r="BG5" t="s">
         <v>123</v>
       </c>
-      <c r="BF5" t="s">
+      <c r="BH5" t="s">
         <v>124</v>
       </c>
-      <c r="BG5" t="s">
+      <c r="BJ5" t="s">
         <v>125</v>
       </c>
-      <c r="BH5" t="s">
+      <c r="BK5" t="s">
         <v>126</v>
       </c>
-      <c r="BJ5" t="s">
+      <c r="BL5" t="s">
         <v>127</v>
       </c>
-      <c r="BK5" t="s">
+      <c r="BM5" t="s">
         <v>128</v>
       </c>
-      <c r="BL5" t="s">
+      <c r="BP5" t="s">
         <v>129</v>
       </c>
-      <c r="BM5" t="s">
+      <c r="BQ5" t="s">
         <v>130</v>
       </c>
-      <c r="BP5" t="s">
+      <c r="BR5" t="s">
         <v>131</v>
       </c>
-      <c r="BQ5" t="s">
+      <c r="BV5" t="s">
         <v>132</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>133</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:75">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
         <v>100</v>
-      </c>
-      <c r="D6" t="s">
-        <v>101</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" t="s">
         <v>102</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>103</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>104</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>140</v>
+      </c>
+      <c r="K6" t="s">
+        <v>375</v>
+      </c>
+      <c r="L6" t="s">
+        <v>422</v>
+      </c>
+      <c r="M6" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q6" t="s">
         <v>105</v>
       </c>
-      <c r="J6" t="s">
-        <v>142</v>
-      </c>
-      <c r="K6" t="s">
-        <v>377</v>
-      </c>
-      <c r="L6" t="s">
-        <v>424</v>
-      </c>
-      <c r="M6" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>106</v>
       </c>
-      <c r="R6" t="s">
+      <c r="V6" t="s">
         <v>107</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>108</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>109</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
+        <v>425</v>
+      </c>
+      <c r="Z6" t="s">
         <v>110</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="AA6" t="s">
         <v>111</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AB6" t="s">
         <v>112</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AC6" t="s">
         <v>113</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AF6" t="s">
         <v>114</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>116</v>
       </c>
       <c r="AM6" t="s">
         <v>61</v>
       </c>
       <c r="AN6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA6" t="s">
         <v>117</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="BB6" t="s">
         <v>118</v>
       </c>
-      <c r="AQ6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BA6" t="s">
+      <c r="BC6" t="s">
         <v>119</v>
       </c>
-      <c r="BB6" t="s">
+      <c r="BD6" t="s">
         <v>120</v>
       </c>
-      <c r="BC6" t="s">
+      <c r="BE6" t="s">
         <v>121</v>
       </c>
-      <c r="BD6" t="s">
+      <c r="BF6" t="s">
         <v>122</v>
       </c>
-      <c r="BE6" t="s">
+      <c r="BG6" t="s">
         <v>123</v>
       </c>
-      <c r="BF6" t="s">
+      <c r="BH6" t="s">
         <v>124</v>
       </c>
-      <c r="BG6" t="s">
+      <c r="BJ6" t="s">
         <v>125</v>
       </c>
-      <c r="BH6" t="s">
+      <c r="BK6" t="s">
         <v>126</v>
       </c>
-      <c r="BJ6" t="s">
+      <c r="BL6" t="s">
         <v>127</v>
       </c>
-      <c r="BK6" t="s">
+      <c r="BM6" t="s">
         <v>128</v>
       </c>
-      <c r="BL6" t="s">
+      <c r="BP6" t="s">
         <v>129</v>
       </c>
-      <c r="BM6" t="s">
+      <c r="BQ6" t="s">
         <v>130</v>
       </c>
-      <c r="BP6" t="s">
+      <c r="BR6" t="s">
         <v>131</v>
       </c>
-      <c r="BQ6" t="s">
+      <c r="BV6" t="s">
         <v>132</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>133</v>
-      </c>
-      <c r="BV6" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:75">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" t="s">
         <v>100</v>
-      </c>
-      <c r="D7" t="s">
-        <v>101</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
       </c>
       <c r="F7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" t="s">
         <v>102</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>103</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>104</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K7" t="s">
+        <v>376</v>
+      </c>
+      <c r="L7" t="s">
+        <v>422</v>
+      </c>
+      <c r="M7" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q7" t="s">
         <v>105</v>
       </c>
-      <c r="J7" t="s">
-        <v>144</v>
-      </c>
-      <c r="K7" t="s">
-        <v>378</v>
-      </c>
-      <c r="L7" t="s">
-        <v>424</v>
-      </c>
-      <c r="M7" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>106</v>
       </c>
-      <c r="R7" t="s">
+      <c r="V7" t="s">
         <v>107</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>108</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>109</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
+        <v>425</v>
+      </c>
+      <c r="Z7" t="s">
         <v>110</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="AA7" t="s">
         <v>111</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AB7" t="s">
         <v>112</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AC7" t="s">
         <v>113</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AF7" t="s">
         <v>114</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>116</v>
       </c>
       <c r="AM7" t="s">
         <v>61</v>
       </c>
       <c r="AN7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA7" t="s">
         <v>117</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="BB7" t="s">
         <v>118</v>
       </c>
-      <c r="AQ7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>71</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>73</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BA7" t="s">
+      <c r="BC7" t="s">
         <v>119</v>
       </c>
-      <c r="BB7" t="s">
+      <c r="BD7" t="s">
         <v>120</v>
       </c>
-      <c r="BC7" t="s">
+      <c r="BE7" t="s">
         <v>121</v>
       </c>
-      <c r="BD7" t="s">
+      <c r="BF7" t="s">
         <v>122</v>
       </c>
-      <c r="BE7" t="s">
+      <c r="BG7" t="s">
         <v>123</v>
       </c>
-      <c r="BF7" t="s">
+      <c r="BH7" t="s">
         <v>124</v>
       </c>
-      <c r="BG7" t="s">
+      <c r="BJ7" t="s">
         <v>125</v>
       </c>
-      <c r="BH7" t="s">
+      <c r="BK7" t="s">
         <v>126</v>
       </c>
-      <c r="BJ7" t="s">
+      <c r="BL7" t="s">
         <v>127</v>
       </c>
-      <c r="BK7" t="s">
+      <c r="BM7" t="s">
         <v>128</v>
       </c>
-      <c r="BL7" t="s">
+      <c r="BP7" t="s">
         <v>129</v>
       </c>
-      <c r="BM7" t="s">
+      <c r="BQ7" t="s">
         <v>130</v>
       </c>
-      <c r="BP7" t="s">
+      <c r="BR7" t="s">
         <v>131</v>
       </c>
-      <c r="BQ7" t="s">
+      <c r="BV7" t="s">
         <v>132</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>133</v>
-      </c>
-      <c r="BV7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:75">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" t="s">
         <v>100</v>
-      </c>
-      <c r="D8" t="s">
-        <v>101</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
       </c>
       <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
         <v>102</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>103</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>104</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
+        <v>144</v>
+      </c>
+      <c r="K8" t="s">
+        <v>377</v>
+      </c>
+      <c r="L8" t="s">
+        <v>422</v>
+      </c>
+      <c r="M8" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q8" t="s">
         <v>105</v>
       </c>
-      <c r="J8" t="s">
-        <v>146</v>
-      </c>
-      <c r="K8" t="s">
-        <v>379</v>
-      </c>
-      <c r="L8" t="s">
-        <v>424</v>
-      </c>
-      <c r="M8" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>106</v>
       </c>
-      <c r="R8" t="s">
+      <c r="V8" t="s">
         <v>107</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>108</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>109</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
+        <v>425</v>
+      </c>
+      <c r="Z8" t="s">
         <v>110</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="AA8" t="s">
         <v>111</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AB8" t="s">
         <v>112</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AC8" t="s">
         <v>113</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AF8" t="s">
         <v>114</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>116</v>
       </c>
       <c r="AM8" t="s">
         <v>61</v>
       </c>
       <c r="AN8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA8" t="s">
         <v>117</v>
       </c>
-      <c r="AP8" t="s">
+      <c r="BB8" t="s">
         <v>118</v>
       </c>
-      <c r="AQ8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>71</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>73</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>74</v>
-      </c>
-      <c r="BA8" t="s">
+      <c r="BC8" t="s">
         <v>119</v>
       </c>
-      <c r="BB8" t="s">
+      <c r="BD8" t="s">
         <v>120</v>
       </c>
-      <c r="BC8" t="s">
+      <c r="BE8" t="s">
         <v>121</v>
       </c>
-      <c r="BD8" t="s">
+      <c r="BF8" t="s">
         <v>122</v>
       </c>
-      <c r="BE8" t="s">
+      <c r="BG8" t="s">
         <v>123</v>
       </c>
-      <c r="BF8" t="s">
+      <c r="BH8" t="s">
         <v>124</v>
       </c>
-      <c r="BG8" t="s">
+      <c r="BJ8" t="s">
         <v>125</v>
       </c>
-      <c r="BH8" t="s">
+      <c r="BK8" t="s">
         <v>126</v>
       </c>
-      <c r="BJ8" t="s">
+      <c r="BL8" t="s">
         <v>127</v>
       </c>
-      <c r="BK8" t="s">
+      <c r="BM8" t="s">
         <v>128</v>
       </c>
-      <c r="BL8" t="s">
+      <c r="BP8" t="s">
         <v>129</v>
       </c>
-      <c r="BM8" t="s">
+      <c r="BQ8" t="s">
         <v>130</v>
       </c>
-      <c r="BP8" t="s">
+      <c r="BR8" t="s">
         <v>131</v>
       </c>
-      <c r="BQ8" t="s">
+      <c r="BV8" t="s">
         <v>132</v>
-      </c>
-      <c r="BR8" t="s">
-        <v>133</v>
-      </c>
-      <c r="BV8" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:75">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" t="s">
         <v>100</v>
-      </c>
-      <c r="D9" t="s">
-        <v>101</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
       <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
         <v>102</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>103</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>104</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K9" t="s">
+        <v>378</v>
+      </c>
+      <c r="L9" t="s">
+        <v>422</v>
+      </c>
+      <c r="M9" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q9" t="s">
         <v>105</v>
       </c>
-      <c r="J9" t="s">
-        <v>148</v>
-      </c>
-      <c r="K9" t="s">
-        <v>380</v>
-      </c>
-      <c r="L9" t="s">
-        <v>424</v>
-      </c>
-      <c r="M9" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>106</v>
       </c>
-      <c r="R9" t="s">
+      <c r="V9" t="s">
         <v>107</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>108</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>109</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
+        <v>425</v>
+      </c>
+      <c r="Z9" t="s">
         <v>110</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="AA9" t="s">
         <v>111</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AB9" t="s">
         <v>112</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AC9" t="s">
         <v>113</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AF9" t="s">
         <v>114</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>116</v>
       </c>
       <c r="AM9" t="s">
         <v>61</v>
       </c>
       <c r="AN9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA9" t="s">
         <v>117</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="BB9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW9" t="s">
-        <v>71</v>
-      </c>
-      <c r="AY9" t="s">
-        <v>73</v>
-      </c>
-      <c r="AZ9" t="s">
-        <v>74</v>
-      </c>
-      <c r="BA9" t="s">
+      <c r="BC9" t="s">
         <v>119</v>
       </c>
-      <c r="BB9" t="s">
+      <c r="BD9" t="s">
         <v>120</v>
       </c>
-      <c r="BC9" t="s">
+      <c r="BE9" t="s">
         <v>121</v>
       </c>
-      <c r="BD9" t="s">
+      <c r="BF9" t="s">
         <v>122</v>
       </c>
-      <c r="BE9" t="s">
+      <c r="BG9" t="s">
         <v>123</v>
       </c>
-      <c r="BF9" t="s">
+      <c r="BH9" t="s">
         <v>124</v>
       </c>
-      <c r="BG9" t="s">
+      <c r="BJ9" t="s">
         <v>125</v>
       </c>
-      <c r="BH9" t="s">
+      <c r="BK9" t="s">
         <v>126</v>
       </c>
-      <c r="BJ9" t="s">
+      <c r="BL9" t="s">
         <v>127</v>
       </c>
-      <c r="BK9" t="s">
+      <c r="BM9" t="s">
         <v>128</v>
       </c>
-      <c r="BL9" t="s">
+      <c r="BP9" t="s">
         <v>129</v>
       </c>
-      <c r="BM9" t="s">
+      <c r="BQ9" t="s">
         <v>130</v>
       </c>
-      <c r="BP9" t="s">
+      <c r="BR9" t="s">
         <v>131</v>
       </c>
-      <c r="BQ9" t="s">
+      <c r="BV9" t="s">
         <v>132</v>
-      </c>
-      <c r="BR9" t="s">
-        <v>133</v>
-      </c>
-      <c r="BV9" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:75">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" t="s">
         <v>100</v>
-      </c>
-      <c r="D10" t="s">
-        <v>101</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
         <v>102</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>103</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>104</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
+        <v>148</v>
+      </c>
+      <c r="K10" t="s">
+        <v>379</v>
+      </c>
+      <c r="L10" t="s">
+        <v>422</v>
+      </c>
+      <c r="M10" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q10" t="s">
         <v>105</v>
       </c>
-      <c r="J10" t="s">
-        <v>150</v>
-      </c>
-      <c r="K10" t="s">
-        <v>381</v>
-      </c>
-      <c r="L10" t="s">
-        <v>424</v>
-      </c>
-      <c r="M10" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>106</v>
       </c>
-      <c r="R10" t="s">
+      <c r="V10" t="s">
         <v>107</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>108</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>109</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
+        <v>425</v>
+      </c>
+      <c r="Z10" t="s">
         <v>110</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="AA10" t="s">
         <v>111</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AB10" t="s">
         <v>112</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AC10" t="s">
         <v>113</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AF10" t="s">
         <v>114</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>116</v>
       </c>
       <c r="AM10" t="s">
         <v>61</v>
       </c>
       <c r="AN10" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA10" t="s">
         <v>117</v>
       </c>
-      <c r="AP10" t="s">
+      <c r="BB10" t="s">
         <v>118</v>
       </c>
-      <c r="AQ10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>71</v>
-      </c>
-      <c r="AY10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>74</v>
-      </c>
-      <c r="BA10" t="s">
+      <c r="BC10" t="s">
         <v>119</v>
       </c>
-      <c r="BB10" t="s">
+      <c r="BD10" t="s">
         <v>120</v>
       </c>
-      <c r="BC10" t="s">
+      <c r="BE10" t="s">
         <v>121</v>
       </c>
-      <c r="BD10" t="s">
+      <c r="BF10" t="s">
         <v>122</v>
       </c>
-      <c r="BE10" t="s">
+      <c r="BG10" t="s">
         <v>123</v>
       </c>
-      <c r="BF10" t="s">
+      <c r="BH10" t="s">
         <v>124</v>
       </c>
-      <c r="BG10" t="s">
+      <c r="BJ10" t="s">
         <v>125</v>
       </c>
-      <c r="BH10" t="s">
+      <c r="BK10" t="s">
         <v>126</v>
       </c>
-      <c r="BJ10" t="s">
+      <c r="BL10" t="s">
         <v>127</v>
       </c>
-      <c r="BK10" t="s">
+      <c r="BM10" t="s">
         <v>128</v>
       </c>
-      <c r="BL10" t="s">
+      <c r="BP10" t="s">
         <v>129</v>
       </c>
-      <c r="BM10" t="s">
+      <c r="BQ10" t="s">
         <v>130</v>
       </c>
-      <c r="BP10" t="s">
+      <c r="BR10" t="s">
         <v>131</v>
       </c>
-      <c r="BQ10" t="s">
+      <c r="BV10" t="s">
         <v>132</v>
-      </c>
-      <c r="BR10" t="s">
-        <v>133</v>
-      </c>
-      <c r="BV10" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:75">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G11" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" t="s">
+        <v>152</v>
+      </c>
+      <c r="I11" t="s">
         <v>153</v>
       </c>
-      <c r="H11" t="s">
-        <v>154</v>
-      </c>
-      <c r="I11" t="s">
-        <v>155</v>
-      </c>
       <c r="K11" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="L11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M11" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="O11">
         <v>-999</v>
@@ -3305,159 +3302,159 @@
         <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T11" t="s">
+        <v>154</v>
+      </c>
+      <c r="V11" t="s">
+        <v>155</v>
+      </c>
+      <c r="W11" t="s">
         <v>156</v>
       </c>
-      <c r="V11" t="s">
+      <c r="X11" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA11" t="s">
         <v>157</v>
       </c>
-      <c r="W11" t="s">
+      <c r="AB11" t="s">
         <v>158</v>
       </c>
-      <c r="X11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA11" t="s">
+      <c r="AC11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE11" t="s">
         <v>159</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AF11" t="s">
         <v>160</v>
       </c>
-      <c r="AC11" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE11" t="s">
+      <c r="AJ11" t="s">
         <v>161</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AL11" t="s">
         <v>162</v>
       </c>
-      <c r="AJ11" t="s">
+      <c r="AM11" t="s">
         <v>163</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AN11" t="s">
         <v>164</v>
       </c>
-      <c r="AM11" t="s">
+      <c r="AQ11" t="s">
         <v>165</v>
       </c>
-      <c r="AN11" t="s">
+      <c r="AR11" t="s">
         <v>166</v>
       </c>
-      <c r="AQ11" t="s">
+      <c r="AU11" t="s">
         <v>167</v>
       </c>
-      <c r="AR11" t="s">
+      <c r="AW11" t="s">
         <v>168</v>
       </c>
-      <c r="AU11" t="s">
+      <c r="AX11" t="s">
         <v>169</v>
       </c>
-      <c r="AW11" t="s">
+      <c r="AY11" t="s">
         <v>170</v>
       </c>
-      <c r="AX11" t="s">
+      <c r="AZ11" t="s">
         <v>171</v>
       </c>
-      <c r="AY11" t="s">
+      <c r="BA11" t="s">
         <v>172</v>
       </c>
-      <c r="AZ11" t="s">
+      <c r="BB11" t="s">
         <v>173</v>
       </c>
-      <c r="BA11" t="s">
+      <c r="BC11" t="s">
         <v>174</v>
       </c>
-      <c r="BB11" t="s">
+      <c r="BD11" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE11" t="s">
         <v>175</v>
       </c>
-      <c r="BC11" t="s">
+      <c r="BF11" t="s">
         <v>176</v>
       </c>
-      <c r="BD11" t="s">
-        <v>78</v>
-      </c>
-      <c r="BE11" t="s">
+      <c r="BG11" t="s">
+        <v>123</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ11" t="s">
         <v>177</v>
       </c>
-      <c r="BF11" t="s">
+      <c r="BK11" t="s">
         <v>178</v>
       </c>
-      <c r="BG11" t="s">
-        <v>125</v>
-      </c>
-      <c r="BH11" t="s">
-        <v>126</v>
-      </c>
-      <c r="BJ11" t="s">
+      <c r="BL11" t="s">
         <v>179</v>
       </c>
-      <c r="BK11" t="s">
+      <c r="BO11" t="s">
         <v>180</v>
       </c>
-      <c r="BL11" t="s">
+      <c r="BP11" t="s">
         <v>181</v>
       </c>
-      <c r="BO11" t="s">
+      <c r="BQ11" t="s">
         <v>182</v>
       </c>
-      <c r="BP11" t="s">
+      <c r="BR11" t="s">
         <v>183</v>
       </c>
-      <c r="BQ11" t="s">
-        <v>184</v>
-      </c>
-      <c r="BR11" t="s">
-        <v>185</v>
-      </c>
       <c r="BU11" t="s">
+        <v>94</v>
+      </c>
+      <c r="BV11" t="s">
         <v>95</v>
-      </c>
-      <c r="BV11" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:75">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H12" t="s">
+        <v>152</v>
+      </c>
+      <c r="I12" t="s">
         <v>153</v>
       </c>
-      <c r="H12" t="s">
-        <v>154</v>
-      </c>
-      <c r="I12" t="s">
-        <v>155</v>
-      </c>
       <c r="K12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="L12" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M12" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="O12">
         <v>-999</v>
@@ -3466,159 +3463,159 @@
         <v>0</v>
       </c>
       <c r="R12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T12" t="s">
+        <v>154</v>
+      </c>
+      <c r="V12" t="s">
+        <v>155</v>
+      </c>
+      <c r="W12" t="s">
         <v>156</v>
       </c>
-      <c r="V12" t="s">
+      <c r="X12" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA12" t="s">
         <v>157</v>
       </c>
-      <c r="W12" t="s">
+      <c r="AB12" t="s">
         <v>158</v>
       </c>
-      <c r="X12" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA12" t="s">
+      <c r="AC12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE12" t="s">
         <v>159</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AF12" t="s">
         <v>160</v>
       </c>
-      <c r="AC12" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE12" t="s">
+      <c r="AJ12" t="s">
         <v>161</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AL12" t="s">
         <v>162</v>
       </c>
-      <c r="AJ12" t="s">
+      <c r="AM12" t="s">
         <v>163</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AN12" t="s">
         <v>164</v>
       </c>
-      <c r="AM12" t="s">
+      <c r="AQ12" t="s">
         <v>165</v>
       </c>
-      <c r="AN12" t="s">
+      <c r="AR12" t="s">
         <v>166</v>
       </c>
-      <c r="AQ12" t="s">
+      <c r="AU12" t="s">
         <v>167</v>
       </c>
-      <c r="AR12" t="s">
+      <c r="AW12" t="s">
         <v>168</v>
       </c>
-      <c r="AU12" t="s">
+      <c r="AX12" t="s">
         <v>169</v>
       </c>
-      <c r="AW12" t="s">
+      <c r="AY12" t="s">
         <v>170</v>
       </c>
-      <c r="AX12" t="s">
+      <c r="AZ12" t="s">
         <v>171</v>
       </c>
-      <c r="AY12" t="s">
+      <c r="BA12" t="s">
         <v>172</v>
       </c>
-      <c r="AZ12" t="s">
+      <c r="BB12" t="s">
         <v>173</v>
       </c>
-      <c r="BA12" t="s">
+      <c r="BC12" t="s">
         <v>174</v>
       </c>
-      <c r="BB12" t="s">
+      <c r="BD12" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE12" t="s">
         <v>175</v>
       </c>
-      <c r="BC12" t="s">
+      <c r="BF12" t="s">
         <v>176</v>
       </c>
-      <c r="BD12" t="s">
-        <v>78</v>
-      </c>
-      <c r="BE12" t="s">
+      <c r="BG12" t="s">
+        <v>123</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ12" t="s">
         <v>177</v>
       </c>
-      <c r="BF12" t="s">
+      <c r="BK12" t="s">
         <v>178</v>
       </c>
-      <c r="BG12" t="s">
-        <v>125</v>
-      </c>
-      <c r="BH12" t="s">
-        <v>126</v>
-      </c>
-      <c r="BJ12" t="s">
+      <c r="BL12" t="s">
         <v>179</v>
       </c>
-      <c r="BK12" t="s">
+      <c r="BO12" t="s">
         <v>180</v>
       </c>
-      <c r="BL12" t="s">
+      <c r="BP12" t="s">
         <v>181</v>
       </c>
-      <c r="BO12" t="s">
+      <c r="BQ12" t="s">
         <v>182</v>
       </c>
-      <c r="BP12" t="s">
+      <c r="BR12" t="s">
         <v>183</v>
       </c>
-      <c r="BQ12" t="s">
-        <v>184</v>
-      </c>
-      <c r="BR12" t="s">
-        <v>185</v>
-      </c>
       <c r="BU12" t="s">
+        <v>94</v>
+      </c>
+      <c r="BV12" t="s">
         <v>95</v>
-      </c>
-      <c r="BV12" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:75">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H13" t="s">
+        <v>152</v>
+      </c>
+      <c r="I13" t="s">
         <v>153</v>
       </c>
-      <c r="H13" t="s">
-        <v>154</v>
-      </c>
-      <c r="I13" t="s">
-        <v>155</v>
-      </c>
       <c r="K13" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="L13" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M13" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="O13">
         <v>-999</v>
@@ -3627,159 +3624,159 @@
         <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T13" t="s">
+        <v>154</v>
+      </c>
+      <c r="V13" t="s">
+        <v>155</v>
+      </c>
+      <c r="W13" t="s">
         <v>156</v>
       </c>
-      <c r="V13" t="s">
+      <c r="X13" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA13" t="s">
         <v>157</v>
       </c>
-      <c r="W13" t="s">
+      <c r="AB13" t="s">
         <v>158</v>
       </c>
-      <c r="X13" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA13" t="s">
+      <c r="AC13" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE13" t="s">
         <v>159</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AF13" t="s">
         <v>160</v>
       </c>
-      <c r="AC13" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE13" t="s">
+      <c r="AJ13" t="s">
         <v>161</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AL13" t="s">
         <v>162</v>
       </c>
-      <c r="AJ13" t="s">
+      <c r="AM13" t="s">
         <v>163</v>
       </c>
-      <c r="AL13" t="s">
+      <c r="AN13" t="s">
         <v>164</v>
       </c>
-      <c r="AM13" t="s">
+      <c r="AQ13" t="s">
         <v>165</v>
       </c>
-      <c r="AN13" t="s">
+      <c r="AR13" t="s">
         <v>166</v>
       </c>
-      <c r="AQ13" t="s">
+      <c r="AU13" t="s">
         <v>167</v>
       </c>
-      <c r="AR13" t="s">
+      <c r="AW13" t="s">
         <v>168</v>
       </c>
-      <c r="AU13" t="s">
+      <c r="AX13" t="s">
         <v>169</v>
       </c>
-      <c r="AW13" t="s">
+      <c r="AY13" t="s">
         <v>170</v>
       </c>
-      <c r="AX13" t="s">
+      <c r="AZ13" t="s">
         <v>171</v>
       </c>
-      <c r="AY13" t="s">
+      <c r="BA13" t="s">
         <v>172</v>
       </c>
-      <c r="AZ13" t="s">
+      <c r="BB13" t="s">
         <v>173</v>
       </c>
-      <c r="BA13" t="s">
+      <c r="BC13" t="s">
         <v>174</v>
       </c>
-      <c r="BB13" t="s">
+      <c r="BD13" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE13" t="s">
         <v>175</v>
       </c>
-      <c r="BC13" t="s">
+      <c r="BF13" t="s">
         <v>176</v>
       </c>
-      <c r="BD13" t="s">
-        <v>78</v>
-      </c>
-      <c r="BE13" t="s">
+      <c r="BG13" t="s">
+        <v>123</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ13" t="s">
         <v>177</v>
       </c>
-      <c r="BF13" t="s">
+      <c r="BK13" t="s">
         <v>178</v>
       </c>
-      <c r="BG13" t="s">
-        <v>125</v>
-      </c>
-      <c r="BH13" t="s">
-        <v>126</v>
-      </c>
-      <c r="BJ13" t="s">
+      <c r="BL13" t="s">
         <v>179</v>
       </c>
-      <c r="BK13" t="s">
+      <c r="BO13" t="s">
         <v>180</v>
       </c>
-      <c r="BL13" t="s">
+      <c r="BP13" t="s">
         <v>181</v>
       </c>
-      <c r="BO13" t="s">
+      <c r="BQ13" t="s">
         <v>182</v>
       </c>
-      <c r="BP13" t="s">
+      <c r="BR13" t="s">
         <v>183</v>
       </c>
-      <c r="BQ13" t="s">
-        <v>184</v>
-      </c>
-      <c r="BR13" t="s">
-        <v>185</v>
-      </c>
       <c r="BU13" t="s">
+        <v>94</v>
+      </c>
+      <c r="BV13" t="s">
         <v>95</v>
-      </c>
-      <c r="BV13" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:75">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G14" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" t="s">
+        <v>152</v>
+      </c>
+      <c r="I14" t="s">
         <v>153</v>
       </c>
-      <c r="H14" t="s">
-        <v>154</v>
-      </c>
-      <c r="I14" t="s">
-        <v>155</v>
-      </c>
       <c r="K14" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="L14" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M14" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="O14">
         <v>-999</v>
@@ -3788,162 +3785,162 @@
         <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T14" t="s">
+        <v>154</v>
+      </c>
+      <c r="V14" t="s">
+        <v>155</v>
+      </c>
+      <c r="W14" t="s">
         <v>156</v>
       </c>
-      <c r="V14" t="s">
+      <c r="X14" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA14" t="s">
         <v>157</v>
       </c>
-      <c r="W14" t="s">
+      <c r="AB14" t="s">
         <v>158</v>
       </c>
-      <c r="X14" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA14" t="s">
+      <c r="AC14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE14" t="s">
         <v>159</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AF14" t="s">
         <v>160</v>
       </c>
-      <c r="AC14" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE14" t="s">
+      <c r="AJ14" t="s">
         <v>161</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AL14" t="s">
         <v>162</v>
       </c>
-      <c r="AJ14" t="s">
+      <c r="AM14" t="s">
         <v>163</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AN14" t="s">
         <v>164</v>
       </c>
-      <c r="AM14" t="s">
+      <c r="AQ14" t="s">
         <v>165</v>
       </c>
-      <c r="AN14" t="s">
+      <c r="AR14" t="s">
         <v>166</v>
       </c>
-      <c r="AQ14" t="s">
+      <c r="AU14" t="s">
         <v>167</v>
       </c>
-      <c r="AR14" t="s">
+      <c r="AW14" t="s">
         <v>168</v>
       </c>
-      <c r="AU14" t="s">
+      <c r="AX14" t="s">
         <v>169</v>
       </c>
-      <c r="AW14" t="s">
+      <c r="AY14" t="s">
         <v>170</v>
       </c>
-      <c r="AX14" t="s">
+      <c r="AZ14" t="s">
         <v>171</v>
       </c>
-      <c r="AY14" t="s">
+      <c r="BA14" t="s">
         <v>172</v>
       </c>
-      <c r="AZ14" t="s">
+      <c r="BB14" t="s">
         <v>173</v>
       </c>
-      <c r="BA14" t="s">
+      <c r="BC14" t="s">
         <v>174</v>
       </c>
-      <c r="BB14" t="s">
+      <c r="BD14" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE14" t="s">
         <v>175</v>
       </c>
-      <c r="BC14" t="s">
+      <c r="BF14" t="s">
         <v>176</v>
       </c>
-      <c r="BD14" t="s">
-        <v>78</v>
-      </c>
-      <c r="BE14" t="s">
+      <c r="BG14" t="s">
+        <v>123</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ14" t="s">
         <v>177</v>
       </c>
-      <c r="BF14" t="s">
+      <c r="BK14" t="s">
         <v>178</v>
       </c>
-      <c r="BG14" t="s">
-        <v>125</v>
-      </c>
-      <c r="BH14" t="s">
-        <v>126</v>
-      </c>
-      <c r="BJ14" t="s">
+      <c r="BL14" t="s">
         <v>179</v>
       </c>
-      <c r="BK14" t="s">
+      <c r="BO14" t="s">
         <v>180</v>
       </c>
-      <c r="BL14" t="s">
+      <c r="BP14" t="s">
         <v>181</v>
       </c>
-      <c r="BO14" t="s">
+      <c r="BQ14" t="s">
         <v>182</v>
       </c>
-      <c r="BP14" t="s">
+      <c r="BR14" t="s">
         <v>183</v>
       </c>
-      <c r="BQ14" t="s">
-        <v>184</v>
-      </c>
-      <c r="BR14" t="s">
-        <v>185</v>
-      </c>
       <c r="BU14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BV14" t="s">
         <v>95</v>
-      </c>
-      <c r="BV14" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:75">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G15" t="s">
+        <v>191</v>
+      </c>
+      <c r="H15" t="s">
+        <v>192</v>
+      </c>
+      <c r="I15" t="s">
         <v>193</v>
       </c>
-      <c r="H15" t="s">
+      <c r="J15" t="s">
         <v>194</v>
       </c>
-      <c r="I15" t="s">
-        <v>195</v>
-      </c>
-      <c r="J15" t="s">
-        <v>196</v>
-      </c>
       <c r="K15" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="L15" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="O15">
         <v>-9999</v>
@@ -3952,150 +3949,150 @@
         <v>-8888</v>
       </c>
       <c r="R15" t="s">
+        <v>195</v>
+      </c>
+      <c r="T15" t="s">
+        <v>196</v>
+      </c>
+      <c r="V15" t="s">
         <v>197</v>
       </c>
-      <c r="T15" t="s">
+      <c r="W15" t="s">
         <v>198</v>
       </c>
-      <c r="V15" t="s">
+      <c r="X15" t="s">
         <v>199</v>
       </c>
-      <c r="W15" t="s">
+      <c r="Y15" t="s">
         <v>200</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Z15" t="s">
         <v>201</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="AA15" t="s">
         <v>202</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AB15" t="s">
         <v>203</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AC15" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD15" t="s">
         <v>204</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AE15" t="s">
         <v>205</v>
       </c>
-      <c r="AC15" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD15" t="s">
+      <c r="AF15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ15" t="s">
         <v>206</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AL15" t="s">
         <v>207</v>
       </c>
-      <c r="AF15" t="s">
-        <v>162</v>
-      </c>
-      <c r="AJ15" t="s">
+      <c r="AM15" t="s">
         <v>208</v>
       </c>
-      <c r="AL15" t="s">
+      <c r="AN15" t="s">
         <v>209</v>
       </c>
-      <c r="AM15" t="s">
+      <c r="AQ15" t="s">
         <v>210</v>
       </c>
-      <c r="AN15" t="s">
+      <c r="AR15" t="s">
         <v>211</v>
       </c>
-      <c r="AQ15" t="s">
+      <c r="AT15" t="s">
         <v>212</v>
       </c>
-      <c r="AR15" t="s">
+      <c r="AY15" t="s">
         <v>213</v>
       </c>
-      <c r="AT15" t="s">
+      <c r="BA15" t="s">
         <v>214</v>
       </c>
-      <c r="AY15" t="s">
+      <c r="BB15" t="s">
         <v>215</v>
       </c>
-      <c r="BA15" t="s">
+      <c r="BC15" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>175</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>176</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>123</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>177</v>
+      </c>
+      <c r="BO15" t="s">
         <v>216</v>
       </c>
-      <c r="BB15" t="s">
+      <c r="BP15" t="s">
+        <v>181</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>182</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>183</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>94</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>95</v>
+      </c>
+      <c r="BW15" t="s">
         <v>217</v>
-      </c>
-      <c r="BC15" t="s">
-        <v>176</v>
-      </c>
-      <c r="BD15" t="s">
-        <v>78</v>
-      </c>
-      <c r="BE15" t="s">
-        <v>177</v>
-      </c>
-      <c r="BF15" t="s">
-        <v>178</v>
-      </c>
-      <c r="BG15" t="s">
-        <v>125</v>
-      </c>
-      <c r="BJ15" t="s">
-        <v>179</v>
-      </c>
-      <c r="BO15" t="s">
-        <v>218</v>
-      </c>
-      <c r="BP15" t="s">
-        <v>183</v>
-      </c>
-      <c r="BQ15" t="s">
-        <v>184</v>
-      </c>
-      <c r="BR15" t="s">
-        <v>185</v>
-      </c>
-      <c r="BU15" t="s">
-        <v>95</v>
-      </c>
-      <c r="BV15" t="s">
-        <v>96</v>
-      </c>
-      <c r="BW15" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:75">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G16" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" t="s">
+        <v>152</v>
+      </c>
+      <c r="I16" t="s">
         <v>153</v>
       </c>
-      <c r="H16" t="s">
-        <v>154</v>
-      </c>
-      <c r="I16" t="s">
-        <v>155</v>
-      </c>
       <c r="K16" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="L16" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M16" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="O16">
         <v>-999</v>
@@ -4104,159 +4101,159 @@
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T16" t="s">
+        <v>154</v>
+      </c>
+      <c r="V16" t="s">
+        <v>155</v>
+      </c>
+      <c r="W16" t="s">
         <v>156</v>
       </c>
-      <c r="V16" t="s">
+      <c r="X16" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA16" t="s">
         <v>157</v>
       </c>
-      <c r="W16" t="s">
+      <c r="AB16" t="s">
         <v>158</v>
       </c>
-      <c r="X16" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA16" t="s">
+      <c r="AC16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE16" t="s">
         <v>159</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AF16" t="s">
         <v>160</v>
       </c>
-      <c r="AC16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE16" t="s">
+      <c r="AJ16" t="s">
         <v>161</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AL16" t="s">
         <v>162</v>
       </c>
-      <c r="AJ16" t="s">
+      <c r="AM16" t="s">
         <v>163</v>
       </c>
-      <c r="AL16" t="s">
+      <c r="AN16" t="s">
         <v>164</v>
       </c>
-      <c r="AM16" t="s">
+      <c r="AQ16" t="s">
         <v>165</v>
       </c>
-      <c r="AN16" t="s">
+      <c r="AR16" t="s">
         <v>166</v>
       </c>
-      <c r="AQ16" t="s">
+      <c r="AU16" t="s">
         <v>167</v>
       </c>
-      <c r="AR16" t="s">
+      <c r="AW16" t="s">
         <v>168</v>
       </c>
-      <c r="AU16" t="s">
+      <c r="AX16" t="s">
         <v>169</v>
       </c>
-      <c r="AW16" t="s">
+      <c r="AY16" t="s">
         <v>170</v>
       </c>
-      <c r="AX16" t="s">
+      <c r="AZ16" t="s">
         <v>171</v>
       </c>
-      <c r="AY16" t="s">
+      <c r="BA16" t="s">
         <v>172</v>
       </c>
-      <c r="AZ16" t="s">
+      <c r="BB16" t="s">
         <v>173</v>
       </c>
-      <c r="BA16" t="s">
+      <c r="BC16" t="s">
         <v>174</v>
       </c>
-      <c r="BB16" t="s">
+      <c r="BD16" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE16" t="s">
         <v>175</v>
       </c>
-      <c r="BC16" t="s">
+      <c r="BF16" t="s">
         <v>176</v>
       </c>
-      <c r="BD16" t="s">
-        <v>78</v>
-      </c>
-      <c r="BE16" t="s">
+      <c r="BG16" t="s">
+        <v>123</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ16" t="s">
         <v>177</v>
       </c>
-      <c r="BF16" t="s">
+      <c r="BK16" t="s">
         <v>178</v>
       </c>
-      <c r="BG16" t="s">
-        <v>125</v>
-      </c>
-      <c r="BH16" t="s">
-        <v>126</v>
-      </c>
-      <c r="BJ16" t="s">
+      <c r="BL16" t="s">
         <v>179</v>
       </c>
-      <c r="BK16" t="s">
+      <c r="BO16" t="s">
         <v>180</v>
       </c>
-      <c r="BL16" t="s">
+      <c r="BP16" t="s">
         <v>181</v>
       </c>
-      <c r="BO16" t="s">
+      <c r="BQ16" t="s">
         <v>182</v>
       </c>
-      <c r="BP16" t="s">
+      <c r="BR16" t="s">
         <v>183</v>
       </c>
-      <c r="BQ16" t="s">
-        <v>184</v>
-      </c>
-      <c r="BR16" t="s">
-        <v>185</v>
-      </c>
       <c r="BU16" t="s">
+        <v>94</v>
+      </c>
+      <c r="BV16" t="s">
         <v>95</v>
-      </c>
-      <c r="BV16" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:75">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G17" t="s">
+        <v>151</v>
+      </c>
+      <c r="H17" t="s">
+        <v>152</v>
+      </c>
+      <c r="I17" t="s">
         <v>153</v>
       </c>
-      <c r="H17" t="s">
-        <v>154</v>
-      </c>
-      <c r="I17" t="s">
-        <v>155</v>
-      </c>
       <c r="K17" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L17" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="O17">
         <v>-999</v>
@@ -4265,301 +4262,301 @@
         <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T17" t="s">
+        <v>154</v>
+      </c>
+      <c r="V17" t="s">
+        <v>155</v>
+      </c>
+      <c r="W17" t="s">
         <v>156</v>
       </c>
-      <c r="V17" t="s">
+      <c r="X17" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA17" t="s">
         <v>157</v>
       </c>
-      <c r="W17" t="s">
+      <c r="AB17" t="s">
         <v>158</v>
       </c>
-      <c r="X17" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA17" t="s">
+      <c r="AC17" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE17" t="s">
         <v>159</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AF17" t="s">
         <v>160</v>
       </c>
-      <c r="AC17" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE17" t="s">
+      <c r="AJ17" t="s">
         <v>161</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AL17" t="s">
         <v>162</v>
       </c>
-      <c r="AJ17" t="s">
+      <c r="AM17" t="s">
         <v>163</v>
       </c>
-      <c r="AL17" t="s">
+      <c r="AN17" t="s">
         <v>164</v>
       </c>
-      <c r="AM17" t="s">
+      <c r="AQ17" t="s">
         <v>165</v>
       </c>
-      <c r="AN17" t="s">
+      <c r="AR17" t="s">
         <v>166</v>
       </c>
-      <c r="AQ17" t="s">
+      <c r="AU17" t="s">
         <v>167</v>
       </c>
-      <c r="AR17" t="s">
+      <c r="AW17" t="s">
         <v>168</v>
       </c>
-      <c r="AU17" t="s">
+      <c r="AX17" t="s">
         <v>169</v>
       </c>
-      <c r="AW17" t="s">
+      <c r="AY17" t="s">
         <v>170</v>
       </c>
-      <c r="AX17" t="s">
+      <c r="AZ17" t="s">
         <v>171</v>
       </c>
-      <c r="AY17" t="s">
+      <c r="BA17" t="s">
         <v>172</v>
       </c>
-      <c r="AZ17" t="s">
+      <c r="BB17" t="s">
         <v>173</v>
       </c>
-      <c r="BA17" t="s">
+      <c r="BC17" t="s">
         <v>174</v>
       </c>
-      <c r="BB17" t="s">
+      <c r="BD17" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE17" t="s">
         <v>175</v>
       </c>
-      <c r="BC17" t="s">
+      <c r="BF17" t="s">
         <v>176</v>
       </c>
-      <c r="BD17" t="s">
-        <v>78</v>
-      </c>
-      <c r="BE17" t="s">
+      <c r="BG17" t="s">
+        <v>123</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ17" t="s">
         <v>177</v>
       </c>
-      <c r="BF17" t="s">
+      <c r="BK17" t="s">
         <v>178</v>
       </c>
-      <c r="BG17" t="s">
-        <v>125</v>
-      </c>
-      <c r="BH17" t="s">
-        <v>126</v>
-      </c>
-      <c r="BJ17" t="s">
+      <c r="BL17" t="s">
         <v>179</v>
       </c>
-      <c r="BK17" t="s">
+      <c r="BO17" t="s">
         <v>180</v>
       </c>
-      <c r="BL17" t="s">
+      <c r="BP17" t="s">
         <v>181</v>
       </c>
-      <c r="BO17" t="s">
+      <c r="BQ17" t="s">
         <v>182</v>
       </c>
-      <c r="BP17" t="s">
+      <c r="BR17" t="s">
         <v>183</v>
       </c>
-      <c r="BQ17" t="s">
-        <v>184</v>
-      </c>
-      <c r="BR17" t="s">
-        <v>185</v>
-      </c>
       <c r="BU17" t="s">
+        <v>94</v>
+      </c>
+      <c r="BV17" t="s">
         <v>95</v>
-      </c>
-      <c r="BV17" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:75">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G18" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H18" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="M18" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="R18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="V18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="X18" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB18" t="s">
         <v>274</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AC18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG18" t="s">
         <v>275</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>276</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>207</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:75">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G19" t="s">
+        <v>300</v>
+      </c>
+      <c r="H19" t="s">
+        <v>298</v>
+      </c>
+      <c r="I19" t="s">
+        <v>301</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="M19" t="s">
         <v>302</v>
       </c>
-      <c r="H19" t="s">
-        <v>300</v>
-      </c>
-      <c r="I19" t="s">
-        <v>303</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="M19" t="s">
-        <v>304</v>
-      </c>
       <c r="R19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="V19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="X19" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB19" t="s">
         <v>274</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AC19" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG19" t="s">
         <v>275</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>276</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>207</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:75">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E20" t="s">
         <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G20" t="s">
+        <v>191</v>
+      </c>
+      <c r="H20" t="s">
+        <v>192</v>
+      </c>
+      <c r="I20" t="s">
         <v>193</v>
       </c>
-      <c r="H20" t="s">
+      <c r="J20" t="s">
         <v>194</v>
       </c>
-      <c r="I20" t="s">
-        <v>195</v>
-      </c>
-      <c r="J20" t="s">
-        <v>196</v>
-      </c>
       <c r="K20" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="L20" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M20" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="O20">
         <v>-9999</v>
@@ -4568,156 +4565,156 @@
         <v>-8888</v>
       </c>
       <c r="R20" t="s">
+        <v>195</v>
+      </c>
+      <c r="T20" t="s">
+        <v>196</v>
+      </c>
+      <c r="V20" t="s">
         <v>197</v>
       </c>
-      <c r="T20" t="s">
+      <c r="W20" t="s">
         <v>198</v>
       </c>
-      <c r="V20" t="s">
+      <c r="X20" t="s">
         <v>199</v>
       </c>
-      <c r="W20" t="s">
+      <c r="Y20" t="s">
         <v>200</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Z20" t="s">
         <v>201</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="AA20" t="s">
         <v>202</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AB20" t="s">
         <v>203</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AC20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD20" t="s">
         <v>204</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AE20" t="s">
         <v>205</v>
       </c>
-      <c r="AC20" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD20" t="s">
+      <c r="AF20" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ20" t="s">
         <v>206</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AL20" t="s">
         <v>207</v>
       </c>
-      <c r="AF20" t="s">
-        <v>162</v>
-      </c>
-      <c r="AJ20" t="s">
+      <c r="AM20" t="s">
         <v>208</v>
       </c>
-      <c r="AL20" t="s">
+      <c r="AN20" t="s">
         <v>209</v>
       </c>
-      <c r="AM20" t="s">
+      <c r="AQ20" t="s">
         <v>210</v>
       </c>
-      <c r="AN20" t="s">
+      <c r="AR20" t="s">
         <v>211</v>
       </c>
-      <c r="AQ20" t="s">
+      <c r="AT20" t="s">
         <v>212</v>
       </c>
-      <c r="AR20" t="s">
+      <c r="AY20" t="s">
         <v>213</v>
       </c>
-      <c r="AT20" t="s">
+      <c r="BA20" t="s">
         <v>214</v>
       </c>
-      <c r="AY20" t="s">
+      <c r="BB20" t="s">
         <v>215</v>
       </c>
-      <c r="BA20" t="s">
+      <c r="BC20" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>175</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>176</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>123</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>177</v>
+      </c>
+      <c r="BO20" t="s">
         <v>216</v>
       </c>
-      <c r="BB20" t="s">
+      <c r="BP20" t="s">
+        <v>181</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>182</v>
+      </c>
+      <c r="BR20" t="s">
+        <v>183</v>
+      </c>
+      <c r="BU20" t="s">
+        <v>94</v>
+      </c>
+      <c r="BV20" t="s">
+        <v>95</v>
+      </c>
+      <c r="BW20" t="s">
         <v>217</v>
-      </c>
-      <c r="BC20" t="s">
-        <v>176</v>
-      </c>
-      <c r="BD20" t="s">
-        <v>78</v>
-      </c>
-      <c r="BE20" t="s">
-        <v>177</v>
-      </c>
-      <c r="BF20" t="s">
-        <v>178</v>
-      </c>
-      <c r="BG20" t="s">
-        <v>125</v>
-      </c>
-      <c r="BH20" t="s">
-        <v>126</v>
-      </c>
-      <c r="BJ20" t="s">
-        <v>179</v>
-      </c>
-      <c r="BO20" t="s">
-        <v>218</v>
-      </c>
-      <c r="BP20" t="s">
-        <v>183</v>
-      </c>
-      <c r="BQ20" t="s">
-        <v>184</v>
-      </c>
-      <c r="BR20" t="s">
-        <v>185</v>
-      </c>
-      <c r="BU20" t="s">
-        <v>95</v>
-      </c>
-      <c r="BV20" t="s">
-        <v>96</v>
-      </c>
-      <c r="BW20" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:75">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E21" t="s">
         <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G21" t="s">
+        <v>191</v>
+      </c>
+      <c r="H21" t="s">
+        <v>192</v>
+      </c>
+      <c r="I21" t="s">
         <v>193</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
         <v>194</v>
       </c>
-      <c r="I21" t="s">
-        <v>195</v>
-      </c>
-      <c r="J21" t="s">
-        <v>196</v>
-      </c>
       <c r="K21" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="L21" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M21" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="O21">
         <v>-9999</v>
@@ -4726,153 +4723,153 @@
         <v>-8888</v>
       </c>
       <c r="R21" t="s">
+        <v>195</v>
+      </c>
+      <c r="T21" t="s">
+        <v>196</v>
+      </c>
+      <c r="V21" t="s">
         <v>197</v>
       </c>
-      <c r="T21" t="s">
+      <c r="W21" t="s">
         <v>198</v>
       </c>
-      <c r="V21" t="s">
+      <c r="X21" t="s">
         <v>199</v>
       </c>
-      <c r="W21" t="s">
+      <c r="Y21" t="s">
         <v>200</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Z21" t="s">
         <v>201</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="AA21" t="s">
         <v>202</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AB21" t="s">
         <v>203</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AC21" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD21" t="s">
         <v>204</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AE21" t="s">
         <v>205</v>
       </c>
-      <c r="AC21" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD21" t="s">
+      <c r="AF21" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ21" t="s">
         <v>206</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AL21" t="s">
         <v>207</v>
       </c>
-      <c r="AF21" t="s">
-        <v>162</v>
-      </c>
-      <c r="AJ21" t="s">
+      <c r="AM21" t="s">
         <v>208</v>
       </c>
-      <c r="AL21" t="s">
+      <c r="AN21" t="s">
         <v>209</v>
       </c>
-      <c r="AM21" t="s">
+      <c r="AQ21" t="s">
         <v>210</v>
       </c>
-      <c r="AN21" t="s">
+      <c r="AR21" t="s">
         <v>211</v>
       </c>
-      <c r="AQ21" t="s">
+      <c r="AT21" t="s">
         <v>212</v>
       </c>
-      <c r="AR21" t="s">
+      <c r="AY21" t="s">
         <v>213</v>
       </c>
-      <c r="AT21" t="s">
+      <c r="BA21" t="s">
         <v>214</v>
       </c>
-      <c r="AY21" t="s">
+      <c r="BB21" t="s">
         <v>215</v>
       </c>
-      <c r="BA21" t="s">
+      <c r="BC21" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>175</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>176</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>123</v>
+      </c>
+      <c r="BJ21" t="s">
+        <v>177</v>
+      </c>
+      <c r="BO21" t="s">
         <v>216</v>
       </c>
-      <c r="BB21" t="s">
+      <c r="BP21" t="s">
+        <v>181</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>182</v>
+      </c>
+      <c r="BR21" t="s">
+        <v>183</v>
+      </c>
+      <c r="BU21" t="s">
+        <v>94</v>
+      </c>
+      <c r="BV21" t="s">
+        <v>95</v>
+      </c>
+      <c r="BW21" t="s">
         <v>217</v>
-      </c>
-      <c r="BC21" t="s">
-        <v>176</v>
-      </c>
-      <c r="BD21" t="s">
-        <v>78</v>
-      </c>
-      <c r="BE21" t="s">
-        <v>177</v>
-      </c>
-      <c r="BF21" t="s">
-        <v>178</v>
-      </c>
-      <c r="BG21" t="s">
-        <v>125</v>
-      </c>
-      <c r="BJ21" t="s">
-        <v>179</v>
-      </c>
-      <c r="BO21" t="s">
-        <v>218</v>
-      </c>
-      <c r="BP21" t="s">
-        <v>183</v>
-      </c>
-      <c r="BQ21" t="s">
-        <v>184</v>
-      </c>
-      <c r="BR21" t="s">
-        <v>185</v>
-      </c>
-      <c r="BU21" t="s">
-        <v>95</v>
-      </c>
-      <c r="BV21" t="s">
-        <v>96</v>
-      </c>
-      <c r="BW21" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:75">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B22" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E22" t="s">
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G22" t="s">
+        <v>191</v>
+      </c>
+      <c r="H22" t="s">
+        <v>192</v>
+      </c>
+      <c r="I22" t="s">
         <v>193</v>
       </c>
-      <c r="H22" t="s">
+      <c r="J22" t="s">
         <v>194</v>
       </c>
-      <c r="I22" t="s">
-        <v>195</v>
-      </c>
-      <c r="J22" t="s">
-        <v>196</v>
-      </c>
       <c r="K22" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="L22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M22" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="O22">
         <v>-9999</v>
@@ -4881,144 +4878,144 @@
         <v>-8888</v>
       </c>
       <c r="R22" t="s">
+        <v>195</v>
+      </c>
+      <c r="T22" t="s">
+        <v>196</v>
+      </c>
+      <c r="V22" t="s">
         <v>197</v>
       </c>
-      <c r="T22" t="s">
+      <c r="W22" t="s">
         <v>198</v>
       </c>
-      <c r="V22" t="s">
+      <c r="X22" t="s">
         <v>199</v>
       </c>
-      <c r="W22" t="s">
+      <c r="Y22" t="s">
         <v>200</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Z22" t="s">
         <v>201</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="AA22" t="s">
         <v>202</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AB22" t="s">
         <v>203</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AC22" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD22" t="s">
         <v>204</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AE22" t="s">
         <v>205</v>
       </c>
-      <c r="AC22" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD22" t="s">
+      <c r="AF22" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ22" t="s">
         <v>206</v>
       </c>
-      <c r="AE22" t="s">
-        <v>207</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>162</v>
-      </c>
-      <c r="AJ22" t="s">
+      <c r="AM22" t="s">
         <v>208</v>
       </c>
-      <c r="AM22" t="s">
+      <c r="AN22" t="s">
+        <v>209</v>
+      </c>
+      <c r="AQ22" t="s">
         <v>210</v>
       </c>
-      <c r="AN22" t="s">
-        <v>211</v>
-      </c>
-      <c r="AQ22" t="s">
+      <c r="AT22" t="s">
         <v>212</v>
       </c>
-      <c r="AT22" t="s">
+      <c r="AY22" t="s">
+        <v>213</v>
+      </c>
+      <c r="BA22" t="s">
         <v>214</v>
       </c>
-      <c r="AY22" t="s">
+      <c r="BB22" t="s">
         <v>215</v>
       </c>
-      <c r="BA22" t="s">
+      <c r="BC22" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>175</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>176</v>
+      </c>
+      <c r="BH22" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ22" t="s">
+        <v>177</v>
+      </c>
+      <c r="BO22" t="s">
         <v>216</v>
       </c>
-      <c r="BB22" t="s">
-        <v>217</v>
-      </c>
-      <c r="BC22" t="s">
-        <v>176</v>
-      </c>
-      <c r="BD22" t="s">
-        <v>78</v>
-      </c>
-      <c r="BE22" t="s">
-        <v>177</v>
-      </c>
-      <c r="BF22" t="s">
-        <v>178</v>
-      </c>
-      <c r="BH22" t="s">
-        <v>126</v>
-      </c>
-      <c r="BJ22" t="s">
-        <v>179</v>
-      </c>
-      <c r="BO22" t="s">
-        <v>218</v>
-      </c>
       <c r="BP22" t="s">
+        <v>181</v>
+      </c>
+      <c r="BQ22" t="s">
+        <v>182</v>
+      </c>
+      <c r="BR22" t="s">
         <v>183</v>
       </c>
-      <c r="BQ22" t="s">
-        <v>184</v>
-      </c>
-      <c r="BR22" t="s">
-        <v>185</v>
-      </c>
       <c r="BU22" t="s">
+        <v>94</v>
+      </c>
+      <c r="BV22" t="s">
         <v>95</v>
-      </c>
-      <c r="BV22" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:75">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E23" t="s">
         <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G23" t="s">
+        <v>191</v>
+      </c>
+      <c r="H23" t="s">
+        <v>192</v>
+      </c>
+      <c r="I23" t="s">
         <v>193</v>
       </c>
-      <c r="H23" t="s">
+      <c r="J23" t="s">
         <v>194</v>
       </c>
-      <c r="I23" t="s">
-        <v>195</v>
-      </c>
-      <c r="J23" t="s">
-        <v>196</v>
-      </c>
       <c r="K23" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="L23" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M23" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="O23">
         <v>-9999</v>
@@ -5027,147 +5024,147 @@
         <v>-8888</v>
       </c>
       <c r="R23" t="s">
+        <v>195</v>
+      </c>
+      <c r="T23" t="s">
+        <v>196</v>
+      </c>
+      <c r="V23" t="s">
         <v>197</v>
       </c>
-      <c r="T23" t="s">
+      <c r="W23" t="s">
         <v>198</v>
       </c>
-      <c r="V23" t="s">
+      <c r="X23" t="s">
         <v>199</v>
       </c>
-      <c r="W23" t="s">
+      <c r="Y23" t="s">
         <v>200</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Z23" t="s">
         <v>201</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="AA23" t="s">
         <v>202</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AB23" t="s">
         <v>203</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AC23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD23" t="s">
         <v>204</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AE23" t="s">
         <v>205</v>
       </c>
-      <c r="AC23" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD23" t="s">
+      <c r="AF23" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ23" t="s">
         <v>206</v>
       </c>
-      <c r="AE23" t="s">
-        <v>207</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>162</v>
-      </c>
-      <c r="AJ23" t="s">
+      <c r="AM23" t="s">
         <v>208</v>
       </c>
-      <c r="AM23" t="s">
+      <c r="AN23" t="s">
+        <v>209</v>
+      </c>
+      <c r="AQ23" t="s">
         <v>210</v>
       </c>
-      <c r="AN23" t="s">
-        <v>211</v>
-      </c>
-      <c r="AQ23" t="s">
+      <c r="AT23" t="s">
         <v>212</v>
       </c>
-      <c r="AT23" t="s">
+      <c r="AY23" t="s">
+        <v>213</v>
+      </c>
+      <c r="BA23" t="s">
         <v>214</v>
       </c>
-      <c r="AY23" t="s">
+      <c r="BB23" t="s">
         <v>215</v>
       </c>
-      <c r="BA23" t="s">
+      <c r="BC23" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>175</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>176</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ23" t="s">
+        <v>177</v>
+      </c>
+      <c r="BO23" t="s">
         <v>216</v>
       </c>
-      <c r="BB23" t="s">
+      <c r="BP23" t="s">
+        <v>181</v>
+      </c>
+      <c r="BQ23" t="s">
+        <v>182</v>
+      </c>
+      <c r="BR23" t="s">
+        <v>183</v>
+      </c>
+      <c r="BU23" t="s">
+        <v>94</v>
+      </c>
+      <c r="BV23" t="s">
+        <v>95</v>
+      </c>
+      <c r="BW23" t="s">
         <v>217</v>
-      </c>
-      <c r="BC23" t="s">
-        <v>176</v>
-      </c>
-      <c r="BD23" t="s">
-        <v>78</v>
-      </c>
-      <c r="BE23" t="s">
-        <v>177</v>
-      </c>
-      <c r="BF23" t="s">
-        <v>178</v>
-      </c>
-      <c r="BH23" t="s">
-        <v>126</v>
-      </c>
-      <c r="BJ23" t="s">
-        <v>179</v>
-      </c>
-      <c r="BO23" t="s">
-        <v>218</v>
-      </c>
-      <c r="BP23" t="s">
-        <v>183</v>
-      </c>
-      <c r="BQ23" t="s">
-        <v>184</v>
-      </c>
-      <c r="BR23" t="s">
-        <v>185</v>
-      </c>
-      <c r="BU23" t="s">
-        <v>95</v>
-      </c>
-      <c r="BV23" t="s">
-        <v>96</v>
-      </c>
-      <c r="BW23" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:75">
       <c r="A24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B24" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E24" t="s">
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G24" t="s">
+        <v>191</v>
+      </c>
+      <c r="H24" t="s">
+        <v>192</v>
+      </c>
+      <c r="I24" t="s">
         <v>193</v>
       </c>
-      <c r="H24" t="s">
+      <c r="J24" t="s">
         <v>194</v>
       </c>
-      <c r="I24" t="s">
-        <v>195</v>
-      </c>
-      <c r="J24" t="s">
-        <v>196</v>
-      </c>
       <c r="K24" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="L24" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M24" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="O24">
         <v>-9999</v>
@@ -5176,186 +5173,189 @@
         <v>-8888</v>
       </c>
       <c r="R24" t="s">
+        <v>195</v>
+      </c>
+      <c r="T24" t="s">
+        <v>196</v>
+      </c>
+      <c r="V24" t="s">
         <v>197</v>
       </c>
-      <c r="T24" t="s">
+      <c r="W24" t="s">
         <v>198</v>
       </c>
-      <c r="V24" t="s">
+      <c r="X24" t="s">
         <v>199</v>
       </c>
-      <c r="W24" t="s">
+      <c r="Y24" t="s">
         <v>200</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Z24" t="s">
         <v>201</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="AA24" t="s">
         <v>202</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AB24" t="s">
         <v>203</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AC24" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD24" t="s">
         <v>204</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AE24" t="s">
         <v>205</v>
       </c>
-      <c r="AC24" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD24" t="s">
+      <c r="AF24" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ24" t="s">
         <v>206</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AL24" t="s">
         <v>207</v>
       </c>
-      <c r="AF24" t="s">
-        <v>162</v>
-      </c>
-      <c r="AJ24" t="s">
+      <c r="AM24" t="s">
         <v>208</v>
       </c>
-      <c r="AL24" t="s">
+      <c r="AN24" t="s">
         <v>209</v>
       </c>
-      <c r="AM24" t="s">
+      <c r="AQ24" t="s">
         <v>210</v>
       </c>
-      <c r="AN24" t="s">
+      <c r="AR24" t="s">
         <v>211</v>
       </c>
-      <c r="AQ24" t="s">
+      <c r="AT24" t="s">
         <v>212</v>
       </c>
-      <c r="AR24" t="s">
+      <c r="AY24" t="s">
         <v>213</v>
       </c>
-      <c r="AT24" t="s">
+      <c r="BA24" t="s">
         <v>214</v>
       </c>
-      <c r="AY24" t="s">
+      <c r="BB24" t="s">
         <v>215</v>
       </c>
-      <c r="BA24" t="s">
+      <c r="BC24" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>175</v>
+      </c>
+      <c r="BF24" t="s">
+        <v>176</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>123</v>
+      </c>
+      <c r="BH24" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ24" t="s">
+        <v>177</v>
+      </c>
+      <c r="BO24" t="s">
         <v>216</v>
       </c>
-      <c r="BB24" t="s">
+      <c r="BP24" t="s">
+        <v>181</v>
+      </c>
+      <c r="BQ24" t="s">
+        <v>182</v>
+      </c>
+      <c r="BR24" t="s">
+        <v>183</v>
+      </c>
+      <c r="BU24" t="s">
+        <v>94</v>
+      </c>
+      <c r="BV24" t="s">
+        <v>95</v>
+      </c>
+      <c r="BW24" t="s">
         <v>217</v>
-      </c>
-      <c r="BC24" t="s">
-        <v>176</v>
-      </c>
-      <c r="BD24" t="s">
-        <v>78</v>
-      </c>
-      <c r="BE24" t="s">
-        <v>177</v>
-      </c>
-      <c r="BF24" t="s">
-        <v>178</v>
-      </c>
-      <c r="BG24" t="s">
-        <v>125</v>
-      </c>
-      <c r="BH24" t="s">
-        <v>126</v>
-      </c>
-      <c r="BJ24" t="s">
-        <v>179</v>
-      </c>
-      <c r="BO24" t="s">
-        <v>218</v>
-      </c>
-      <c r="BP24" t="s">
-        <v>183</v>
-      </c>
-      <c r="BQ24" t="s">
-        <v>184</v>
-      </c>
-      <c r="BR24" t="s">
-        <v>185</v>
-      </c>
-      <c r="BU24" t="s">
-        <v>95</v>
-      </c>
-      <c r="BV24" t="s">
-        <v>96</v>
-      </c>
-      <c r="BW24" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:75">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B25" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C25" t="s">
+        <v>285</v>
+      </c>
+      <c r="D25" t="s">
+        <v>412</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F25" t="s">
+        <v>286</v>
+      </c>
+      <c r="G25" t="s">
+        <v>291</v>
+      </c>
+      <c r="H25" t="s">
+        <v>294</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="J25" t="s">
+        <v>292</v>
+      </c>
+      <c r="K25" t="s">
+        <v>410</v>
+      </c>
+      <c r="L25" t="s">
+        <v>423</v>
+      </c>
+      <c r="M25" t="s">
+        <v>420</v>
+      </c>
+      <c r="R25" t="s">
+        <v>106</v>
+      </c>
+      <c r="T25" t="s">
+        <v>295</v>
+      </c>
+      <c r="V25" t="s">
         <v>287</v>
       </c>
-      <c r="D25" t="s">
-        <v>414</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="W25" t="s">
         <v>288</v>
       </c>
-      <c r="G25" t="s">
-        <v>293</v>
-      </c>
-      <c r="H25" t="s">
-        <v>296</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="J25" t="s">
-        <v>294</v>
-      </c>
-      <c r="K25" t="s">
-        <v>412</v>
-      </c>
-      <c r="L25" t="s">
-        <v>425</v>
-      </c>
-      <c r="M25" t="s">
-        <v>422</v>
-      </c>
-      <c r="T25" t="s">
-        <v>297</v>
-      </c>
-      <c r="V25" t="s">
-        <v>289</v>
-      </c>
-      <c r="W25" t="s">
-        <v>290</v>
-      </c>
       <c r="X25" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="Y25" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AA25" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE25" t="s">
         <v>159</v>
       </c>
-      <c r="AB25" t="s">
-        <v>160</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>161</v>
-      </c>
       <c r="AF25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AG25" t="s">
         <v>61</v>
@@ -5363,192 +5363,192 @@
     </row>
     <row r="26" spans="1:75">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E26" t="s">
         <v>23</v>
       </c>
       <c r="F26" t="s">
+        <v>223</v>
+      </c>
+      <c r="G26" t="s">
+        <v>224</v>
+      </c>
+      <c r="H26" t="s">
         <v>225</v>
       </c>
-      <c r="G26" t="s">
+      <c r="I26" t="s">
         <v>226</v>
       </c>
-      <c r="H26" t="s">
-        <v>227</v>
-      </c>
-      <c r="I26" t="s">
-        <v>228</v>
-      </c>
       <c r="K26" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="L26" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M26" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="P26">
         <v>-9999</v>
       </c>
       <c r="R26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="T26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="V26" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="W26" t="s">
+        <v>227</v>
+      </c>
+      <c r="X26" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>204</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>228</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>209</v>
+      </c>
+      <c r="AQ26" t="s">
         <v>229</v>
       </c>
-      <c r="X26" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>203</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>204</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>205</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>206</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>207</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>162</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>208</v>
-      </c>
-      <c r="AL26" t="s">
-        <v>209</v>
-      </c>
-      <c r="AM26" t="s">
-        <v>230</v>
-      </c>
-      <c r="AN26" t="s">
+      <c r="AR26" t="s">
         <v>211</v>
       </c>
-      <c r="AQ26" t="s">
-        <v>231</v>
-      </c>
-      <c r="AR26" t="s">
+      <c r="AT26" t="s">
+        <v>212</v>
+      </c>
+      <c r="AY26" t="s">
         <v>213</v>
       </c>
-      <c r="AT26" t="s">
+      <c r="BA26" t="s">
         <v>214</v>
       </c>
-      <c r="AY26" t="s">
+      <c r="BB26" t="s">
         <v>215</v>
       </c>
-      <c r="BA26" t="s">
+      <c r="BC26" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>175</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>176</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>123</v>
+      </c>
+      <c r="BH26" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>177</v>
+      </c>
+      <c r="BO26" t="s">
         <v>216</v>
       </c>
-      <c r="BB26" t="s">
-        <v>217</v>
-      </c>
-      <c r="BC26" t="s">
-        <v>176</v>
-      </c>
-      <c r="BD26" t="s">
-        <v>78</v>
-      </c>
-      <c r="BE26" t="s">
-        <v>177</v>
-      </c>
-      <c r="BF26" t="s">
-        <v>178</v>
-      </c>
-      <c r="BG26" t="s">
-        <v>125</v>
-      </c>
-      <c r="BH26" t="s">
-        <v>126</v>
-      </c>
-      <c r="BJ26" t="s">
-        <v>179</v>
-      </c>
-      <c r="BO26" t="s">
-        <v>218</v>
-      </c>
       <c r="BP26" t="s">
+        <v>181</v>
+      </c>
+      <c r="BQ26" t="s">
+        <v>182</v>
+      </c>
+      <c r="BR26" t="s">
         <v>183</v>
       </c>
-      <c r="BQ26" t="s">
-        <v>184</v>
-      </c>
-      <c r="BR26" t="s">
-        <v>185</v>
-      </c>
       <c r="BU26" t="s">
+        <v>94</v>
+      </c>
+      <c r="BV26" t="s">
         <v>95</v>
-      </c>
-      <c r="BV26" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:75">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B27" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D27" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E27" t="s">
         <v>24</v>
       </c>
       <c r="F27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G27" t="s">
+        <v>191</v>
+      </c>
+      <c r="H27" t="s">
+        <v>192</v>
+      </c>
+      <c r="I27" t="s">
         <v>193</v>
       </c>
-      <c r="H27" t="s">
+      <c r="J27" t="s">
         <v>194</v>
       </c>
-      <c r="I27" t="s">
-        <v>195</v>
-      </c>
-      <c r="J27" t="s">
-        <v>196</v>
-      </c>
       <c r="K27" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="L27" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M27" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="O27">
         <v>-9999</v>
@@ -5557,135 +5557,135 @@
         <v>-8888</v>
       </c>
       <c r="R27" t="s">
+        <v>195</v>
+      </c>
+      <c r="T27" t="s">
+        <v>196</v>
+      </c>
+      <c r="V27" t="s">
         <v>197</v>
       </c>
-      <c r="T27" t="s">
+      <c r="W27" t="s">
         <v>198</v>
       </c>
-      <c r="V27" t="s">
+      <c r="X27" t="s">
         <v>199</v>
       </c>
-      <c r="W27" t="s">
+      <c r="Y27" t="s">
         <v>200</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Z27" t="s">
         <v>201</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="AA27" t="s">
         <v>202</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AB27" t="s">
         <v>203</v>
       </c>
-      <c r="AA27" t="s">
+      <c r="AC27" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD27" t="s">
         <v>204</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AE27" t="s">
         <v>205</v>
       </c>
-      <c r="AC27" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD27" t="s">
+      <c r="AF27" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ27" t="s">
         <v>206</v>
       </c>
-      <c r="AE27" t="s">
-        <v>207</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>162</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>208</v>
-      </c>
       <c r="AN27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AT27" t="s">
+        <v>212</v>
+      </c>
+      <c r="AY27" t="s">
+        <v>213</v>
+      </c>
+      <c r="BA27" t="s">
         <v>214</v>
       </c>
-      <c r="AY27" t="s">
+      <c r="BB27" t="s">
         <v>215</v>
       </c>
-      <c r="BA27" t="s">
-        <v>216</v>
-      </c>
-      <c r="BB27" t="s">
+      <c r="BC27" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>175</v>
+      </c>
+      <c r="BF27" t="s">
+        <v>176</v>
+      </c>
+      <c r="BJ27" t="s">
+        <v>177</v>
+      </c>
+      <c r="BP27" t="s">
+        <v>181</v>
+      </c>
+      <c r="BQ27" t="s">
+        <v>182</v>
+      </c>
+      <c r="BR27" t="s">
+        <v>183</v>
+      </c>
+      <c r="BU27" t="s">
+        <v>94</v>
+      </c>
+      <c r="BV27" t="s">
+        <v>95</v>
+      </c>
+      <c r="BW27" t="s">
         <v>217</v>
-      </c>
-      <c r="BC27" t="s">
-        <v>176</v>
-      </c>
-      <c r="BD27" t="s">
-        <v>78</v>
-      </c>
-      <c r="BE27" t="s">
-        <v>177</v>
-      </c>
-      <c r="BF27" t="s">
-        <v>178</v>
-      </c>
-      <c r="BJ27" t="s">
-        <v>179</v>
-      </c>
-      <c r="BP27" t="s">
-        <v>183</v>
-      </c>
-      <c r="BQ27" t="s">
-        <v>184</v>
-      </c>
-      <c r="BR27" t="s">
-        <v>185</v>
-      </c>
-      <c r="BU27" t="s">
-        <v>95</v>
-      </c>
-      <c r="BV27" t="s">
-        <v>96</v>
-      </c>
-      <c r="BW27" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:75">
       <c r="A28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E28" s="2">
         <v>325020190403</v>
       </c>
       <c r="F28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G28" t="s">
+        <v>191</v>
+      </c>
+      <c r="H28" t="s">
+        <v>192</v>
+      </c>
+      <c r="I28" t="s">
         <v>193</v>
       </c>
-      <c r="H28" t="s">
+      <c r="J28" t="s">
         <v>194</v>
       </c>
-      <c r="I28" t="s">
-        <v>195</v>
-      </c>
-      <c r="J28" t="s">
-        <v>196</v>
-      </c>
       <c r="K28" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="L28" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="O28">
         <v>-9999</v>
@@ -5694,1410 +5694,1401 @@
         <v>-8888</v>
       </c>
       <c r="R28" t="s">
+        <v>195</v>
+      </c>
+      <c r="T28" t="s">
+        <v>196</v>
+      </c>
+      <c r="V28" t="s">
         <v>197</v>
       </c>
-      <c r="T28" t="s">
+      <c r="W28" t="s">
         <v>198</v>
       </c>
-      <c r="V28" t="s">
+      <c r="X28" t="s">
         <v>199</v>
       </c>
-      <c r="W28" t="s">
+      <c r="Y28" t="s">
         <v>200</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Z28" t="s">
         <v>201</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="AA28" t="s">
         <v>202</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="AB28" t="s">
         <v>203</v>
       </c>
-      <c r="AA28" t="s">
+      <c r="AC28" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD28" t="s">
         <v>204</v>
       </c>
-      <c r="AB28" t="s">
+      <c r="AE28" t="s">
         <v>205</v>
       </c>
-      <c r="AC28" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD28" t="s">
+      <c r="AF28" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ28" t="s">
         <v>206</v>
       </c>
-      <c r="AE28" t="s">
-        <v>207</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>162</v>
-      </c>
-      <c r="AJ28" t="s">
+      <c r="AM28" t="s">
         <v>208</v>
       </c>
-      <c r="AM28" t="s">
+      <c r="AN28" t="s">
+        <v>209</v>
+      </c>
+      <c r="AQ28" t="s">
         <v>210</v>
       </c>
-      <c r="AN28" t="s">
-        <v>211</v>
-      </c>
-      <c r="AQ28" t="s">
+      <c r="AT28" t="s">
         <v>212</v>
       </c>
-      <c r="AT28" t="s">
+      <c r="AY28" t="s">
+        <v>213</v>
+      </c>
+      <c r="BA28" t="s">
         <v>214</v>
       </c>
-      <c r="AY28" t="s">
+      <c r="BB28" t="s">
         <v>215</v>
       </c>
-      <c r="BA28" t="s">
+      <c r="BC28" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD28" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE28" t="s">
+        <v>175</v>
+      </c>
+      <c r="BF28" t="s">
+        <v>176</v>
+      </c>
+      <c r="BG28" t="s">
+        <v>123</v>
+      </c>
+      <c r="BH28" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ28" t="s">
+        <v>177</v>
+      </c>
+      <c r="BO28" t="s">
         <v>216</v>
       </c>
-      <c r="BB28" t="s">
-        <v>217</v>
-      </c>
-      <c r="BC28" t="s">
-        <v>176</v>
-      </c>
-      <c r="BD28" t="s">
-        <v>78</v>
-      </c>
-      <c r="BE28" t="s">
-        <v>177</v>
-      </c>
-      <c r="BF28" t="s">
-        <v>178</v>
-      </c>
-      <c r="BG28" t="s">
-        <v>125</v>
-      </c>
-      <c r="BH28" t="s">
-        <v>126</v>
-      </c>
-      <c r="BJ28" t="s">
-        <v>179</v>
-      </c>
-      <c r="BO28" t="s">
-        <v>218</v>
-      </c>
       <c r="BP28" t="s">
+        <v>181</v>
+      </c>
+      <c r="BQ28" t="s">
+        <v>182</v>
+      </c>
+      <c r="BR28" t="s">
         <v>183</v>
       </c>
-      <c r="BQ28" t="s">
-        <v>184</v>
-      </c>
-      <c r="BR28" t="s">
-        <v>185</v>
-      </c>
       <c r="BU28" t="s">
+        <v>94</v>
+      </c>
+      <c r="BV28" t="s">
         <v>95</v>
-      </c>
-      <c r="BV28" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:75">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B29" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D29" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G29" t="s">
+        <v>303</v>
+      </c>
+      <c r="H29" t="s">
+        <v>304</v>
+      </c>
+      <c r="I29" t="s">
         <v>305</v>
       </c>
-      <c r="H29" t="s">
-        <v>306</v>
-      </c>
-      <c r="I29" t="s">
-        <v>307</v>
-      </c>
       <c r="K29" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="M29" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="R29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T29" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="V29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="X29" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB29" t="s">
         <v>274</v>
       </c>
-      <c r="AA29" t="s">
+      <c r="AC29" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG29" t="s">
         <v>275</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>276</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>207</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:75">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B30" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D30" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H30" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I30" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="M30" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="R30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T30" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="V30" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="X30" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB30" t="s">
         <v>274</v>
       </c>
-      <c r="AA30" t="s">
+      <c r="AC30" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG30" t="s">
         <v>275</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>276</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>207</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:75" ht="15.5">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B31" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G31" t="s">
+        <v>310</v>
+      </c>
+      <c r="H31" t="s">
+        <v>311</v>
+      </c>
+      <c r="I31" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="H31" t="s">
-        <v>313</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>314</v>
-      </c>
       <c r="J31" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="M31" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="R31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T31" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="V31" t="s">
-        <v>199</v>
-      </c>
-      <c r="X31" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB31" t="s">
         <v>274</v>
       </c>
-      <c r="AA31" t="s">
+      <c r="AC31" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG31" t="s">
         <v>275</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>276</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>207</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:75" ht="15.5">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B32" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G32" t="s">
+        <v>310</v>
+      </c>
+      <c r="H32" t="s">
+        <v>311</v>
+      </c>
+      <c r="I32" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="H32" t="s">
+      <c r="J32" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="I32" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>315</v>
-      </c>
       <c r="K32" s="8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="M32" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="R32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T32" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="V32" t="s">
-        <v>199</v>
-      </c>
-      <c r="X32" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB32" t="s">
         <v>274</v>
       </c>
-      <c r="AA32" t="s">
+      <c r="AC32" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG32" t="s">
         <v>275</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>276</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>207</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:74">
       <c r="A33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B33" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G33" t="s">
+        <v>314</v>
+      </c>
+      <c r="H33" t="s">
         <v>316</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="J33" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="M33" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="R33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="V33" t="s">
-        <v>199</v>
-      </c>
-      <c r="X33" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB33" t="s">
         <v>274</v>
       </c>
-      <c r="AA33" t="s">
+      <c r="AC33" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG33" t="s">
         <v>275</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>276</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>207</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:74">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B34" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D34" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G34" t="s">
+        <v>314</v>
+      </c>
+      <c r="H34" t="s">
         <v>316</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="J34" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="M34" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="R34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="V34" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="X34" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB34" t="s">
         <v>274</v>
       </c>
-      <c r="AA34" t="s">
+      <c r="AC34" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG34" t="s">
         <v>275</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>276</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>207</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="35" spans="1:74" ht="15.5">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B35" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D35" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G35" t="s">
+        <v>321</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="H35" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="I35" s="4" t="s">
+      <c r="J35" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M35" t="s">
         <v>325</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="M35" t="s">
-        <v>327</v>
-      </c>
       <c r="R35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T35" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="V35" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AA35" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG35" t="s">
         <v>275</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>276</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>207</v>
-      </c>
-      <c r="AF35" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="36" spans="1:74" ht="15.5">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B36" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D36" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G36" t="s">
+        <v>321</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="I36" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="H36" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="I36" s="4" t="s">
+      <c r="J36" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M36" t="s">
         <v>325</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="M36" t="s">
-        <v>327</v>
-      </c>
       <c r="R36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T36" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="V36" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AA36" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG36" t="s">
         <v>275</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>276</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>207</v>
-      </c>
-      <c r="AF36" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG36" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="37" spans="1:74" ht="15.5">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B37" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D37" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G37" t="s">
+        <v>321</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="I37" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="H37" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="I37" s="4" t="s">
+      <c r="J37" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M37" t="s">
         <v>325</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="M37" t="s">
-        <v>327</v>
-      </c>
       <c r="R37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T37" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="V37" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AA37" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG37" t="s">
         <v>275</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>276</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>207</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:74" ht="15.5">
       <c r="A38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B38" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D38" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G38" t="s">
+        <v>321</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="J38" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="K38" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M38" t="s">
         <v>325</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="M38" t="s">
-        <v>327</v>
-      </c>
       <c r="R38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T38" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="V38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AA38" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG38" t="s">
         <v>275</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>276</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>207</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:74" ht="15.5">
       <c r="A39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B39" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D39" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G39" t="s">
+        <v>321</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="I39" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="H39" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="I39" s="4" t="s">
+      <c r="J39" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M39" t="s">
         <v>325</v>
       </c>
-      <c r="J39" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="M39" t="s">
-        <v>327</v>
-      </c>
       <c r="R39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T39" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="V39" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AA39" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG39" t="s">
         <v>275</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>276</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>207</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG39" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="40" spans="1:74" ht="15.5">
       <c r="A40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B40" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D40" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G40" t="s">
+        <v>321</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="I40" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="H40" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="I40" s="4" t="s">
+      <c r="J40" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M40" t="s">
         <v>325</v>
       </c>
-      <c r="J40" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="M40" t="s">
-        <v>327</v>
-      </c>
       <c r="R40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T40" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="V40" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AA40" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG40" t="s">
         <v>275</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>276</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>207</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG40" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:74" ht="15.5">
       <c r="A41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B41" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D41" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G41" t="s">
+        <v>321</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="I41" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="H41" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="I41" s="4" t="s">
+      <c r="J41" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M41" t="s">
         <v>325</v>
       </c>
-      <c r="J41" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="K41" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="M41" t="s">
-        <v>327</v>
-      </c>
       <c r="R41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T41" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="V41" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AA41" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG41" t="s">
         <v>275</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>276</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>207</v>
-      </c>
-      <c r="AF41" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG41" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="42" spans="1:74" ht="15.5">
       <c r="A42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B42" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D42" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G42" t="s">
+        <v>321</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="I42" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="H42" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="I42" s="4" t="s">
+      <c r="J42" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M42" t="s">
         <v>325</v>
       </c>
-      <c r="J42" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="K42" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="M42" t="s">
-        <v>327</v>
-      </c>
       <c r="R42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T42" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="V42" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AA42" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG42" t="s">
         <v>275</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>276</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE42" t="s">
-        <v>207</v>
-      </c>
-      <c r="AF42" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG42" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:74" ht="15.5">
       <c r="A43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B43" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D43" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G43" t="s">
+        <v>332</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M43" t="s">
         <v>334</v>
       </c>
-      <c r="H43" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="M43" t="s">
-        <v>336</v>
-      </c>
       <c r="R43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T43" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="V43" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="X43" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB43" t="s">
         <v>274</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AC43" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG43" t="s">
         <v>275</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>276</v>
-      </c>
-      <c r="AC43" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE43" t="s">
-        <v>207</v>
-      </c>
-      <c r="AF43" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG43" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="44" spans="1:74" ht="15.5">
       <c r="A44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B44" t="s">
+        <v>270</v>
+      </c>
+      <c r="C44" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" t="s">
+        <v>252</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F44" t="s">
+        <v>101</v>
+      </c>
+      <c r="G44" t="s">
+        <v>332</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M44" t="s">
+        <v>334</v>
+      </c>
+      <c r="R44" t="s">
+        <v>106</v>
+      </c>
+      <c r="T44" t="s">
+        <v>196</v>
+      </c>
+      <c r="V44" t="s">
+        <v>197</v>
+      </c>
+      <c r="X44" t="s">
         <v>272</v>
       </c>
-      <c r="C44" t="s">
-        <v>100</v>
-      </c>
-      <c r="D44" t="s">
-        <v>254</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F44" t="s">
-        <v>102</v>
-      </c>
-      <c r="G44" t="s">
-        <v>334</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="K44" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="M44" t="s">
-        <v>336</v>
-      </c>
-      <c r="R44" t="s">
-        <v>107</v>
-      </c>
-      <c r="T44" t="s">
-        <v>198</v>
-      </c>
-      <c r="V44" t="s">
-        <v>199</v>
-      </c>
-      <c r="X44" t="s">
+      <c r="AA44" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB44" t="s">
         <v>274</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="AC44" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG44" t="s">
         <v>275</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>276</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>207</v>
-      </c>
-      <c r="AF44" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG44" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="45" spans="1:74" ht="15.5">
       <c r="A45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B45" t="s">
+        <v>271</v>
+      </c>
+      <c r="C45" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" t="s">
+        <v>252</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F45" t="s">
+        <v>101</v>
+      </c>
+      <c r="G45" t="s">
+        <v>332</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M45" t="s">
+        <v>334</v>
+      </c>
+      <c r="R45" t="s">
+        <v>106</v>
+      </c>
+      <c r="T45" t="s">
+        <v>196</v>
+      </c>
+      <c r="V45" t="s">
+        <v>197</v>
+      </c>
+      <c r="X45" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA45" t="s">
         <v>273</v>
       </c>
-      <c r="C45" t="s">
-        <v>100</v>
-      </c>
-      <c r="D45" t="s">
-        <v>254</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F45" t="s">
-        <v>102</v>
-      </c>
-      <c r="G45" t="s">
-        <v>334</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="K45" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="M45" t="s">
-        <v>336</v>
-      </c>
-      <c r="R45" t="s">
-        <v>107</v>
-      </c>
-      <c r="T45" t="s">
-        <v>198</v>
-      </c>
-      <c r="V45" t="s">
-        <v>199</v>
-      </c>
-      <c r="X45" t="s">
+      <c r="AB45" t="s">
         <v>274</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AC45" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG45" t="s">
         <v>275</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>276</v>
-      </c>
-      <c r="AC45" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE45" t="s">
-        <v>207</v>
-      </c>
-      <c r="AF45" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG45" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="46" spans="1:74">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B46" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D46" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G46" t="s">
+        <v>300</v>
+      </c>
+      <c r="H46" t="s">
+        <v>298</v>
+      </c>
+      <c r="I46" t="s">
+        <v>301</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M46" t="s">
         <v>302</v>
       </c>
-      <c r="H46" t="s">
-        <v>300</v>
-      </c>
-      <c r="I46" t="s">
-        <v>303</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="M46" t="s">
-        <v>304</v>
-      </c>
       <c r="R46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T46" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="V46" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="X46" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB46" t="s">
         <v>274</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AC46" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG46" t="s">
         <v>275</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>276</v>
-      </c>
-      <c r="AC46" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE46" t="s">
-        <v>207</v>
-      </c>
-      <c r="AF46" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG46" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="47" spans="1:74">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B47" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D47" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G47" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H47" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J47" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M47" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="R47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T47" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="V47" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="W47" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AA47" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF47" t="s">
         <v>279</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AJ47" t="s">
         <v>280</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE47" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF47" t="s">
-        <v>281</v>
-      </c>
-      <c r="AJ47" t="s">
-        <v>282</v>
       </c>
       <c r="AL47" t="s">
         <v>60</v>
@@ -7109,177 +7100,177 @@
         <v>62</v>
       </c>
       <c r="AO47" t="s">
+        <v>281</v>
+      </c>
+      <c r="AP47" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR47" t="s">
+        <v>282</v>
+      </c>
+      <c r="AS47" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT47" t="s">
         <v>283</v>
       </c>
-      <c r="AP47" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ47" t="s">
-        <v>65</v>
-      </c>
-      <c r="AR47" t="s">
-        <v>284</v>
-      </c>
-      <c r="AS47" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT47" t="s">
-        <v>285</v>
-      </c>
       <c r="AU47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV47" t="s">
         <v>69</v>
       </c>
-      <c r="AV47" t="s">
+      <c r="AW47" t="s">
         <v>70</v>
       </c>
-      <c r="AW47" t="s">
+      <c r="AX47" t="s">
         <v>71</v>
       </c>
-      <c r="AX47" t="s">
+      <c r="AY47" t="s">
         <v>72</v>
       </c>
-      <c r="AY47" t="s">
+      <c r="AZ47" t="s">
         <v>73</v>
       </c>
-      <c r="AZ47" t="s">
+      <c r="BA47" t="s">
         <v>74</v>
       </c>
-      <c r="BA47" t="s">
+      <c r="BB47" t="s">
         <v>75</v>
       </c>
-      <c r="BB47" t="s">
+      <c r="BC47" t="s">
         <v>76</v>
       </c>
-      <c r="BC47" t="s">
+      <c r="BD47" t="s">
         <v>77</v>
       </c>
-      <c r="BD47" t="s">
+      <c r="BE47" t="s">
         <v>78</v>
       </c>
-      <c r="BE47" t="s">
+      <c r="BF47" t="s">
         <v>79</v>
       </c>
-      <c r="BF47" t="s">
+      <c r="BG47" t="s">
         <v>80</v>
       </c>
-      <c r="BG47" t="s">
+      <c r="BH47" t="s">
         <v>81</v>
       </c>
-      <c r="BH47" t="s">
+      <c r="BI47" t="s">
         <v>82</v>
       </c>
-      <c r="BI47" t="s">
+      <c r="BJ47" t="s">
         <v>83</v>
       </c>
-      <c r="BJ47" t="s">
+      <c r="BK47" t="s">
         <v>84</v>
       </c>
-      <c r="BK47" t="s">
+      <c r="BL47" t="s">
         <v>85</v>
       </c>
-      <c r="BL47" t="s">
+      <c r="BM47" t="s">
         <v>86</v>
       </c>
-      <c r="BM47" t="s">
+      <c r="BN47" t="s">
         <v>87</v>
       </c>
-      <c r="BN47" t="s">
+      <c r="BO47" t="s">
         <v>88</v>
       </c>
-      <c r="BO47" t="s">
+      <c r="BP47" t="s">
         <v>89</v>
       </c>
-      <c r="BP47" t="s">
+      <c r="BQ47" t="s">
         <v>90</v>
       </c>
-      <c r="BQ47" t="s">
+      <c r="BR47" t="s">
         <v>91</v>
       </c>
-      <c r="BR47" t="s">
+      <c r="BS47" t="s">
         <v>92</v>
       </c>
-      <c r="BS47" t="s">
+      <c r="BT47" t="s">
         <v>93</v>
       </c>
-      <c r="BT47" t="s">
+      <c r="BU47" t="s">
         <v>94</v>
       </c>
-      <c r="BU47" t="s">
+      <c r="BV47" t="s">
         <v>95</v>
-      </c>
-      <c r="BV47" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:74">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B48" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D48" t="s">
+        <v>412</v>
+      </c>
+      <c r="E48" t="s">
+        <v>342</v>
+      </c>
+      <c r="F48" t="s">
+        <v>101</v>
+      </c>
+      <c r="G48" t="s">
+        <v>289</v>
+      </c>
+      <c r="H48" t="s">
+        <v>290</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="J48" t="s">
+        <v>336</v>
+      </c>
+      <c r="K48" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="E48" t="s">
-        <v>344</v>
-      </c>
-      <c r="F48" t="s">
-        <v>102</v>
-      </c>
-      <c r="G48" t="s">
-        <v>291</v>
-      </c>
-      <c r="H48" t="s">
-        <v>292</v>
-      </c>
-      <c r="I48" s="4" t="s">
+      <c r="L48" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="M48" t="s">
         <v>339</v>
       </c>
-      <c r="J48" t="s">
-        <v>338</v>
-      </c>
-      <c r="K48" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="L48" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="M48" t="s">
-        <v>341</v>
-      </c>
       <c r="R48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T48" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="V48" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="W48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AA48" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF48" t="s">
         <v>279</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AJ48" t="s">
         <v>280</v>
-      </c>
-      <c r="AC48" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE48" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF48" t="s">
-        <v>281</v>
-      </c>
-      <c r="AJ48" t="s">
-        <v>282</v>
       </c>
       <c r="AL48" t="s">
         <v>60</v>
@@ -7291,394 +7282,397 @@
         <v>62</v>
       </c>
       <c r="AO48" t="s">
+        <v>281</v>
+      </c>
+      <c r="AP48" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR48" t="s">
+        <v>282</v>
+      </c>
+      <c r="AS48" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT48" t="s">
         <v>283</v>
       </c>
-      <c r="AP48" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ48" t="s">
-        <v>65</v>
-      </c>
-      <c r="AR48" t="s">
-        <v>284</v>
-      </c>
-      <c r="AS48" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT48" t="s">
-        <v>285</v>
-      </c>
       <c r="AU48" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV48" t="s">
         <v>69</v>
       </c>
-      <c r="AV48" t="s">
+      <c r="AW48" t="s">
         <v>70</v>
       </c>
-      <c r="AW48" t="s">
+      <c r="AX48" t="s">
         <v>71</v>
       </c>
-      <c r="AX48" t="s">
+      <c r="AY48" t="s">
         <v>72</v>
       </c>
-      <c r="AY48" t="s">
+      <c r="AZ48" t="s">
         <v>73</v>
       </c>
-      <c r="AZ48" t="s">
+      <c r="BA48" t="s">
         <v>74</v>
       </c>
-      <c r="BA48" t="s">
+      <c r="BB48" t="s">
         <v>75</v>
       </c>
-      <c r="BB48" t="s">
+      <c r="BC48" t="s">
         <v>76</v>
       </c>
-      <c r="BC48" t="s">
+      <c r="BD48" t="s">
         <v>77</v>
       </c>
-      <c r="BD48" t="s">
+      <c r="BE48" t="s">
         <v>78</v>
       </c>
-      <c r="BE48" t="s">
+      <c r="BF48" t="s">
         <v>79</v>
       </c>
-      <c r="BF48" t="s">
+      <c r="BG48" t="s">
         <v>80</v>
       </c>
-      <c r="BG48" t="s">
+      <c r="BH48" t="s">
         <v>81</v>
       </c>
-      <c r="BH48" t="s">
+      <c r="BI48" t="s">
         <v>82</v>
       </c>
-      <c r="BI48" t="s">
+      <c r="BJ48" t="s">
         <v>83</v>
       </c>
-      <c r="BJ48" t="s">
+      <c r="BK48" t="s">
         <v>84</v>
       </c>
-      <c r="BK48" t="s">
+      <c r="BL48" t="s">
         <v>85</v>
       </c>
-      <c r="BL48" t="s">
+      <c r="BM48" t="s">
         <v>86</v>
       </c>
-      <c r="BM48" t="s">
+      <c r="BN48" t="s">
         <v>87</v>
       </c>
-      <c r="BN48" t="s">
+      <c r="BO48" t="s">
         <v>88</v>
       </c>
-      <c r="BO48" t="s">
+      <c r="BP48" t="s">
         <v>89</v>
       </c>
-      <c r="BP48" t="s">
+      <c r="BQ48" t="s">
         <v>90</v>
       </c>
-      <c r="BQ48" t="s">
+      <c r="BR48" t="s">
         <v>91</v>
       </c>
-      <c r="BR48" t="s">
+      <c r="BS48" t="s">
         <v>92</v>
       </c>
-      <c r="BS48" t="s">
+      <c r="BT48" t="s">
         <v>93</v>
       </c>
-      <c r="BT48" t="s">
+      <c r="BU48" t="s">
         <v>94</v>
       </c>
-      <c r="BU48" t="s">
+      <c r="BV48" t="s">
         <v>95</v>
-      </c>
-      <c r="BV48" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:70">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B49" t="s">
+        <v>343</v>
+      </c>
+      <c r="C49" t="s">
+        <v>285</v>
+      </c>
+      <c r="D49" t="s">
+        <v>412</v>
+      </c>
+      <c r="E49" t="s">
+        <v>340</v>
+      </c>
+      <c r="F49" t="s">
+        <v>286</v>
+      </c>
+      <c r="G49" t="s">
+        <v>344</v>
+      </c>
+      <c r="H49" t="s">
         <v>345</v>
       </c>
-      <c r="C49" t="s">
+      <c r="I49" t="s">
+        <v>346</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K49" t="s">
+        <v>380</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>105</v>
+      </c>
+      <c r="R49" t="s">
+        <v>106</v>
+      </c>
+      <c r="V49" t="s">
         <v>287</v>
       </c>
-      <c r="D49" t="s">
-        <v>414</v>
-      </c>
-      <c r="E49" t="s">
-        <v>342</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="W49" t="s">
         <v>288</v>
       </c>
-      <c r="G49" t="s">
-        <v>346</v>
-      </c>
-      <c r="H49" t="s">
-        <v>347</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="X49" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>288</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL49" t="s">
         <v>348</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="K49" t="s">
-        <v>382</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="M49" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="R49" t="s">
-        <v>107</v>
-      </c>
-      <c r="V49" t="s">
-        <v>289</v>
-      </c>
-      <c r="W49" t="s">
-        <v>290</v>
-      </c>
-      <c r="X49" t="s">
-        <v>289</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>290</v>
-      </c>
-      <c r="AA49" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB49" t="s">
-        <v>160</v>
-      </c>
-      <c r="AC49" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE49" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF49" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL49" t="s">
-        <v>350</v>
       </c>
       <c r="AM49" t="s">
         <v>61</v>
       </c>
       <c r="AQ49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AR49" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="BA49" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="BB49" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="BC49" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD49" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF49" t="s">
         <v>176</v>
       </c>
-      <c r="BD49" t="s">
-        <v>78</v>
-      </c>
-      <c r="BF49" t="s">
-        <v>178</v>
-      </c>
       <c r="BH49" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:70">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B50" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C50" t="s">
+        <v>285</v>
+      </c>
+      <c r="D50" t="s">
+        <v>412</v>
+      </c>
+      <c r="E50" t="s">
+        <v>341</v>
+      </c>
+      <c r="F50" t="s">
+        <v>286</v>
+      </c>
+      <c r="G50" t="s">
+        <v>355</v>
+      </c>
+      <c r="H50" t="s">
+        <v>225</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="L50" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="M50" t="s">
+        <v>339</v>
+      </c>
+      <c r="R50" t="s">
+        <v>106</v>
+      </c>
+      <c r="T50" t="s">
+        <v>295</v>
+      </c>
+      <c r="V50" t="s">
         <v>287</v>
       </c>
-      <c r="D50" t="s">
-        <v>414</v>
-      </c>
-      <c r="E50" t="s">
-        <v>343</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="W50" t="s">
         <v>288</v>
       </c>
-      <c r="G50" t="s">
-        <v>357</v>
-      </c>
-      <c r="H50" t="s">
-        <v>227</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="L50" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="M50" t="s">
-        <v>341</v>
-      </c>
-      <c r="R50" t="s">
-        <v>107</v>
-      </c>
-      <c r="T50" t="s">
-        <v>297</v>
-      </c>
-      <c r="V50" t="s">
-        <v>289</v>
-      </c>
-      <c r="W50" t="s">
-        <v>290</v>
-      </c>
       <c r="X50" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="Y50" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AA50" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE50" t="s">
         <v>159</v>
       </c>
-      <c r="AB50" t="s">
-        <v>160</v>
-      </c>
-      <c r="AC50" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE50" t="s">
-        <v>161</v>
-      </c>
       <c r="AF50" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AL50" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AM50" t="s">
         <v>61</v>
       </c>
       <c r="AO50" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AP50" t="s">
+        <v>360</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU50" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX50" t="s">
+        <v>359</v>
+      </c>
+      <c r="AY50" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA50" t="s">
+        <v>214</v>
+      </c>
+      <c r="BB50" t="s">
+        <v>215</v>
+      </c>
+      <c r="BF50" t="s">
+        <v>176</v>
+      </c>
+      <c r="BL50" t="s">
         <v>362</v>
       </c>
-      <c r="AQ50" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU50" t="s">
-        <v>69</v>
-      </c>
-      <c r="AX50" t="s">
-        <v>361</v>
-      </c>
-      <c r="AY50" t="s">
-        <v>73</v>
-      </c>
-      <c r="BA50" t="s">
-        <v>216</v>
-      </c>
-      <c r="BB50" t="s">
-        <v>217</v>
-      </c>
-      <c r="BF50" t="s">
-        <v>178</v>
-      </c>
-      <c r="BL50" t="s">
-        <v>364</v>
-      </c>
       <c r="BQ50" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="BR50" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:70">
       <c r="A51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B51" t="s">
+        <v>351</v>
+      </c>
+      <c r="C51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D51" t="s">
+        <v>412</v>
+      </c>
+      <c r="E51" t="s">
+        <v>341</v>
+      </c>
+      <c r="F51" t="s">
+        <v>286</v>
+      </c>
+      <c r="G51" t="s">
+        <v>352</v>
+      </c>
+      <c r="J51" t="s">
         <v>353</v>
       </c>
-      <c r="C51" t="s">
+      <c r="K51" t="s">
+        <v>382</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="M51" t="s">
+        <v>418</v>
+      </c>
+      <c r="R51" t="s">
+        <v>106</v>
+      </c>
+      <c r="V51" t="s">
         <v>287</v>
       </c>
-      <c r="D51" t="s">
-        <v>414</v>
-      </c>
-      <c r="E51" t="s">
-        <v>343</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="W51" t="s">
         <v>288</v>
       </c>
-      <c r="G51" t="s">
-        <v>354</v>
-      </c>
-      <c r="J51" t="s">
-        <v>355</v>
-      </c>
-      <c r="K51" t="s">
-        <v>384</v>
-      </c>
-      <c r="L51" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="M51" t="s">
-        <v>420</v>
-      </c>
-      <c r="R51" t="s">
-        <v>107</v>
-      </c>
-      <c r="V51" t="s">
-        <v>289</v>
-      </c>
-      <c r="W51" t="s">
-        <v>290</v>
-      </c>
       <c r="X51" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="Y51" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AA51" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE51" t="s">
         <v>159</v>
       </c>
-      <c r="AB51" t="s">
-        <v>160</v>
-      </c>
-      <c r="AC51" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE51" t="s">
-        <v>161</v>
-      </c>
       <c r="AF51" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AG51" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AH51" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
